--- a/docs/src/reference/data-dictionaries/C_Dict.xlsx
+++ b/docs/src/reference/data-dictionaries/C_Dict.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC181"/>
+  <dimension ref="A1:AC198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3082,12 +3082,12 @@
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>Vera Institute of Justice 2017</t>
+          <t>Vera Institute of Justice 2025</t>
         </is>
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>Vera Institute of Justice, 2017</t>
+          <t>Vera Institute of Justice, 2025</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr"/>
@@ -3145,12 +3145,12 @@
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>Vera Institute of Justice 2017</t>
+          <t>Vera Institute of Justice 2025</t>
         </is>
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>Vera Institute of Justice, 2017</t>
+          <t>Vera Institute of Justice, 2025</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr"/>
@@ -3208,12 +3208,12 @@
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>Vera Institute of Justice 2017</t>
+          <t>Vera Institute of Justice 2025</t>
         </is>
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>Vera Institute of Justice, 2017</t>
+          <t>Vera Institute of Justice, 2025</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr"/>
@@ -3271,12 +3271,12 @@
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>Vera Institute of Justice 2017</t>
+          <t>Vera Institute of Justice 2025</t>
         </is>
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>Vera Institute of Justice, 2017</t>
+          <t>Vera Institute of Justice, 2025</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr"/>
@@ -3334,12 +3334,12 @@
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>Vera Institute of Justice 2017</t>
+          <t>Vera Institute of Justice 2025</t>
         </is>
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>Vera Institute of Justice, 2017</t>
+          <t>Vera Institute of Justice, 2025</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr"/>
@@ -3397,12 +3397,12 @@
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>Vera Institute of Justice 2017</t>
+          <t>Vera Institute of Justice 2025</t>
         </is>
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>Vera Institute of Justice, 2017</t>
+          <t>Vera Institute of Justice, 2025</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr"/>
@@ -3460,12 +3460,12 @@
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>Vera Institute of Justice 2016</t>
+          <t>Vera Institute of Justice 2025</t>
         </is>
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>Vera Institute of Justice, 2016</t>
+          <t>Vera Institute of Justice, 2025</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr"/>
@@ -3523,12 +3523,12 @@
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>Vera Institute of Justice 2016</t>
+          <t>Vera Institute of Justice 2025</t>
         </is>
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>Vera Institute of Justice, 2016</t>
+          <t>Vera Institute of Justice, 2025</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr"/>
@@ -3586,12 +3586,12 @@
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>Vera Institute of Justice 2016</t>
+          <t>Vera Institute of Justice 2025</t>
         </is>
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>Vera Institute of Justice, 2016</t>
+          <t>Vera Institute of Justice, 2025</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr"/>
@@ -3649,12 +3649,12 @@
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>Vera Institute of Justice 2016</t>
+          <t>Vera Institute of Justice 2025</t>
         </is>
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>Vera Institute of Justice, 2016</t>
+          <t>Vera Institute of Justice, 2025</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr"/>
@@ -7446,67 +7446,55 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Veteran Population</t>
+          <t>Smoking</t>
         </is>
       </c>
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr"/>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="inlineStr"/>
-      <c r="N92" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N92" t="inlineStr"/>
       <c r="O92" t="inlineStr"/>
       <c r="P92" t="inlineStr"/>
-      <c r="Q92" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="R92" t="inlineStr"/>
+      <c r="Q92" t="inlineStr"/>
+      <c r="R92" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="S92" t="inlineStr"/>
       <c r="T92" t="inlineStr"/>
       <c r="U92" t="inlineStr">
         <is>
-          <t>TotVetPop</t>
+          <t>SmokeP</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>Total Veteran Population</t>
+          <t>Percentage of Smoking Population</t>
         </is>
       </c>
       <c r="W92" t="inlineStr"/>
       <c r="X92" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Veteran_Population.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Smoking_Population.md</t>
         </is>
       </c>
       <c r="Y92" t="inlineStr">
         <is>
-          <t>ACS 2018, 2023; Census 2010, 2020</t>
+          <t>County Health Rankings &amp; Roadmaps (CHR&amp;R), 2025</t>
         </is>
       </c>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates; 2010 &amp; 2020 Decennial Census</t>
+          <t>County Health Rankings &amp; Roadmaps (CHR&amp;R), 2025</t>
         </is>
       </c>
       <c r="AA92" t="inlineStr"/>
@@ -7560,12 +7548,12 @@
       <c r="T93" t="inlineStr"/>
       <c r="U93" t="inlineStr">
         <is>
-          <t>VetP</t>
+          <t>TotVetPop</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>% Veteran Population</t>
+          <t>Total Veteran Population</t>
         </is>
       </c>
       <c r="W93" t="inlineStr"/>
@@ -7591,18 +7579,22 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Environment</t>
+          <t>Social</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Alcohol Outlet Density Measures</t>
+          <t>Veteran Population</t>
         </is>
       </c>
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr"/>
-      <c r="F94" t="inlineStr"/>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
@@ -7614,37 +7606,45 @@
         </is>
       </c>
       <c r="M94" t="inlineStr"/>
-      <c r="N94" t="inlineStr"/>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O94" t="inlineStr"/>
       <c r="P94" t="inlineStr"/>
-      <c r="Q94" t="inlineStr"/>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R94" t="inlineStr"/>
       <c r="S94" t="inlineStr"/>
       <c r="T94" t="inlineStr"/>
       <c r="U94" t="inlineStr">
         <is>
-          <t>AlcDens</t>
+          <t>VetP</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>Alcohol Outlets Density</t>
+          <t>% Veteran Population</t>
         </is>
       </c>
       <c r="W94" t="inlineStr"/>
       <c r="X94" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Alcohol_Outlet_Density.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Veteran_Population.md</t>
         </is>
       </c>
       <c r="Y94" t="inlineStr">
         <is>
-          <t xml:space="preserve">InfoGroup 2018 </t>
+          <t>ACS 2018, 2023; Census 2010, 2020</t>
         </is>
       </c>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>InfoGroup's 2018 Business and Consumer Historical Datafile</t>
+          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates; 2010 &amp; 2020 Decennial Census</t>
         </is>
       </c>
       <c r="AA94" t="inlineStr"/>
@@ -7686,12 +7686,12 @@
       <c r="T95" t="inlineStr"/>
       <c r="U95" t="inlineStr">
         <is>
-          <t>AlcPerCap</t>
+          <t>AlcDens</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>Alcohol Outlets per Capita</t>
+          <t>Alcohol Outlets Density</t>
         </is>
       </c>
       <c r="W95" t="inlineStr"/>
@@ -7749,12 +7749,12 @@
       <c r="T96" t="inlineStr"/>
       <c r="U96" t="inlineStr">
         <is>
-          <t>AlcTot</t>
+          <t>AlcPerCap</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>Total Alcohol Outlets</t>
+          <t>Alcohol Outlets per Capita</t>
         </is>
       </c>
       <c r="W96" t="inlineStr"/>
@@ -7812,12 +7812,12 @@
       <c r="T97" t="inlineStr"/>
       <c r="U97" t="inlineStr">
         <is>
-          <t>AreaSqMi</t>
+          <t>AlcTot</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>Land Area (Square Miles)</t>
+          <t>Total Alcohol Outlets</t>
         </is>
       </c>
       <c r="W97" t="inlineStr"/>
@@ -7848,7 +7848,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Greenspace Measures</t>
+          <t>Alcohol Outlet Density Measures</t>
         </is>
       </c>
       <c r="C98" t="inlineStr"/>
@@ -7875,28 +7875,28 @@
       <c r="T98" t="inlineStr"/>
       <c r="U98" t="inlineStr">
         <is>
-          <t>Ndvi</t>
+          <t>AreaSqMi</t>
         </is>
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>NDVI Average</t>
+          <t>Land Area (Square Miles)</t>
         </is>
       </c>
       <c r="W98" t="inlineStr"/>
       <c r="X98" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Greenspace_Measures.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Alcohol_Outlet_Density.md</t>
         </is>
       </c>
       <c r="Y98" t="inlineStr">
         <is>
-          <t>Tiger/Line 2018; Sentinel-2 MSI 2018; OSM</t>
+          <t xml:space="preserve">InfoGroup 2018 </t>
         </is>
       </c>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>Tiger/Line 2018 Shapefiles; Sentinel 2 MSI: MultiSpectral Instrument Level-1 C, 2018; OpenStreetMap Contributors</t>
+          <t>InfoGroup's 2018 Business and Consumer Historical Datafile</t>
         </is>
       </c>
       <c r="AA98" t="inlineStr"/>
@@ -7911,59 +7911,55 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Healthcare Provider Access</t>
+          <t>Greenspace Measures</t>
         </is>
       </c>
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr"/>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr"/>
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M99" t="inlineStr"/>
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr"/>
       <c r="P99" t="inlineStr"/>
       <c r="Q99" t="inlineStr"/>
       <c r="R99" t="inlineStr"/>
-      <c r="S99" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S99" t="inlineStr"/>
       <c r="T99" t="inlineStr"/>
       <c r="U99" t="inlineStr">
         <is>
-          <t>PcpPer100k</t>
+          <t>Ndvi</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>Primary Care Physicians (PCP) per 100k</t>
+          <t>NDVI Average</t>
         </is>
       </c>
       <c r="W99" t="inlineStr"/>
       <c r="X99" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Healthcare_Provider_Access.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Greenspace_Measures.md</t>
         </is>
       </c>
       <c r="Y99" t="inlineStr">
         <is>
-          <t>Dartmouth Atlas 2010</t>
+          <t>Tiger/Line 2018; Sentinel-2 MSI 2018; OSM</t>
         </is>
       </c>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>Dartmouth Atlas' Primary Care Service Area (PCSA) Project, 2010</t>
+          <t>Tiger/Line 2018 Shapefiles; Sentinel 2 MSI: MultiSpectral Instrument Level-1 C, 2018; OpenStreetMap Contributors</t>
         </is>
       </c>
       <c r="AA99" t="inlineStr"/>
@@ -8001,16 +7997,20 @@
       <c r="P100" t="inlineStr"/>
       <c r="Q100" t="inlineStr"/>
       <c r="R100" t="inlineStr"/>
-      <c r="S100" t="inlineStr"/>
+      <c r="S100" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T100" t="inlineStr"/>
       <c r="U100" t="inlineStr">
         <is>
-          <t>SpPer100k</t>
+          <t>PcpPer100k</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>Specialty Physicians per 100k</t>
+          <t>Primary Care Physicians (PCP) per 100k</t>
         </is>
       </c>
       <c r="W100" t="inlineStr"/>
@@ -8068,12 +8068,12 @@
       <c r="T101" t="inlineStr"/>
       <c r="U101" t="inlineStr">
         <is>
-          <t>TotPcp</t>
+          <t>SpPer100k</t>
         </is>
       </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t>Count of Primary Care Physicians (PCPs)</t>
+          <t>Specialty Physicians per 100k</t>
         </is>
       </c>
       <c r="W101" t="inlineStr"/>
@@ -8131,12 +8131,12 @@
       <c r="T102" t="inlineStr"/>
       <c r="U102" t="inlineStr">
         <is>
-          <t>TotSp</t>
+          <t>TotPcp</t>
         </is>
       </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>Count of Specialty Physicians</t>
+          <t>Count of Primary Care Physicians (PCPs)</t>
         </is>
       </c>
       <c r="W102" t="inlineStr"/>
@@ -8167,63 +8167,55 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t xml:space="preserve">Housing Characteristics </t>
+          <t>Healthcare Provider Access</t>
         </is>
       </c>
       <c r="C103" t="inlineStr"/>
       <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr"/>
-      <c r="F103" t="inlineStr"/>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="G103" t="inlineStr"/>
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="inlineStr"/>
-      <c r="N103" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N103" t="inlineStr"/>
       <c r="O103" t="inlineStr"/>
       <c r="P103" t="inlineStr"/>
-      <c r="Q103" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Q103" t="inlineStr"/>
       <c r="R103" t="inlineStr"/>
       <c r="S103" t="inlineStr"/>
       <c r="T103" t="inlineStr"/>
       <c r="U103" t="inlineStr">
         <is>
-          <t>LngTermP</t>
+          <t>TotSp</t>
         </is>
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>Long-Term Occupancy %</t>
+          <t>Count of Specialty Physicians</t>
         </is>
       </c>
       <c r="W103" t="inlineStr"/>
       <c r="X103" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Housing_Variables.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Healthcare_Provider_Access.md</t>
         </is>
       </c>
       <c r="Y103" t="inlineStr">
         <is>
-          <t>ACS 2012, 2018; Social Explorer 2010</t>
+          <t>Dartmouth Atlas 2010</t>
         </is>
       </c>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
+          <t>Dartmouth Atlas' Primary Care Service Area (PCSA) Project, 2010</t>
         </is>
       </c>
       <c r="AA103" t="inlineStr"/>
@@ -8273,12 +8265,12 @@
       <c r="T104" t="inlineStr"/>
       <c r="U104" t="inlineStr">
         <is>
-          <t>MobileP</t>
+          <t>LngTermP</t>
         </is>
       </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>Mobile Homes %</t>
+          <t>Long-Term Occupancy %</t>
         </is>
       </c>
       <c r="W104" t="inlineStr"/>
@@ -8344,12 +8336,12 @@
       <c r="T105" t="inlineStr"/>
       <c r="U105" t="inlineStr">
         <is>
-          <t>RentalP</t>
+          <t>MobileP</t>
         </is>
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>Rentals %</t>
+          <t>Mobile Homes %</t>
         </is>
       </c>
       <c r="W105" t="inlineStr"/>
@@ -8383,26 +8375,10 @@
           <t xml:space="preserve">Housing Characteristics </t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="C106" t="inlineStr"/>
+      <c r="D106" t="inlineStr"/>
+      <c r="E106" t="inlineStr"/>
+      <c r="F106" t="inlineStr"/>
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
@@ -8428,19 +8404,15 @@
       </c>
       <c r="R106" t="inlineStr"/>
       <c r="S106" t="inlineStr"/>
-      <c r="T106" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="T106" t="inlineStr"/>
       <c r="U106" t="inlineStr">
         <is>
-          <t>TotUnits</t>
+          <t>RentalP</t>
         </is>
       </c>
       <c r="V106" t="inlineStr">
         <is>
-          <t>Total Occupied Housing Units</t>
+          <t>Rentals %</t>
         </is>
       </c>
       <c r="W106" t="inlineStr"/>
@@ -8474,10 +8446,26 @@
           <t xml:space="preserve">Housing Characteristics </t>
         </is>
       </c>
-      <c r="C107" t="inlineStr"/>
-      <c r="D107" t="inlineStr"/>
-      <c r="E107" t="inlineStr"/>
-      <c r="F107" t="inlineStr"/>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="G107" t="inlineStr"/>
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
@@ -8503,15 +8491,19 @@
       </c>
       <c r="R107" t="inlineStr"/>
       <c r="S107" t="inlineStr"/>
-      <c r="T107" t="inlineStr"/>
+      <c r="T107" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="U107" t="inlineStr">
         <is>
-          <t>UnitDens</t>
+          <t>TotUnits</t>
         </is>
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>Housing Unit Density</t>
+          <t>Total Occupied Housing Units</t>
         </is>
       </c>
       <c r="W107" t="inlineStr"/>
@@ -8545,26 +8537,10 @@
           <t xml:space="preserve">Housing Characteristics </t>
         </is>
       </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="C108" t="inlineStr"/>
+      <c r="D108" t="inlineStr"/>
+      <c r="E108" t="inlineStr"/>
+      <c r="F108" t="inlineStr"/>
       <c r="G108" t="inlineStr"/>
       <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
@@ -8590,19 +8566,15 @@
       </c>
       <c r="R108" t="inlineStr"/>
       <c r="S108" t="inlineStr"/>
-      <c r="T108" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="T108" t="inlineStr"/>
       <c r="U108" t="inlineStr">
         <is>
-          <t>VacantP</t>
+          <t>UnitDens</t>
         </is>
       </c>
       <c r="V108" t="inlineStr">
         <is>
-          <t>Vacant Housing Units %</t>
+          <t>Housing Unit Density</t>
         </is>
       </c>
       <c r="W108" t="inlineStr"/>
@@ -8633,19 +8605,39 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Spatial Access to Hospitals</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr"/>
-      <c r="D109" t="inlineStr"/>
-      <c r="E109" t="inlineStr"/>
-      <c r="F109" t="inlineStr"/>
+          <t xml:space="preserve">Housing Characteristics </t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="G109" t="inlineStr"/>
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M109" t="inlineStr"/>
       <c r="N109" t="inlineStr">
         <is>
@@ -8654,34 +8646,42 @@
       </c>
       <c r="O109" t="inlineStr"/>
       <c r="P109" t="inlineStr"/>
-      <c r="Q109" t="inlineStr"/>
+      <c r="Q109" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R109" t="inlineStr"/>
       <c r="S109" t="inlineStr"/>
-      <c r="T109" t="inlineStr"/>
+      <c r="T109" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="U109" t="inlineStr">
         <is>
-          <t>HospAvTmDr</t>
+          <t>VacantP</t>
         </is>
       </c>
       <c r="V109" t="inlineStr">
         <is>
-          <t>Avg. Driving Time to nearest Hospital</t>
+          <t>Vacant Housing Units %</t>
         </is>
       </c>
       <c r="W109" t="inlineStr"/>
       <c r="X109" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Hospitals.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Housing_Variables.md</t>
         </is>
       </c>
       <c r="Y109" t="inlineStr">
         <is>
-          <t>CovidCareMap 2020</t>
+          <t>ACS 2012, 2018; Social Explorer 2010</t>
         </is>
       </c>
       <c r="Z109" t="inlineStr">
         <is>
-          <t>CovidCareMap, 2020</t>
+          <t>American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
         </is>
       </c>
       <c r="AA109" t="inlineStr"/>
@@ -8718,17 +8718,21 @@
       <c r="O110" t="inlineStr"/>
       <c r="P110" t="inlineStr"/>
       <c r="Q110" t="inlineStr"/>
-      <c r="R110" t="inlineStr"/>
+      <c r="R110" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="S110" t="inlineStr"/>
       <c r="T110" t="inlineStr"/>
       <c r="U110" t="inlineStr">
         <is>
-          <t>HospCtTmDr</t>
+          <t>HospAvTmDr</t>
         </is>
       </c>
       <c r="V110" t="inlineStr">
         <is>
-          <t>Tracts with Hospital (30-min drive)</t>
+          <t>Avg. Driving Time to nearest Hospital</t>
         </is>
       </c>
       <c r="W110" t="inlineStr"/>
@@ -8781,17 +8785,21 @@
       <c r="O111" t="inlineStr"/>
       <c r="P111" t="inlineStr"/>
       <c r="Q111" t="inlineStr"/>
-      <c r="R111" t="inlineStr"/>
+      <c r="R111" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="S111" t="inlineStr"/>
       <c r="T111" t="inlineStr"/>
       <c r="U111" t="inlineStr">
         <is>
-          <t>HospTmDrP</t>
+          <t>HospCtTmDr</t>
         </is>
       </c>
       <c r="V111" t="inlineStr">
         <is>
-          <t>% Tracts within 30-min Drive of Hospital</t>
+          <t>Tracts with Hospital (30-min drive)</t>
         </is>
       </c>
       <c r="W111" t="inlineStr"/>
@@ -8822,7 +8830,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Spatial Access to MOUDs</t>
+          <t>Spatial Access to Hospitals</t>
         </is>
       </c>
       <c r="C112" t="inlineStr"/>
@@ -8853,28 +8861,28 @@
       <c r="T112" t="inlineStr"/>
       <c r="U112" t="inlineStr">
         <is>
-          <t>BupAvTmBk</t>
+          <t>HospTmDrP</t>
         </is>
       </c>
       <c r="V112" t="inlineStr">
         <is>
-          <t>Biking Time (min) to Nearest Buprenorphine Provider</t>
+          <t>% Tracts within 30-min Drive of Hospital</t>
         </is>
       </c>
       <c r="W112" t="inlineStr"/>
       <c r="X112" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Hospitals.md</t>
         </is>
       </c>
       <c r="Y112" t="inlineStr">
         <is>
-          <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
+          <t>CovidCareMap 2020</t>
         </is>
       </c>
       <c r="Z112" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
+          <t>CovidCareMap, 2020</t>
         </is>
       </c>
       <c r="AA112" t="inlineStr"/>
@@ -8920,12 +8928,12 @@
       <c r="T113" t="inlineStr"/>
       <c r="U113" t="inlineStr">
         <is>
-          <t>BupAvTmDr</t>
+          <t>BupAvTmBk</t>
         </is>
       </c>
       <c r="V113" t="inlineStr">
         <is>
-          <t>Driving Time (min) to Nearest Buprenorphine Provider</t>
+          <t>Biking Time (min) to Nearest Buprenorphine Provider</t>
         </is>
       </c>
       <c r="W113" t="inlineStr"/>
@@ -8987,12 +8995,12 @@
       <c r="T114" t="inlineStr"/>
       <c r="U114" t="inlineStr">
         <is>
-          <t>BupAvTmWk</t>
+          <t>BupAvTmDr</t>
         </is>
       </c>
       <c r="V114" t="inlineStr">
         <is>
-          <t>Walking Time (min) to Nearest Buprenorphine Provider</t>
+          <t>Driving Time (min) to Nearest Buprenorphine Provider</t>
         </is>
       </c>
       <c r="W114" t="inlineStr"/>
@@ -9054,12 +9062,12 @@
       <c r="T115" t="inlineStr"/>
       <c r="U115" t="inlineStr">
         <is>
-          <t>BupCtTmBk</t>
+          <t>BupAvTmWk</t>
         </is>
       </c>
       <c r="V115" t="inlineStr">
         <is>
-          <t>Tracts with Buprenorphine Provider within 30-min (biking)</t>
+          <t>Walking Time (min) to Nearest Buprenorphine Provider</t>
         </is>
       </c>
       <c r="W115" t="inlineStr"/>
@@ -9121,12 +9129,12 @@
       <c r="T116" t="inlineStr"/>
       <c r="U116" t="inlineStr">
         <is>
-          <t>BupCtTmDr</t>
+          <t>BupCtTmBk</t>
         </is>
       </c>
       <c r="V116" t="inlineStr">
         <is>
-          <t>Tracts with Buprenorphine Provider within 30-min (driving)</t>
+          <t>Tracts with Buprenorphine Provider within 30-min (biking)</t>
         </is>
       </c>
       <c r="W116" t="inlineStr"/>
@@ -9188,12 +9196,12 @@
       <c r="T117" t="inlineStr"/>
       <c r="U117" t="inlineStr">
         <is>
-          <t>BupCtTmWk</t>
+          <t>BupCtTmDr</t>
         </is>
       </c>
       <c r="V117" t="inlineStr">
         <is>
-          <t>Tracts with Buprenorphine Provider within 30-min (walking)</t>
+          <t>Tracts with Buprenorphine Provider within 30-min (driving)</t>
         </is>
       </c>
       <c r="W117" t="inlineStr"/>
@@ -9255,12 +9263,12 @@
       <c r="T118" t="inlineStr"/>
       <c r="U118" t="inlineStr">
         <is>
-          <t>BupTmBkP</t>
+          <t>BupCtTmWk</t>
         </is>
       </c>
       <c r="V118" t="inlineStr">
         <is>
-          <t>% Tracts With Buprenorphine Provider (30-min bike)</t>
+          <t>Tracts with Buprenorphine Provider within 30-min (walking)</t>
         </is>
       </c>
       <c r="W118" t="inlineStr"/>
@@ -9322,12 +9330,12 @@
       <c r="T119" t="inlineStr"/>
       <c r="U119" t="inlineStr">
         <is>
-          <t>BupTmDrP</t>
+          <t>BupTmBkP</t>
         </is>
       </c>
       <c r="V119" t="inlineStr">
         <is>
-          <t>% Tracts With Buprenorphine Provider (30-min drive)</t>
+          <t>% Tracts With Buprenorphine Provider (30-min bike)</t>
         </is>
       </c>
       <c r="W119" t="inlineStr"/>
@@ -9389,12 +9397,12 @@
       <c r="T120" t="inlineStr"/>
       <c r="U120" t="inlineStr">
         <is>
-          <t>BupTmWkP</t>
+          <t>BupTmDrP</t>
         </is>
       </c>
       <c r="V120" t="inlineStr">
         <is>
-          <t>% Tracts With Buprenorphine Provider (30-min walk)</t>
+          <t>% Tracts With Buprenorphine Provider (30-min drive)</t>
         </is>
       </c>
       <c r="W120" t="inlineStr"/>
@@ -9456,12 +9464,12 @@
       <c r="T121" t="inlineStr"/>
       <c r="U121" t="inlineStr">
         <is>
-          <t>MetAvTmBk</t>
+          <t>BupTmWkP</t>
         </is>
       </c>
       <c r="V121" t="inlineStr">
         <is>
-          <t>Biking Time (min) to Nearest Methadone Provider</t>
+          <t>% Tracts With Buprenorphine Provider (30-min walk)</t>
         </is>
       </c>
       <c r="W121" t="inlineStr"/>
@@ -9523,12 +9531,12 @@
       <c r="T122" t="inlineStr"/>
       <c r="U122" t="inlineStr">
         <is>
-          <t>MetAvTmDr</t>
+          <t>MetAvTmBk</t>
         </is>
       </c>
       <c r="V122" t="inlineStr">
         <is>
-          <t>Driving Time (min) to Nearest Methadone Provider</t>
+          <t>Biking Time (min) to Nearest Methadone Provider</t>
         </is>
       </c>
       <c r="W122" t="inlineStr"/>
@@ -9590,12 +9598,12 @@
       <c r="T123" t="inlineStr"/>
       <c r="U123" t="inlineStr">
         <is>
-          <t>MetAvTmWk</t>
+          <t>MetAvTmDr</t>
         </is>
       </c>
       <c r="V123" t="inlineStr">
         <is>
-          <t>Walking Time (min) to Nearest Methadone Provide</t>
+          <t>Driving Time (min) to Nearest Methadone Provider</t>
         </is>
       </c>
       <c r="W123" t="inlineStr"/>
@@ -9657,12 +9665,12 @@
       <c r="T124" t="inlineStr"/>
       <c r="U124" t="inlineStr">
         <is>
-          <t>MetCtTmBk</t>
+          <t>MetAvTmWk</t>
         </is>
       </c>
       <c r="V124" t="inlineStr">
         <is>
-          <t>Tracts with Methadone Provider within 30-min (biking)</t>
+          <t>Walking Time (min) to Nearest Methadone Provide</t>
         </is>
       </c>
       <c r="W124" t="inlineStr"/>
@@ -9724,12 +9732,12 @@
       <c r="T125" t="inlineStr"/>
       <c r="U125" t="inlineStr">
         <is>
-          <t>MetCtTmDr</t>
+          <t>MetCtTmBk</t>
         </is>
       </c>
       <c r="V125" t="inlineStr">
         <is>
-          <t>Tracts with Methadone Provider within 30-min (driving)</t>
+          <t>Tracts with Methadone Provider within 30-min (biking)</t>
         </is>
       </c>
       <c r="W125" t="inlineStr"/>
@@ -9791,12 +9799,12 @@
       <c r="T126" t="inlineStr"/>
       <c r="U126" t="inlineStr">
         <is>
-          <t>MetCtTmWk</t>
+          <t>MetCtTmDr</t>
         </is>
       </c>
       <c r="V126" t="inlineStr">
         <is>
-          <t>Tracts with Methadone Provider within 30-min (walking)</t>
+          <t>Tracts with Methadone Provider within 30-min (driving)</t>
         </is>
       </c>
       <c r="W126" t="inlineStr"/>
@@ -9858,12 +9866,12 @@
       <c r="T127" t="inlineStr"/>
       <c r="U127" t="inlineStr">
         <is>
-          <t>MetTmBkP</t>
+          <t>MetCtTmWk</t>
         </is>
       </c>
       <c r="V127" t="inlineStr">
         <is>
-          <t>% Tracts With Methadone Provider (30-min bike)</t>
+          <t>Tracts with Methadone Provider within 30-min (walking)</t>
         </is>
       </c>
       <c r="W127" t="inlineStr"/>
@@ -9925,12 +9933,12 @@
       <c r="T128" t="inlineStr"/>
       <c r="U128" t="inlineStr">
         <is>
-          <t>MetTmDrP</t>
+          <t>MetTmBkP</t>
         </is>
       </c>
       <c r="V128" t="inlineStr">
         <is>
-          <t>% Tracts With Methadone Provider (30-min drive)</t>
+          <t>% Tracts With Methadone Provider (30-min bike)</t>
         </is>
       </c>
       <c r="W128" t="inlineStr"/>
@@ -9992,12 +10000,12 @@
       <c r="T129" t="inlineStr"/>
       <c r="U129" t="inlineStr">
         <is>
-          <t>MetTmWkP</t>
+          <t>MetTmDrP</t>
         </is>
       </c>
       <c r="V129" t="inlineStr">
         <is>
-          <t>% Tracts With Methadone Provider (30-min walk)</t>
+          <t>% Tracts With Methadone Provider (30-min drive)</t>
         </is>
       </c>
       <c r="W129" t="inlineStr"/>
@@ -10059,12 +10067,12 @@
       <c r="T130" t="inlineStr"/>
       <c r="U130" t="inlineStr">
         <is>
-          <t>NaltAvTmBk</t>
+          <t>MetTmWkP</t>
         </is>
       </c>
       <c r="V130" t="inlineStr">
         <is>
-          <t>Biking Time (min) to Nearest Naltrexone Provider</t>
+          <t>% Tracts With Methadone Provider (30-min walk)</t>
         </is>
       </c>
       <c r="W130" t="inlineStr"/>
@@ -10126,12 +10134,12 @@
       <c r="T131" t="inlineStr"/>
       <c r="U131" t="inlineStr">
         <is>
-          <t>NaltAvTmDr</t>
+          <t>NaltAvTmBk</t>
         </is>
       </c>
       <c r="V131" t="inlineStr">
         <is>
-          <t>Driving Time (min) to Nearest Naltrexone Provider</t>
+          <t>Biking Time (min) to Nearest Naltrexone Provider</t>
         </is>
       </c>
       <c r="W131" t="inlineStr"/>
@@ -10193,12 +10201,12 @@
       <c r="T132" t="inlineStr"/>
       <c r="U132" t="inlineStr">
         <is>
-          <t>NaltAvTmWk</t>
+          <t>NaltAvTmDr</t>
         </is>
       </c>
       <c r="V132" t="inlineStr">
         <is>
-          <t>Walking Time (min) to Nearest Naltrexone Provider</t>
+          <t>Driving Time (min) to Nearest Naltrexone Provider</t>
         </is>
       </c>
       <c r="W132" t="inlineStr"/>
@@ -10260,12 +10268,12 @@
       <c r="T133" t="inlineStr"/>
       <c r="U133" t="inlineStr">
         <is>
-          <t>NaltCtTmBk</t>
+          <t>NaltAvTmWk</t>
         </is>
       </c>
       <c r="V133" t="inlineStr">
         <is>
-          <t>Tracts with Naltrexone Provider within 30-min (biking)</t>
+          <t>Walking Time (min) to Nearest Naltrexone Provider</t>
         </is>
       </c>
       <c r="W133" t="inlineStr"/>
@@ -10327,12 +10335,12 @@
       <c r="T134" t="inlineStr"/>
       <c r="U134" t="inlineStr">
         <is>
-          <t>NaltCtTmDr</t>
+          <t>NaltCtTmBk</t>
         </is>
       </c>
       <c r="V134" t="inlineStr">
         <is>
-          <t>Tracts with Naltrexone Provider within 30-min (driving)</t>
+          <t>Tracts with Naltrexone Provider within 30-min (biking)</t>
         </is>
       </c>
       <c r="W134" t="inlineStr"/>
@@ -10394,12 +10402,12 @@
       <c r="T135" t="inlineStr"/>
       <c r="U135" t="inlineStr">
         <is>
-          <t>NaltCtTmWk</t>
+          <t>NaltCtTmDr</t>
         </is>
       </c>
       <c r="V135" t="inlineStr">
         <is>
-          <t>Tracts with Naltrexone Provider within 30-min (walking)</t>
+          <t>Tracts with Naltrexone Provider within 30-min (driving)</t>
         </is>
       </c>
       <c r="W135" t="inlineStr"/>
@@ -10461,12 +10469,12 @@
       <c r="T136" t="inlineStr"/>
       <c r="U136" t="inlineStr">
         <is>
-          <t>NaltTmBkP</t>
+          <t>NaltCtTmWk</t>
         </is>
       </c>
       <c r="V136" t="inlineStr">
         <is>
-          <t>% Tracts With Naltrexone Provider (30-min bike)</t>
+          <t>Tracts with Naltrexone Provider within 30-min (walking)</t>
         </is>
       </c>
       <c r="W136" t="inlineStr"/>
@@ -10528,12 +10536,12 @@
       <c r="T137" t="inlineStr"/>
       <c r="U137" t="inlineStr">
         <is>
-          <t>NaltTmDrP</t>
+          <t>NaltTmBkP</t>
         </is>
       </c>
       <c r="V137" t="inlineStr">
         <is>
-          <t>% Tracts With Naltrexone Provider (30-min drive)</t>
+          <t>% Tracts With Naltrexone Provider (30-min bike)</t>
         </is>
       </c>
       <c r="W137" t="inlineStr"/>
@@ -10595,12 +10603,12 @@
       <c r="T138" t="inlineStr"/>
       <c r="U138" t="inlineStr">
         <is>
-          <t>NaltTmWkP</t>
+          <t>NaltTmDrP</t>
         </is>
       </c>
       <c r="V138" t="inlineStr">
         <is>
-          <t>% Tracts With Naltrexone Provider (30-min walk)</t>
+          <t>% Tracts With Naltrexone Provider (30-min drive)</t>
         </is>
       </c>
       <c r="W138" t="inlineStr"/>
@@ -10645,12 +10653,12 @@
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
       <c r="M139" t="inlineStr"/>
-      <c r="N139" t="inlineStr"/>
-      <c r="O139" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N139" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O139" t="inlineStr"/>
       <c r="P139" t="inlineStr"/>
       <c r="Q139" t="inlineStr"/>
       <c r="R139" t="inlineStr">
@@ -10662,12 +10670,12 @@
       <c r="T139" t="inlineStr"/>
       <c r="U139" t="inlineStr">
         <is>
-          <t>OtpAvTmDr</t>
+          <t>NaltTmWkP</t>
         </is>
       </c>
       <c r="V139" t="inlineStr">
         <is>
-          <t>Driving Time (min) to nearest Opioid Treatment Program (OTP)</t>
+          <t>% Tracts With Naltrexone Provider (30-min walk)</t>
         </is>
       </c>
       <c r="W139" t="inlineStr"/>
@@ -10729,12 +10737,12 @@
       <c r="T140" t="inlineStr"/>
       <c r="U140" t="inlineStr">
         <is>
-          <t>OtpCtTmDr</t>
+          <t>OtpAvTmDr</t>
         </is>
       </c>
       <c r="V140" t="inlineStr">
         <is>
-          <t>Tracts with Opioid Treatment Program (OTP) (30-min drive)</t>
+          <t>Driving Time (min) to nearest Opioid Treatment Program (OTP)</t>
         </is>
       </c>
       <c r="W140" t="inlineStr"/>
@@ -10796,12 +10804,12 @@
       <c r="T141" t="inlineStr"/>
       <c r="U141" t="inlineStr">
         <is>
-          <t>OtpTmDrP</t>
+          <t>OtpCtTmDr</t>
         </is>
       </c>
       <c r="V141" t="inlineStr">
         <is>
-          <t>% Tracts with Opioid Treatment Program (OTP) (30-min drive)</t>
+          <t>Tracts with Opioid Treatment Program (OTP) (30-min drive)</t>
         </is>
       </c>
       <c r="W141" t="inlineStr"/>
@@ -10832,7 +10840,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Spatial Access to Mental Health Providers</t>
+          <t>Spatial Access to MOUDs</t>
         </is>
       </c>
       <c r="C142" t="inlineStr"/>
@@ -10846,41 +10854,45 @@
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
       <c r="M142" t="inlineStr"/>
-      <c r="N142" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O142" t="inlineStr"/>
+      <c r="N142" t="inlineStr"/>
+      <c r="O142" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P142" t="inlineStr"/>
       <c r="Q142" t="inlineStr"/>
-      <c r="R142" t="inlineStr"/>
+      <c r="R142" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="S142" t="inlineStr"/>
       <c r="T142" t="inlineStr"/>
       <c r="U142" t="inlineStr">
         <is>
-          <t>MhAvTmDr</t>
+          <t>OtpTmDrP</t>
         </is>
       </c>
       <c r="V142" t="inlineStr">
         <is>
-          <t>Driving Time (min) to nearest Mental Health Provider</t>
+          <t>% Tracts with Opioid Treatment Program (OTP) (30-min drive)</t>
         </is>
       </c>
       <c r="W142" t="inlineStr"/>
       <c r="X142" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Mental_Health.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="Y142" t="inlineStr">
         <is>
-          <t>SAMHSA 2020</t>
+          <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
       <c r="Z142" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2020</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
       <c r="AA142" t="inlineStr"/>
@@ -10895,7 +10907,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Spatial Access to Mental Health Providers</t>
+          <t>Spatial Access to MOUDs</t>
         </is>
       </c>
       <c r="C143" t="inlineStr"/>
@@ -10909,41 +10921,41 @@
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
       <c r="M143" t="inlineStr"/>
-      <c r="N143" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N143" t="inlineStr"/>
       <c r="O143" t="inlineStr"/>
       <c r="P143" t="inlineStr"/>
       <c r="Q143" t="inlineStr"/>
-      <c r="R143" t="inlineStr"/>
+      <c r="R143" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="S143" t="inlineStr"/>
       <c r="T143" t="inlineStr"/>
       <c r="U143" t="inlineStr">
         <is>
-          <t>MhCtTmDr</t>
+          <t>TlBupAvTmBk</t>
         </is>
       </c>
       <c r="V143" t="inlineStr">
         <is>
-          <t>Tracts with Mental Health Provider (30-min drive)</t>
+          <t>Average biking time to nearest telehealth buprenorphine provider</t>
         </is>
       </c>
       <c r="W143" t="inlineStr"/>
       <c r="X143" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Mental_Health.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="Y143" t="inlineStr">
         <is>
-          <t>SAMHSA 2020</t>
+          <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
       <c r="Z143" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2020</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
       <c r="AA143" t="inlineStr"/>
@@ -10958,7 +10970,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Spatial Access to Mental Health Providers</t>
+          <t>Spatial Access to MOUDs</t>
         </is>
       </c>
       <c r="C144" t="inlineStr"/>
@@ -10972,41 +10984,41 @@
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
       <c r="M144" t="inlineStr"/>
-      <c r="N144" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N144" t="inlineStr"/>
       <c r="O144" t="inlineStr"/>
       <c r="P144" t="inlineStr"/>
       <c r="Q144" t="inlineStr"/>
-      <c r="R144" t="inlineStr"/>
+      <c r="R144" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="S144" t="inlineStr"/>
       <c r="T144" t="inlineStr"/>
       <c r="U144" t="inlineStr">
         <is>
-          <t>MhTmDrP</t>
+          <t>TlBupAvTmDr</t>
         </is>
       </c>
       <c r="V144" t="inlineStr">
         <is>
-          <t>% Tracts with Mental Health Provider (30-min drive)</t>
+          <t>Average driving time to nearest telehealth buprenorphine provider</t>
         </is>
       </c>
       <c r="W144" t="inlineStr"/>
       <c r="X144" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Mental_Health.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="Y144" t="inlineStr">
         <is>
-          <t>SAMHSA 2020</t>
+          <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
       <c r="Z144" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2020</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
       <c r="AA144" t="inlineStr"/>
@@ -11021,7 +11033,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Spatial Access to Pharmacies</t>
+          <t>Spatial Access to MOUDs</t>
         </is>
       </c>
       <c r="C145" t="inlineStr"/>
@@ -11034,42 +11046,42 @@
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="M145" t="inlineStr"/>
       <c r="N145" t="inlineStr"/>
       <c r="O145" t="inlineStr"/>
       <c r="P145" t="inlineStr"/>
       <c r="Q145" t="inlineStr"/>
-      <c r="R145" t="inlineStr"/>
+      <c r="R145" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="S145" t="inlineStr"/>
       <c r="T145" t="inlineStr"/>
       <c r="U145" t="inlineStr">
         <is>
-          <t>RxAvTmDr</t>
+          <t>TlBupAvTmWk</t>
         </is>
       </c>
       <c r="V145" t="inlineStr">
         <is>
-          <t xml:space="preserve">Avg. Driving Time (min) to nearest Pharmacy </t>
+          <t>Average walking time to nearest telehealth buprenorphine provider</t>
         </is>
       </c>
       <c r="W145" t="inlineStr"/>
       <c r="X145" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Pharmacies.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="Y145" t="inlineStr">
         <is>
-          <t>InfoGroup 2019</t>
+          <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
       <c r="Z145" t="inlineStr">
         <is>
-          <t>InfoGroup, 2019</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
       <c r="AA145" t="inlineStr"/>
@@ -11084,7 +11096,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Spatial Access to Pharmacies</t>
+          <t>Spatial Access to MOUDs</t>
         </is>
       </c>
       <c r="C146" t="inlineStr"/>
@@ -11097,42 +11109,42 @@
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="M146" t="inlineStr"/>
       <c r="N146" t="inlineStr"/>
       <c r="O146" t="inlineStr"/>
       <c r="P146" t="inlineStr"/>
       <c r="Q146" t="inlineStr"/>
-      <c r="R146" t="inlineStr"/>
+      <c r="R146" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="S146" t="inlineStr"/>
       <c r="T146" t="inlineStr"/>
       <c r="U146" t="inlineStr">
         <is>
-          <t>RxCtTmDr</t>
+          <t>TlBupCtTmBk30</t>
         </is>
       </c>
       <c r="V146" t="inlineStr">
         <is>
-          <t>Tracts with Pharmacy (30-min drive)</t>
+          <t>Count of tracts within 30-min telehealth buprenorphine biking range</t>
         </is>
       </c>
       <c r="W146" t="inlineStr"/>
       <c r="X146" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Pharmacies.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="Y146" t="inlineStr">
         <is>
-          <t>InfoGroup 2019</t>
+          <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
       <c r="Z146" t="inlineStr">
         <is>
-          <t>InfoGroup, 2019</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
       <c r="AA146" t="inlineStr"/>
@@ -11147,7 +11159,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Spatial Access to Pharmacies</t>
+          <t>Spatial Access to MOUDs</t>
         </is>
       </c>
       <c r="C147" t="inlineStr"/>
@@ -11160,42 +11172,42 @@
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="M147" t="inlineStr"/>
       <c r="N147" t="inlineStr"/>
       <c r="O147" t="inlineStr"/>
       <c r="P147" t="inlineStr"/>
       <c r="Q147" t="inlineStr"/>
-      <c r="R147" t="inlineStr"/>
+      <c r="R147" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="S147" t="inlineStr"/>
       <c r="T147" t="inlineStr"/>
       <c r="U147" t="inlineStr">
         <is>
-          <t>RxTmDrP</t>
+          <t>TlBupCtTmDr30</t>
         </is>
       </c>
       <c r="V147" t="inlineStr">
         <is>
-          <t>% tracts with Pharmacy (30-min drive)</t>
+          <t>Count of tracts within 30-min telehealth buprenorphine driving range</t>
         </is>
       </c>
       <c r="W147" t="inlineStr"/>
       <c r="X147" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Pharmacies.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="Y147" t="inlineStr">
         <is>
-          <t>InfoGroup 2019</t>
+          <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
       <c r="Z147" t="inlineStr">
         <is>
-          <t>InfoGroup, 2019</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
       <c r="AA147" t="inlineStr"/>
@@ -11210,7 +11222,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Spatial Access to Substance Use Treatment Providers</t>
+          <t>Spatial Access to MOUDs</t>
         </is>
       </c>
       <c r="C148" t="inlineStr"/>
@@ -11224,41 +11236,41 @@
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
       <c r="M148" t="inlineStr"/>
-      <c r="N148" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N148" t="inlineStr"/>
       <c r="O148" t="inlineStr"/>
       <c r="P148" t="inlineStr"/>
       <c r="Q148" t="inlineStr"/>
-      <c r="R148" t="inlineStr"/>
+      <c r="R148" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="S148" t="inlineStr"/>
       <c r="T148" t="inlineStr"/>
       <c r="U148" t="inlineStr">
         <is>
-          <t>SutpAvTmDr</t>
+          <t>TlBupCtTmDr60</t>
         </is>
       </c>
       <c r="V148" t="inlineStr">
         <is>
-          <t>Driving Time (min) to nearest Substance Use Treatment program</t>
+          <t>Count of tracts within 60-min telehealth buprenorphine driving range</t>
         </is>
       </c>
       <c r="W148" t="inlineStr"/>
       <c r="X148" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_SubstanceUseTreatment.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="Y148" t="inlineStr">
         <is>
-          <t>SAMHSA 2020</t>
+          <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
       <c r="Z148" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2020</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
       <c r="AA148" t="inlineStr"/>
@@ -11273,7 +11285,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Spatial Access to Substance Use Treatment Providers</t>
+          <t>Spatial Access to MOUDs</t>
         </is>
       </c>
       <c r="C149" t="inlineStr"/>
@@ -11287,41 +11299,41 @@
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
       <c r="M149" t="inlineStr"/>
-      <c r="N149" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N149" t="inlineStr"/>
       <c r="O149" t="inlineStr"/>
       <c r="P149" t="inlineStr"/>
       <c r="Q149" t="inlineStr"/>
-      <c r="R149" t="inlineStr"/>
+      <c r="R149" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="S149" t="inlineStr"/>
       <c r="T149" t="inlineStr"/>
       <c r="U149" t="inlineStr">
         <is>
-          <t>SutpCtTmDr</t>
+          <t>TlBupCtTmWk30</t>
         </is>
       </c>
       <c r="V149" t="inlineStr">
         <is>
-          <t>Tracts with Substance Use Treatment (SUT) program (30-min drive)</t>
+          <t>Count of tracts within 30-min telehealth buprenorphine walking range</t>
         </is>
       </c>
       <c r="W149" t="inlineStr"/>
       <c r="X149" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_SubstanceUseTreatment.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="Y149" t="inlineStr">
         <is>
-          <t>SAMHSA 2020</t>
+          <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
       <c r="Z149" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2020</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
       <c r="AA149" t="inlineStr"/>
@@ -11336,7 +11348,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Spatial Access to Substance Use Treatment Providers</t>
+          <t>Spatial Access to MOUDs</t>
         </is>
       </c>
       <c r="C150" t="inlineStr"/>
@@ -11350,41 +11362,41 @@
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
       <c r="M150" t="inlineStr"/>
-      <c r="N150" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N150" t="inlineStr"/>
       <c r="O150" t="inlineStr"/>
       <c r="P150" t="inlineStr"/>
       <c r="Q150" t="inlineStr"/>
-      <c r="R150" t="inlineStr"/>
+      <c r="R150" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="S150" t="inlineStr"/>
       <c r="T150" t="inlineStr"/>
       <c r="U150" t="inlineStr">
         <is>
-          <t>SutpTmDrP</t>
+          <t>TlBupTmBk30P</t>
         </is>
       </c>
       <c r="V150" t="inlineStr">
         <is>
-          <t>% tracts with Substance Use Treatment program (30-min drive)</t>
+          <t>Percent of tracts within 30-min telehealth buprenorphine biking range</t>
         </is>
       </c>
       <c r="W150" t="inlineStr"/>
       <c r="X150" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_SubstanceUseTreatment.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="Y150" t="inlineStr">
         <is>
-          <t>SAMHSA 2020</t>
+          <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
       <c r="Z150" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2020</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
       <c r="AA150" t="inlineStr"/>
@@ -11399,7 +11411,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Spatial access to Health Centers</t>
+          <t>Spatial Access to MOUDs</t>
         </is>
       </c>
       <c r="C151" t="inlineStr"/>
@@ -11413,41 +11425,41 @@
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
       <c r="M151" t="inlineStr"/>
-      <c r="N151" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N151" t="inlineStr"/>
       <c r="O151" t="inlineStr"/>
       <c r="P151" t="inlineStr"/>
       <c r="Q151" t="inlineStr"/>
-      <c r="R151" t="inlineStr"/>
+      <c r="R151" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="S151" t="inlineStr"/>
       <c r="T151" t="inlineStr"/>
       <c r="U151" t="inlineStr">
         <is>
-          <t>FqhcAvTmDr</t>
+          <t>TlBupTmDr30P</t>
         </is>
       </c>
       <c r="V151" t="inlineStr">
         <is>
-          <t>Driving Time to nearest Federally Qualified Health Center</t>
+          <t>Percent of tracts within 30-min telehealth buprenorphine driving range</t>
         </is>
       </c>
       <c r="W151" t="inlineStr"/>
       <c r="X151" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_FQHCs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="Y151" t="inlineStr">
         <is>
-          <t>US Covid Atlas via HRSA 2020; Tiger/Line 2018</t>
+          <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
       <c r="Z151" t="inlineStr">
         <is>
-          <t>United States Covid Atlas via Health Resources and Services Adminsitration, 2020; Tiger/Line 2018 Shapefiles</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
       <c r="AA151" t="inlineStr"/>
@@ -11462,7 +11474,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Spatial access to Health Centers</t>
+          <t>Spatial Access to MOUDs</t>
         </is>
       </c>
       <c r="C152" t="inlineStr"/>
@@ -11476,41 +11488,41 @@
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
       <c r="M152" t="inlineStr"/>
-      <c r="N152" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N152" t="inlineStr"/>
       <c r="O152" t="inlineStr"/>
       <c r="P152" t="inlineStr"/>
       <c r="Q152" t="inlineStr"/>
-      <c r="R152" t="inlineStr"/>
+      <c r="R152" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="S152" t="inlineStr"/>
       <c r="T152" t="inlineStr"/>
       <c r="U152" t="inlineStr">
         <is>
-          <t>FqhcCtTmDr</t>
+          <t>TlBupTmDr60P</t>
         </is>
       </c>
       <c r="V152" t="inlineStr">
         <is>
-          <t>Tracts with Federally Qualified Health Center (30-min driving)</t>
+          <t>Percent of tracts within 60-min telehealth buprenorphine driving range</t>
         </is>
       </c>
       <c r="W152" t="inlineStr"/>
       <c r="X152" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_FQHCs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="Y152" t="inlineStr">
         <is>
-          <t>US Covid Atlas via HRSA 2020; Tiger/Line 2018</t>
+          <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
       <c r="Z152" t="inlineStr">
         <is>
-          <t>United States Covid Atlas via Health Resources and Services Adminsitration, 2020; Tiger/Line 2018 Shapefiles</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
       <c r="AA152" t="inlineStr"/>
@@ -11525,7 +11537,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Spatial access to Health Centers</t>
+          <t>Spatial Access to MOUDs</t>
         </is>
       </c>
       <c r="C153" t="inlineStr"/>
@@ -11539,41 +11551,41 @@
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
       <c r="M153" t="inlineStr"/>
-      <c r="N153" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N153" t="inlineStr"/>
       <c r="O153" t="inlineStr"/>
       <c r="P153" t="inlineStr"/>
       <c r="Q153" t="inlineStr"/>
-      <c r="R153" t="inlineStr"/>
+      <c r="R153" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="S153" t="inlineStr"/>
       <c r="T153" t="inlineStr"/>
       <c r="U153" t="inlineStr">
         <is>
-          <t>FqhcTmDrP</t>
+          <t>TlBupTmWk30P</t>
         </is>
       </c>
       <c r="V153" t="inlineStr">
         <is>
-          <t>% tracts within 30-min drive of Federally Qualified Health Center</t>
+          <t>Percent of tracts within 30-min telehealth buprenorphine walking range</t>
         </is>
       </c>
       <c r="W153" t="inlineStr"/>
       <c r="X153" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_FQHCs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="Y153" t="inlineStr">
         <is>
-          <t>US Covid Atlas via HRSA 2020; Tiger/Line 2018</t>
+          <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
       <c r="Z153" t="inlineStr">
         <is>
-          <t>United States Covid Atlas via Health Resources and Services Adminsitration, 2020; Tiger/Line 2018 Shapefiles</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
       <c r="AA153" t="inlineStr"/>
@@ -11588,7 +11600,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Spatial access to Health Centers</t>
+          <t>Spatial Access to Mental Health Providers</t>
         </is>
       </c>
       <c r="C154" t="inlineStr"/>
@@ -11600,13 +11612,13 @@
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="inlineStr"/>
-      <c r="N154" t="inlineStr"/>
+      <c r="N154" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O154" t="inlineStr"/>
       <c r="P154" t="inlineStr"/>
       <c r="Q154" t="inlineStr"/>
@@ -11619,28 +11631,28 @@
       <c r="T154" t="inlineStr"/>
       <c r="U154" t="inlineStr">
         <is>
-          <t>TotTracts</t>
+          <t>MhAvTmDr</t>
         </is>
       </c>
       <c r="V154" t="inlineStr">
         <is>
-          <t>Total Census Tract Count</t>
+          <t>Driving Time (min) to nearest Mental Health Provider</t>
         </is>
       </c>
       <c r="W154" t="inlineStr"/>
       <c r="X154" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_FQHCs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Mental_Health.md</t>
         </is>
       </c>
       <c r="Y154" t="inlineStr">
         <is>
-          <t>US Covid Atlas via HRSA 2020; Tiger/Line 2018</t>
+          <t>SAMHSA 2020</t>
         </is>
       </c>
       <c r="Z154" t="inlineStr">
         <is>
-          <t>United States Covid Atlas via Health Resources and Services Adminsitration, 2020; Tiger/Line 2018 Shapefiles</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2020</t>
         </is>
       </c>
       <c r="AA154" t="inlineStr"/>
@@ -11655,17 +11667,13 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Urban/Suburban/Rural Classification</t>
+          <t>Spatial Access to Mental Health Providers</t>
         </is>
       </c>
       <c r="C155" t="inlineStr"/>
       <c r="D155" t="inlineStr"/>
       <c r="E155" t="inlineStr"/>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="F155" t="inlineStr"/>
       <c r="G155" t="inlineStr"/>
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
@@ -11673,37 +11681,45 @@
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
       <c r="M155" t="inlineStr"/>
-      <c r="N155" t="inlineStr"/>
+      <c r="N155" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O155" t="inlineStr"/>
       <c r="P155" t="inlineStr"/>
       <c r="Q155" t="inlineStr"/>
-      <c r="R155" t="inlineStr"/>
+      <c r="R155" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="S155" t="inlineStr"/>
       <c r="T155" t="inlineStr"/>
       <c r="U155" t="inlineStr">
         <is>
-          <t>CenFlags</t>
+          <t>MhCtTmDr</t>
         </is>
       </c>
       <c r="V155" t="inlineStr">
         <is>
-          <t>Census Flags</t>
+          <t>Tracts with Mental Health Provider (30-min drive)</t>
         </is>
       </c>
       <c r="W155" t="inlineStr"/>
       <c r="X155" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Urbanicity.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Mental_Health.md</t>
         </is>
       </c>
       <c r="Y155" t="inlineStr">
         <is>
-          <t>USDA-ERS 2010; ACS 2018</t>
+          <t>SAMHSA 2020</t>
         </is>
       </c>
       <c r="Z155" t="inlineStr">
         <is>
-          <t>United States Department of Agriculture Economic Research Service, 2010; American Community Survey 2014-2018 5-Year Estimate</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2020</t>
         </is>
       </c>
       <c r="AA155" t="inlineStr"/>
@@ -11718,7 +11734,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Urban/Suburban/Rural Classification</t>
+          <t>Spatial Access to Mental Health Providers</t>
         </is>
       </c>
       <c r="C156" t="inlineStr"/>
@@ -11730,43 +11746,47 @@
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="inlineStr"/>
-      <c r="N156" t="inlineStr"/>
+      <c r="N156" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O156" t="inlineStr"/>
       <c r="P156" t="inlineStr"/>
       <c r="Q156" t="inlineStr"/>
-      <c r="R156" t="inlineStr"/>
+      <c r="R156" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="S156" t="inlineStr"/>
       <c r="T156" t="inlineStr"/>
       <c r="U156" t="inlineStr">
         <is>
-          <t>RcaRuralP</t>
+          <t>MhTmDrP</t>
         </is>
       </c>
       <c r="V156" t="inlineStr">
         <is>
-          <t>% Tracts Rural (RUCA)</t>
+          <t>% Tracts with Mental Health Provider (30-min drive)</t>
         </is>
       </c>
       <c r="W156" t="inlineStr"/>
       <c r="X156" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Urbanicity.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Mental_Health.md</t>
         </is>
       </c>
       <c r="Y156" t="inlineStr">
         <is>
-          <t>USDA-ERS 2010; ACS 2018</t>
+          <t>SAMHSA 2020</t>
         </is>
       </c>
       <c r="Z156" t="inlineStr">
         <is>
-          <t>United States Department of Agriculture Economic Research Service, 2010; American Community Survey 2014-2018 5-Year Estimate</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2020</t>
         </is>
       </c>
       <c r="AA156" t="inlineStr"/>
@@ -11781,7 +11801,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Urban/Suburban/Rural Classification</t>
+          <t>Spatial Access to Pharmacies</t>
         </is>
       </c>
       <c r="C157" t="inlineStr"/>
@@ -11793,12 +11813,12 @@
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N157" t="inlineStr"/>
       <c r="O157" t="inlineStr"/>
       <c r="P157" t="inlineStr"/>
@@ -11808,28 +11828,28 @@
       <c r="T157" t="inlineStr"/>
       <c r="U157" t="inlineStr">
         <is>
-          <t>RcaSubrbP</t>
+          <t>RxAvTmDr</t>
         </is>
       </c>
       <c r="V157" t="inlineStr">
         <is>
-          <t>% Tracts Suburban (RUCA)</t>
+          <t xml:space="preserve">Avg. Driving Time (min) to nearest Pharmacy </t>
         </is>
       </c>
       <c r="W157" t="inlineStr"/>
       <c r="X157" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Urbanicity.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Pharmacies.md</t>
         </is>
       </c>
       <c r="Y157" t="inlineStr">
         <is>
-          <t>USDA-ERS 2010; ACS 2018</t>
+          <t>InfoGroup 2019</t>
         </is>
       </c>
       <c r="Z157" t="inlineStr">
         <is>
-          <t>United States Department of Agriculture Economic Research Service, 2010; American Community Survey 2014-2018 5-Year Estimate</t>
+          <t>InfoGroup, 2019</t>
         </is>
       </c>
       <c r="AA157" t="inlineStr"/>
@@ -11844,7 +11864,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Urban/Suburban/Rural Classification</t>
+          <t>Spatial Access to Pharmacies</t>
         </is>
       </c>
       <c r="C158" t="inlineStr"/>
@@ -11856,12 +11876,12 @@
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N158" t="inlineStr"/>
       <c r="O158" t="inlineStr"/>
       <c r="P158" t="inlineStr"/>
@@ -11871,28 +11891,28 @@
       <c r="T158" t="inlineStr"/>
       <c r="U158" t="inlineStr">
         <is>
-          <t>RcaUrbanP</t>
+          <t>RxCtTmDr</t>
         </is>
       </c>
       <c r="V158" t="inlineStr">
         <is>
-          <t>% Tracts Urban (RUCA)</t>
+          <t>Tracts with Pharmacy (30-min drive)</t>
         </is>
       </c>
       <c r="W158" t="inlineStr"/>
       <c r="X158" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Urbanicity.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Pharmacies.md</t>
         </is>
       </c>
       <c r="Y158" t="inlineStr">
         <is>
-          <t>USDA-ERS 2010; ACS 2018</t>
+          <t>InfoGroup 2019</t>
         </is>
       </c>
       <c r="Z158" t="inlineStr">
         <is>
-          <t>United States Department of Agriculture Economic Research Service, 2010; American Community Survey 2014-2018 5-Year Estimate</t>
+          <t>InfoGroup, 2019</t>
         </is>
       </c>
       <c r="AA158" t="inlineStr"/>
@@ -11902,12 +11922,12 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Economic</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Employment Trends</t>
+          <t>Spatial Access to Pharmacies</t>
         </is>
       </c>
       <c r="C159" t="inlineStr"/>
@@ -11919,51 +11939,43 @@
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="M159" t="inlineStr"/>
-      <c r="N159" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N159" t="inlineStr"/>
       <c r="O159" t="inlineStr"/>
       <c r="P159" t="inlineStr"/>
-      <c r="Q159" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Q159" t="inlineStr"/>
       <c r="R159" t="inlineStr"/>
       <c r="S159" t="inlineStr"/>
       <c r="T159" t="inlineStr"/>
       <c r="U159" t="inlineStr">
         <is>
-          <t>EduP</t>
+          <t>RxTmDrP</t>
         </is>
       </c>
       <c r="V159" t="inlineStr">
         <is>
-          <t>Employed % - Education</t>
+          <t>% tracts with Pharmacy (30-min drive)</t>
         </is>
       </c>
       <c r="W159" t="inlineStr"/>
       <c r="X159" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Pharmacies.md</t>
         </is>
       </c>
       <c r="Y159" t="inlineStr">
         <is>
-          <t>ACS 2018, 2023</t>
+          <t>InfoGroup 2019</t>
         </is>
       </c>
       <c r="Z159" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
+          <t>InfoGroup, 2019</t>
         </is>
       </c>
       <c r="AA159" t="inlineStr"/>
@@ -11973,12 +11985,12 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Economic</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Employment Trends</t>
+          <t>Spatial Access to Substance Use Treatment Providers</t>
         </is>
       </c>
       <c r="C160" t="inlineStr"/>
@@ -11990,43 +12002,47 @@
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="inlineStr"/>
-      <c r="N160" t="inlineStr"/>
+      <c r="N160" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O160" t="inlineStr"/>
       <c r="P160" t="inlineStr"/>
       <c r="Q160" t="inlineStr"/>
-      <c r="R160" t="inlineStr"/>
+      <c r="R160" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="S160" t="inlineStr"/>
       <c r="T160" t="inlineStr"/>
       <c r="U160" t="inlineStr">
         <is>
-          <t>EssnWrkE</t>
+          <t>SutpAvTmDr</t>
         </is>
       </c>
       <c r="V160" t="inlineStr">
         <is>
-          <t>Count of Essential Workers</t>
+          <t>Driving Time (min) to nearest Substance Use Treatment program</t>
         </is>
       </c>
       <c r="W160" t="inlineStr"/>
       <c r="X160" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_SubstanceUseTreatment.md</t>
         </is>
       </c>
       <c r="Y160" t="inlineStr">
         <is>
-          <t>ACS 2018, 2023</t>
+          <t>SAMHSA 2020</t>
         </is>
       </c>
       <c r="Z160" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2020</t>
         </is>
       </c>
       <c r="AA160" t="inlineStr"/>
@@ -12036,12 +12052,12 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Economic</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Employment Trends</t>
+          <t>Spatial Access to Substance Use Treatment Providers</t>
         </is>
       </c>
       <c r="C161" t="inlineStr"/>
@@ -12053,11 +12069,7 @@
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="inlineStr"/>
       <c r="N161" t="inlineStr">
         <is>
@@ -12066,38 +12078,38 @@
       </c>
       <c r="O161" t="inlineStr"/>
       <c r="P161" t="inlineStr"/>
-      <c r="Q161" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="R161" t="inlineStr"/>
+      <c r="Q161" t="inlineStr"/>
+      <c r="R161" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="S161" t="inlineStr"/>
       <c r="T161" t="inlineStr"/>
       <c r="U161" t="inlineStr">
         <is>
-          <t>EssnWrkP</t>
+          <t>SutpCtTmDr</t>
         </is>
       </c>
       <c r="V161" t="inlineStr">
         <is>
-          <t>Essential Workers %</t>
+          <t>Tracts with Substance Use Treatment (SUT) program (30-min drive)</t>
         </is>
       </c>
       <c r="W161" t="inlineStr"/>
       <c r="X161" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_SubstanceUseTreatment.md</t>
         </is>
       </c>
       <c r="Y161" t="inlineStr">
         <is>
-          <t>ACS 2018, 2023</t>
+          <t>SAMHSA 2020</t>
         </is>
       </c>
       <c r="Z161" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2020</t>
         </is>
       </c>
       <c r="AA161" t="inlineStr"/>
@@ -12107,12 +12119,12 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Economic</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Employment Trends</t>
+          <t>Spatial Access to Substance Use Treatment Providers</t>
         </is>
       </c>
       <c r="C162" t="inlineStr"/>
@@ -12124,11 +12136,7 @@
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="inlineStr"/>
       <c r="N162" t="inlineStr">
         <is>
@@ -12137,38 +12145,38 @@
       </c>
       <c r="O162" t="inlineStr"/>
       <c r="P162" t="inlineStr"/>
-      <c r="Q162" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="R162" t="inlineStr"/>
+      <c r="Q162" t="inlineStr"/>
+      <c r="R162" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="S162" t="inlineStr"/>
       <c r="T162" t="inlineStr"/>
       <c r="U162" t="inlineStr">
         <is>
-          <t>HghRskP</t>
+          <t>SutpTmDrP</t>
         </is>
       </c>
       <c r="V162" t="inlineStr">
         <is>
-          <t>Employed % - High Risk of Injury</t>
+          <t>% tracts with Substance Use Treatment program (30-min drive)</t>
         </is>
       </c>
       <c r="W162" t="inlineStr"/>
       <c r="X162" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_SubstanceUseTreatment.md</t>
         </is>
       </c>
       <c r="Y162" t="inlineStr">
         <is>
-          <t>ACS 2018, 2023</t>
+          <t>SAMHSA 2020</t>
         </is>
       </c>
       <c r="Z162" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2020</t>
         </is>
       </c>
       <c r="AA162" t="inlineStr"/>
@@ -12178,12 +12186,12 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Economic</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Employment Trends</t>
+          <t>Spatial access to HCV Testing</t>
         </is>
       </c>
       <c r="C163" t="inlineStr"/>
@@ -12195,51 +12203,43 @@
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="inlineStr"/>
-      <c r="N163" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N163" t="inlineStr"/>
       <c r="O163" t="inlineStr"/>
       <c r="P163" t="inlineStr"/>
-      <c r="Q163" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="R163" t="inlineStr"/>
+      <c r="Q163" t="inlineStr"/>
+      <c r="R163" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="S163" t="inlineStr"/>
       <c r="T163" t="inlineStr"/>
       <c r="U163" t="inlineStr">
         <is>
-          <t>HltCrP</t>
+          <t>HcvAvTmDr</t>
         </is>
       </c>
       <c r="V163" t="inlineStr">
         <is>
-          <t>Employed % - Health Care</t>
+          <t>Average time drive to nearest HCV testing provider</t>
         </is>
       </c>
       <c r="W163" t="inlineStr"/>
       <c r="X163" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_HCVTesting.md</t>
         </is>
       </c>
       <c r="Y163" t="inlineStr">
         <is>
-          <t>ACS 2018, 2023</t>
+          <t>SAMHSA 2025</t>
         </is>
       </c>
       <c r="Z163" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2025</t>
         </is>
       </c>
       <c r="AA163" t="inlineStr"/>
@@ -12249,12 +12249,12 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Economic</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Employment Trends</t>
+          <t>Spatial access to HCV Testing</t>
         </is>
       </c>
       <c r="C164" t="inlineStr"/>
@@ -12266,51 +12266,43 @@
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="inlineStr"/>
-      <c r="N164" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N164" t="inlineStr"/>
       <c r="O164" t="inlineStr"/>
       <c r="P164" t="inlineStr"/>
-      <c r="Q164" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="R164" t="inlineStr"/>
+      <c r="Q164" t="inlineStr"/>
+      <c r="R164" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="S164" t="inlineStr"/>
       <c r="T164" t="inlineStr"/>
       <c r="U164" t="inlineStr">
         <is>
-          <t>RetailP</t>
+          <t>HcvCtTmDr</t>
         </is>
       </c>
       <c r="V164" t="inlineStr">
         <is>
-          <t>Employed % - Retail</t>
+          <t>Count of tracts within 30-min driving range</t>
         </is>
       </c>
       <c r="W164" t="inlineStr"/>
       <c r="X164" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_HCVTesting.md</t>
         </is>
       </c>
       <c r="Y164" t="inlineStr">
         <is>
-          <t>ACS 2018, 2023</t>
+          <t>SAMHSA 2025</t>
         </is>
       </c>
       <c r="Z164" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2025</t>
         </is>
       </c>
       <c r="AA164" t="inlineStr"/>
@@ -12320,12 +12312,12 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Economic</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Employment Trends</t>
+          <t>Spatial access to HCV Testing</t>
         </is>
       </c>
       <c r="C165" t="inlineStr"/>
@@ -12337,51 +12329,43 @@
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="inlineStr"/>
-      <c r="N165" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N165" t="inlineStr"/>
       <c r="O165" t="inlineStr"/>
       <c r="P165" t="inlineStr"/>
-      <c r="Q165" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="R165" t="inlineStr"/>
+      <c r="Q165" t="inlineStr"/>
+      <c r="R165" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="S165" t="inlineStr"/>
       <c r="T165" t="inlineStr"/>
       <c r="U165" t="inlineStr">
         <is>
-          <t>TotWrkE</t>
+          <t>HcvTmDrP</t>
         </is>
       </c>
       <c r="V165" t="inlineStr">
         <is>
-          <t>Count of Working Population</t>
+          <t>Percent of tracts within 30-min driving range</t>
         </is>
       </c>
       <c r="W165" t="inlineStr"/>
       <c r="X165" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_HCVTesting.md</t>
         </is>
       </c>
       <c r="Y165" t="inlineStr">
         <is>
-          <t>ACS 2018, 2023</t>
+          <t>SAMHSA 2025</t>
         </is>
       </c>
       <c r="Z165" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2025</t>
         </is>
       </c>
       <c r="AA165" t="inlineStr"/>
@@ -12391,12 +12375,12 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Economic</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Great Recession Foreclosure Rate</t>
+          <t>Spatial access to HCV Testing</t>
         </is>
       </c>
       <c r="C166" t="inlineStr"/>
@@ -12408,43 +12392,43 @@
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="inlineStr"/>
       <c r="N166" t="inlineStr"/>
       <c r="O166" t="inlineStr"/>
       <c r="P166" t="inlineStr"/>
       <c r="Q166" t="inlineStr"/>
-      <c r="R166" t="inlineStr"/>
+      <c r="R166" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="S166" t="inlineStr"/>
       <c r="T166" t="inlineStr"/>
       <c r="U166" t="inlineStr">
         <is>
-          <t>ForDqP</t>
+          <t>HivAvTmDr</t>
         </is>
       </c>
       <c r="V166" t="inlineStr">
         <is>
-          <t>Foreclosure &amp; Delinquency %</t>
+          <t>Average time drive to nearest HIV provider</t>
         </is>
       </c>
       <c r="W166" t="inlineStr"/>
       <c r="X166" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Foreclosure_Rate.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_HCVTesting.md</t>
         </is>
       </c>
       <c r="Y166" t="inlineStr">
         <is>
-          <t>HUD 2018; ACS 2012, 2018</t>
+          <t>SAMHSA 2025</t>
         </is>
       </c>
       <c r="Z166" t="inlineStr">
         <is>
-          <t>U.S. Department of Housing and Urban Development Neighborhood Stabilization Program; American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2025</t>
         </is>
       </c>
       <c r="AA166" t="inlineStr"/>
@@ -12454,12 +12438,12 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Economic</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Great Recession Foreclosure Rate</t>
+          <t>Spatial access to HCV Testing</t>
         </is>
       </c>
       <c r="C167" t="inlineStr"/>
@@ -12471,43 +12455,43 @@
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="inlineStr"/>
       <c r="N167" t="inlineStr"/>
       <c r="O167" t="inlineStr"/>
       <c r="P167" t="inlineStr"/>
       <c r="Q167" t="inlineStr"/>
-      <c r="R167" t="inlineStr"/>
+      <c r="R167" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="S167" t="inlineStr"/>
       <c r="T167" t="inlineStr"/>
       <c r="U167" t="inlineStr">
         <is>
-          <t>ForDqTot</t>
+          <t>HivCtTmDr</t>
         </is>
       </c>
       <c r="V167" t="inlineStr">
         <is>
-          <t>Foreclosure &amp; Delinquency Count</t>
+          <t>Count of tracts within 30-min driving range</t>
         </is>
       </c>
       <c r="W167" t="inlineStr"/>
       <c r="X167" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Foreclosure_Rate.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_HCVTesting.md</t>
         </is>
       </c>
       <c r="Y167" t="inlineStr">
         <is>
-          <t>HUD 2018; ACS 2012, 2018</t>
+          <t>SAMHSA 2025</t>
         </is>
       </c>
       <c r="Z167" t="inlineStr">
         <is>
-          <t>U.S. Department of Housing and Urban Development Neighborhood Stabilization Program; American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2025</t>
         </is>
       </c>
       <c r="AA167" t="inlineStr"/>
@@ -12517,72 +12501,60 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Economic</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Great Recession Foreclosure Rate</t>
+          <t>Spatial access to HCV Testing</t>
         </is>
       </c>
       <c r="C168" t="inlineStr"/>
       <c r="D168" t="inlineStr"/>
       <c r="E168" t="inlineStr"/>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="F168" t="inlineStr"/>
       <c r="G168" t="inlineStr"/>
       <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="inlineStr"/>
-      <c r="N168" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N168" t="inlineStr"/>
       <c r="O168" t="inlineStr"/>
       <c r="P168" t="inlineStr"/>
-      <c r="Q168" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="R168" t="inlineStr"/>
+      <c r="Q168" t="inlineStr"/>
+      <c r="R168" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="S168" t="inlineStr"/>
       <c r="T168" t="inlineStr"/>
       <c r="U168" t="inlineStr">
         <is>
-          <t>GiniCoeff</t>
+          <t>HivTmDrP</t>
         </is>
       </c>
       <c r="V168" t="inlineStr">
         <is>
-          <t>Income Inequality (Gini Coefficient)</t>
+          <t>Percent of tracts within 30-min driving range</t>
         </is>
       </c>
       <c r="W168" t="inlineStr"/>
       <c r="X168" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Foreclosure_Rate.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_HCVTesting.md</t>
         </is>
       </c>
       <c r="Y168" t="inlineStr">
         <is>
-          <t>HUD 2018; ACS 2012, 2018</t>
+          <t>SAMHSA 2025</t>
         </is>
       </c>
       <c r="Z168" t="inlineStr">
         <is>
-          <t>U.S. Department of Housing and Urban Development Neighborhood Stabilization Program; American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2025</t>
         </is>
       </c>
       <c r="AA168" t="inlineStr"/>
@@ -12592,12 +12564,12 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Economic</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Internet Access</t>
+          <t>Spatial access to Health Centers</t>
         </is>
       </c>
       <c r="C169" t="inlineStr"/>
@@ -12610,42 +12582,46 @@
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr"/>
-      <c r="M169" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O169" t="inlineStr"/>
       <c r="P169" t="inlineStr"/>
       <c r="Q169" t="inlineStr"/>
-      <c r="R169" t="inlineStr"/>
+      <c r="R169" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="S169" t="inlineStr"/>
       <c r="T169" t="inlineStr"/>
       <c r="U169" t="inlineStr">
         <is>
-          <t>NoIntP</t>
+          <t>FqhcAvTmDr</t>
         </is>
       </c>
       <c r="V169" t="inlineStr">
         <is>
-          <t>Households without Internet Access %</t>
+          <t>Driving Time to nearest Federally Qualified Health Center</t>
         </is>
       </c>
       <c r="W169" t="inlineStr"/>
       <c r="X169" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Internet_Access.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_FQHCs.md</t>
         </is>
       </c>
       <c r="Y169" t="inlineStr">
         <is>
-          <t>ACS 2019</t>
+          <t>US Covid Atlas via HRSA 2020; Tiger/Line 2018</t>
         </is>
       </c>
       <c r="Z169" t="inlineStr">
         <is>
-          <t>American Community Survey 2015-2019 5-Year Estimate</t>
+          <t>United States Covid Atlas via Health Resources and Services Adminsitration, 2020; Tiger/Line 2018 Shapefiles</t>
         </is>
       </c>
       <c r="AA169" t="inlineStr"/>
@@ -12655,32 +12631,24 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Economic</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Poverty, Income, Gini Coefficient</t>
+          <t>Spatial access to Health Centers</t>
         </is>
       </c>
       <c r="C170" t="inlineStr"/>
       <c r="D170" t="inlineStr"/>
       <c r="E170" t="inlineStr"/>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="F170" t="inlineStr"/>
       <c r="G170" t="inlineStr"/>
       <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="inlineStr"/>
       <c r="N170" t="inlineStr">
         <is>
@@ -12689,38 +12657,38 @@
       </c>
       <c r="O170" t="inlineStr"/>
       <c r="P170" t="inlineStr"/>
-      <c r="Q170" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="R170" t="inlineStr"/>
+      <c r="Q170" t="inlineStr"/>
+      <c r="R170" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="S170" t="inlineStr"/>
       <c r="T170" t="inlineStr"/>
       <c r="U170" t="inlineStr">
         <is>
-          <t>MedInc</t>
+          <t>FqhcCtTmDr</t>
         </is>
       </c>
       <c r="V170" t="inlineStr">
         <is>
-          <t>Median Income</t>
+          <t>Tracts with Federally Qualified Health Center (30-min driving)</t>
         </is>
       </c>
       <c r="W170" t="inlineStr"/>
       <c r="X170" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Economic_Characteristics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_FQHCs.md</t>
         </is>
       </c>
       <c r="Y170" t="inlineStr">
         <is>
-          <t>ACS 2012, 2018; Social Explorer 2010</t>
+          <t>US Covid Atlas via HRSA 2020; Tiger/Line 2018</t>
         </is>
       </c>
       <c r="Z170" t="inlineStr">
         <is>
-          <t>American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
+          <t>United States Covid Atlas via Health Resources and Services Adminsitration, 2020; Tiger/Line 2018 Shapefiles</t>
         </is>
       </c>
       <c r="AA170" t="inlineStr"/>
@@ -12730,32 +12698,24 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Economic</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Poverty, Income, Gini Coefficient</t>
+          <t>Spatial access to Health Centers</t>
         </is>
       </c>
       <c r="C171" t="inlineStr"/>
       <c r="D171" t="inlineStr"/>
       <c r="E171" t="inlineStr"/>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="F171" t="inlineStr"/>
       <c r="G171" t="inlineStr"/>
       <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="inlineStr"/>
       <c r="N171" t="inlineStr">
         <is>
@@ -12764,38 +12724,38 @@
       </c>
       <c r="O171" t="inlineStr"/>
       <c r="P171" t="inlineStr"/>
-      <c r="Q171" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="R171" t="inlineStr"/>
+      <c r="Q171" t="inlineStr"/>
+      <c r="R171" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="S171" t="inlineStr"/>
       <c r="T171" t="inlineStr"/>
       <c r="U171" t="inlineStr">
         <is>
-          <t>PciE</t>
+          <t>FqhcTmDrP</t>
         </is>
       </c>
       <c r="V171" t="inlineStr">
         <is>
-          <t>Per Capita Income</t>
+          <t>% tracts within 30-min drive of Federally Qualified Health Center</t>
         </is>
       </c>
       <c r="W171" t="inlineStr"/>
       <c r="X171" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Economic_Characteristics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_FQHCs.md</t>
         </is>
       </c>
       <c r="Y171" t="inlineStr">
         <is>
-          <t>ACS 2012, 2018; Social Explorer 2010</t>
+          <t>US Covid Atlas via HRSA 2020; Tiger/Line 2018</t>
         </is>
       </c>
       <c r="Z171" t="inlineStr">
         <is>
-          <t>American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
+          <t>United States Covid Atlas via Health Resources and Services Adminsitration, 2020; Tiger/Line 2018 Shapefiles</t>
         </is>
       </c>
       <c r="AA171" t="inlineStr"/>
@@ -12805,34 +12765,18 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Economic</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Poverty, Income, Gini Coefficient</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Spatial access to Health Centers</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr"/>
+      <c r="D172" t="inlineStr"/>
+      <c r="E172" t="inlineStr"/>
+      <c r="F172" t="inlineStr"/>
       <c r="G172" t="inlineStr"/>
       <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
@@ -12844,49 +12788,41 @@
         </is>
       </c>
       <c r="M172" t="inlineStr"/>
-      <c r="N172" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N172" t="inlineStr"/>
       <c r="O172" t="inlineStr"/>
       <c r="P172" t="inlineStr"/>
-      <c r="Q172" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="R172" t="inlineStr"/>
+      <c r="Q172" t="inlineStr"/>
+      <c r="R172" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="S172" t="inlineStr"/>
-      <c r="T172" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="T172" t="inlineStr"/>
       <c r="U172" t="inlineStr">
         <is>
-          <t>PovP</t>
+          <t>TotTracts</t>
         </is>
       </c>
       <c r="V172" t="inlineStr">
         <is>
-          <t>Poverty %</t>
+          <t>Total Census Tract Count</t>
         </is>
       </c>
       <c r="W172" t="inlineStr"/>
       <c r="X172" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Economic_Characteristics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_FQHCs.md</t>
         </is>
       </c>
       <c r="Y172" t="inlineStr">
         <is>
-          <t>ACS 2012, 2018; Social Explorer 2010</t>
+          <t>US Covid Atlas via HRSA 2020; Tiger/Line 2018</t>
         </is>
       </c>
       <c r="Z172" t="inlineStr">
         <is>
-          <t>American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
+          <t>United States Covid Atlas via Health Resources and Services Adminsitration, 2020; Tiger/Line 2018 Shapefiles</t>
         </is>
       </c>
       <c r="AA172" t="inlineStr"/>
@@ -12896,34 +12832,18 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Economic</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Poverty, Income, Gini Coefficient</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Urban/Suburban/Rural Classification</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr"/>
+      <c r="D173" t="inlineStr"/>
+      <c r="E173" t="inlineStr"/>
+      <c r="F173" t="inlineStr"/>
       <c r="G173" t="inlineStr"/>
       <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
@@ -12935,49 +12855,37 @@
         </is>
       </c>
       <c r="M173" t="inlineStr"/>
-      <c r="N173" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N173" t="inlineStr"/>
       <c r="O173" t="inlineStr"/>
       <c r="P173" t="inlineStr"/>
-      <c r="Q173" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Q173" t="inlineStr"/>
       <c r="R173" t="inlineStr"/>
       <c r="S173" t="inlineStr"/>
-      <c r="T173" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="T173" t="inlineStr"/>
       <c r="U173" t="inlineStr">
         <is>
-          <t>UnempP</t>
+          <t>CenFlags</t>
         </is>
       </c>
       <c r="V173" t="inlineStr">
         <is>
-          <t>Unemployment %</t>
+          <t>Census Flags</t>
         </is>
       </c>
       <c r="W173" t="inlineStr"/>
       <c r="X173" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Economic_Characteristics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Urbanicity.md</t>
         </is>
       </c>
       <c r="Y173" t="inlineStr">
         <is>
-          <t>ACS 2012, 2018; Social Explorer 2010</t>
+          <t>USDA-ERS 2010; ACS 2018</t>
         </is>
       </c>
       <c r="Z173" t="inlineStr">
         <is>
-          <t>American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
+          <t>United States Department of Agriculture Economic Research Service, 2010; American Community Survey 2014-2018 5-Year Estimate</t>
         </is>
       </c>
       <c r="AA173" t="inlineStr"/>
@@ -12987,12 +12895,12 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Outcome</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Opioid Indicators</t>
+          <t>Urban/Suburban/Rural Classification</t>
         </is>
       </c>
       <c r="C174" t="inlineStr"/>
@@ -13000,79 +12908,47 @@
       <c r="E174" t="inlineStr"/>
       <c r="F174" t="inlineStr"/>
       <c r="G174" t="inlineStr"/>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I174" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="J174" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="H174" t="inlineStr"/>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="M174" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="N174" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O174" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="P174" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="inlineStr"/>
+      <c r="O174" t="inlineStr"/>
+      <c r="P174" t="inlineStr"/>
       <c r="Q174" t="inlineStr"/>
       <c r="R174" t="inlineStr"/>
       <c r="S174" t="inlineStr"/>
       <c r="T174" t="inlineStr"/>
       <c r="U174" t="inlineStr">
         <is>
-          <t>OdMortRt</t>
+          <t>RcaRuralP</t>
         </is>
       </c>
       <c r="V174" t="inlineStr">
         <is>
-          <t>Overdose Mortality Rate</t>
+          <t>% Tracts Rural (RUCA)</t>
         </is>
       </c>
       <c r="W174" t="inlineStr"/>
       <c r="X174" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Opioid_Outcomes.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Urbanicity.md</t>
         </is>
       </c>
       <c r="Y174" t="inlineStr">
         <is>
-          <t>HepVu 2014-2022</t>
+          <t>USDA-ERS 2010; ACS 2018</t>
         </is>
       </c>
       <c r="Z174" t="inlineStr">
         <is>
-          <t>HepVu, Emory University Rollins School of Public Health, 2014-2022</t>
+          <t>United States Department of Agriculture Economic Research Service, 2010; American Community Survey 2014-2018 5-Year Estimate</t>
         </is>
       </c>
       <c r="AA174" t="inlineStr"/>
@@ -13082,12 +12958,12 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Outcome</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Opioid Indicators</t>
+          <t>Urban/Suburban/Rural Classification</t>
         </is>
       </c>
       <c r="C175" t="inlineStr"/>
@@ -13099,13 +12975,13 @@
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M175" t="inlineStr"/>
-      <c r="N175" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N175" t="inlineStr"/>
       <c r="O175" t="inlineStr"/>
       <c r="P175" t="inlineStr"/>
       <c r="Q175" t="inlineStr"/>
@@ -13114,28 +12990,28 @@
       <c r="T175" t="inlineStr"/>
       <c r="U175" t="inlineStr">
         <is>
-          <t>OdMortRtAv</t>
+          <t>RcaSubrbP</t>
         </is>
       </c>
       <c r="V175" t="inlineStr">
         <is>
-          <t>Overdose Mortality Rate Average (2016-2020)</t>
+          <t>% Tracts Suburban (RUCA)</t>
         </is>
       </c>
       <c r="W175" t="inlineStr"/>
       <c r="X175" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Opioid_Outcomes.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Urbanicity.md</t>
         </is>
       </c>
       <c r="Y175" t="inlineStr">
         <is>
-          <t>HepVu 2014-2022</t>
+          <t>USDA-ERS 2010; ACS 2018</t>
         </is>
       </c>
       <c r="Z175" t="inlineStr">
         <is>
-          <t>HepVu, Emory University Rollins School of Public Health, 2014-2022</t>
+          <t>United States Department of Agriculture Economic Research Service, 2010; American Community Survey 2014-2018 5-Year Estimate</t>
         </is>
       </c>
       <c r="AA175" t="inlineStr"/>
@@ -13145,12 +13021,12 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Outcome</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Opioid Indicators</t>
+          <t>Urban/Suburban/Rural Classification</t>
         </is>
       </c>
       <c r="C176" t="inlineStr"/>
@@ -13162,47 +13038,43 @@
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M176" t="inlineStr"/>
-      <c r="N176" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N176" t="inlineStr"/>
       <c r="O176" t="inlineStr"/>
-      <c r="P176" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="P176" t="inlineStr"/>
       <c r="Q176" t="inlineStr"/>
       <c r="R176" t="inlineStr"/>
       <c r="S176" t="inlineStr"/>
       <c r="T176" t="inlineStr"/>
       <c r="U176" t="inlineStr">
         <is>
-          <t>OpRxRt</t>
+          <t>RcaUrbanP</t>
         </is>
       </c>
       <c r="V176" t="inlineStr">
         <is>
-          <t>Opioid Prescription Rate</t>
+          <t>% Tracts Urban (RUCA)</t>
         </is>
       </c>
       <c r="W176" t="inlineStr"/>
       <c r="X176" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Opioid_Outcomes.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Urbanicity.md</t>
         </is>
       </c>
       <c r="Y176" t="inlineStr">
         <is>
-          <t>HepVu 2014-2022</t>
+          <t>USDA-ERS 2010; ACS 2018</t>
         </is>
       </c>
       <c r="Z176" t="inlineStr">
         <is>
-          <t>HepVu, Emory University Rollins School of Public Health, 2014-2022</t>
+          <t>United States Department of Agriculture Economic Research Service, 2010; American Community Survey 2014-2018 5-Year Estimate</t>
         </is>
       </c>
       <c r="AA176" t="inlineStr"/>
@@ -13212,12 +13084,12 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Composite</t>
+          <t>Economic</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Social Vulnerability Indices</t>
+          <t>Employment Trends</t>
         </is>
       </c>
       <c r="C177" t="inlineStr"/>
@@ -13235,45 +13107,37 @@
         </is>
       </c>
       <c r="M177" t="inlineStr"/>
-      <c r="N177" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N177" t="inlineStr"/>
       <c r="O177" t="inlineStr"/>
-      <c r="P177" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="P177" t="inlineStr"/>
       <c r="Q177" t="inlineStr"/>
       <c r="R177" t="inlineStr"/>
       <c r="S177" t="inlineStr"/>
       <c r="T177" t="inlineStr"/>
       <c r="U177" t="inlineStr">
         <is>
-          <t>SviSmryRnk</t>
+          <t>EssnWrkE</t>
         </is>
       </c>
       <c r="V177" t="inlineStr">
         <is>
-          <t>Social Vulnerability Index (SVI) Summary Ranking</t>
+          <t>Count of Essential Workers</t>
         </is>
       </c>
       <c r="W177" t="inlineStr"/>
       <c r="X177" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Social_Vulnerability_Indices.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
         </is>
       </c>
       <c r="Y177" t="inlineStr">
         <is>
-          <t>CDC 2018, 2020, 2022</t>
+          <t>ACS 2018, 2023</t>
         </is>
       </c>
       <c r="Z177" t="inlineStr">
         <is>
-          <t>Centers for Disease Control, 2018, 2020, 2022</t>
+          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
         </is>
       </c>
       <c r="AA177" t="inlineStr"/>
@@ -13283,12 +13147,12 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Composite</t>
+          <t>Economic</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Social Vulnerability Indices</t>
+          <t>Employment Trends</t>
         </is>
       </c>
       <c r="C178" t="inlineStr"/>
@@ -13312,43 +13176,39 @@
         </is>
       </c>
       <c r="O178" t="inlineStr"/>
-      <c r="P178" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Q178" t="inlineStr"/>
+      <c r="P178" t="inlineStr"/>
+      <c r="Q178" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R178" t="inlineStr"/>
-      <c r="S178" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S178" t="inlineStr"/>
       <c r="T178" t="inlineStr"/>
       <c r="U178" t="inlineStr">
         <is>
-          <t>SviTh1</t>
+          <t>EssnWrkP</t>
         </is>
       </c>
       <c r="V178" t="inlineStr">
         <is>
-          <t>Social Vulnerability Index (SVI) 1</t>
+          <t>Essential Workers %</t>
         </is>
       </c>
       <c r="W178" t="inlineStr"/>
       <c r="X178" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Social_Vulnerability_Indices.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
         </is>
       </c>
       <c r="Y178" t="inlineStr">
         <is>
-          <t>CDC 2018, 2020, 2022</t>
+          <t>ACS 2018, 2023</t>
         </is>
       </c>
       <c r="Z178" t="inlineStr">
         <is>
-          <t>Centers for Disease Control, 2018, 2020, 2022</t>
+          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
         </is>
       </c>
       <c r="AA178" t="inlineStr"/>
@@ -13358,12 +13218,12 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Composite</t>
+          <t>Economic</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Social Vulnerability Indices</t>
+          <t>Employment Trends</t>
         </is>
       </c>
       <c r="C179" t="inlineStr"/>
@@ -13387,39 +13247,39 @@
         </is>
       </c>
       <c r="O179" t="inlineStr"/>
-      <c r="P179" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Q179" t="inlineStr"/>
+      <c r="P179" t="inlineStr"/>
+      <c r="Q179" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R179" t="inlineStr"/>
       <c r="S179" t="inlineStr"/>
       <c r="T179" t="inlineStr"/>
       <c r="U179" t="inlineStr">
         <is>
-          <t>SviTh2</t>
+          <t>HghRskP</t>
         </is>
       </c>
       <c r="V179" t="inlineStr">
         <is>
-          <t>Social Vulnerability Index (SVI) 2</t>
+          <t>Employed % - High Risk of Injury</t>
         </is>
       </c>
       <c r="W179" t="inlineStr"/>
       <c r="X179" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Social_Vulnerability_Indices.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
         </is>
       </c>
       <c r="Y179" t="inlineStr">
         <is>
-          <t>CDC 2018, 2020, 2022</t>
+          <t>ACS 2018, 2023</t>
         </is>
       </c>
       <c r="Z179" t="inlineStr">
         <is>
-          <t>Centers for Disease Control, 2018, 2020, 2022</t>
+          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
         </is>
       </c>
       <c r="AA179" t="inlineStr"/>
@@ -13429,12 +13289,12 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Composite</t>
+          <t>Economic</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Social Vulnerability Indices</t>
+          <t>Employment Trends</t>
         </is>
       </c>
       <c r="C180" t="inlineStr"/>
@@ -13458,39 +13318,39 @@
         </is>
       </c>
       <c r="O180" t="inlineStr"/>
-      <c r="P180" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Q180" t="inlineStr"/>
+      <c r="P180" t="inlineStr"/>
+      <c r="Q180" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R180" t="inlineStr"/>
       <c r="S180" t="inlineStr"/>
       <c r="T180" t="inlineStr"/>
       <c r="U180" t="inlineStr">
         <is>
-          <t>SviTh3</t>
+          <t>HltCrP</t>
         </is>
       </c>
       <c r="V180" t="inlineStr">
         <is>
-          <t>Social Vulnerability Index (SVI) 3</t>
+          <t>Employed % - Health Care</t>
         </is>
       </c>
       <c r="W180" t="inlineStr"/>
       <c r="X180" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Social_Vulnerability_Indices.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
         </is>
       </c>
       <c r="Y180" t="inlineStr">
         <is>
-          <t>CDC 2018, 2020, 2022</t>
+          <t>ACS 2018, 2023</t>
         </is>
       </c>
       <c r="Z180" t="inlineStr">
         <is>
-          <t>Centers for Disease Control, 2018, 2020, 2022</t>
+          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
         </is>
       </c>
       <c r="AA180" t="inlineStr"/>
@@ -13500,12 +13360,12 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Composite</t>
+          <t>Economic</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Social Vulnerability Indices</t>
+          <t>Employment Trends</t>
         </is>
       </c>
       <c r="C181" t="inlineStr"/>
@@ -13529,48 +13389,1299 @@
         </is>
       </c>
       <c r="O181" t="inlineStr"/>
-      <c r="P181" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Q181" t="inlineStr"/>
+      <c r="P181" t="inlineStr"/>
+      <c r="Q181" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R181" t="inlineStr"/>
-      <c r="S181" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S181" t="inlineStr"/>
       <c r="T181" t="inlineStr"/>
       <c r="U181" t="inlineStr">
         <is>
-          <t>SviTh4</t>
+          <t>RetailP</t>
         </is>
       </c>
       <c r="V181" t="inlineStr">
         <is>
-          <t>Social Vulnerability Index (SVI) 4</t>
+          <t>Employed % - Retail</t>
         </is>
       </c>
       <c r="W181" t="inlineStr"/>
       <c r="X181" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Social_Vulnerability_Indices.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
         </is>
       </c>
       <c r="Y181" t="inlineStr">
         <is>
-          <t>CDC 2018, 2020, 2022</t>
+          <t>ACS 2018, 2023</t>
         </is>
       </c>
       <c r="Z181" t="inlineStr">
         <is>
-          <t>Centers for Disease Control, 2018, 2020, 2022</t>
+          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
         </is>
       </c>
       <c r="AA181" t="inlineStr"/>
       <c r="AB181" t="inlineStr"/>
       <c r="AC181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Economic</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Employment Trends</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr"/>
+      <c r="D182" t="inlineStr"/>
+      <c r="E182" t="inlineStr"/>
+      <c r="F182" t="inlineStr"/>
+      <c r="G182" t="inlineStr"/>
+      <c r="H182" t="inlineStr"/>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O182" t="inlineStr"/>
+      <c r="P182" t="inlineStr"/>
+      <c r="Q182" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="R182" t="inlineStr"/>
+      <c r="S182" t="inlineStr"/>
+      <c r="T182" t="inlineStr"/>
+      <c r="U182" t="inlineStr">
+        <is>
+          <t>TotWrkE</t>
+        </is>
+      </c>
+      <c r="V182" t="inlineStr">
+        <is>
+          <t>Count of Working Population</t>
+        </is>
+      </c>
+      <c r="W182" t="inlineStr"/>
+      <c r="X182" t="inlineStr">
+        <is>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
+        </is>
+      </c>
+      <c r="Y182" t="inlineStr">
+        <is>
+          <t>ACS 2018, 2023</t>
+        </is>
+      </c>
+      <c r="Z182" t="inlineStr">
+        <is>
+          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
+        </is>
+      </c>
+      <c r="AA182" t="inlineStr"/>
+      <c r="AB182" t="inlineStr"/>
+      <c r="AC182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Economic</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Great Recession Foreclosure Rate</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr"/>
+      <c r="D183" t="inlineStr"/>
+      <c r="E183" t="inlineStr"/>
+      <c r="F183" t="inlineStr"/>
+      <c r="G183" t="inlineStr"/>
+      <c r="H183" t="inlineStr"/>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="inlineStr"/>
+      <c r="O183" t="inlineStr"/>
+      <c r="P183" t="inlineStr"/>
+      <c r="Q183" t="inlineStr"/>
+      <c r="R183" t="inlineStr"/>
+      <c r="S183" t="inlineStr"/>
+      <c r="T183" t="inlineStr"/>
+      <c r="U183" t="inlineStr">
+        <is>
+          <t>ForDqP</t>
+        </is>
+      </c>
+      <c r="V183" t="inlineStr">
+        <is>
+          <t>Foreclosure &amp; Delinquency %</t>
+        </is>
+      </c>
+      <c r="W183" t="inlineStr"/>
+      <c r="X183" t="inlineStr">
+        <is>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Foreclosure_Rate.md</t>
+        </is>
+      </c>
+      <c r="Y183" t="inlineStr">
+        <is>
+          <t>HUD 2018; ACS 2012, 2018</t>
+        </is>
+      </c>
+      <c r="Z183" t="inlineStr">
+        <is>
+          <t>U.S. Department of Housing and Urban Development Neighborhood Stabilization Program; American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates</t>
+        </is>
+      </c>
+      <c r="AA183" t="inlineStr"/>
+      <c r="AB183" t="inlineStr"/>
+      <c r="AC183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Economic</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Great Recession Foreclosure Rate</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr"/>
+      <c r="D184" t="inlineStr"/>
+      <c r="E184" t="inlineStr"/>
+      <c r="F184" t="inlineStr"/>
+      <c r="G184" t="inlineStr"/>
+      <c r="H184" t="inlineStr"/>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="inlineStr"/>
+      <c r="O184" t="inlineStr"/>
+      <c r="P184" t="inlineStr"/>
+      <c r="Q184" t="inlineStr"/>
+      <c r="R184" t="inlineStr"/>
+      <c r="S184" t="inlineStr"/>
+      <c r="T184" t="inlineStr"/>
+      <c r="U184" t="inlineStr">
+        <is>
+          <t>ForDqTot</t>
+        </is>
+      </c>
+      <c r="V184" t="inlineStr">
+        <is>
+          <t>Foreclosure &amp; Delinquency Count</t>
+        </is>
+      </c>
+      <c r="W184" t="inlineStr"/>
+      <c r="X184" t="inlineStr">
+        <is>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Foreclosure_Rate.md</t>
+        </is>
+      </c>
+      <c r="Y184" t="inlineStr">
+        <is>
+          <t>HUD 2018; ACS 2012, 2018</t>
+        </is>
+      </c>
+      <c r="Z184" t="inlineStr">
+        <is>
+          <t>U.S. Department of Housing and Urban Development Neighborhood Stabilization Program; American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates</t>
+        </is>
+      </c>
+      <c r="AA184" t="inlineStr"/>
+      <c r="AB184" t="inlineStr"/>
+      <c r="AC184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Economic</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Great Recession Foreclosure Rate</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr"/>
+      <c r="D185" t="inlineStr"/>
+      <c r="E185" t="inlineStr"/>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr"/>
+      <c r="H185" t="inlineStr"/>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O185" t="inlineStr"/>
+      <c r="P185" t="inlineStr"/>
+      <c r="Q185" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="R185" t="inlineStr"/>
+      <c r="S185" t="inlineStr"/>
+      <c r="T185" t="inlineStr"/>
+      <c r="U185" t="inlineStr">
+        <is>
+          <t>GiniCoeff</t>
+        </is>
+      </c>
+      <c r="V185" t="inlineStr">
+        <is>
+          <t>Income Inequality (Gini Coefficient)</t>
+        </is>
+      </c>
+      <c r="W185" t="inlineStr"/>
+      <c r="X185" t="inlineStr">
+        <is>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Foreclosure_Rate.md</t>
+        </is>
+      </c>
+      <c r="Y185" t="inlineStr">
+        <is>
+          <t>HUD 2018; ACS 2012, 2018</t>
+        </is>
+      </c>
+      <c r="Z185" t="inlineStr">
+        <is>
+          <t>U.S. Department of Housing and Urban Development Neighborhood Stabilization Program; American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates</t>
+        </is>
+      </c>
+      <c r="AA185" t="inlineStr"/>
+      <c r="AB185" t="inlineStr"/>
+      <c r="AC185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Economic</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Internet Access</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr"/>
+      <c r="D186" t="inlineStr"/>
+      <c r="E186" t="inlineStr"/>
+      <c r="F186" t="inlineStr"/>
+      <c r="G186" t="inlineStr"/>
+      <c r="H186" t="inlineStr"/>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N186" t="inlineStr"/>
+      <c r="O186" t="inlineStr"/>
+      <c r="P186" t="inlineStr"/>
+      <c r="Q186" t="inlineStr"/>
+      <c r="R186" t="inlineStr"/>
+      <c r="S186" t="inlineStr"/>
+      <c r="T186" t="inlineStr"/>
+      <c r="U186" t="inlineStr">
+        <is>
+          <t>NoIntP</t>
+        </is>
+      </c>
+      <c r="V186" t="inlineStr">
+        <is>
+          <t>Households without Internet Access %</t>
+        </is>
+      </c>
+      <c r="W186" t="inlineStr"/>
+      <c r="X186" t="inlineStr">
+        <is>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Internet_Access.md</t>
+        </is>
+      </c>
+      <c r="Y186" t="inlineStr">
+        <is>
+          <t>ACS 2019</t>
+        </is>
+      </c>
+      <c r="Z186" t="inlineStr">
+        <is>
+          <t>American Community Survey 2015-2019 5-Year Estimate</t>
+        </is>
+      </c>
+      <c r="AA186" t="inlineStr"/>
+      <c r="AB186" t="inlineStr"/>
+      <c r="AC186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Economic</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Poverty, Income, Gini Coefficient</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr"/>
+      <c r="D187" t="inlineStr"/>
+      <c r="E187" t="inlineStr"/>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr"/>
+      <c r="H187" t="inlineStr"/>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O187" t="inlineStr"/>
+      <c r="P187" t="inlineStr"/>
+      <c r="Q187" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="R187" t="inlineStr"/>
+      <c r="S187" t="inlineStr"/>
+      <c r="T187" t="inlineStr"/>
+      <c r="U187" t="inlineStr">
+        <is>
+          <t>MedInc</t>
+        </is>
+      </c>
+      <c r="V187" t="inlineStr">
+        <is>
+          <t>Median Income</t>
+        </is>
+      </c>
+      <c r="W187" t="inlineStr"/>
+      <c r="X187" t="inlineStr">
+        <is>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Economic_Characteristics.md</t>
+        </is>
+      </c>
+      <c r="Y187" t="inlineStr">
+        <is>
+          <t>ACS 2012, 2018; Social Explorer 2010</t>
+        </is>
+      </c>
+      <c r="Z187" t="inlineStr">
+        <is>
+          <t>American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
+        </is>
+      </c>
+      <c r="AA187" t="inlineStr"/>
+      <c r="AB187" t="inlineStr"/>
+      <c r="AC187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Economic</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Poverty, Income, Gini Coefficient</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr"/>
+      <c r="D188" t="inlineStr"/>
+      <c r="E188" t="inlineStr"/>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr"/>
+      <c r="H188" t="inlineStr"/>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O188" t="inlineStr"/>
+      <c r="P188" t="inlineStr"/>
+      <c r="Q188" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="R188" t="inlineStr"/>
+      <c r="S188" t="inlineStr"/>
+      <c r="T188" t="inlineStr"/>
+      <c r="U188" t="inlineStr">
+        <is>
+          <t>PciE</t>
+        </is>
+      </c>
+      <c r="V188" t="inlineStr">
+        <is>
+          <t>Per Capita Income</t>
+        </is>
+      </c>
+      <c r="W188" t="inlineStr"/>
+      <c r="X188" t="inlineStr">
+        <is>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Economic_Characteristics.md</t>
+        </is>
+      </c>
+      <c r="Y188" t="inlineStr">
+        <is>
+          <t>ACS 2012, 2018; Social Explorer 2010</t>
+        </is>
+      </c>
+      <c r="Z188" t="inlineStr">
+        <is>
+          <t>American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
+        </is>
+      </c>
+      <c r="AA188" t="inlineStr"/>
+      <c r="AB188" t="inlineStr"/>
+      <c r="AC188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Economic</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Poverty, Income, Gini Coefficient</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr"/>
+      <c r="H189" t="inlineStr"/>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O189" t="inlineStr"/>
+      <c r="P189" t="inlineStr"/>
+      <c r="Q189" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="R189" t="inlineStr"/>
+      <c r="S189" t="inlineStr"/>
+      <c r="T189" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="U189" t="inlineStr">
+        <is>
+          <t>PovP</t>
+        </is>
+      </c>
+      <c r="V189" t="inlineStr">
+        <is>
+          <t>Poverty %</t>
+        </is>
+      </c>
+      <c r="W189" t="inlineStr"/>
+      <c r="X189" t="inlineStr">
+        <is>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Economic_Characteristics.md</t>
+        </is>
+      </c>
+      <c r="Y189" t="inlineStr">
+        <is>
+          <t>ACS 2012, 2018; Social Explorer 2010</t>
+        </is>
+      </c>
+      <c r="Z189" t="inlineStr">
+        <is>
+          <t>American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
+        </is>
+      </c>
+      <c r="AA189" t="inlineStr"/>
+      <c r="AB189" t="inlineStr"/>
+      <c r="AC189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Economic</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Poverty, Income, Gini Coefficient</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr"/>
+      <c r="H190" t="inlineStr"/>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M190" t="inlineStr"/>
+      <c r="N190" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O190" t="inlineStr"/>
+      <c r="P190" t="inlineStr"/>
+      <c r="Q190" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="R190" t="inlineStr"/>
+      <c r="S190" t="inlineStr"/>
+      <c r="T190" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="U190" t="inlineStr">
+        <is>
+          <t>UnempP</t>
+        </is>
+      </c>
+      <c r="V190" t="inlineStr">
+        <is>
+          <t>Unemployment %</t>
+        </is>
+      </c>
+      <c r="W190" t="inlineStr"/>
+      <c r="X190" t="inlineStr">
+        <is>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Economic_Characteristics.md</t>
+        </is>
+      </c>
+      <c r="Y190" t="inlineStr">
+        <is>
+          <t>ACS 2012, 2018; Social Explorer 2010</t>
+        </is>
+      </c>
+      <c r="Z190" t="inlineStr">
+        <is>
+          <t>American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
+        </is>
+      </c>
+      <c r="AA190" t="inlineStr"/>
+      <c r="AB190" t="inlineStr"/>
+      <c r="AC190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Outcome</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Opioid Indicators</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr"/>
+      <c r="D191" t="inlineStr"/>
+      <c r="E191" t="inlineStr"/>
+      <c r="F191" t="inlineStr"/>
+      <c r="G191" t="inlineStr"/>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M191" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N191" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O191" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="P191" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q191" t="inlineStr"/>
+      <c r="R191" t="inlineStr"/>
+      <c r="S191" t="inlineStr"/>
+      <c r="T191" t="inlineStr"/>
+      <c r="U191" t="inlineStr">
+        <is>
+          <t>OdMortRt</t>
+        </is>
+      </c>
+      <c r="V191" t="inlineStr">
+        <is>
+          <t>Overdose Mortality Rate</t>
+        </is>
+      </c>
+      <c r="W191" t="inlineStr"/>
+      <c r="X191" t="inlineStr">
+        <is>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Opioid_Outcomes.md</t>
+        </is>
+      </c>
+      <c r="Y191" t="inlineStr">
+        <is>
+          <t>HepVu 2014-2022</t>
+        </is>
+      </c>
+      <c r="Z191" t="inlineStr">
+        <is>
+          <t>HepVu, Emory University Rollins School of Public Health, 2014-2022</t>
+        </is>
+      </c>
+      <c r="AA191" t="inlineStr"/>
+      <c r="AB191" t="inlineStr"/>
+      <c r="AC191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Outcome</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Opioid Indicators</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr"/>
+      <c r="D192" t="inlineStr"/>
+      <c r="E192" t="inlineStr"/>
+      <c r="F192" t="inlineStr"/>
+      <c r="G192" t="inlineStr"/>
+      <c r="H192" t="inlineStr"/>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O192" t="inlineStr"/>
+      <c r="P192" t="inlineStr"/>
+      <c r="Q192" t="inlineStr"/>
+      <c r="R192" t="inlineStr"/>
+      <c r="S192" t="inlineStr"/>
+      <c r="T192" t="inlineStr"/>
+      <c r="U192" t="inlineStr">
+        <is>
+          <t>OdMortRtAv</t>
+        </is>
+      </c>
+      <c r="V192" t="inlineStr">
+        <is>
+          <t>Overdose Mortality Rate Average (2016-2020)</t>
+        </is>
+      </c>
+      <c r="W192" t="inlineStr"/>
+      <c r="X192" t="inlineStr">
+        <is>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Opioid_Outcomes.md</t>
+        </is>
+      </c>
+      <c r="Y192" t="inlineStr">
+        <is>
+          <t>HepVu 2014-2022</t>
+        </is>
+      </c>
+      <c r="Z192" t="inlineStr">
+        <is>
+          <t>HepVu, Emory University Rollins School of Public Health, 2014-2022</t>
+        </is>
+      </c>
+      <c r="AA192" t="inlineStr"/>
+      <c r="AB192" t="inlineStr"/>
+      <c r="AC192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Outcome</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Opioid Indicators</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr"/>
+      <c r="D193" t="inlineStr"/>
+      <c r="E193" t="inlineStr"/>
+      <c r="F193" t="inlineStr"/>
+      <c r="G193" t="inlineStr"/>
+      <c r="H193" t="inlineStr"/>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O193" t="inlineStr"/>
+      <c r="P193" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q193" t="inlineStr"/>
+      <c r="R193" t="inlineStr"/>
+      <c r="S193" t="inlineStr"/>
+      <c r="T193" t="inlineStr"/>
+      <c r="U193" t="inlineStr">
+        <is>
+          <t>OpRxRt</t>
+        </is>
+      </c>
+      <c r="V193" t="inlineStr">
+        <is>
+          <t>Opioid Prescription Rate</t>
+        </is>
+      </c>
+      <c r="W193" t="inlineStr"/>
+      <c r="X193" t="inlineStr">
+        <is>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Opioid_Outcomes.md</t>
+        </is>
+      </c>
+      <c r="Y193" t="inlineStr">
+        <is>
+          <t>HepVu 2014-2022</t>
+        </is>
+      </c>
+      <c r="Z193" t="inlineStr">
+        <is>
+          <t>HepVu, Emory University Rollins School of Public Health, 2014-2022</t>
+        </is>
+      </c>
+      <c r="AA193" t="inlineStr"/>
+      <c r="AB193" t="inlineStr"/>
+      <c r="AC193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Composite</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Social Vulnerability Indices</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr"/>
+      <c r="D194" t="inlineStr"/>
+      <c r="E194" t="inlineStr"/>
+      <c r="F194" t="inlineStr"/>
+      <c r="G194" t="inlineStr"/>
+      <c r="H194" t="inlineStr"/>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O194" t="inlineStr"/>
+      <c r="P194" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q194" t="inlineStr"/>
+      <c r="R194" t="inlineStr"/>
+      <c r="S194" t="inlineStr"/>
+      <c r="T194" t="inlineStr"/>
+      <c r="U194" t="inlineStr">
+        <is>
+          <t>SviSmryRnk</t>
+        </is>
+      </c>
+      <c r="V194" t="inlineStr">
+        <is>
+          <t>Social Vulnerability Index (SVI) Summary Ranking</t>
+        </is>
+      </c>
+      <c r="W194" t="inlineStr"/>
+      <c r="X194" t="inlineStr">
+        <is>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Social_Vulnerability_Indices.md</t>
+        </is>
+      </c>
+      <c r="Y194" t="inlineStr">
+        <is>
+          <t>CDC 2018, 2020, 2022</t>
+        </is>
+      </c>
+      <c r="Z194" t="inlineStr">
+        <is>
+          <t>Centers for Disease Control, 2018, 2020, 2022</t>
+        </is>
+      </c>
+      <c r="AA194" t="inlineStr"/>
+      <c r="AB194" t="inlineStr"/>
+      <c r="AC194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Composite</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Social Vulnerability Indices</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr"/>
+      <c r="D195" t="inlineStr"/>
+      <c r="E195" t="inlineStr"/>
+      <c r="F195" t="inlineStr"/>
+      <c r="G195" t="inlineStr"/>
+      <c r="H195" t="inlineStr"/>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O195" t="inlineStr"/>
+      <c r="P195" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q195" t="inlineStr"/>
+      <c r="R195" t="inlineStr"/>
+      <c r="S195" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="T195" t="inlineStr"/>
+      <c r="U195" t="inlineStr">
+        <is>
+          <t>SviTh1</t>
+        </is>
+      </c>
+      <c r="V195" t="inlineStr">
+        <is>
+          <t>Social Vulnerability Index (SVI) 1</t>
+        </is>
+      </c>
+      <c r="W195" t="inlineStr"/>
+      <c r="X195" t="inlineStr">
+        <is>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Social_Vulnerability_Indices.md</t>
+        </is>
+      </c>
+      <c r="Y195" t="inlineStr">
+        <is>
+          <t>CDC 2018, 2020, 2022</t>
+        </is>
+      </c>
+      <c r="Z195" t="inlineStr">
+        <is>
+          <t>Centers for Disease Control, 2018, 2020, 2022</t>
+        </is>
+      </c>
+      <c r="AA195" t="inlineStr"/>
+      <c r="AB195" t="inlineStr"/>
+      <c r="AC195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Composite</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Social Vulnerability Indices</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr"/>
+      <c r="D196" t="inlineStr"/>
+      <c r="E196" t="inlineStr"/>
+      <c r="F196" t="inlineStr"/>
+      <c r="G196" t="inlineStr"/>
+      <c r="H196" t="inlineStr"/>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M196" t="inlineStr"/>
+      <c r="N196" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O196" t="inlineStr"/>
+      <c r="P196" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q196" t="inlineStr"/>
+      <c r="R196" t="inlineStr"/>
+      <c r="S196" t="inlineStr"/>
+      <c r="T196" t="inlineStr"/>
+      <c r="U196" t="inlineStr">
+        <is>
+          <t>SviTh2</t>
+        </is>
+      </c>
+      <c r="V196" t="inlineStr">
+        <is>
+          <t>Social Vulnerability Index (SVI) 2</t>
+        </is>
+      </c>
+      <c r="W196" t="inlineStr"/>
+      <c r="X196" t="inlineStr">
+        <is>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Social_Vulnerability_Indices.md</t>
+        </is>
+      </c>
+      <c r="Y196" t="inlineStr">
+        <is>
+          <t>CDC 2018, 2020, 2022</t>
+        </is>
+      </c>
+      <c r="Z196" t="inlineStr">
+        <is>
+          <t>Centers for Disease Control, 2018, 2020, 2022</t>
+        </is>
+      </c>
+      <c r="AA196" t="inlineStr"/>
+      <c r="AB196" t="inlineStr"/>
+      <c r="AC196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Composite</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Social Vulnerability Indices</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr"/>
+      <c r="D197" t="inlineStr"/>
+      <c r="E197" t="inlineStr"/>
+      <c r="F197" t="inlineStr"/>
+      <c r="G197" t="inlineStr"/>
+      <c r="H197" t="inlineStr"/>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M197" t="inlineStr"/>
+      <c r="N197" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O197" t="inlineStr"/>
+      <c r="P197" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q197" t="inlineStr"/>
+      <c r="R197" t="inlineStr"/>
+      <c r="S197" t="inlineStr"/>
+      <c r="T197" t="inlineStr"/>
+      <c r="U197" t="inlineStr">
+        <is>
+          <t>SviTh3</t>
+        </is>
+      </c>
+      <c r="V197" t="inlineStr">
+        <is>
+          <t>Social Vulnerability Index (SVI) 3</t>
+        </is>
+      </c>
+      <c r="W197" t="inlineStr"/>
+      <c r="X197" t="inlineStr">
+        <is>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Social_Vulnerability_Indices.md</t>
+        </is>
+      </c>
+      <c r="Y197" t="inlineStr">
+        <is>
+          <t>CDC 2018, 2020, 2022</t>
+        </is>
+      </c>
+      <c r="Z197" t="inlineStr">
+        <is>
+          <t>Centers for Disease Control, 2018, 2020, 2022</t>
+        </is>
+      </c>
+      <c r="AA197" t="inlineStr"/>
+      <c r="AB197" t="inlineStr"/>
+      <c r="AC197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Composite</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Social Vulnerability Indices</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr"/>
+      <c r="D198" t="inlineStr"/>
+      <c r="E198" t="inlineStr"/>
+      <c r="F198" t="inlineStr"/>
+      <c r="G198" t="inlineStr"/>
+      <c r="H198" t="inlineStr"/>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O198" t="inlineStr"/>
+      <c r="P198" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q198" t="inlineStr"/>
+      <c r="R198" t="inlineStr"/>
+      <c r="S198" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="T198" t="inlineStr"/>
+      <c r="U198" t="inlineStr">
+        <is>
+          <t>SviTh4</t>
+        </is>
+      </c>
+      <c r="V198" t="inlineStr">
+        <is>
+          <t>Social Vulnerability Index (SVI) 4</t>
+        </is>
+      </c>
+      <c r="W198" t="inlineStr"/>
+      <c r="X198" t="inlineStr">
+        <is>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Social_Vulnerability_Indices.md</t>
+        </is>
+      </c>
+      <c r="Y198" t="inlineStr">
+        <is>
+          <t>CDC 2018, 2020, 2022</t>
+        </is>
+      </c>
+      <c r="Z198" t="inlineStr">
+        <is>
+          <t>Centers for Disease Control, 2018, 2020, 2022</t>
+        </is>
+      </c>
+      <c r="AA198" t="inlineStr"/>
+      <c r="AB198" t="inlineStr"/>
+      <c r="AC198" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/docs/src/reference/data-dictionaries/C_Dict.xlsx
+++ b/docs/src/reference/data-dictionaries/C_Dict.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD222"/>
+  <dimension ref="A1:AD230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9238,17 +9238,13 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Veteran Population</t>
+          <t>Social capital index</t>
         </is>
       </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
@@ -9260,11 +9256,7 @@
         </is>
       </c>
       <c r="M117" t="inlineStr"/>
-      <c r="N117" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr"/>
       <c r="P117" t="inlineStr"/>
       <c r="Q117" t="inlineStr">
@@ -9278,28 +9270,28 @@
       <c r="U117" t="inlineStr"/>
       <c r="V117" t="inlineStr">
         <is>
-          <t>TotVetPop</t>
+          <t>RspRt</t>
         </is>
       </c>
       <c r="W117" t="inlineStr">
         <is>
-          <t>Total Veteran Population</t>
+          <t>Response Rate</t>
         </is>
       </c>
       <c r="X117" t="inlineStr"/>
       <c r="Y117" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Veteran_Population.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/232-add-social-capital-metadata-and-registry-files-prep-for-index/metadata/Social_Capital.md</t>
         </is>
       </c>
       <c r="Z117" t="inlineStr">
         <is>
-          <t>ACS 2018, 2023; Census 2010, 2020</t>
+          <t>ACS 2018, 2023; Overture</t>
         </is>
       </c>
       <c r="AA117" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates; 2010 &amp; 2020 Decennial Census</t>
+          <t>American Community Survey 2018 5-year estimates, 2023 5-year estimates; Overture Maps Foundation</t>
         </is>
       </c>
       <c r="AB117" t="inlineStr"/>
@@ -9354,12 +9346,12 @@
       <c r="U118" t="inlineStr"/>
       <c r="V118" t="inlineStr">
         <is>
-          <t>VetP</t>
+          <t>TotVetPop</t>
         </is>
       </c>
       <c r="W118" t="inlineStr">
         <is>
-          <t>% Veteran Population</t>
+          <t>Total Veteran Population</t>
         </is>
       </c>
       <c r="X118" t="inlineStr"/>
@@ -9385,18 +9377,22 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Environment</t>
+          <t>Social</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Alcohol Outlet Density Measures</t>
+          <t>Veteran Population</t>
         </is>
       </c>
       <c r="C119" t="inlineStr"/>
       <c r="D119" t="inlineStr"/>
       <c r="E119" t="inlineStr"/>
-      <c r="F119" t="inlineStr"/>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
@@ -9408,38 +9404,46 @@
         </is>
       </c>
       <c r="M119" t="inlineStr"/>
-      <c r="N119" t="inlineStr"/>
+      <c r="N119" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O119" t="inlineStr"/>
       <c r="P119" t="inlineStr"/>
-      <c r="Q119" t="inlineStr"/>
+      <c r="Q119" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R119" t="inlineStr"/>
       <c r="S119" t="inlineStr"/>
       <c r="T119" t="inlineStr"/>
       <c r="U119" t="inlineStr"/>
       <c r="V119" t="inlineStr">
         <is>
-          <t>AlcDens</t>
+          <t>VetP</t>
         </is>
       </c>
       <c r="W119" t="inlineStr">
         <is>
-          <t>Alcohol Outlets Density</t>
+          <t>% Veteran Population</t>
         </is>
       </c>
       <c r="X119" t="inlineStr"/>
       <c r="Y119" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Alcohol_Outlet_Density.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Veteran_Population.md</t>
         </is>
       </c>
       <c r="Z119" t="inlineStr">
         <is>
-          <t xml:space="preserve">InfoGroup 2018 </t>
+          <t>ACS 2018, 2023; Census 2010, 2020</t>
         </is>
       </c>
       <c r="AA119" t="inlineStr">
         <is>
-          <t>InfoGroup's 2018 Business and Consumer Historical Datafile</t>
+          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates; 2010 &amp; 2020 Decennial Census</t>
         </is>
       </c>
       <c r="AB119" t="inlineStr"/>
@@ -9482,12 +9486,12 @@
       <c r="U120" t="inlineStr"/>
       <c r="V120" t="inlineStr">
         <is>
-          <t>AlcPerCap</t>
+          <t>AlcDens</t>
         </is>
       </c>
       <c r="W120" t="inlineStr">
         <is>
-          <t>Alcohol Outlets per Capita</t>
+          <t>Alcohol Outlets Density</t>
         </is>
       </c>
       <c r="X120" t="inlineStr"/>
@@ -9546,12 +9550,12 @@
       <c r="U121" t="inlineStr"/>
       <c r="V121" t="inlineStr">
         <is>
-          <t>AlcTot</t>
+          <t>AlcPerCap</t>
         </is>
       </c>
       <c r="W121" t="inlineStr">
         <is>
-          <t>Total Alcohol Outlets</t>
+          <t>Alcohol Outlets per Capita</t>
         </is>
       </c>
       <c r="X121" t="inlineStr"/>
@@ -9610,12 +9614,12 @@
       <c r="U122" t="inlineStr"/>
       <c r="V122" t="inlineStr">
         <is>
-          <t>AreaSqMi</t>
+          <t>AlcTot</t>
         </is>
       </c>
       <c r="W122" t="inlineStr">
         <is>
-          <t>Land Area (Square Miles)</t>
+          <t>Total Alcohol Outlets</t>
         </is>
       </c>
       <c r="X122" t="inlineStr"/>
@@ -9646,7 +9650,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Greenspace Measures</t>
+          <t>Alcohol Outlet Density Measures</t>
         </is>
       </c>
       <c r="C123" t="inlineStr"/>
@@ -9674,28 +9678,28 @@
       <c r="U123" t="inlineStr"/>
       <c r="V123" t="inlineStr">
         <is>
-          <t>Ndvi</t>
+          <t>AreaSqMi</t>
         </is>
       </c>
       <c r="W123" t="inlineStr">
         <is>
-          <t>NDVI Average</t>
+          <t>Land Area (Square Miles)</t>
         </is>
       </c>
       <c r="X123" t="inlineStr"/>
       <c r="Y123" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Greenspace_Measures.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Alcohol_Outlet_Density.md</t>
         </is>
       </c>
       <c r="Z123" t="inlineStr">
         <is>
-          <t>Tiger/Line 2018; Sentinel-2 MSI 2018; OSM</t>
+          <t xml:space="preserve">InfoGroup 2018 </t>
         </is>
       </c>
       <c r="AA123" t="inlineStr">
         <is>
-          <t>Tiger/Line 2018 Shapefiles; Sentinel 2 MSI: MultiSpectral Instrument Level-1 C, 2018; OpenStreetMap Contributors</t>
+          <t>InfoGroup's 2018 Business and Consumer Historical Datafile</t>
         </is>
       </c>
       <c r="AB123" t="inlineStr"/>
@@ -9710,23 +9714,23 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Healthcare Provider Access</t>
+          <t>Greenspace Measures</t>
         </is>
       </c>
       <c r="C124" t="inlineStr"/>
       <c r="D124" t="inlineStr"/>
       <c r="E124" t="inlineStr"/>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="F124" t="inlineStr"/>
       <c r="G124" t="inlineStr"/>
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M124" t="inlineStr"/>
       <c r="N124" t="inlineStr"/>
       <c r="O124" t="inlineStr"/>
@@ -9734,36 +9738,32 @@
       <c r="Q124" t="inlineStr"/>
       <c r="R124" t="inlineStr"/>
       <c r="S124" t="inlineStr"/>
-      <c r="T124" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="T124" t="inlineStr"/>
       <c r="U124" t="inlineStr"/>
       <c r="V124" t="inlineStr">
         <is>
-          <t>PcpPer100k</t>
+          <t>Ndvi</t>
         </is>
       </c>
       <c r="W124" t="inlineStr">
         <is>
-          <t>Primary Care Physicians (PCP) per 100k</t>
+          <t>NDVI Average</t>
         </is>
       </c>
       <c r="X124" t="inlineStr"/>
       <c r="Y124" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Healthcare_Provider_Access.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Greenspace_Measures.md</t>
         </is>
       </c>
       <c r="Z124" t="inlineStr">
         <is>
-          <t>Dartmouth Atlas 2010</t>
+          <t>Tiger/Line 2018; Sentinel-2 MSI 2018; OSM</t>
         </is>
       </c>
       <c r="AA124" t="inlineStr">
         <is>
-          <t>Dartmouth Atlas' Primary Care Service Area (PCSA) Project, 2010</t>
+          <t>Tiger/Line 2018 Shapefiles; Sentinel 2 MSI: MultiSpectral Instrument Level-1 C, 2018; OpenStreetMap Contributors</t>
         </is>
       </c>
       <c r="AB124" t="inlineStr"/>
@@ -9802,16 +9802,20 @@
       <c r="Q125" t="inlineStr"/>
       <c r="R125" t="inlineStr"/>
       <c r="S125" t="inlineStr"/>
-      <c r="T125" t="inlineStr"/>
+      <c r="T125" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="U125" t="inlineStr"/>
       <c r="V125" t="inlineStr">
         <is>
-          <t>SpPer100k</t>
+          <t>PcpPer100k</t>
         </is>
       </c>
       <c r="W125" t="inlineStr">
         <is>
-          <t>Specialty Physicians per 100k</t>
+          <t>Primary Care Physicians (PCP) per 100k</t>
         </is>
       </c>
       <c r="X125" t="inlineStr"/>
@@ -9870,12 +9874,12 @@
       <c r="U126" t="inlineStr"/>
       <c r="V126" t="inlineStr">
         <is>
-          <t>TotPcp</t>
+          <t>SpPer100k</t>
         </is>
       </c>
       <c r="W126" t="inlineStr">
         <is>
-          <t>Count of Primary Care Physicians (PCPs)</t>
+          <t>Specialty Physicians per 100k</t>
         </is>
       </c>
       <c r="X126" t="inlineStr"/>
@@ -9934,12 +9938,12 @@
       <c r="U127" t="inlineStr"/>
       <c r="V127" t="inlineStr">
         <is>
-          <t>TotSp</t>
+          <t>TotPcp</t>
         </is>
       </c>
       <c r="W127" t="inlineStr">
         <is>
-          <t>Count of Specialty Physicians</t>
+          <t>Count of Primary Care Physicians (PCPs)</t>
         </is>
       </c>
       <c r="X127" t="inlineStr"/>
@@ -9970,64 +9974,56 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t xml:space="preserve">Housing Characteristics </t>
+          <t>Healthcare Provider Access</t>
         </is>
       </c>
       <c r="C128" t="inlineStr"/>
       <c r="D128" t="inlineStr"/>
       <c r="E128" t="inlineStr"/>
-      <c r="F128" t="inlineStr"/>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="G128" t="inlineStr"/>
       <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="inlineStr"/>
-      <c r="N128" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N128" t="inlineStr"/>
       <c r="O128" t="inlineStr"/>
       <c r="P128" t="inlineStr"/>
-      <c r="Q128" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Q128" t="inlineStr"/>
       <c r="R128" t="inlineStr"/>
       <c r="S128" t="inlineStr"/>
       <c r="T128" t="inlineStr"/>
       <c r="U128" t="inlineStr"/>
       <c r="V128" t="inlineStr">
         <is>
-          <t>LngTermP</t>
+          <t>TotSp</t>
         </is>
       </c>
       <c r="W128" t="inlineStr">
         <is>
-          <t>Long-Term Occupancy %</t>
+          <t>Count of Specialty Physicians</t>
         </is>
       </c>
       <c r="X128" t="inlineStr"/>
       <c r="Y128" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Housing_Variables.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Healthcare_Provider_Access.md</t>
         </is>
       </c>
       <c r="Z128" t="inlineStr">
         <is>
-          <t>ACS 2012, 2018; Social Explorer 2010</t>
+          <t>Dartmouth Atlas 2010</t>
         </is>
       </c>
       <c r="AA128" t="inlineStr">
         <is>
-          <t>American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
+          <t>Dartmouth Atlas' Primary Care Service Area (PCSA) Project, 2010</t>
         </is>
       </c>
       <c r="AB128" t="inlineStr"/>
@@ -10078,12 +10074,12 @@
       <c r="U129" t="inlineStr"/>
       <c r="V129" t="inlineStr">
         <is>
-          <t>MobileP</t>
+          <t>LngTermP</t>
         </is>
       </c>
       <c r="W129" t="inlineStr">
         <is>
-          <t>Mobile Homes %</t>
+          <t>Long-Term Occupancy %</t>
         </is>
       </c>
       <c r="X129" t="inlineStr"/>
@@ -10150,12 +10146,12 @@
       <c r="U130" t="inlineStr"/>
       <c r="V130" t="inlineStr">
         <is>
-          <t>RentalP</t>
+          <t>MobileP</t>
         </is>
       </c>
       <c r="W130" t="inlineStr">
         <is>
-          <t>Rentals %</t>
+          <t>Mobile Homes %</t>
         </is>
       </c>
       <c r="X130" t="inlineStr"/>
@@ -10189,26 +10185,10 @@
           <t xml:space="preserve">Housing Characteristics </t>
         </is>
       </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="C131" t="inlineStr"/>
+      <c r="D131" t="inlineStr"/>
+      <c r="E131" t="inlineStr"/>
+      <c r="F131" t="inlineStr"/>
       <c r="G131" t="inlineStr"/>
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
@@ -10235,19 +10215,15 @@
       <c r="R131" t="inlineStr"/>
       <c r="S131" t="inlineStr"/>
       <c r="T131" t="inlineStr"/>
-      <c r="U131" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="U131" t="inlineStr"/>
       <c r="V131" t="inlineStr">
         <is>
-          <t>TotUnits</t>
+          <t>RentalP</t>
         </is>
       </c>
       <c r="W131" t="inlineStr">
         <is>
-          <t>Total Occupied Housing Units</t>
+          <t>Rentals %</t>
         </is>
       </c>
       <c r="X131" t="inlineStr"/>
@@ -10281,10 +10257,26 @@
           <t xml:space="preserve">Housing Characteristics </t>
         </is>
       </c>
-      <c r="C132" t="inlineStr"/>
-      <c r="D132" t="inlineStr"/>
-      <c r="E132" t="inlineStr"/>
-      <c r="F132" t="inlineStr"/>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="G132" t="inlineStr"/>
       <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
@@ -10311,15 +10303,19 @@
       <c r="R132" t="inlineStr"/>
       <c r="S132" t="inlineStr"/>
       <c r="T132" t="inlineStr"/>
-      <c r="U132" t="inlineStr"/>
+      <c r="U132" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="V132" t="inlineStr">
         <is>
-          <t>UnitDens</t>
+          <t>TotUnits</t>
         </is>
       </c>
       <c r="W132" t="inlineStr">
         <is>
-          <t>Housing Unit Density</t>
+          <t>Total Occupied Housing Units</t>
         </is>
       </c>
       <c r="X132" t="inlineStr"/>
@@ -10353,26 +10349,10 @@
           <t xml:space="preserve">Housing Characteristics </t>
         </is>
       </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="C133" t="inlineStr"/>
+      <c r="D133" t="inlineStr"/>
+      <c r="E133" t="inlineStr"/>
+      <c r="F133" t="inlineStr"/>
       <c r="G133" t="inlineStr"/>
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
@@ -10399,19 +10379,15 @@
       <c r="R133" t="inlineStr"/>
       <c r="S133" t="inlineStr"/>
       <c r="T133" t="inlineStr"/>
-      <c r="U133" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="U133" t="inlineStr"/>
       <c r="V133" t="inlineStr">
         <is>
-          <t>VacantP</t>
+          <t>UnitDens</t>
         </is>
       </c>
       <c r="W133" t="inlineStr">
         <is>
-          <t>Vacant Housing Units %</t>
+          <t>Housing Unit Density</t>
         </is>
       </c>
       <c r="X133" t="inlineStr"/>
@@ -10442,19 +10418,39 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Spatial Access to Hospitals</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr"/>
-      <c r="D134" t="inlineStr"/>
-      <c r="E134" t="inlineStr"/>
-      <c r="F134" t="inlineStr"/>
+          <t xml:space="preserve">Housing Characteristics </t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="G134" t="inlineStr"/>
       <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M134" t="inlineStr"/>
       <c r="N134" t="inlineStr">
         <is>
@@ -10463,39 +10459,43 @@
       </c>
       <c r="O134" t="inlineStr"/>
       <c r="P134" t="inlineStr"/>
-      <c r="Q134" t="inlineStr"/>
+      <c r="Q134" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R134" t="inlineStr"/>
-      <c r="S134" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S134" t="inlineStr"/>
       <c r="T134" t="inlineStr"/>
-      <c r="U134" t="inlineStr"/>
+      <c r="U134" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="V134" t="inlineStr">
         <is>
-          <t>HospAvTmDr</t>
+          <t>VacantP</t>
         </is>
       </c>
       <c r="W134" t="inlineStr">
         <is>
-          <t>Avg. Driving Time to nearest Hospital</t>
+          <t>Vacant Housing Units %</t>
         </is>
       </c>
       <c r="X134" t="inlineStr"/>
       <c r="Y134" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Hospitals.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Housing_Variables.md</t>
         </is>
       </c>
       <c r="Z134" t="inlineStr">
         <is>
-          <t>CovidCareMap 2020</t>
+          <t>ACS 2012, 2018; Social Explorer 2010</t>
         </is>
       </c>
       <c r="AA134" t="inlineStr">
         <is>
-          <t>CovidCareMap, 2020</t>
+          <t>American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
         </is>
       </c>
       <c r="AB134" t="inlineStr"/>
@@ -10542,12 +10542,12 @@
       <c r="U135" t="inlineStr"/>
       <c r="V135" t="inlineStr">
         <is>
-          <t>HospCtTmDr</t>
+          <t>HospAvTmDr</t>
         </is>
       </c>
       <c r="W135" t="inlineStr">
         <is>
-          <t>Tracts with Hospital (30-min drive)</t>
+          <t>Avg. Driving Time to nearest Hospital</t>
         </is>
       </c>
       <c r="X135" t="inlineStr"/>
@@ -10610,12 +10610,12 @@
       <c r="U136" t="inlineStr"/>
       <c r="V136" t="inlineStr">
         <is>
-          <t>HospTmDrP</t>
+          <t>HospCtTmDr</t>
         </is>
       </c>
       <c r="W136" t="inlineStr">
         <is>
-          <t>% Tracts within 30-min Drive of Hospital</t>
+          <t>Tracts with Hospital (30-min drive)</t>
         </is>
       </c>
       <c r="X136" t="inlineStr"/>
@@ -10646,7 +10646,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Spatial Access to MOUDs</t>
+          <t>Spatial Access to Hospitals</t>
         </is>
       </c>
       <c r="C137" t="inlineStr"/>
@@ -10678,28 +10678,28 @@
       <c r="U137" t="inlineStr"/>
       <c r="V137" t="inlineStr">
         <is>
-          <t>BupAvTmBk</t>
+          <t>HospTmDrP</t>
         </is>
       </c>
       <c r="W137" t="inlineStr">
         <is>
-          <t>Biking Time (min) to Nearest Buprenorphine Provider</t>
+          <t>% Tracts within 30-min Drive of Hospital</t>
         </is>
       </c>
       <c r="X137" t="inlineStr"/>
       <c r="Y137" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Hospitals.md</t>
         </is>
       </c>
       <c r="Z137" t="inlineStr">
         <is>
-          <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
+          <t>CovidCareMap 2020</t>
         </is>
       </c>
       <c r="AA137" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
+          <t>CovidCareMap, 2020</t>
         </is>
       </c>
       <c r="AB137" t="inlineStr"/>
@@ -10737,21 +10737,17 @@
       <c r="P138" t="inlineStr"/>
       <c r="Q138" t="inlineStr"/>
       <c r="R138" t="inlineStr"/>
-      <c r="S138" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S138" t="inlineStr"/>
       <c r="T138" t="inlineStr"/>
       <c r="U138" t="inlineStr"/>
       <c r="V138" t="inlineStr">
         <is>
-          <t>BupAvTmDr</t>
+          <t>BupAvTmBk</t>
         </is>
       </c>
       <c r="W138" t="inlineStr">
         <is>
-          <t>Driving Time (min) to Nearest Buprenorphine Provider</t>
+          <t>Biking Time (min) to Nearest Buprenorphine Provider</t>
         </is>
       </c>
       <c r="X138" t="inlineStr"/>
@@ -10805,21 +10801,17 @@
       <c r="P139" t="inlineStr"/>
       <c r="Q139" t="inlineStr"/>
       <c r="R139" t="inlineStr"/>
-      <c r="S139" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S139" t="inlineStr"/>
       <c r="T139" t="inlineStr"/>
       <c r="U139" t="inlineStr"/>
       <c r="V139" t="inlineStr">
         <is>
-          <t>BupAvTmWk</t>
+          <t>BupAvTmDr</t>
         </is>
       </c>
       <c r="W139" t="inlineStr">
         <is>
-          <t>Walking Time (min) to Nearest Buprenorphine Provider</t>
+          <t>Driving Time (min) to Nearest Buprenorphine Provider</t>
         </is>
       </c>
       <c r="X139" t="inlineStr"/>
@@ -10873,21 +10865,17 @@
       <c r="P140" t="inlineStr"/>
       <c r="Q140" t="inlineStr"/>
       <c r="R140" t="inlineStr"/>
-      <c r="S140" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S140" t="inlineStr"/>
       <c r="T140" t="inlineStr"/>
       <c r="U140" t="inlineStr"/>
       <c r="V140" t="inlineStr">
         <is>
-          <t>BupCtTmBk</t>
+          <t>BupAvTmWk</t>
         </is>
       </c>
       <c r="W140" t="inlineStr">
         <is>
-          <t>Tracts with Buprenorphine Provider within 30-min (biking)</t>
+          <t>Walking Time (min) to Nearest Buprenorphine Provider</t>
         </is>
       </c>
       <c r="X140" t="inlineStr"/>
@@ -10950,12 +10938,12 @@
       <c r="U141" t="inlineStr"/>
       <c r="V141" t="inlineStr">
         <is>
-          <t>BupCtTmDr</t>
+          <t>BupCtTmBk</t>
         </is>
       </c>
       <c r="W141" t="inlineStr">
         <is>
-          <t>Tracts with Buprenorphine Provider within 30-min (driving)</t>
+          <t>Tracts with Buprenorphine Provider within 30-min (biking)</t>
         </is>
       </c>
       <c r="X141" t="inlineStr"/>
@@ -11018,12 +11006,12 @@
       <c r="U142" t="inlineStr"/>
       <c r="V142" t="inlineStr">
         <is>
-          <t>BupCtTmWk</t>
+          <t>BupCtTmDr</t>
         </is>
       </c>
       <c r="W142" t="inlineStr">
         <is>
-          <t>Tracts with Buprenorphine Provider within 30-min (walking)</t>
+          <t>Tracts with Buprenorphine Provider within 30-min (driving)</t>
         </is>
       </c>
       <c r="X142" t="inlineStr"/>
@@ -11086,12 +11074,12 @@
       <c r="U143" t="inlineStr"/>
       <c r="V143" t="inlineStr">
         <is>
-          <t>BupTmBkP</t>
+          <t>BupCtTmWk</t>
         </is>
       </c>
       <c r="W143" t="inlineStr">
         <is>
-          <t>% Tracts With Buprenorphine Provider (30-min bike)</t>
+          <t>Tracts with Buprenorphine Provider within 30-min (walking)</t>
         </is>
       </c>
       <c r="X143" t="inlineStr"/>
@@ -11150,16 +11138,20 @@
           <t>x</t>
         </is>
       </c>
-      <c r="T144" t="inlineStr"/>
+      <c r="T144" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="U144" t="inlineStr"/>
       <c r="V144" t="inlineStr">
         <is>
-          <t>BupTmDrP</t>
+          <t>BupTmBk</t>
         </is>
       </c>
       <c r="W144" t="inlineStr">
         <is>
-          <t>% Tracts With Buprenorphine Provider (30-min drive)</t>
+          <t>Biking Time (min) to nearest Buprenorphine Provider</t>
         </is>
       </c>
       <c r="X144" t="inlineStr"/>
@@ -11222,12 +11214,12 @@
       <c r="U145" t="inlineStr"/>
       <c r="V145" t="inlineStr">
         <is>
-          <t>BupTmWkP</t>
+          <t>BupTmBkP</t>
         </is>
       </c>
       <c r="W145" t="inlineStr">
         <is>
-          <t>% Tracts With Buprenorphine Provider (30-min walk)</t>
+          <t>% Tracts With Buprenorphine Provider (30-min bike)</t>
         </is>
       </c>
       <c r="X145" t="inlineStr"/>
@@ -11286,16 +11278,20 @@
           <t>x</t>
         </is>
       </c>
-      <c r="T146" t="inlineStr"/>
+      <c r="T146" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="U146" t="inlineStr"/>
       <c r="V146" t="inlineStr">
         <is>
-          <t>MetAvTmBk</t>
+          <t>BupTmDr</t>
         </is>
       </c>
       <c r="W146" t="inlineStr">
         <is>
-          <t>Biking Time (min) to Nearest Methadone Provider</t>
+          <t>Driving Time (min) to nearest Buprenorphine Provider</t>
         </is>
       </c>
       <c r="X146" t="inlineStr"/>
@@ -11358,12 +11354,12 @@
       <c r="U147" t="inlineStr"/>
       <c r="V147" t="inlineStr">
         <is>
-          <t>MetAvTmDr</t>
+          <t>BupTmDrP</t>
         </is>
       </c>
       <c r="W147" t="inlineStr">
         <is>
-          <t>Driving Time (min) to Nearest Methadone Provider</t>
+          <t>% Tracts With Buprenorphine Provider (30-min drive)</t>
         </is>
       </c>
       <c r="X147" t="inlineStr"/>
@@ -11422,16 +11418,20 @@
           <t>x</t>
         </is>
       </c>
-      <c r="T148" t="inlineStr"/>
+      <c r="T148" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="U148" t="inlineStr"/>
       <c r="V148" t="inlineStr">
         <is>
-          <t>MetAvTmWk</t>
+          <t>BupTmWk</t>
         </is>
       </c>
       <c r="W148" t="inlineStr">
         <is>
-          <t>Walking Time (min) to Nearest Methadone Provide</t>
+          <t>Walking Time (min) to nearest Buprenorphine Provider</t>
         </is>
       </c>
       <c r="X148" t="inlineStr"/>
@@ -11494,12 +11494,12 @@
       <c r="U149" t="inlineStr"/>
       <c r="V149" t="inlineStr">
         <is>
-          <t>MetCtTmBk</t>
+          <t>BupTmWkP</t>
         </is>
       </c>
       <c r="W149" t="inlineStr">
         <is>
-          <t>Tracts with Methadone Provider within 30-min (biking)</t>
+          <t>% Tracts With Buprenorphine Provider (30-min walk)</t>
         </is>
       </c>
       <c r="X149" t="inlineStr"/>
@@ -11553,21 +11553,17 @@
       <c r="P150" t="inlineStr"/>
       <c r="Q150" t="inlineStr"/>
       <c r="R150" t="inlineStr"/>
-      <c r="S150" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S150" t="inlineStr"/>
       <c r="T150" t="inlineStr"/>
       <c r="U150" t="inlineStr"/>
       <c r="V150" t="inlineStr">
         <is>
-          <t>MetCtTmDr</t>
+          <t>MetAvTmBk</t>
         </is>
       </c>
       <c r="W150" t="inlineStr">
         <is>
-          <t>Tracts with Methadone Provider within 30-min (driving)</t>
+          <t>Biking Time (min) to Nearest Methadone Provider</t>
         </is>
       </c>
       <c r="X150" t="inlineStr"/>
@@ -11621,21 +11617,17 @@
       <c r="P151" t="inlineStr"/>
       <c r="Q151" t="inlineStr"/>
       <c r="R151" t="inlineStr"/>
-      <c r="S151" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S151" t="inlineStr"/>
       <c r="T151" t="inlineStr"/>
       <c r="U151" t="inlineStr"/>
       <c r="V151" t="inlineStr">
         <is>
-          <t>MetCtTmWk</t>
+          <t>MetAvTmDr</t>
         </is>
       </c>
       <c r="W151" t="inlineStr">
         <is>
-          <t>Tracts with Methadone Provider within 30-min (walking)</t>
+          <t>Driving Time (min) to Nearest Methadone Provider</t>
         </is>
       </c>
       <c r="X151" t="inlineStr"/>
@@ -11689,21 +11681,17 @@
       <c r="P152" t="inlineStr"/>
       <c r="Q152" t="inlineStr"/>
       <c r="R152" t="inlineStr"/>
-      <c r="S152" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S152" t="inlineStr"/>
       <c r="T152" t="inlineStr"/>
       <c r="U152" t="inlineStr"/>
       <c r="V152" t="inlineStr">
         <is>
-          <t>MetTmBkP</t>
+          <t>MetAvTmWk</t>
         </is>
       </c>
       <c r="W152" t="inlineStr">
         <is>
-          <t>% Tracts With Methadone Provider (30-min bike)</t>
+          <t>Walking Time (min) to Nearest Methadone Provide</t>
         </is>
       </c>
       <c r="X152" t="inlineStr"/>
@@ -11766,12 +11754,12 @@
       <c r="U153" t="inlineStr"/>
       <c r="V153" t="inlineStr">
         <is>
-          <t>MetTmDrP</t>
+          <t>MetCtTmBk</t>
         </is>
       </c>
       <c r="W153" t="inlineStr">
         <is>
-          <t>% Tracts With Methadone Provider (30-min drive)</t>
+          <t>Tracts with Methadone Provider within 30-min (biking)</t>
         </is>
       </c>
       <c r="X153" t="inlineStr"/>
@@ -11834,12 +11822,12 @@
       <c r="U154" t="inlineStr"/>
       <c r="V154" t="inlineStr">
         <is>
-          <t>MetTmWkP</t>
+          <t>MetCtTmDr</t>
         </is>
       </c>
       <c r="W154" t="inlineStr">
         <is>
-          <t>% Tracts With Methadone Provider (30-min walk)</t>
+          <t>Tracts with Methadone Provider within 30-min (driving)</t>
         </is>
       </c>
       <c r="X154" t="inlineStr"/>
@@ -11902,12 +11890,12 @@
       <c r="U155" t="inlineStr"/>
       <c r="V155" t="inlineStr">
         <is>
-          <t>NaltAvTmBk</t>
+          <t>MetCtTmWk</t>
         </is>
       </c>
       <c r="W155" t="inlineStr">
         <is>
-          <t>Biking Time (min) to Nearest Naltrexone Provider</t>
+          <t>Tracts with Methadone Provider within 30-min (walking)</t>
         </is>
       </c>
       <c r="X155" t="inlineStr"/>
@@ -11966,16 +11954,20 @@
           <t>x</t>
         </is>
       </c>
-      <c r="T156" t="inlineStr"/>
+      <c r="T156" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="U156" t="inlineStr"/>
       <c r="V156" t="inlineStr">
         <is>
-          <t>NaltAvTmDr</t>
+          <t>MetTmBk</t>
         </is>
       </c>
       <c r="W156" t="inlineStr">
         <is>
-          <t>Driving Time (min) to Nearest Naltrexone Provider</t>
+          <t>Biking Time (min) to nearest Methadone Provider</t>
         </is>
       </c>
       <c r="X156" t="inlineStr"/>
@@ -12038,12 +12030,12 @@
       <c r="U157" t="inlineStr"/>
       <c r="V157" t="inlineStr">
         <is>
-          <t>NaltAvTmWk</t>
+          <t>MetTmBkP</t>
         </is>
       </c>
       <c r="W157" t="inlineStr">
         <is>
-          <t>Walking Time (min) to Nearest Naltrexone Provider</t>
+          <t>% Tracts With Methadone Provider (30-min bike)</t>
         </is>
       </c>
       <c r="X157" t="inlineStr"/>
@@ -12102,16 +12094,20 @@
           <t>x</t>
         </is>
       </c>
-      <c r="T158" t="inlineStr"/>
+      <c r="T158" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="U158" t="inlineStr"/>
       <c r="V158" t="inlineStr">
         <is>
-          <t>NaltCtTmBk</t>
+          <t>MetTmDr</t>
         </is>
       </c>
       <c r="W158" t="inlineStr">
         <is>
-          <t>Tracts with Naltrexone Provider within 30-min (biking)</t>
+          <t>Driving Time (min) to nearest Methadone Provider</t>
         </is>
       </c>
       <c r="X158" t="inlineStr"/>
@@ -12174,12 +12170,12 @@
       <c r="U159" t="inlineStr"/>
       <c r="V159" t="inlineStr">
         <is>
-          <t>NaltCtTmDr</t>
+          <t>MetTmDrP</t>
         </is>
       </c>
       <c r="W159" t="inlineStr">
         <is>
-          <t>Tracts with Naltrexone Provider within 30-min (driving)</t>
+          <t>% Tracts With Methadone Provider (30-min drive)</t>
         </is>
       </c>
       <c r="X159" t="inlineStr"/>
@@ -12238,16 +12234,20 @@
           <t>x</t>
         </is>
       </c>
-      <c r="T160" t="inlineStr"/>
+      <c r="T160" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="U160" t="inlineStr"/>
       <c r="V160" t="inlineStr">
         <is>
-          <t>NaltCtTmWk</t>
+          <t>MetTmWk</t>
         </is>
       </c>
       <c r="W160" t="inlineStr">
         <is>
-          <t>Tracts with Naltrexone Provider within 30-min (walking)</t>
+          <t>Walking Time (min) to nearest Methadone Provider</t>
         </is>
       </c>
       <c r="X160" t="inlineStr"/>
@@ -12310,12 +12310,12 @@
       <c r="U161" t="inlineStr"/>
       <c r="V161" t="inlineStr">
         <is>
-          <t>NaltTmBkP</t>
+          <t>MetTmWkP</t>
         </is>
       </c>
       <c r="W161" t="inlineStr">
         <is>
-          <t>% Tracts With Naltrexone Provider (30-min bike)</t>
+          <t>% Tracts With Methadone Provider (30-min walk)</t>
         </is>
       </c>
       <c r="X161" t="inlineStr"/>
@@ -12369,21 +12369,17 @@
       <c r="P162" t="inlineStr"/>
       <c r="Q162" t="inlineStr"/>
       <c r="R162" t="inlineStr"/>
-      <c r="S162" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S162" t="inlineStr"/>
       <c r="T162" t="inlineStr"/>
       <c r="U162" t="inlineStr"/>
       <c r="V162" t="inlineStr">
         <is>
-          <t>NaltTmDrP</t>
+          <t>NaltAvTmBk</t>
         </is>
       </c>
       <c r="W162" t="inlineStr">
         <is>
-          <t>% Tracts With Naltrexone Provider (30-min drive)</t>
+          <t>Biking Time (min) to Nearest Naltrexone Provider</t>
         </is>
       </c>
       <c r="X162" t="inlineStr"/>
@@ -12437,21 +12433,17 @@
       <c r="P163" t="inlineStr"/>
       <c r="Q163" t="inlineStr"/>
       <c r="R163" t="inlineStr"/>
-      <c r="S163" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S163" t="inlineStr"/>
       <c r="T163" t="inlineStr"/>
       <c r="U163" t="inlineStr"/>
       <c r="V163" t="inlineStr">
         <is>
-          <t>NaltTmWkP</t>
+          <t>NaltAvTmDr</t>
         </is>
       </c>
       <c r="W163" t="inlineStr">
         <is>
-          <t>% Tracts With Naltrexone Provider (30-min walk)</t>
+          <t>Driving Time (min) to Nearest Naltrexone Provider</t>
         </is>
       </c>
       <c r="X163" t="inlineStr"/>
@@ -12496,30 +12488,26 @@
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr"/>
       <c r="M164" t="inlineStr"/>
-      <c r="N164" t="inlineStr"/>
-      <c r="O164" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N164" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O164" t="inlineStr"/>
       <c r="P164" t="inlineStr"/>
       <c r="Q164" t="inlineStr"/>
       <c r="R164" t="inlineStr"/>
-      <c r="S164" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S164" t="inlineStr"/>
       <c r="T164" t="inlineStr"/>
       <c r="U164" t="inlineStr"/>
       <c r="V164" t="inlineStr">
         <is>
-          <t>OtpAvTmDr</t>
+          <t>NaltAvTmWk</t>
         </is>
       </c>
       <c r="W164" t="inlineStr">
         <is>
-          <t>Driving Time (min) to nearest Opioid Treatment Program (OTP)</t>
+          <t>Walking Time (min) to Nearest Naltrexone Provider</t>
         </is>
       </c>
       <c r="X164" t="inlineStr"/>
@@ -12564,12 +12552,12 @@
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr"/>
       <c r="M165" t="inlineStr"/>
-      <c r="N165" t="inlineStr"/>
-      <c r="O165" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N165" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O165" t="inlineStr"/>
       <c r="P165" t="inlineStr"/>
       <c r="Q165" t="inlineStr"/>
       <c r="R165" t="inlineStr"/>
@@ -12582,12 +12570,12 @@
       <c r="U165" t="inlineStr"/>
       <c r="V165" t="inlineStr">
         <is>
-          <t>OtpCtTmDr</t>
+          <t>NaltCtTmBk</t>
         </is>
       </c>
       <c r="W165" t="inlineStr">
         <is>
-          <t>Tracts with Opioid Treatment Program (OTP) (30-min drive)</t>
+          <t>Tracts with Naltrexone Provider within 30-min (biking)</t>
         </is>
       </c>
       <c r="X165" t="inlineStr"/>
@@ -12632,12 +12620,12 @@
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr"/>
       <c r="M166" t="inlineStr"/>
-      <c r="N166" t="inlineStr"/>
-      <c r="O166" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N166" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O166" t="inlineStr"/>
       <c r="P166" t="inlineStr"/>
       <c r="Q166" t="inlineStr"/>
       <c r="R166" t="inlineStr"/>
@@ -12650,12 +12638,12 @@
       <c r="U166" t="inlineStr"/>
       <c r="V166" t="inlineStr">
         <is>
-          <t>OtpTmDrP</t>
+          <t>NaltCtTmDr</t>
         </is>
       </c>
       <c r="W166" t="inlineStr">
         <is>
-          <t>% Tracts with Opioid Treatment Program (OTP) (30-min drive)</t>
+          <t>Tracts with Naltrexone Provider within 30-min (driving)</t>
         </is>
       </c>
       <c r="X166" t="inlineStr"/>
@@ -12700,7 +12688,11 @@
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr"/>
       <c r="M167" t="inlineStr"/>
-      <c r="N167" t="inlineStr"/>
+      <c r="N167" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O167" t="inlineStr"/>
       <c r="P167" t="inlineStr"/>
       <c r="Q167" t="inlineStr"/>
@@ -12714,12 +12706,12 @@
       <c r="U167" t="inlineStr"/>
       <c r="V167" t="inlineStr">
         <is>
-          <t>TlBupAvTmBk</t>
+          <t>NaltCtTmWk</t>
         </is>
       </c>
       <c r="W167" t="inlineStr">
         <is>
-          <t>Average biking time to nearest telehealth buprenorphine provider</t>
+          <t>Tracts with Naltrexone Provider within 30-min (walking)</t>
         </is>
       </c>
       <c r="X167" t="inlineStr"/>
@@ -12764,7 +12756,11 @@
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr"/>
       <c r="M168" t="inlineStr"/>
-      <c r="N168" t="inlineStr"/>
+      <c r="N168" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O168" t="inlineStr"/>
       <c r="P168" t="inlineStr"/>
       <c r="Q168" t="inlineStr"/>
@@ -12774,16 +12770,20 @@
           <t>x</t>
         </is>
       </c>
-      <c r="T168" t="inlineStr"/>
+      <c r="T168" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="U168" t="inlineStr"/>
       <c r="V168" t="inlineStr">
         <is>
-          <t>TlBupAvTmDr</t>
+          <t>NaltTmBk</t>
         </is>
       </c>
       <c r="W168" t="inlineStr">
         <is>
-          <t>Average driving time to nearest telehealth buprenorphine provider</t>
+          <t>Biking Time (min) to nearest Naltrexone Provider</t>
         </is>
       </c>
       <c r="X168" t="inlineStr"/>
@@ -12828,7 +12828,11 @@
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr"/>
       <c r="M169" t="inlineStr"/>
-      <c r="N169" t="inlineStr"/>
+      <c r="N169" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O169" t="inlineStr"/>
       <c r="P169" t="inlineStr"/>
       <c r="Q169" t="inlineStr"/>
@@ -12842,12 +12846,12 @@
       <c r="U169" t="inlineStr"/>
       <c r="V169" t="inlineStr">
         <is>
-          <t>TlBupAvTmWk</t>
+          <t>NaltTmBkP</t>
         </is>
       </c>
       <c r="W169" t="inlineStr">
         <is>
-          <t>Average walking time to nearest telehealth buprenorphine provider</t>
+          <t>% Tracts With Naltrexone Provider (30-min bike)</t>
         </is>
       </c>
       <c r="X169" t="inlineStr"/>
@@ -12892,7 +12896,11 @@
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr"/>
       <c r="M170" t="inlineStr"/>
-      <c r="N170" t="inlineStr"/>
+      <c r="N170" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O170" t="inlineStr"/>
       <c r="P170" t="inlineStr"/>
       <c r="Q170" t="inlineStr"/>
@@ -12902,16 +12910,20 @@
           <t>x</t>
         </is>
       </c>
-      <c r="T170" t="inlineStr"/>
+      <c r="T170" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="U170" t="inlineStr"/>
       <c r="V170" t="inlineStr">
         <is>
-          <t>TlBupCtTmBk30</t>
+          <t>NaltTmDr</t>
         </is>
       </c>
       <c r="W170" t="inlineStr">
         <is>
-          <t>Count of tracts within 30-min telehealth buprenorphine biking range</t>
+          <t>Driving Time (min) to nearest Naltrexone Provider</t>
         </is>
       </c>
       <c r="X170" t="inlineStr"/>
@@ -12956,7 +12968,11 @@
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr"/>
       <c r="M171" t="inlineStr"/>
-      <c r="N171" t="inlineStr"/>
+      <c r="N171" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O171" t="inlineStr"/>
       <c r="P171" t="inlineStr"/>
       <c r="Q171" t="inlineStr"/>
@@ -12970,12 +12986,12 @@
       <c r="U171" t="inlineStr"/>
       <c r="V171" t="inlineStr">
         <is>
-          <t>TlBupCtTmDr30</t>
+          <t>NaltTmDrP</t>
         </is>
       </c>
       <c r="W171" t="inlineStr">
         <is>
-          <t>Count of tracts within 30-min telehealth buprenorphine driving range</t>
+          <t>% Tracts With Naltrexone Provider (30-min drive)</t>
         </is>
       </c>
       <c r="X171" t="inlineStr"/>
@@ -13020,7 +13036,11 @@
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr"/>
       <c r="M172" t="inlineStr"/>
-      <c r="N172" t="inlineStr"/>
+      <c r="N172" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O172" t="inlineStr"/>
       <c r="P172" t="inlineStr"/>
       <c r="Q172" t="inlineStr"/>
@@ -13030,16 +13050,20 @@
           <t>x</t>
         </is>
       </c>
-      <c r="T172" t="inlineStr"/>
+      <c r="T172" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="U172" t="inlineStr"/>
       <c r="V172" t="inlineStr">
         <is>
-          <t>TlBupCtTmDr60</t>
+          <t>NaltTmWk</t>
         </is>
       </c>
       <c r="W172" t="inlineStr">
         <is>
-          <t>Count of tracts within 60-min telehealth buprenorphine driving range</t>
+          <t>Walking Time (min) to nearest Naltrexone Provider</t>
         </is>
       </c>
       <c r="X172" t="inlineStr"/>
@@ -13084,7 +13108,11 @@
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr"/>
       <c r="M173" t="inlineStr"/>
-      <c r="N173" t="inlineStr"/>
+      <c r="N173" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O173" t="inlineStr"/>
       <c r="P173" t="inlineStr"/>
       <c r="Q173" t="inlineStr"/>
@@ -13098,12 +13126,12 @@
       <c r="U173" t="inlineStr"/>
       <c r="V173" t="inlineStr">
         <is>
-          <t>TlBupCtTmWk30</t>
+          <t>NaltTmWkP</t>
         </is>
       </c>
       <c r="W173" t="inlineStr">
         <is>
-          <t>Count of tracts within 30-min telehealth buprenorphine walking range</t>
+          <t>% Tracts With Naltrexone Provider (30-min walk)</t>
         </is>
       </c>
       <c r="X173" t="inlineStr"/>
@@ -13149,7 +13177,11 @@
       <c r="L174" t="inlineStr"/>
       <c r="M174" t="inlineStr"/>
       <c r="N174" t="inlineStr"/>
-      <c r="O174" t="inlineStr"/>
+      <c r="O174" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P174" t="inlineStr"/>
       <c r="Q174" t="inlineStr"/>
       <c r="R174" t="inlineStr"/>
@@ -13162,12 +13194,12 @@
       <c r="U174" t="inlineStr"/>
       <c r="V174" t="inlineStr">
         <is>
-          <t>TlBupTmBk30P</t>
+          <t>OtpAvTmDr</t>
         </is>
       </c>
       <c r="W174" t="inlineStr">
         <is>
-          <t>Percent of tracts within 30-min telehealth buprenorphine biking range</t>
+          <t>Driving Time (min) to nearest Opioid Treatment Program (OTP)</t>
         </is>
       </c>
       <c r="X174" t="inlineStr"/>
@@ -13213,7 +13245,11 @@
       <c r="L175" t="inlineStr"/>
       <c r="M175" t="inlineStr"/>
       <c r="N175" t="inlineStr"/>
-      <c r="O175" t="inlineStr"/>
+      <c r="O175" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P175" t="inlineStr"/>
       <c r="Q175" t="inlineStr"/>
       <c r="R175" t="inlineStr"/>
@@ -13226,12 +13262,12 @@
       <c r="U175" t="inlineStr"/>
       <c r="V175" t="inlineStr">
         <is>
-          <t>TlBupTmDr30P</t>
+          <t>OtpCtTmDr</t>
         </is>
       </c>
       <c r="W175" t="inlineStr">
         <is>
-          <t>Percent of tracts within 30-min telehealth buprenorphine driving range</t>
+          <t>Tracts with Opioid Treatment Program (OTP) (30-min drive)</t>
         </is>
       </c>
       <c r="X175" t="inlineStr"/>
@@ -13277,7 +13313,11 @@
       <c r="L176" t="inlineStr"/>
       <c r="M176" t="inlineStr"/>
       <c r="N176" t="inlineStr"/>
-      <c r="O176" t="inlineStr"/>
+      <c r="O176" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P176" t="inlineStr"/>
       <c r="Q176" t="inlineStr"/>
       <c r="R176" t="inlineStr"/>
@@ -13290,12 +13330,12 @@
       <c r="U176" t="inlineStr"/>
       <c r="V176" t="inlineStr">
         <is>
-          <t>TlBupTmDr60P</t>
+          <t>OtpTmDrP</t>
         </is>
       </c>
       <c r="W176" t="inlineStr">
         <is>
-          <t>Percent of tracts within 60-min telehealth buprenorphine driving range</t>
+          <t>% Tracts with Opioid Treatment Program (OTP) (30-min drive)</t>
         </is>
       </c>
       <c r="X176" t="inlineStr"/>
@@ -13354,12 +13394,12 @@
       <c r="U177" t="inlineStr"/>
       <c r="V177" t="inlineStr">
         <is>
-          <t>TlBupTmWk30P</t>
+          <t>TlBupCtTmBk30</t>
         </is>
       </c>
       <c r="W177" t="inlineStr">
         <is>
-          <t>Percent of tracts within 30-min telehealth buprenorphine walking range</t>
+          <t>Count of tracts within 30-min telehealth buprenorphine biking range</t>
         </is>
       </c>
       <c r="X177" t="inlineStr"/>
@@ -13390,7 +13430,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Spatial Access to Mental Health Providers</t>
+          <t>Spatial Access to MOUDs</t>
         </is>
       </c>
       <c r="C178" t="inlineStr"/>
@@ -13404,11 +13444,7 @@
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr"/>
       <c r="M178" t="inlineStr"/>
-      <c r="N178" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N178" t="inlineStr"/>
       <c r="O178" t="inlineStr"/>
       <c r="P178" t="inlineStr"/>
       <c r="Q178" t="inlineStr"/>
@@ -13422,28 +13458,28 @@
       <c r="U178" t="inlineStr"/>
       <c r="V178" t="inlineStr">
         <is>
-          <t>MhAvTmDr</t>
+          <t>TlBupCtTmDr30</t>
         </is>
       </c>
       <c r="W178" t="inlineStr">
         <is>
-          <t>Driving Time (min) to nearest Mental Health Provider</t>
+          <t>Count of tracts within 30-min telehealth buprenorphine driving range</t>
         </is>
       </c>
       <c r="X178" t="inlineStr"/>
       <c r="Y178" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Mental_Health.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="Z178" t="inlineStr">
         <is>
-          <t>SAMHSA 2020</t>
+          <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
       <c r="AA178" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2020</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
       <c r="AB178" t="inlineStr"/>
@@ -13458,7 +13494,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Spatial Access to Mental Health Providers</t>
+          <t>Spatial Access to MOUDs</t>
         </is>
       </c>
       <c r="C179" t="inlineStr"/>
@@ -13472,11 +13508,7 @@
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr"/>
       <c r="M179" t="inlineStr"/>
-      <c r="N179" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N179" t="inlineStr"/>
       <c r="O179" t="inlineStr"/>
       <c r="P179" t="inlineStr"/>
       <c r="Q179" t="inlineStr"/>
@@ -13490,28 +13522,28 @@
       <c r="U179" t="inlineStr"/>
       <c r="V179" t="inlineStr">
         <is>
-          <t>MhCtTmDr</t>
+          <t>TlBupCtTmDr60</t>
         </is>
       </c>
       <c r="W179" t="inlineStr">
         <is>
-          <t>Tracts with Mental Health Provider (30-min drive)</t>
+          <t>Count of tracts within 60-min telehealth buprenorphine driving range</t>
         </is>
       </c>
       <c r="X179" t="inlineStr"/>
       <c r="Y179" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Mental_Health.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="Z179" t="inlineStr">
         <is>
-          <t>SAMHSA 2020</t>
+          <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
       <c r="AA179" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2020</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
       <c r="AB179" t="inlineStr"/>
@@ -13526,7 +13558,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Spatial Access to Mental Health Providers</t>
+          <t>Spatial Access to MOUDs</t>
         </is>
       </c>
       <c r="C180" t="inlineStr"/>
@@ -13540,11 +13572,7 @@
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr"/>
       <c r="M180" t="inlineStr"/>
-      <c r="N180" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N180" t="inlineStr"/>
       <c r="O180" t="inlineStr"/>
       <c r="P180" t="inlineStr"/>
       <c r="Q180" t="inlineStr"/>
@@ -13558,28 +13586,28 @@
       <c r="U180" t="inlineStr"/>
       <c r="V180" t="inlineStr">
         <is>
-          <t>MhTmDrP</t>
+          <t>TlBupCtTmWk30</t>
         </is>
       </c>
       <c r="W180" t="inlineStr">
         <is>
-          <t>% Tracts with Mental Health Provider (30-min drive)</t>
+          <t>Count of tracts within 30-min telehealth buprenorphine walking range</t>
         </is>
       </c>
       <c r="X180" t="inlineStr"/>
       <c r="Y180" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Mental_Health.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="Z180" t="inlineStr">
         <is>
-          <t>SAMHSA 2020</t>
+          <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
       <c r="AA180" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2020</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
       <c r="AB180" t="inlineStr"/>
@@ -13594,7 +13622,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Spatial Access to Pharmacies</t>
+          <t>Spatial Access to MOUDs</t>
         </is>
       </c>
       <c r="C181" t="inlineStr"/>
@@ -13607,43 +13635,43 @@
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr"/>
-      <c r="M181" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="M181" t="inlineStr"/>
       <c r="N181" t="inlineStr"/>
       <c r="O181" t="inlineStr"/>
       <c r="P181" t="inlineStr"/>
       <c r="Q181" t="inlineStr"/>
       <c r="R181" t="inlineStr"/>
-      <c r="S181" t="inlineStr"/>
+      <c r="S181" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T181" t="inlineStr"/>
       <c r="U181" t="inlineStr"/>
       <c r="V181" t="inlineStr">
         <is>
-          <t>RxAvTmDr</t>
+          <t>TlBupMinDis</t>
         </is>
       </c>
       <c r="W181" t="inlineStr">
         <is>
-          <t xml:space="preserve">Avg. Driving Time (min) to nearest Pharmacy </t>
+          <t>Minimum distance to telehealth buprenorphine provider</t>
         </is>
       </c>
       <c r="X181" t="inlineStr"/>
       <c r="Y181" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Pharmacies.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="Z181" t="inlineStr">
         <is>
-          <t>InfoGroup 2019</t>
+          <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
       <c r="AA181" t="inlineStr">
         <is>
-          <t>InfoGroup, 2019</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
       <c r="AB181" t="inlineStr"/>
@@ -13658,7 +13686,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Spatial Access to Pharmacies</t>
+          <t>Spatial Access to MOUDs</t>
         </is>
       </c>
       <c r="C182" t="inlineStr"/>
@@ -13671,43 +13699,43 @@
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr"/>
-      <c r="M182" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="M182" t="inlineStr"/>
       <c r="N182" t="inlineStr"/>
       <c r="O182" t="inlineStr"/>
       <c r="P182" t="inlineStr"/>
       <c r="Q182" t="inlineStr"/>
       <c r="R182" t="inlineStr"/>
-      <c r="S182" t="inlineStr"/>
+      <c r="S182" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T182" t="inlineStr"/>
       <c r="U182" t="inlineStr"/>
       <c r="V182" t="inlineStr">
         <is>
-          <t>RxCtTmDr</t>
+          <t>TlBupTmBk</t>
         </is>
       </c>
       <c r="W182" t="inlineStr">
         <is>
-          <t>Tracts with Pharmacy (30-min drive)</t>
+          <t>Biking time to nearest telehealth buprenorphine provider</t>
         </is>
       </c>
       <c r="X182" t="inlineStr"/>
       <c r="Y182" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Pharmacies.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="Z182" t="inlineStr">
         <is>
-          <t>InfoGroup 2019</t>
+          <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
       <c r="AA182" t="inlineStr">
         <is>
-          <t>InfoGroup, 2019</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
       <c r="AB182" t="inlineStr"/>
@@ -13722,7 +13750,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Spatial Access to Pharmacies</t>
+          <t>Spatial Access to MOUDs</t>
         </is>
       </c>
       <c r="C183" t="inlineStr"/>
@@ -13735,43 +13763,43 @@
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr"/>
-      <c r="M183" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="M183" t="inlineStr"/>
       <c r="N183" t="inlineStr"/>
       <c r="O183" t="inlineStr"/>
       <c r="P183" t="inlineStr"/>
       <c r="Q183" t="inlineStr"/>
       <c r="R183" t="inlineStr"/>
-      <c r="S183" t="inlineStr"/>
+      <c r="S183" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T183" t="inlineStr"/>
       <c r="U183" t="inlineStr"/>
       <c r="V183" t="inlineStr">
         <is>
-          <t>RxTmDrP</t>
+          <t>TlBupTmBk30P</t>
         </is>
       </c>
       <c r="W183" t="inlineStr">
         <is>
-          <t>% tracts with Pharmacy (30-min drive)</t>
+          <t>Percent of tracts within 30-min telehealth buprenorphine biking range</t>
         </is>
       </c>
       <c r="X183" t="inlineStr"/>
       <c r="Y183" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Pharmacies.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="Z183" t="inlineStr">
         <is>
-          <t>InfoGroup 2019</t>
+          <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
       <c r="AA183" t="inlineStr">
         <is>
-          <t>InfoGroup, 2019</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
       <c r="AB183" t="inlineStr"/>
@@ -13786,7 +13814,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Spatial Access to Substance Use Treatment Providers</t>
+          <t>Spatial Access to MOUDs</t>
         </is>
       </c>
       <c r="C184" t="inlineStr"/>
@@ -13800,11 +13828,7 @@
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr"/>
       <c r="M184" t="inlineStr"/>
-      <c r="N184" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N184" t="inlineStr"/>
       <c r="O184" t="inlineStr"/>
       <c r="P184" t="inlineStr"/>
       <c r="Q184" t="inlineStr"/>
@@ -13818,28 +13842,28 @@
       <c r="U184" t="inlineStr"/>
       <c r="V184" t="inlineStr">
         <is>
-          <t>SutpAvTmDr</t>
+          <t>TlBupTmDr</t>
         </is>
       </c>
       <c r="W184" t="inlineStr">
         <is>
-          <t>Driving Time (min) to nearest Substance Use Treatment program</t>
+          <t>Driving time to nearest telehealth buprenorphine provider</t>
         </is>
       </c>
       <c r="X184" t="inlineStr"/>
       <c r="Y184" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_SubstanceUseTreatment.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="Z184" t="inlineStr">
         <is>
-          <t>SAMHSA 2020</t>
+          <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
       <c r="AA184" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2020</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
       <c r="AB184" t="inlineStr"/>
@@ -13854,7 +13878,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Spatial Access to Substance Use Treatment Providers</t>
+          <t>Spatial Access to MOUDs</t>
         </is>
       </c>
       <c r="C185" t="inlineStr"/>
@@ -13868,11 +13892,7 @@
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr"/>
       <c r="M185" t="inlineStr"/>
-      <c r="N185" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N185" t="inlineStr"/>
       <c r="O185" t="inlineStr"/>
       <c r="P185" t="inlineStr"/>
       <c r="Q185" t="inlineStr"/>
@@ -13886,28 +13906,28 @@
       <c r="U185" t="inlineStr"/>
       <c r="V185" t="inlineStr">
         <is>
-          <t>SutpCtTmDr</t>
+          <t>TlBupTmDr30P</t>
         </is>
       </c>
       <c r="W185" t="inlineStr">
         <is>
-          <t>Tracts with Substance Use Treatment (SUT) program (30-min drive)</t>
+          <t>Percent of tracts within 30-min telehealth buprenorphine driving range</t>
         </is>
       </c>
       <c r="X185" t="inlineStr"/>
       <c r="Y185" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_SubstanceUseTreatment.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="Z185" t="inlineStr">
         <is>
-          <t>SAMHSA 2020</t>
+          <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
       <c r="AA185" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2020</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
       <c r="AB185" t="inlineStr"/>
@@ -13922,7 +13942,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Spatial Access to Substance Use Treatment Providers</t>
+          <t>Spatial Access to MOUDs</t>
         </is>
       </c>
       <c r="C186" t="inlineStr"/>
@@ -13936,11 +13956,7 @@
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr"/>
       <c r="M186" t="inlineStr"/>
-      <c r="N186" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N186" t="inlineStr"/>
       <c r="O186" t="inlineStr"/>
       <c r="P186" t="inlineStr"/>
       <c r="Q186" t="inlineStr"/>
@@ -13954,28 +13970,28 @@
       <c r="U186" t="inlineStr"/>
       <c r="V186" t="inlineStr">
         <is>
-          <t>SutpTmDrP</t>
+          <t>TlBupTmDr60P</t>
         </is>
       </c>
       <c r="W186" t="inlineStr">
         <is>
-          <t>% tracts with Substance Use Treatment program (30-min drive)</t>
+          <t>Percent of tracts within 60-min telehealth buprenorphine driving range</t>
         </is>
       </c>
       <c r="X186" t="inlineStr"/>
       <c r="Y186" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_SubstanceUseTreatment.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="Z186" t="inlineStr">
         <is>
-          <t>SAMHSA 2020</t>
+          <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
       <c r="AA186" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2020</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
       <c r="AB186" t="inlineStr"/>
@@ -13990,7 +14006,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Spatial access to HCV Testing</t>
+          <t>Spatial Access to MOUDs</t>
         </is>
       </c>
       <c r="C187" t="inlineStr"/>
@@ -14018,28 +14034,28 @@
       <c r="U187" t="inlineStr"/>
       <c r="V187" t="inlineStr">
         <is>
-          <t>HcvAvTmDr</t>
+          <t>TlBupTmWk</t>
         </is>
       </c>
       <c r="W187" t="inlineStr">
         <is>
-          <t>Average time drive to nearest HCV testing provider</t>
+          <t>Walking time to nearest telehealth buprenorphine provider</t>
         </is>
       </c>
       <c r="X187" t="inlineStr"/>
       <c r="Y187" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_HCVTesting.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="Z187" t="inlineStr">
         <is>
-          <t>SAMHSA 2025</t>
+          <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
       <c r="AA187" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2025</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
       <c r="AB187" t="inlineStr"/>
@@ -14054,7 +14070,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Spatial access to HCV Testing</t>
+          <t>Spatial Access to MOUDs</t>
         </is>
       </c>
       <c r="C188" t="inlineStr"/>
@@ -14082,28 +14098,28 @@
       <c r="U188" t="inlineStr"/>
       <c r="V188" t="inlineStr">
         <is>
-          <t>HcvCtTmDr</t>
+          <t>TlBupTmWk30P</t>
         </is>
       </c>
       <c r="W188" t="inlineStr">
         <is>
-          <t>Count of tracts within 30-min driving range</t>
+          <t>Percent of tracts within 30-min telehealth buprenorphine walking range</t>
         </is>
       </c>
       <c r="X188" t="inlineStr"/>
       <c r="Y188" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_HCVTesting.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="Z188" t="inlineStr">
         <is>
-          <t>SAMHSA 2025</t>
+          <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
       <c r="AA188" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2025</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
       <c r="AB188" t="inlineStr"/>
@@ -14118,7 +14134,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Spatial access to HCV Testing</t>
+          <t>Spatial Access to Mental Health Providers</t>
         </is>
       </c>
       <c r="C189" t="inlineStr"/>
@@ -14132,7 +14148,11 @@
       <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr"/>
       <c r="M189" t="inlineStr"/>
-      <c r="N189" t="inlineStr"/>
+      <c r="N189" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O189" t="inlineStr"/>
       <c r="P189" t="inlineStr"/>
       <c r="Q189" t="inlineStr"/>
@@ -14146,28 +14166,28 @@
       <c r="U189" t="inlineStr"/>
       <c r="V189" t="inlineStr">
         <is>
-          <t>HcvTmDrP</t>
+          <t>MhAvTmDr</t>
         </is>
       </c>
       <c r="W189" t="inlineStr">
         <is>
-          <t>Percent of tracts within 30-min driving range</t>
+          <t>Driving Time (min) to nearest Mental Health Provider</t>
         </is>
       </c>
       <c r="X189" t="inlineStr"/>
       <c r="Y189" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_HCVTesting.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Mental_Health.md</t>
         </is>
       </c>
       <c r="Z189" t="inlineStr">
         <is>
-          <t>SAMHSA 2025</t>
+          <t>SAMHSA 2020</t>
         </is>
       </c>
       <c r="AA189" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2025</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2020</t>
         </is>
       </c>
       <c r="AB189" t="inlineStr"/>
@@ -14182,7 +14202,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Spatial access to HCV Testing</t>
+          <t>Spatial Access to Mental Health Providers</t>
         </is>
       </c>
       <c r="C190" t="inlineStr"/>
@@ -14196,7 +14216,11 @@
       <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr"/>
       <c r="M190" t="inlineStr"/>
-      <c r="N190" t="inlineStr"/>
+      <c r="N190" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O190" t="inlineStr"/>
       <c r="P190" t="inlineStr"/>
       <c r="Q190" t="inlineStr"/>
@@ -14210,28 +14234,28 @@
       <c r="U190" t="inlineStr"/>
       <c r="V190" t="inlineStr">
         <is>
-          <t>HivAvTmDr</t>
+          <t>MhCtTmDr</t>
         </is>
       </c>
       <c r="W190" t="inlineStr">
         <is>
-          <t>Average time drive to nearest HIV provider</t>
+          <t>Tracts with Mental Health Provider (30-min drive)</t>
         </is>
       </c>
       <c r="X190" t="inlineStr"/>
       <c r="Y190" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_HCVTesting.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Mental_Health.md</t>
         </is>
       </c>
       <c r="Z190" t="inlineStr">
         <is>
-          <t>SAMHSA 2025</t>
+          <t>SAMHSA 2020</t>
         </is>
       </c>
       <c r="AA190" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2025</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2020</t>
         </is>
       </c>
       <c r="AB190" t="inlineStr"/>
@@ -14246,7 +14270,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Spatial access to HCV Testing</t>
+          <t>Spatial Access to Mental Health Providers</t>
         </is>
       </c>
       <c r="C191" t="inlineStr"/>
@@ -14260,7 +14284,11 @@
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr"/>
       <c r="M191" t="inlineStr"/>
-      <c r="N191" t="inlineStr"/>
+      <c r="N191" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O191" t="inlineStr"/>
       <c r="P191" t="inlineStr"/>
       <c r="Q191" t="inlineStr"/>
@@ -14274,28 +14302,28 @@
       <c r="U191" t="inlineStr"/>
       <c r="V191" t="inlineStr">
         <is>
-          <t>HivCtTmDr</t>
+          <t>MhTmDrP</t>
         </is>
       </c>
       <c r="W191" t="inlineStr">
         <is>
-          <t>Count of tracts within 30-min driving range</t>
+          <t>% Tracts with Mental Health Provider (30-min drive)</t>
         </is>
       </c>
       <c r="X191" t="inlineStr"/>
       <c r="Y191" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_HCVTesting.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Mental_Health.md</t>
         </is>
       </c>
       <c r="Z191" t="inlineStr">
         <is>
-          <t>SAMHSA 2025</t>
+          <t>SAMHSA 2020</t>
         </is>
       </c>
       <c r="AA191" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2025</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2020</t>
         </is>
       </c>
       <c r="AB191" t="inlineStr"/>
@@ -14310,7 +14338,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Spatial access to HCV Testing</t>
+          <t>Spatial Access to Pharmacies</t>
         </is>
       </c>
       <c r="C192" t="inlineStr"/>
@@ -14323,43 +14351,43 @@
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr"/>
-      <c r="M192" t="inlineStr"/>
+      <c r="M192" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N192" t="inlineStr"/>
       <c r="O192" t="inlineStr"/>
       <c r="P192" t="inlineStr"/>
       <c r="Q192" t="inlineStr"/>
       <c r="R192" t="inlineStr"/>
-      <c r="S192" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S192" t="inlineStr"/>
       <c r="T192" t="inlineStr"/>
       <c r="U192" t="inlineStr"/>
       <c r="V192" t="inlineStr">
         <is>
-          <t>HivTmDrP</t>
+          <t>RxAvTmDr</t>
         </is>
       </c>
       <c r="W192" t="inlineStr">
         <is>
-          <t>Percent of tracts within 30-min driving range</t>
+          <t xml:space="preserve">Avg. Driving Time (min) to nearest Pharmacy </t>
         </is>
       </c>
       <c r="X192" t="inlineStr"/>
       <c r="Y192" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_HCVTesting.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Pharmacies.md</t>
         </is>
       </c>
       <c r="Z192" t="inlineStr">
         <is>
-          <t>SAMHSA 2025</t>
+          <t>InfoGroup 2019</t>
         </is>
       </c>
       <c r="AA192" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2025</t>
+          <t>InfoGroup, 2019</t>
         </is>
       </c>
       <c r="AB192" t="inlineStr"/>
@@ -14374,7 +14402,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Spatial access to Health Centers</t>
+          <t>Spatial Access to Pharmacies</t>
         </is>
       </c>
       <c r="C193" t="inlineStr"/>
@@ -14387,47 +14415,43 @@
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr"/>
-      <c r="M193" t="inlineStr"/>
-      <c r="N193" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="M193" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr"/>
       <c r="P193" t="inlineStr"/>
       <c r="Q193" t="inlineStr"/>
       <c r="R193" t="inlineStr"/>
-      <c r="S193" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S193" t="inlineStr"/>
       <c r="T193" t="inlineStr"/>
       <c r="U193" t="inlineStr"/>
       <c r="V193" t="inlineStr">
         <is>
-          <t>FqhcAvTmDr</t>
+          <t>RxCtTmDr</t>
         </is>
       </c>
       <c r="W193" t="inlineStr">
         <is>
-          <t>Driving Time to nearest Federally Qualified Health Center</t>
+          <t>Tracts with Pharmacy (30-min drive)</t>
         </is>
       </c>
       <c r="X193" t="inlineStr"/>
       <c r="Y193" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_FQHCs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Pharmacies.md</t>
         </is>
       </c>
       <c r="Z193" t="inlineStr">
         <is>
-          <t>US Covid Atlas via HRSA 2020; Tiger/Line 2018</t>
+          <t>InfoGroup 2019</t>
         </is>
       </c>
       <c r="AA193" t="inlineStr">
         <is>
-          <t>United States Covid Atlas via Health Resources and Services Adminsitration, 2020; Tiger/Line 2018 Shapefiles</t>
+          <t>InfoGroup, 2019</t>
         </is>
       </c>
       <c r="AB193" t="inlineStr"/>
@@ -14442,7 +14466,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Spatial access to Health Centers</t>
+          <t>Spatial Access to Pharmacies</t>
         </is>
       </c>
       <c r="C194" t="inlineStr"/>
@@ -14455,47 +14479,43 @@
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr"/>
-      <c r="M194" t="inlineStr"/>
-      <c r="N194" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="M194" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N194" t="inlineStr"/>
       <c r="O194" t="inlineStr"/>
       <c r="P194" t="inlineStr"/>
       <c r="Q194" t="inlineStr"/>
       <c r="R194" t="inlineStr"/>
-      <c r="S194" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S194" t="inlineStr"/>
       <c r="T194" t="inlineStr"/>
       <c r="U194" t="inlineStr"/>
       <c r="V194" t="inlineStr">
         <is>
-          <t>FqhcCtTmDr</t>
+          <t>RxTmDrP</t>
         </is>
       </c>
       <c r="W194" t="inlineStr">
         <is>
-          <t>Tracts with Federally Qualified Health Center (30-min driving)</t>
+          <t>% tracts with Pharmacy (30-min drive)</t>
         </is>
       </c>
       <c r="X194" t="inlineStr"/>
       <c r="Y194" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_FQHCs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Pharmacies.md</t>
         </is>
       </c>
       <c r="Z194" t="inlineStr">
         <is>
-          <t>US Covid Atlas via HRSA 2020; Tiger/Line 2018</t>
+          <t>InfoGroup 2019</t>
         </is>
       </c>
       <c r="AA194" t="inlineStr">
         <is>
-          <t>United States Covid Atlas via Health Resources and Services Adminsitration, 2020; Tiger/Line 2018 Shapefiles</t>
+          <t>InfoGroup, 2019</t>
         </is>
       </c>
       <c r="AB194" t="inlineStr"/>
@@ -14510,7 +14530,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Spatial access to Health Centers</t>
+          <t>Spatial Access to Substance Use Treatment Providers</t>
         </is>
       </c>
       <c r="C195" t="inlineStr"/>
@@ -14533,37 +14553,33 @@
       <c r="P195" t="inlineStr"/>
       <c r="Q195" t="inlineStr"/>
       <c r="R195" t="inlineStr"/>
-      <c r="S195" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S195" t="inlineStr"/>
       <c r="T195" t="inlineStr"/>
       <c r="U195" t="inlineStr"/>
       <c r="V195" t="inlineStr">
         <is>
-          <t>FqhcTmDrP</t>
+          <t>SutpAvTmDr</t>
         </is>
       </c>
       <c r="W195" t="inlineStr">
         <is>
-          <t>% tracts within 30-min drive of Federally Qualified Health Center</t>
+          <t>Driving Time (min) to nearest Substance Use Treatment program</t>
         </is>
       </c>
       <c r="X195" t="inlineStr"/>
       <c r="Y195" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_FQHCs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_SubstanceUseTreatment.md</t>
         </is>
       </c>
       <c r="Z195" t="inlineStr">
         <is>
-          <t>US Covid Atlas via HRSA 2020; Tiger/Line 2018</t>
+          <t>SAMHSA 2020</t>
         </is>
       </c>
       <c r="AA195" t="inlineStr">
         <is>
-          <t>United States Covid Atlas via Health Resources and Services Adminsitration, 2020; Tiger/Line 2018 Shapefiles</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2020</t>
         </is>
       </c>
       <c r="AB195" t="inlineStr"/>
@@ -14578,7 +14594,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Spatial access to Health Centers</t>
+          <t>Spatial Access to Substance Use Treatment Providers</t>
         </is>
       </c>
       <c r="C196" t="inlineStr"/>
@@ -14590,48 +14606,44 @@
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L196" t="inlineStr"/>
       <c r="M196" t="inlineStr"/>
-      <c r="N196" t="inlineStr"/>
+      <c r="N196" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O196" t="inlineStr"/>
       <c r="P196" t="inlineStr"/>
       <c r="Q196" t="inlineStr"/>
       <c r="R196" t="inlineStr"/>
-      <c r="S196" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S196" t="inlineStr"/>
       <c r="T196" t="inlineStr"/>
       <c r="U196" t="inlineStr"/>
       <c r="V196" t="inlineStr">
         <is>
-          <t>TotTracts</t>
+          <t>SutpCtTmDr</t>
         </is>
       </c>
       <c r="W196" t="inlineStr">
         <is>
-          <t>Total Census Tract Count</t>
+          <t>Tracts with Substance Use Treatment (SUT) program (30-min drive)</t>
         </is>
       </c>
       <c r="X196" t="inlineStr"/>
       <c r="Y196" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_FQHCs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_SubstanceUseTreatment.md</t>
         </is>
       </c>
       <c r="Z196" t="inlineStr">
         <is>
-          <t>US Covid Atlas via HRSA 2020; Tiger/Line 2018</t>
+          <t>SAMHSA 2020</t>
         </is>
       </c>
       <c r="AA196" t="inlineStr">
         <is>
-          <t>United States Covid Atlas via Health Resources and Services Adminsitration, 2020; Tiger/Line 2018 Shapefiles</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2020</t>
         </is>
       </c>
       <c r="AB196" t="inlineStr"/>
@@ -14646,7 +14658,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Urban/Suburban/Rural Classification</t>
+          <t>Spatial Access to Substance Use Treatment Providers</t>
         </is>
       </c>
       <c r="C197" t="inlineStr"/>
@@ -14658,13 +14670,13 @@
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L197" t="inlineStr"/>
       <c r="M197" t="inlineStr"/>
-      <c r="N197" t="inlineStr"/>
+      <c r="N197" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O197" t="inlineStr"/>
       <c r="P197" t="inlineStr"/>
       <c r="Q197" t="inlineStr"/>
@@ -14674,28 +14686,28 @@
       <c r="U197" t="inlineStr"/>
       <c r="V197" t="inlineStr">
         <is>
-          <t>CenFlags</t>
+          <t>SutpTmDrP</t>
         </is>
       </c>
       <c r="W197" t="inlineStr">
         <is>
-          <t>Census Flags</t>
+          <t>% tracts with Substance Use Treatment program (30-min drive)</t>
         </is>
       </c>
       <c r="X197" t="inlineStr"/>
       <c r="Y197" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Urbanicity.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_SubstanceUseTreatment.md</t>
         </is>
       </c>
       <c r="Z197" t="inlineStr">
         <is>
-          <t>USDA-ERS 2010; ACS 2018</t>
+          <t>SAMHSA 2020</t>
         </is>
       </c>
       <c r="AA197" t="inlineStr">
         <is>
-          <t>United States Department of Agriculture Economic Research Service, 2010; American Community Survey 2014-2018 5-Year Estimate</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2020</t>
         </is>
       </c>
       <c r="AB197" t="inlineStr"/>
@@ -14710,7 +14722,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Urban/Suburban/Rural Classification</t>
+          <t>Spatial access to Federally Qualified Health Centers (FQHCs)</t>
         </is>
       </c>
       <c r="C198" t="inlineStr"/>
@@ -14722,44 +14734,48 @@
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L198" t="inlineStr"/>
       <c r="M198" t="inlineStr"/>
-      <c r="N198" t="inlineStr"/>
+      <c r="N198" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O198" t="inlineStr"/>
       <c r="P198" t="inlineStr"/>
       <c r="Q198" t="inlineStr"/>
       <c r="R198" t="inlineStr"/>
-      <c r="S198" t="inlineStr"/>
+      <c r="S198" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T198" t="inlineStr"/>
       <c r="U198" t="inlineStr"/>
       <c r="V198" t="inlineStr">
         <is>
-          <t>RcaRuralP</t>
+          <t>FqhcAvTmDr</t>
         </is>
       </c>
       <c r="W198" t="inlineStr">
         <is>
-          <t>% Tracts Rural (RUCA)</t>
+          <t>Average driving time to nearest Federally Qualified Health Center (FQHC)</t>
         </is>
       </c>
       <c r="X198" t="inlineStr"/>
       <c r="Y198" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Urbanicity.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_FQHCs.md</t>
         </is>
       </c>
       <c r="Z198" t="inlineStr">
         <is>
-          <t>USDA-ERS 2010; ACS 2018</t>
+          <t>HRSA 2020 &amp; 2025; OSM 2019 &amp; 2025; Census TIGER 2018 &amp; 2020</t>
         </is>
       </c>
       <c r="AA198" t="inlineStr">
         <is>
-          <t>United States Department of Agriculture Economic Research Service, 2010; American Community Survey 2014-2018 5-Year Estimate</t>
+          <t>United States Covid Atlas via Health Resources and Services Adminsitration, 2020 &amp; 2025; Open Street Map 2019 &amp; 2025; Census Tiger/Line 2018 &amp; 2020 Shapefiles</t>
         </is>
       </c>
       <c r="AB198" t="inlineStr"/>
@@ -14774,7 +14790,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Urban/Suburban/Rural Classification</t>
+          <t>Spatial access to Federally Qualified Health Centers (FQHCs)</t>
         </is>
       </c>
       <c r="C199" t="inlineStr"/>
@@ -14786,44 +14802,48 @@
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L199" t="inlineStr"/>
       <c r="M199" t="inlineStr"/>
       <c r="N199" t="inlineStr"/>
       <c r="O199" t="inlineStr"/>
       <c r="P199" t="inlineStr"/>
       <c r="Q199" t="inlineStr"/>
       <c r="R199" t="inlineStr"/>
-      <c r="S199" t="inlineStr"/>
-      <c r="T199" t="inlineStr"/>
+      <c r="S199" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="T199" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="U199" t="inlineStr"/>
       <c r="V199" t="inlineStr">
         <is>
-          <t>RcaSubrbP</t>
+          <t>FqhcAvTmDr2</t>
         </is>
       </c>
       <c r="W199" t="inlineStr">
         <is>
-          <t>% Tracts Suburban (RUCA)</t>
+          <t>Average driving time to nearest Federally Qualified Health Center (FQHC), with Impedance factor</t>
         </is>
       </c>
       <c r="X199" t="inlineStr"/>
       <c r="Y199" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Urbanicity.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_FQHCs.md</t>
         </is>
       </c>
       <c r="Z199" t="inlineStr">
         <is>
-          <t>USDA-ERS 2010; ACS 2018</t>
+          <t>HRSA 2020 &amp; 2025; OSM 2019 &amp; 2025; Census TIGER 2018 &amp; 2020</t>
         </is>
       </c>
       <c r="AA199" t="inlineStr">
         <is>
-          <t>United States Department of Agriculture Economic Research Service, 2010; American Community Survey 2014-2018 5-Year Estimate</t>
+          <t>United States Covid Atlas via Health Resources and Services Adminsitration, 2020 &amp; 2025; Open Street Map 2019 &amp; 2025; Census Tiger/Line 2018 &amp; 2020 Shapefiles</t>
         </is>
       </c>
       <c r="AB199" t="inlineStr"/>
@@ -14838,7 +14858,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Urban/Suburban/Rural Classification</t>
+          <t>Spatial access to Federally Qualified Health Centers (FQHCs)</t>
         </is>
       </c>
       <c r="C200" t="inlineStr"/>
@@ -14850,44 +14870,48 @@
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L200" t="inlineStr"/>
       <c r="M200" t="inlineStr"/>
-      <c r="N200" t="inlineStr"/>
+      <c r="N200" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O200" t="inlineStr"/>
       <c r="P200" t="inlineStr"/>
       <c r="Q200" t="inlineStr"/>
       <c r="R200" t="inlineStr"/>
-      <c r="S200" t="inlineStr"/>
+      <c r="S200" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T200" t="inlineStr"/>
       <c r="U200" t="inlineStr"/>
       <c r="V200" t="inlineStr">
         <is>
-          <t>RcaUrbanP</t>
+          <t>FqhcCtTmDr</t>
         </is>
       </c>
       <c r="W200" t="inlineStr">
         <is>
-          <t>% Tracts Urban (RUCA)</t>
+          <t>Count of Tracts within 30-min drive of Federally Qualified Health Center (FQHC)</t>
         </is>
       </c>
       <c r="X200" t="inlineStr"/>
       <c r="Y200" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Urbanicity.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_FQHCs.md</t>
         </is>
       </c>
       <c r="Z200" t="inlineStr">
         <is>
-          <t>USDA-ERS 2010; ACS 2018</t>
+          <t>HRSA 2020 &amp; 2025; OSM 2019 &amp; 2025; Census TIGER 2018 &amp; 2020</t>
         </is>
       </c>
       <c r="AA200" t="inlineStr">
         <is>
-          <t>United States Department of Agriculture Economic Research Service, 2010; American Community Survey 2014-2018 5-Year Estimate</t>
+          <t>United States Covid Atlas via Health Resources and Services Adminsitration, 2020 &amp; 2025; Open Street Map 2019 &amp; 2025; Census Tiger/Line 2018 &amp; 2020 Shapefiles</t>
         </is>
       </c>
       <c r="AB200" t="inlineStr"/>
@@ -14897,12 +14921,12 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Economic</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Employment Trends</t>
+          <t>Spatial access to Federally Qualified Health Centers (FQHCs)</t>
         </is>
       </c>
       <c r="C201" t="inlineStr"/>
@@ -14914,44 +14938,44 @@
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L201" t="inlineStr"/>
       <c r="M201" t="inlineStr"/>
       <c r="N201" t="inlineStr"/>
       <c r="O201" t="inlineStr"/>
       <c r="P201" t="inlineStr"/>
       <c r="Q201" t="inlineStr"/>
       <c r="R201" t="inlineStr"/>
-      <c r="S201" t="inlineStr"/>
+      <c r="S201" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T201" t="inlineStr"/>
       <c r="U201" t="inlineStr"/>
       <c r="V201" t="inlineStr">
         <is>
-          <t>EssnWrkE</t>
+          <t>FqhcCtTmDr2</t>
         </is>
       </c>
       <c r="W201" t="inlineStr">
         <is>
-          <t>Count of Essential Workers</t>
+          <t>Count of Tracts within 30-min drive of Federally Qualified Health Center (FQHC), with Impedance factor</t>
         </is>
       </c>
       <c r="X201" t="inlineStr"/>
       <c r="Y201" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_FQHCs.md</t>
         </is>
       </c>
       <c r="Z201" t="inlineStr">
         <is>
-          <t>ACS 2018, 2023</t>
+          <t>HRSA 2020 &amp; 2025; OSM 2019 &amp; 2025; Census TIGER 2018 &amp; 2020</t>
         </is>
       </c>
       <c r="AA201" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
+          <t>United States Covid Atlas via Health Resources and Services Adminsitration, 2020 &amp; 2025; Open Street Map 2019 &amp; 2025; Census Tiger/Line 2018 &amp; 2020 Shapefiles</t>
         </is>
       </c>
       <c r="AB201" t="inlineStr"/>
@@ -14961,12 +14985,12 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Economic</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Employment Trends</t>
+          <t>Spatial access to Federally Qualified Health Centers (FQHCs)</t>
         </is>
       </c>
       <c r="C202" t="inlineStr"/>
@@ -14978,11 +15002,7 @@
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L202" t="inlineStr"/>
       <c r="M202" t="inlineStr"/>
       <c r="N202" t="inlineStr">
         <is>
@@ -14991,39 +15011,39 @@
       </c>
       <c r="O202" t="inlineStr"/>
       <c r="P202" t="inlineStr"/>
-      <c r="Q202" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Q202" t="inlineStr"/>
       <c r="R202" t="inlineStr"/>
-      <c r="S202" t="inlineStr"/>
+      <c r="S202" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T202" t="inlineStr"/>
       <c r="U202" t="inlineStr"/>
       <c r="V202" t="inlineStr">
         <is>
-          <t>EssnWrkP</t>
+          <t>FqhcTmDrP</t>
         </is>
       </c>
       <c r="W202" t="inlineStr">
         <is>
-          <t>Essential Workers %</t>
+          <t>% Tracts within 30-min drive of Federally Qualified Health Center (FQHC)</t>
         </is>
       </c>
       <c r="X202" t="inlineStr"/>
       <c r="Y202" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_FQHCs.md</t>
         </is>
       </c>
       <c r="Z202" t="inlineStr">
         <is>
-          <t>ACS 2018, 2023</t>
+          <t>HRSA 2020 &amp; 2025; OSM 2019 &amp; 2025; Census TIGER 2018 &amp; 2020</t>
         </is>
       </c>
       <c r="AA202" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
+          <t>United States Covid Atlas via Health Resources and Services Adminsitration, 2020 &amp; 2025; Open Street Map 2019 &amp; 2025; Census Tiger/Line 2018 &amp; 2020 Shapefiles</t>
         </is>
       </c>
       <c r="AB202" t="inlineStr"/>
@@ -15033,12 +15053,12 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Economic</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Employment Trends</t>
+          <t>Spatial access to Federally Qualified Health Centers (FQHCs)</t>
         </is>
       </c>
       <c r="C203" t="inlineStr"/>
@@ -15050,52 +15070,48 @@
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L203" t="inlineStr"/>
       <c r="M203" t="inlineStr"/>
-      <c r="N203" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N203" t="inlineStr"/>
       <c r="O203" t="inlineStr"/>
       <c r="P203" t="inlineStr"/>
-      <c r="Q203" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Q203" t="inlineStr"/>
       <c r="R203" t="inlineStr"/>
-      <c r="S203" t="inlineStr"/>
-      <c r="T203" t="inlineStr"/>
+      <c r="S203" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="T203" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="U203" t="inlineStr"/>
       <c r="V203" t="inlineStr">
         <is>
-          <t>HghRskP</t>
+          <t>FqhcTmDrP2</t>
         </is>
       </c>
       <c r="W203" t="inlineStr">
         <is>
-          <t>Employed % - High Risk of Injury</t>
+          <t>% Tracts within 30-min drive of Federally Qualified Health Center (FQHC), with Impedance factor</t>
         </is>
       </c>
       <c r="X203" t="inlineStr"/>
       <c r="Y203" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_FQHCs.md</t>
         </is>
       </c>
       <c r="Z203" t="inlineStr">
         <is>
-          <t>ACS 2018, 2023</t>
+          <t>HRSA 2020 &amp; 2025; OSM 2019 &amp; 2025; Census TIGER 2018 &amp; 2020</t>
         </is>
       </c>
       <c r="AA203" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
+          <t>United States Covid Atlas via Health Resources and Services Adminsitration, 2020 &amp; 2025; Open Street Map 2019 &amp; 2025; Census Tiger/Line 2018 &amp; 2020 Shapefiles</t>
         </is>
       </c>
       <c r="AB203" t="inlineStr"/>
@@ -15105,12 +15121,12 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Economic</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Employment Trends</t>
+          <t>Spatial access to Federally Qualified Health Centers (FQHCs)</t>
         </is>
       </c>
       <c r="C204" t="inlineStr"/>
@@ -15128,46 +15144,42 @@
         </is>
       </c>
       <c r="M204" t="inlineStr"/>
-      <c r="N204" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N204" t="inlineStr"/>
       <c r="O204" t="inlineStr"/>
       <c r="P204" t="inlineStr"/>
-      <c r="Q204" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Q204" t="inlineStr"/>
       <c r="R204" t="inlineStr"/>
-      <c r="S204" t="inlineStr"/>
+      <c r="S204" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T204" t="inlineStr"/>
       <c r="U204" t="inlineStr"/>
       <c r="V204" t="inlineStr">
         <is>
-          <t>HltCrP</t>
+          <t>TotTracts</t>
         </is>
       </c>
       <c r="W204" t="inlineStr">
         <is>
-          <t>Employed % - Health Care</t>
+          <t>Total Census Tract Count</t>
         </is>
       </c>
       <c r="X204" t="inlineStr"/>
       <c r="Y204" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_FQHCs.md</t>
         </is>
       </c>
       <c r="Z204" t="inlineStr">
         <is>
-          <t>ACS 2018, 2023</t>
+          <t>HRSA 2020 &amp; 2025; OSM 2019 &amp; 2025; Census TIGER 2018 &amp; 2020</t>
         </is>
       </c>
       <c r="AA204" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
+          <t>United States Covid Atlas via Health Resources and Services Adminsitration, 2020 &amp; 2025; Open Street Map 2019 &amp; 2025; Census Tiger/Line 2018 &amp; 2020 Shapefiles</t>
         </is>
       </c>
       <c r="AB204" t="inlineStr"/>
@@ -15177,12 +15189,12 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Economic</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Employment Trends</t>
+          <t>Urban/Suburban/Rural Classification</t>
         </is>
       </c>
       <c r="C205" t="inlineStr"/>
@@ -15200,46 +15212,38 @@
         </is>
       </c>
       <c r="M205" t="inlineStr"/>
-      <c r="N205" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N205" t="inlineStr"/>
       <c r="O205" t="inlineStr"/>
       <c r="P205" t="inlineStr"/>
-      <c r="Q205" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Q205" t="inlineStr"/>
       <c r="R205" t="inlineStr"/>
       <c r="S205" t="inlineStr"/>
       <c r="T205" t="inlineStr"/>
       <c r="U205" t="inlineStr"/>
       <c r="V205" t="inlineStr">
         <is>
-          <t>RetailP</t>
+          <t>CenFlags</t>
         </is>
       </c>
       <c r="W205" t="inlineStr">
         <is>
-          <t>Employed % - Retail</t>
+          <t>Census Flags</t>
         </is>
       </c>
       <c r="X205" t="inlineStr"/>
       <c r="Y205" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Urbanicity.md</t>
         </is>
       </c>
       <c r="Z205" t="inlineStr">
         <is>
-          <t>ACS 2018, 2023</t>
+          <t>USDA-ERS 2010; ACS 2018</t>
         </is>
       </c>
       <c r="AA205" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
+          <t>United States Department of Agriculture Economic Research Service, 2010; American Community Survey 2014-2018 5-Year Estimate</t>
         </is>
       </c>
       <c r="AB205" t="inlineStr"/>
@@ -15249,12 +15253,12 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Economic</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Employment Trends</t>
+          <t>Urban/Suburban/Rural Classification</t>
         </is>
       </c>
       <c r="C206" t="inlineStr"/>
@@ -15272,46 +15276,38 @@
         </is>
       </c>
       <c r="M206" t="inlineStr"/>
-      <c r="N206" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N206" t="inlineStr"/>
       <c r="O206" t="inlineStr"/>
       <c r="P206" t="inlineStr"/>
-      <c r="Q206" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Q206" t="inlineStr"/>
       <c r="R206" t="inlineStr"/>
       <c r="S206" t="inlineStr"/>
       <c r="T206" t="inlineStr"/>
       <c r="U206" t="inlineStr"/>
       <c r="V206" t="inlineStr">
         <is>
-          <t>TotWrkE</t>
+          <t>RcaRuralP</t>
         </is>
       </c>
       <c r="W206" t="inlineStr">
         <is>
-          <t>Count of Working Population</t>
+          <t>% Tracts Rural (RUCA)</t>
         </is>
       </c>
       <c r="X206" t="inlineStr"/>
       <c r="Y206" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Urbanicity.md</t>
         </is>
       </c>
       <c r="Z206" t="inlineStr">
         <is>
-          <t>ACS 2018, 2023</t>
+          <t>USDA-ERS 2010; ACS 2018</t>
         </is>
       </c>
       <c r="AA206" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
+          <t>United States Department of Agriculture Economic Research Service, 2010; American Community Survey 2014-2018 5-Year Estimate</t>
         </is>
       </c>
       <c r="AB206" t="inlineStr"/>
@@ -15321,12 +15317,12 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Economic</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Great Recession Foreclosure Rate</t>
+          <t>Urban/Suburban/Rural Classification</t>
         </is>
       </c>
       <c r="C207" t="inlineStr"/>
@@ -15354,28 +15350,28 @@
       <c r="U207" t="inlineStr"/>
       <c r="V207" t="inlineStr">
         <is>
-          <t>ForDqP</t>
+          <t>RcaSubrbP</t>
         </is>
       </c>
       <c r="W207" t="inlineStr">
         <is>
-          <t>Foreclosure &amp; Delinquency %</t>
+          <t>% Tracts Suburban (RUCA)</t>
         </is>
       </c>
       <c r="X207" t="inlineStr"/>
       <c r="Y207" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Foreclosure_Rate.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Urbanicity.md</t>
         </is>
       </c>
       <c r="Z207" t="inlineStr">
         <is>
-          <t>HUD 2018; ACS 2012, 2018</t>
+          <t>USDA-ERS 2010; ACS 2018</t>
         </is>
       </c>
       <c r="AA207" t="inlineStr">
         <is>
-          <t>U.S. Department of Housing and Urban Development Neighborhood Stabilization Program; American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates</t>
+          <t>United States Department of Agriculture Economic Research Service, 2010; American Community Survey 2014-2018 5-Year Estimate</t>
         </is>
       </c>
       <c r="AB207" t="inlineStr"/>
@@ -15385,12 +15381,12 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Economic</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Great Recession Foreclosure Rate</t>
+          <t>Urban/Suburban/Rural Classification</t>
         </is>
       </c>
       <c r="C208" t="inlineStr"/>
@@ -15418,28 +15414,28 @@
       <c r="U208" t="inlineStr"/>
       <c r="V208" t="inlineStr">
         <is>
-          <t>ForDqTot</t>
+          <t>RcaUrbanP</t>
         </is>
       </c>
       <c r="W208" t="inlineStr">
         <is>
-          <t>Foreclosure &amp; Delinquency Count</t>
+          <t>% Tracts Urban (RUCA)</t>
         </is>
       </c>
       <c r="X208" t="inlineStr"/>
       <c r="Y208" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Foreclosure_Rate.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Urbanicity.md</t>
         </is>
       </c>
       <c r="Z208" t="inlineStr">
         <is>
-          <t>HUD 2018; ACS 2012, 2018</t>
+          <t>USDA-ERS 2010; ACS 2018</t>
         </is>
       </c>
       <c r="AA208" t="inlineStr">
         <is>
-          <t>U.S. Department of Housing and Urban Development Neighborhood Stabilization Program; American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates</t>
+          <t>United States Department of Agriculture Economic Research Service, 2010; American Community Survey 2014-2018 5-Year Estimate</t>
         </is>
       </c>
       <c r="AB208" t="inlineStr"/>
@@ -15454,17 +15450,13 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Great Recession Foreclosure Rate</t>
+          <t>Employment Trends</t>
         </is>
       </c>
       <c r="C209" t="inlineStr"/>
       <c r="D209" t="inlineStr"/>
       <c r="E209" t="inlineStr"/>
-      <c r="F209" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="F209" t="inlineStr"/>
       <c r="G209" t="inlineStr"/>
       <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
@@ -15476,46 +15468,38 @@
         </is>
       </c>
       <c r="M209" t="inlineStr"/>
-      <c r="N209" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N209" t="inlineStr"/>
       <c r="O209" t="inlineStr"/>
       <c r="P209" t="inlineStr"/>
-      <c r="Q209" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Q209" t="inlineStr"/>
       <c r="R209" t="inlineStr"/>
       <c r="S209" t="inlineStr"/>
       <c r="T209" t="inlineStr"/>
       <c r="U209" t="inlineStr"/>
       <c r="V209" t="inlineStr">
         <is>
-          <t>GiniCoeff</t>
+          <t>EssnWrkE</t>
         </is>
       </c>
       <c r="W209" t="inlineStr">
         <is>
-          <t>Income Inequality (Gini Coefficient)</t>
+          <t>Count of Essential Workers</t>
         </is>
       </c>
       <c r="X209" t="inlineStr"/>
       <c r="Y209" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Foreclosure_Rate.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
         </is>
       </c>
       <c r="Z209" t="inlineStr">
         <is>
-          <t>HUD 2018; ACS 2012, 2018</t>
+          <t>ACS 2018, 2023</t>
         </is>
       </c>
       <c r="AA209" t="inlineStr">
         <is>
-          <t>U.S. Department of Housing and Urban Development Neighborhood Stabilization Program; American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates</t>
+          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
         </is>
       </c>
       <c r="AB209" t="inlineStr"/>
@@ -15530,7 +15514,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Internet Access</t>
+          <t>Employment Trends</t>
         </is>
       </c>
       <c r="C210" t="inlineStr"/>
@@ -15542,44 +15526,52 @@
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M210" t="inlineStr"/>
+      <c r="N210" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O210" t="inlineStr"/>
       <c r="P210" t="inlineStr"/>
-      <c r="Q210" t="inlineStr"/>
+      <c r="Q210" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R210" t="inlineStr"/>
       <c r="S210" t="inlineStr"/>
       <c r="T210" t="inlineStr"/>
       <c r="U210" t="inlineStr"/>
       <c r="V210" t="inlineStr">
         <is>
-          <t>NoIntP</t>
+          <t>EssnWrkP</t>
         </is>
       </c>
       <c r="W210" t="inlineStr">
         <is>
-          <t>Households without Internet Access %</t>
+          <t>Essential Workers %</t>
         </is>
       </c>
       <c r="X210" t="inlineStr"/>
       <c r="Y210" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Internet_Access.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
         </is>
       </c>
       <c r="Z210" t="inlineStr">
         <is>
-          <t>ACS 2019</t>
+          <t>ACS 2018, 2023</t>
         </is>
       </c>
       <c r="AA210" t="inlineStr">
         <is>
-          <t>American Community Survey 2015-2019 5-Year Estimate</t>
+          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
         </is>
       </c>
       <c r="AB210" t="inlineStr"/>
@@ -15594,17 +15586,13 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Poverty, Income, Gini Coefficient</t>
+          <t>Employment Trends</t>
         </is>
       </c>
       <c r="C211" t="inlineStr"/>
       <c r="D211" t="inlineStr"/>
       <c r="E211" t="inlineStr"/>
-      <c r="F211" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="F211" t="inlineStr"/>
       <c r="G211" t="inlineStr"/>
       <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
@@ -15634,28 +15622,28 @@
       <c r="U211" t="inlineStr"/>
       <c r="V211" t="inlineStr">
         <is>
-          <t>MedInc</t>
+          <t>HghRskP</t>
         </is>
       </c>
       <c r="W211" t="inlineStr">
         <is>
-          <t>Median Income</t>
+          <t>Employed % - High Risk of Injury</t>
         </is>
       </c>
       <c r="X211" t="inlineStr"/>
       <c r="Y211" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Economic_Characteristics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
         </is>
       </c>
       <c r="Z211" t="inlineStr">
         <is>
-          <t>ACS 2012, 2018; Social Explorer 2010</t>
+          <t>ACS 2018, 2023</t>
         </is>
       </c>
       <c r="AA211" t="inlineStr">
         <is>
-          <t>American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
+          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
         </is>
       </c>
       <c r="AB211" t="inlineStr"/>
@@ -15670,17 +15658,13 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Poverty, Income, Gini Coefficient</t>
+          <t>Employment Trends</t>
         </is>
       </c>
       <c r="C212" t="inlineStr"/>
       <c r="D212" t="inlineStr"/>
       <c r="E212" t="inlineStr"/>
-      <c r="F212" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="F212" t="inlineStr"/>
       <c r="G212" t="inlineStr"/>
       <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
@@ -15710,28 +15694,28 @@
       <c r="U212" t="inlineStr"/>
       <c r="V212" t="inlineStr">
         <is>
-          <t>PciE</t>
+          <t>HltCrP</t>
         </is>
       </c>
       <c r="W212" t="inlineStr">
         <is>
-          <t>Per Capita Income</t>
+          <t>Employed % - Health Care</t>
         </is>
       </c>
       <c r="X212" t="inlineStr"/>
       <c r="Y212" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Economic_Characteristics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
         </is>
       </c>
       <c r="Z212" t="inlineStr">
         <is>
-          <t>ACS 2012, 2018; Social Explorer 2010</t>
+          <t>ACS 2018, 2023</t>
         </is>
       </c>
       <c r="AA212" t="inlineStr">
         <is>
-          <t>American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
+          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
         </is>
       </c>
       <c r="AB212" t="inlineStr"/>
@@ -15746,29 +15730,13 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Poverty, Income, Gini Coefficient</t>
-        </is>
-      </c>
-      <c r="C213" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="D213" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E213" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="F213" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Employment Trends</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr"/>
+      <c r="D213" t="inlineStr"/>
+      <c r="E213" t="inlineStr"/>
+      <c r="F213" t="inlineStr"/>
       <c r="G213" t="inlineStr"/>
       <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
@@ -15795,35 +15763,31 @@
       <c r="R213" t="inlineStr"/>
       <c r="S213" t="inlineStr"/>
       <c r="T213" t="inlineStr"/>
-      <c r="U213" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="U213" t="inlineStr"/>
       <c r="V213" t="inlineStr">
         <is>
-          <t>PovP</t>
+          <t>RetailP</t>
         </is>
       </c>
       <c r="W213" t="inlineStr">
         <is>
-          <t>Poverty %</t>
+          <t>Employed % - Retail</t>
         </is>
       </c>
       <c r="X213" t="inlineStr"/>
       <c r="Y213" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Economic_Characteristics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
         </is>
       </c>
       <c r="Z213" t="inlineStr">
         <is>
-          <t>ACS 2012, 2018; Social Explorer 2010</t>
+          <t>ACS 2018, 2023</t>
         </is>
       </c>
       <c r="AA213" t="inlineStr">
         <is>
-          <t>American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
+          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
         </is>
       </c>
       <c r="AB213" t="inlineStr"/>
@@ -15838,29 +15802,13 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Poverty, Income, Gini Coefficient</t>
-        </is>
-      </c>
-      <c r="C214" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="D214" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E214" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="F214" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Employment Trends</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr"/>
+      <c r="D214" t="inlineStr"/>
+      <c r="E214" t="inlineStr"/>
+      <c r="F214" t="inlineStr"/>
       <c r="G214" t="inlineStr"/>
       <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
@@ -15887,35 +15835,31 @@
       <c r="R214" t="inlineStr"/>
       <c r="S214" t="inlineStr"/>
       <c r="T214" t="inlineStr"/>
-      <c r="U214" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="U214" t="inlineStr"/>
       <c r="V214" t="inlineStr">
         <is>
-          <t>UnempP</t>
+          <t>TotWrkE</t>
         </is>
       </c>
       <c r="W214" t="inlineStr">
         <is>
-          <t>Unemployment %</t>
+          <t>Count of Working Population</t>
         </is>
       </c>
       <c r="X214" t="inlineStr"/>
       <c r="Y214" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Economic_Characteristics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
         </is>
       </c>
       <c r="Z214" t="inlineStr">
         <is>
-          <t>ACS 2012, 2018; Social Explorer 2010</t>
+          <t>ACS 2018, 2023</t>
         </is>
       </c>
       <c r="AA214" t="inlineStr">
         <is>
-          <t>American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
+          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
         </is>
       </c>
       <c r="AB214" t="inlineStr"/>
@@ -15925,12 +15869,12 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Outcome</t>
+          <t>Economic</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Opioid Indicators</t>
+          <t>Great Recession Foreclosure Rate</t>
         </is>
       </c>
       <c r="C215" t="inlineStr"/>
@@ -15938,51 +15882,19 @@
       <c r="E215" t="inlineStr"/>
       <c r="F215" t="inlineStr"/>
       <c r="G215" t="inlineStr"/>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I215" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="J215" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="H215" t="inlineStr"/>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="M215" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="N215" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O215" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="P215" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="M215" t="inlineStr"/>
+      <c r="N215" t="inlineStr"/>
+      <c r="O215" t="inlineStr"/>
+      <c r="P215" t="inlineStr"/>
       <c r="Q215" t="inlineStr"/>
       <c r="R215" t="inlineStr"/>
       <c r="S215" t="inlineStr"/>
@@ -15990,28 +15902,28 @@
       <c r="U215" t="inlineStr"/>
       <c r="V215" t="inlineStr">
         <is>
-          <t>OdMortRt</t>
+          <t>ForDqP</t>
         </is>
       </c>
       <c r="W215" t="inlineStr">
         <is>
-          <t>Overdose Mortality Rate</t>
+          <t>Foreclosure &amp; Delinquency %</t>
         </is>
       </c>
       <c r="X215" t="inlineStr"/>
       <c r="Y215" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Opioid_Outcomes.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Foreclosure_Rate.md</t>
         </is>
       </c>
       <c r="Z215" t="inlineStr">
         <is>
-          <t>HepVu 2014-2022</t>
+          <t>HUD 2018; ACS 2012, 2018</t>
         </is>
       </c>
       <c r="AA215" t="inlineStr">
         <is>
-          <t>HepVu, Emory University Rollins School of Public Health, 2014-2022</t>
+          <t>U.S. Department of Housing and Urban Development Neighborhood Stabilization Program; American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates</t>
         </is>
       </c>
       <c r="AB215" t="inlineStr"/>
@@ -16021,12 +15933,12 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Outcome</t>
+          <t>Economic</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Opioid Indicators</t>
+          <t>Great Recession Foreclosure Rate</t>
         </is>
       </c>
       <c r="C216" t="inlineStr"/>
@@ -16038,13 +15950,13 @@
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M216" t="inlineStr"/>
-      <c r="N216" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N216" t="inlineStr"/>
       <c r="O216" t="inlineStr"/>
       <c r="P216" t="inlineStr"/>
       <c r="Q216" t="inlineStr"/>
@@ -16054,28 +15966,28 @@
       <c r="U216" t="inlineStr"/>
       <c r="V216" t="inlineStr">
         <is>
-          <t>OdMortRtAv</t>
+          <t>ForDqTot</t>
         </is>
       </c>
       <c r="W216" t="inlineStr">
         <is>
-          <t>Overdose Mortality Rate Average (2016-2020)</t>
+          <t>Foreclosure &amp; Delinquency Count</t>
         </is>
       </c>
       <c r="X216" t="inlineStr"/>
       <c r="Y216" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Opioid_Outcomes.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Foreclosure_Rate.md</t>
         </is>
       </c>
       <c r="Z216" t="inlineStr">
         <is>
-          <t>HepVu 2014-2022</t>
+          <t>HUD 2018; ACS 2012, 2018</t>
         </is>
       </c>
       <c r="AA216" t="inlineStr">
         <is>
-          <t>HepVu, Emory University Rollins School of Public Health, 2014-2022</t>
+          <t>U.S. Department of Housing and Urban Development Neighborhood Stabilization Program; American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates</t>
         </is>
       </c>
       <c r="AB216" t="inlineStr"/>
@@ -16085,24 +15997,32 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Outcome</t>
+          <t>Economic</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Opioid Indicators</t>
+          <t>Great Recession Foreclosure Rate</t>
         </is>
       </c>
       <c r="C217" t="inlineStr"/>
       <c r="D217" t="inlineStr"/>
       <c r="E217" t="inlineStr"/>
-      <c r="F217" t="inlineStr"/>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="G217" t="inlineStr"/>
       <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M217" t="inlineStr"/>
       <c r="N217" t="inlineStr">
         <is>
@@ -16110,40 +16030,40 @@
         </is>
       </c>
       <c r="O217" t="inlineStr"/>
-      <c r="P217" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Q217" t="inlineStr"/>
+      <c r="P217" t="inlineStr"/>
+      <c r="Q217" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R217" t="inlineStr"/>
       <c r="S217" t="inlineStr"/>
       <c r="T217" t="inlineStr"/>
       <c r="U217" t="inlineStr"/>
       <c r="V217" t="inlineStr">
         <is>
-          <t>OpRxRt</t>
+          <t>GiniCoeff</t>
         </is>
       </c>
       <c r="W217" t="inlineStr">
         <is>
-          <t>Opioid Prescription Rate</t>
+          <t>Income Inequality (Gini Coefficient)</t>
         </is>
       </c>
       <c r="X217" t="inlineStr"/>
       <c r="Y217" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Opioid_Outcomes.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Foreclosure_Rate.md</t>
         </is>
       </c>
       <c r="Z217" t="inlineStr">
         <is>
-          <t>HepVu 2014-2022</t>
+          <t>HUD 2018; ACS 2012, 2018</t>
         </is>
       </c>
       <c r="AA217" t="inlineStr">
         <is>
-          <t>HepVu, Emory University Rollins School of Public Health, 2014-2022</t>
+          <t>U.S. Department of Housing and Urban Development Neighborhood Stabilization Program; American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates</t>
         </is>
       </c>
       <c r="AB217" t="inlineStr"/>
@@ -16153,12 +16073,12 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Composite</t>
+          <t>Economic</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Social Vulnerability Indices</t>
+          <t>Internet Access</t>
         </is>
       </c>
       <c r="C218" t="inlineStr"/>
@@ -16170,23 +16090,15 @@
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="M218" t="inlineStr"/>
-      <c r="N218" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L218" t="inlineStr"/>
+      <c r="M218" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N218" t="inlineStr"/>
       <c r="O218" t="inlineStr"/>
-      <c r="P218" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="P218" t="inlineStr"/>
       <c r="Q218" t="inlineStr"/>
       <c r="R218" t="inlineStr"/>
       <c r="S218" t="inlineStr"/>
@@ -16194,28 +16106,28 @@
       <c r="U218" t="inlineStr"/>
       <c r="V218" t="inlineStr">
         <is>
-          <t>SviSmryRnk</t>
+          <t>NoIntP</t>
         </is>
       </c>
       <c r="W218" t="inlineStr">
         <is>
-          <t>Social Vulnerability Index (SVI) Summary Ranking</t>
+          <t>Households without Internet Access %</t>
         </is>
       </c>
       <c r="X218" t="inlineStr"/>
       <c r="Y218" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Social_Vulnerability_Indices.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Internet_Access.md</t>
         </is>
       </c>
       <c r="Z218" t="inlineStr">
         <is>
-          <t>CDC 2018, 2020, 2022</t>
+          <t>ACS 2019</t>
         </is>
       </c>
       <c r="AA218" t="inlineStr">
         <is>
-          <t>Centers for Disease Control, 2018, 2020, 2022</t>
+          <t>American Community Survey 2015-2019 5-Year Estimate</t>
         </is>
       </c>
       <c r="AB218" t="inlineStr"/>
@@ -16225,18 +16137,22 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Composite</t>
+          <t>Economic</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Social Vulnerability Indices</t>
+          <t>Poverty, Income, Gini Coefficient</t>
         </is>
       </c>
       <c r="C219" t="inlineStr"/>
       <c r="D219" t="inlineStr"/>
       <c r="E219" t="inlineStr"/>
-      <c r="F219" t="inlineStr"/>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="G219" t="inlineStr"/>
       <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
@@ -16254,44 +16170,40 @@
         </is>
       </c>
       <c r="O219" t="inlineStr"/>
-      <c r="P219" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Q219" t="inlineStr"/>
+      <c r="P219" t="inlineStr"/>
+      <c r="Q219" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R219" t="inlineStr"/>
       <c r="S219" t="inlineStr"/>
-      <c r="T219" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="T219" t="inlineStr"/>
       <c r="U219" t="inlineStr"/>
       <c r="V219" t="inlineStr">
         <is>
-          <t>SviTh1</t>
+          <t>MedInc</t>
         </is>
       </c>
       <c r="W219" t="inlineStr">
         <is>
-          <t>Social Vulnerability Index (SVI) 1</t>
+          <t>Median Income</t>
         </is>
       </c>
       <c r="X219" t="inlineStr"/>
       <c r="Y219" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Social_Vulnerability_Indices.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Economic_Characteristics.md</t>
         </is>
       </c>
       <c r="Z219" t="inlineStr">
         <is>
-          <t>CDC 2018, 2020, 2022</t>
+          <t>ACS 2012, 2018; Social Explorer 2010</t>
         </is>
       </c>
       <c r="AA219" t="inlineStr">
         <is>
-          <t>Centers for Disease Control, 2018, 2020, 2022</t>
+          <t>American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
         </is>
       </c>
       <c r="AB219" t="inlineStr"/>
@@ -16301,18 +16213,22 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Composite</t>
+          <t>Economic</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Social Vulnerability Indices</t>
+          <t>Poverty, Income, Gini Coefficient</t>
         </is>
       </c>
       <c r="C220" t="inlineStr"/>
       <c r="D220" t="inlineStr"/>
       <c r="E220" t="inlineStr"/>
-      <c r="F220" t="inlineStr"/>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="G220" t="inlineStr"/>
       <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
@@ -16330,40 +16246,40 @@
         </is>
       </c>
       <c r="O220" t="inlineStr"/>
-      <c r="P220" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Q220" t="inlineStr"/>
+      <c r="P220" t="inlineStr"/>
+      <c r="Q220" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R220" t="inlineStr"/>
       <c r="S220" t="inlineStr"/>
       <c r="T220" t="inlineStr"/>
       <c r="U220" t="inlineStr"/>
       <c r="V220" t="inlineStr">
         <is>
-          <t>SviTh2</t>
+          <t>PciE</t>
         </is>
       </c>
       <c r="W220" t="inlineStr">
         <is>
-          <t>Social Vulnerability Index (SVI) 2</t>
+          <t>Per Capita Income</t>
         </is>
       </c>
       <c r="X220" t="inlineStr"/>
       <c r="Y220" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Social_Vulnerability_Indices.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Economic_Characteristics.md</t>
         </is>
       </c>
       <c r="Z220" t="inlineStr">
         <is>
-          <t>CDC 2018, 2020, 2022</t>
+          <t>ACS 2012, 2018; Social Explorer 2010</t>
         </is>
       </c>
       <c r="AA220" t="inlineStr">
         <is>
-          <t>Centers for Disease Control, 2018, 2020, 2022</t>
+          <t>American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
         </is>
       </c>
       <c r="AB220" t="inlineStr"/>
@@ -16373,18 +16289,34 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Composite</t>
+          <t>Economic</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Social Vulnerability Indices</t>
-        </is>
-      </c>
-      <c r="C221" t="inlineStr"/>
-      <c r="D221" t="inlineStr"/>
-      <c r="E221" t="inlineStr"/>
-      <c r="F221" t="inlineStr"/>
+          <t>Poverty, Income, Gini Coefficient</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="G221" t="inlineStr"/>
       <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
@@ -16402,40 +16334,44 @@
         </is>
       </c>
       <c r="O221" t="inlineStr"/>
-      <c r="P221" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Q221" t="inlineStr"/>
+      <c r="P221" t="inlineStr"/>
+      <c r="Q221" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R221" t="inlineStr"/>
       <c r="S221" t="inlineStr"/>
       <c r="T221" t="inlineStr"/>
-      <c r="U221" t="inlineStr"/>
+      <c r="U221" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="V221" t="inlineStr">
         <is>
-          <t>SviTh3</t>
+          <t>PovP</t>
         </is>
       </c>
       <c r="W221" t="inlineStr">
         <is>
-          <t>Social Vulnerability Index (SVI) 3</t>
+          <t>Poverty %</t>
         </is>
       </c>
       <c r="X221" t="inlineStr"/>
       <c r="Y221" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Social_Vulnerability_Indices.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Economic_Characteristics.md</t>
         </is>
       </c>
       <c r="Z221" t="inlineStr">
         <is>
-          <t>CDC 2018, 2020, 2022</t>
+          <t>ACS 2012, 2018; Social Explorer 2010</t>
         </is>
       </c>
       <c r="AA221" t="inlineStr">
         <is>
-          <t>Centers for Disease Control, 2018, 2020, 2022</t>
+          <t>American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
         </is>
       </c>
       <c r="AB221" t="inlineStr"/>
@@ -16445,18 +16381,34 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Composite</t>
+          <t>Economic</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Social Vulnerability Indices</t>
-        </is>
-      </c>
-      <c r="C222" t="inlineStr"/>
-      <c r="D222" t="inlineStr"/>
-      <c r="E222" t="inlineStr"/>
-      <c r="F222" t="inlineStr"/>
+          <t>Poverty, Income, Gini Coefficient</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="G222" t="inlineStr"/>
       <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
@@ -16474,49 +16426,645 @@
         </is>
       </c>
       <c r="O222" t="inlineStr"/>
-      <c r="P222" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Q222" t="inlineStr"/>
+      <c r="P222" t="inlineStr"/>
+      <c r="Q222" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R222" t="inlineStr"/>
       <c r="S222" t="inlineStr"/>
-      <c r="T222" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="U222" t="inlineStr"/>
+      <c r="T222" t="inlineStr"/>
+      <c r="U222" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="V222" t="inlineStr">
         <is>
-          <t>SviTh4</t>
+          <t>UnempP</t>
         </is>
       </c>
       <c r="W222" t="inlineStr">
         <is>
-          <t>Social Vulnerability Index (SVI) 4</t>
+          <t>Unemployment %</t>
         </is>
       </c>
       <c r="X222" t="inlineStr"/>
       <c r="Y222" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Social_Vulnerability_Indices.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Economic_Characteristics.md</t>
         </is>
       </c>
       <c r="Z222" t="inlineStr">
         <is>
-          <t>CDC 2018, 2020, 2022</t>
+          <t>ACS 2012, 2018; Social Explorer 2010</t>
         </is>
       </c>
       <c r="AA222" t="inlineStr">
         <is>
-          <t>Centers for Disease Control, 2018, 2020, 2022</t>
+          <t>American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
         </is>
       </c>
       <c r="AB222" t="inlineStr"/>
       <c r="AC222" t="inlineStr"/>
       <c r="AD222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Outcome</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Opioid Indicators</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr"/>
+      <c r="D223" t="inlineStr"/>
+      <c r="E223" t="inlineStr"/>
+      <c r="F223" t="inlineStr"/>
+      <c r="G223" t="inlineStr"/>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I223" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M223" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N223" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O223" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="P223" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q223" t="inlineStr"/>
+      <c r="R223" t="inlineStr"/>
+      <c r="S223" t="inlineStr"/>
+      <c r="T223" t="inlineStr"/>
+      <c r="U223" t="inlineStr"/>
+      <c r="V223" t="inlineStr">
+        <is>
+          <t>OdMortRt</t>
+        </is>
+      </c>
+      <c r="W223" t="inlineStr">
+        <is>
+          <t>Overdose Mortality Rate</t>
+        </is>
+      </c>
+      <c r="X223" t="inlineStr"/>
+      <c r="Y223" t="inlineStr">
+        <is>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Opioid_Outcomes.md</t>
+        </is>
+      </c>
+      <c r="Z223" t="inlineStr">
+        <is>
+          <t>HepVu 2014-2022</t>
+        </is>
+      </c>
+      <c r="AA223" t="inlineStr">
+        <is>
+          <t>HepVu, Emory University Rollins School of Public Health, 2014-2022</t>
+        </is>
+      </c>
+      <c r="AB223" t="inlineStr"/>
+      <c r="AC223" t="inlineStr"/>
+      <c r="AD223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Outcome</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Opioid Indicators</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr"/>
+      <c r="D224" t="inlineStr"/>
+      <c r="E224" t="inlineStr"/>
+      <c r="F224" t="inlineStr"/>
+      <c r="G224" t="inlineStr"/>
+      <c r="H224" t="inlineStr"/>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="inlineStr"/>
+      <c r="M224" t="inlineStr"/>
+      <c r="N224" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O224" t="inlineStr"/>
+      <c r="P224" t="inlineStr"/>
+      <c r="Q224" t="inlineStr"/>
+      <c r="R224" t="inlineStr"/>
+      <c r="S224" t="inlineStr"/>
+      <c r="T224" t="inlineStr"/>
+      <c r="U224" t="inlineStr"/>
+      <c r="V224" t="inlineStr">
+        <is>
+          <t>OdMortRtAv</t>
+        </is>
+      </c>
+      <c r="W224" t="inlineStr">
+        <is>
+          <t>Overdose Mortality Rate Average (2016-2020)</t>
+        </is>
+      </c>
+      <c r="X224" t="inlineStr"/>
+      <c r="Y224" t="inlineStr">
+        <is>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Opioid_Outcomes.md</t>
+        </is>
+      </c>
+      <c r="Z224" t="inlineStr">
+        <is>
+          <t>HepVu 2014-2022</t>
+        </is>
+      </c>
+      <c r="AA224" t="inlineStr">
+        <is>
+          <t>HepVu, Emory University Rollins School of Public Health, 2014-2022</t>
+        </is>
+      </c>
+      <c r="AB224" t="inlineStr"/>
+      <c r="AC224" t="inlineStr"/>
+      <c r="AD224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Outcome</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>Opioid Indicators</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr"/>
+      <c r="D225" t="inlineStr"/>
+      <c r="E225" t="inlineStr"/>
+      <c r="F225" t="inlineStr"/>
+      <c r="G225" t="inlineStr"/>
+      <c r="H225" t="inlineStr"/>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="inlineStr"/>
+      <c r="M225" t="inlineStr"/>
+      <c r="N225" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O225" t="inlineStr"/>
+      <c r="P225" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q225" t="inlineStr"/>
+      <c r="R225" t="inlineStr"/>
+      <c r="S225" t="inlineStr"/>
+      <c r="T225" t="inlineStr"/>
+      <c r="U225" t="inlineStr"/>
+      <c r="V225" t="inlineStr">
+        <is>
+          <t>OpRxRt</t>
+        </is>
+      </c>
+      <c r="W225" t="inlineStr">
+        <is>
+          <t>Opioid Prescription Rate</t>
+        </is>
+      </c>
+      <c r="X225" t="inlineStr"/>
+      <c r="Y225" t="inlineStr">
+        <is>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Opioid_Outcomes.md</t>
+        </is>
+      </c>
+      <c r="Z225" t="inlineStr">
+        <is>
+          <t>HepVu 2014-2022</t>
+        </is>
+      </c>
+      <c r="AA225" t="inlineStr">
+        <is>
+          <t>HepVu, Emory University Rollins School of Public Health, 2014-2022</t>
+        </is>
+      </c>
+      <c r="AB225" t="inlineStr"/>
+      <c r="AC225" t="inlineStr"/>
+      <c r="AD225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Composite</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Social Vulnerability Indices</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr"/>
+      <c r="D226" t="inlineStr"/>
+      <c r="E226" t="inlineStr"/>
+      <c r="F226" t="inlineStr"/>
+      <c r="G226" t="inlineStr"/>
+      <c r="H226" t="inlineStr"/>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M226" t="inlineStr"/>
+      <c r="N226" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O226" t="inlineStr"/>
+      <c r="P226" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q226" t="inlineStr"/>
+      <c r="R226" t="inlineStr"/>
+      <c r="S226" t="inlineStr"/>
+      <c r="T226" t="inlineStr"/>
+      <c r="U226" t="inlineStr"/>
+      <c r="V226" t="inlineStr">
+        <is>
+          <t>SviSmryRnk</t>
+        </is>
+      </c>
+      <c r="W226" t="inlineStr">
+        <is>
+          <t>Social Vulnerability Index (SVI) Summary Ranking</t>
+        </is>
+      </c>
+      <c r="X226" t="inlineStr"/>
+      <c r="Y226" t="inlineStr">
+        <is>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Social_Vulnerability_Indices.md</t>
+        </is>
+      </c>
+      <c r="Z226" t="inlineStr">
+        <is>
+          <t>CDC 2018, 2020, 2022</t>
+        </is>
+      </c>
+      <c r="AA226" t="inlineStr">
+        <is>
+          <t>Centers for Disease Control, 2018, 2020, 2022</t>
+        </is>
+      </c>
+      <c r="AB226" t="inlineStr"/>
+      <c r="AC226" t="inlineStr"/>
+      <c r="AD226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Composite</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>Social Vulnerability Indices</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr"/>
+      <c r="D227" t="inlineStr"/>
+      <c r="E227" t="inlineStr"/>
+      <c r="F227" t="inlineStr"/>
+      <c r="G227" t="inlineStr"/>
+      <c r="H227" t="inlineStr"/>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M227" t="inlineStr"/>
+      <c r="N227" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O227" t="inlineStr"/>
+      <c r="P227" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q227" t="inlineStr"/>
+      <c r="R227" t="inlineStr"/>
+      <c r="S227" t="inlineStr"/>
+      <c r="T227" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="U227" t="inlineStr"/>
+      <c r="V227" t="inlineStr">
+        <is>
+          <t>SviTh1</t>
+        </is>
+      </c>
+      <c r="W227" t="inlineStr">
+        <is>
+          <t>Social Vulnerability Index (SVI) 1</t>
+        </is>
+      </c>
+      <c r="X227" t="inlineStr"/>
+      <c r="Y227" t="inlineStr">
+        <is>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Social_Vulnerability_Indices.md</t>
+        </is>
+      </c>
+      <c r="Z227" t="inlineStr">
+        <is>
+          <t>CDC 2018, 2020, 2022</t>
+        </is>
+      </c>
+      <c r="AA227" t="inlineStr">
+        <is>
+          <t>Centers for Disease Control, 2018, 2020, 2022</t>
+        </is>
+      </c>
+      <c r="AB227" t="inlineStr"/>
+      <c r="AC227" t="inlineStr"/>
+      <c r="AD227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Composite</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Social Vulnerability Indices</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr"/>
+      <c r="D228" t="inlineStr"/>
+      <c r="E228" t="inlineStr"/>
+      <c r="F228" t="inlineStr"/>
+      <c r="G228" t="inlineStr"/>
+      <c r="H228" t="inlineStr"/>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M228" t="inlineStr"/>
+      <c r="N228" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O228" t="inlineStr"/>
+      <c r="P228" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q228" t="inlineStr"/>
+      <c r="R228" t="inlineStr"/>
+      <c r="S228" t="inlineStr"/>
+      <c r="T228" t="inlineStr"/>
+      <c r="U228" t="inlineStr"/>
+      <c r="V228" t="inlineStr">
+        <is>
+          <t>SviTh2</t>
+        </is>
+      </c>
+      <c r="W228" t="inlineStr">
+        <is>
+          <t>Social Vulnerability Index (SVI) 2</t>
+        </is>
+      </c>
+      <c r="X228" t="inlineStr"/>
+      <c r="Y228" t="inlineStr">
+        <is>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Social_Vulnerability_Indices.md</t>
+        </is>
+      </c>
+      <c r="Z228" t="inlineStr">
+        <is>
+          <t>CDC 2018, 2020, 2022</t>
+        </is>
+      </c>
+      <c r="AA228" t="inlineStr">
+        <is>
+          <t>Centers for Disease Control, 2018, 2020, 2022</t>
+        </is>
+      </c>
+      <c r="AB228" t="inlineStr"/>
+      <c r="AC228" t="inlineStr"/>
+      <c r="AD228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Composite</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>Social Vulnerability Indices</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr"/>
+      <c r="D229" t="inlineStr"/>
+      <c r="E229" t="inlineStr"/>
+      <c r="F229" t="inlineStr"/>
+      <c r="G229" t="inlineStr"/>
+      <c r="H229" t="inlineStr"/>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M229" t="inlineStr"/>
+      <c r="N229" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O229" t="inlineStr"/>
+      <c r="P229" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q229" t="inlineStr"/>
+      <c r="R229" t="inlineStr"/>
+      <c r="S229" t="inlineStr"/>
+      <c r="T229" t="inlineStr"/>
+      <c r="U229" t="inlineStr"/>
+      <c r="V229" t="inlineStr">
+        <is>
+          <t>SviTh3</t>
+        </is>
+      </c>
+      <c r="W229" t="inlineStr">
+        <is>
+          <t>Social Vulnerability Index (SVI) 3</t>
+        </is>
+      </c>
+      <c r="X229" t="inlineStr"/>
+      <c r="Y229" t="inlineStr">
+        <is>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Social_Vulnerability_Indices.md</t>
+        </is>
+      </c>
+      <c r="Z229" t="inlineStr">
+        <is>
+          <t>CDC 2018, 2020, 2022</t>
+        </is>
+      </c>
+      <c r="AA229" t="inlineStr">
+        <is>
+          <t>Centers for Disease Control, 2018, 2020, 2022</t>
+        </is>
+      </c>
+      <c r="AB229" t="inlineStr"/>
+      <c r="AC229" t="inlineStr"/>
+      <c r="AD229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Composite</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Social Vulnerability Indices</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr"/>
+      <c r="D230" t="inlineStr"/>
+      <c r="E230" t="inlineStr"/>
+      <c r="F230" t="inlineStr"/>
+      <c r="G230" t="inlineStr"/>
+      <c r="H230" t="inlineStr"/>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M230" t="inlineStr"/>
+      <c r="N230" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O230" t="inlineStr"/>
+      <c r="P230" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q230" t="inlineStr"/>
+      <c r="R230" t="inlineStr"/>
+      <c r="S230" t="inlineStr"/>
+      <c r="T230" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="U230" t="inlineStr"/>
+      <c r="V230" t="inlineStr">
+        <is>
+          <t>SviTh4</t>
+        </is>
+      </c>
+      <c r="W230" t="inlineStr">
+        <is>
+          <t>Social Vulnerability Index (SVI) 4</t>
+        </is>
+      </c>
+      <c r="X230" t="inlineStr"/>
+      <c r="Y230" t="inlineStr">
+        <is>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Social_Vulnerability_Indices.md</t>
+        </is>
+      </c>
+      <c r="Z230" t="inlineStr">
+        <is>
+          <t>CDC 2018, 2020, 2022</t>
+        </is>
+      </c>
+      <c r="AA230" t="inlineStr">
+        <is>
+          <t>Centers for Disease Control, 2018, 2020, 2022</t>
+        </is>
+      </c>
+      <c r="AB230" t="inlineStr"/>
+      <c r="AC230" t="inlineStr"/>
+      <c r="AD230" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/docs/src/reference/data-dictionaries/C_Dict.xlsx
+++ b/docs/src/reference/data-dictionaries/C_Dict.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD230"/>
+  <dimension ref="A1:AD222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10533,11 +10533,7 @@
       <c r="P135" t="inlineStr"/>
       <c r="Q135" t="inlineStr"/>
       <c r="R135" t="inlineStr"/>
-      <c r="S135" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S135" t="inlineStr"/>
       <c r="T135" t="inlineStr"/>
       <c r="U135" t="inlineStr"/>
       <c r="V135" t="inlineStr">
@@ -10601,11 +10597,7 @@
       <c r="P136" t="inlineStr"/>
       <c r="Q136" t="inlineStr"/>
       <c r="R136" t="inlineStr"/>
-      <c r="S136" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S136" t="inlineStr"/>
       <c r="T136" t="inlineStr"/>
       <c r="U136" t="inlineStr"/>
       <c r="V136" t="inlineStr">
@@ -10669,11 +10661,7 @@
       <c r="P137" t="inlineStr"/>
       <c r="Q137" t="inlineStr"/>
       <c r="R137" t="inlineStr"/>
-      <c r="S137" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S137" t="inlineStr"/>
       <c r="T137" t="inlineStr"/>
       <c r="U137" t="inlineStr"/>
       <c r="V137" t="inlineStr">
@@ -10929,11 +10917,7 @@
       <c r="P141" t="inlineStr"/>
       <c r="Q141" t="inlineStr"/>
       <c r="R141" t="inlineStr"/>
-      <c r="S141" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S141" t="inlineStr"/>
       <c r="T141" t="inlineStr"/>
       <c r="U141" t="inlineStr"/>
       <c r="V141" t="inlineStr">
@@ -10997,11 +10981,7 @@
       <c r="P142" t="inlineStr"/>
       <c r="Q142" t="inlineStr"/>
       <c r="R142" t="inlineStr"/>
-      <c r="S142" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S142" t="inlineStr"/>
       <c r="T142" t="inlineStr"/>
       <c r="U142" t="inlineStr"/>
       <c r="V142" t="inlineStr">
@@ -11065,11 +11045,7 @@
       <c r="P143" t="inlineStr"/>
       <c r="Q143" t="inlineStr"/>
       <c r="R143" t="inlineStr"/>
-      <c r="S143" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S143" t="inlineStr"/>
       <c r="T143" t="inlineStr"/>
       <c r="U143" t="inlineStr"/>
       <c r="V143" t="inlineStr">
@@ -11205,11 +11181,7 @@
       <c r="P145" t="inlineStr"/>
       <c r="Q145" t="inlineStr"/>
       <c r="R145" t="inlineStr"/>
-      <c r="S145" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S145" t="inlineStr"/>
       <c r="T145" t="inlineStr"/>
       <c r="U145" t="inlineStr"/>
       <c r="V145" t="inlineStr">
@@ -11345,11 +11317,7 @@
       <c r="P147" t="inlineStr"/>
       <c r="Q147" t="inlineStr"/>
       <c r="R147" t="inlineStr"/>
-      <c r="S147" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S147" t="inlineStr"/>
       <c r="T147" t="inlineStr"/>
       <c r="U147" t="inlineStr"/>
       <c r="V147" t="inlineStr">
@@ -11485,11 +11453,7 @@
       <c r="P149" t="inlineStr"/>
       <c r="Q149" t="inlineStr"/>
       <c r="R149" t="inlineStr"/>
-      <c r="S149" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S149" t="inlineStr"/>
       <c r="T149" t="inlineStr"/>
       <c r="U149" t="inlineStr"/>
       <c r="V149" t="inlineStr">
@@ -11745,11 +11709,7 @@
       <c r="P153" t="inlineStr"/>
       <c r="Q153" t="inlineStr"/>
       <c r="R153" t="inlineStr"/>
-      <c r="S153" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S153" t="inlineStr"/>
       <c r="T153" t="inlineStr"/>
       <c r="U153" t="inlineStr"/>
       <c r="V153" t="inlineStr">
@@ -11813,11 +11773,7 @@
       <c r="P154" t="inlineStr"/>
       <c r="Q154" t="inlineStr"/>
       <c r="R154" t="inlineStr"/>
-      <c r="S154" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S154" t="inlineStr"/>
       <c r="T154" t="inlineStr"/>
       <c r="U154" t="inlineStr"/>
       <c r="V154" t="inlineStr">
@@ -11881,11 +11837,7 @@
       <c r="P155" t="inlineStr"/>
       <c r="Q155" t="inlineStr"/>
       <c r="R155" t="inlineStr"/>
-      <c r="S155" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S155" t="inlineStr"/>
       <c r="T155" t="inlineStr"/>
       <c r="U155" t="inlineStr"/>
       <c r="V155" t="inlineStr">
@@ -12021,11 +11973,7 @@
       <c r="P157" t="inlineStr"/>
       <c r="Q157" t="inlineStr"/>
       <c r="R157" t="inlineStr"/>
-      <c r="S157" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S157" t="inlineStr"/>
       <c r="T157" t="inlineStr"/>
       <c r="U157" t="inlineStr"/>
       <c r="V157" t="inlineStr">
@@ -12161,11 +12109,7 @@
       <c r="P159" t="inlineStr"/>
       <c r="Q159" t="inlineStr"/>
       <c r="R159" t="inlineStr"/>
-      <c r="S159" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S159" t="inlineStr"/>
       <c r="T159" t="inlineStr"/>
       <c r="U159" t="inlineStr"/>
       <c r="V159" t="inlineStr">
@@ -12301,11 +12245,7 @@
       <c r="P161" t="inlineStr"/>
       <c r="Q161" t="inlineStr"/>
       <c r="R161" t="inlineStr"/>
-      <c r="S161" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S161" t="inlineStr"/>
       <c r="T161" t="inlineStr"/>
       <c r="U161" t="inlineStr"/>
       <c r="V161" t="inlineStr">
@@ -12561,11 +12501,7 @@
       <c r="P165" t="inlineStr"/>
       <c r="Q165" t="inlineStr"/>
       <c r="R165" t="inlineStr"/>
-      <c r="S165" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S165" t="inlineStr"/>
       <c r="T165" t="inlineStr"/>
       <c r="U165" t="inlineStr"/>
       <c r="V165" t="inlineStr">
@@ -12629,11 +12565,7 @@
       <c r="P166" t="inlineStr"/>
       <c r="Q166" t="inlineStr"/>
       <c r="R166" t="inlineStr"/>
-      <c r="S166" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S166" t="inlineStr"/>
       <c r="T166" t="inlineStr"/>
       <c r="U166" t="inlineStr"/>
       <c r="V166" t="inlineStr">
@@ -12697,11 +12629,7 @@
       <c r="P167" t="inlineStr"/>
       <c r="Q167" t="inlineStr"/>
       <c r="R167" t="inlineStr"/>
-      <c r="S167" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S167" t="inlineStr"/>
       <c r="T167" t="inlineStr"/>
       <c r="U167" t="inlineStr"/>
       <c r="V167" t="inlineStr">
@@ -12837,11 +12765,7 @@
       <c r="P169" t="inlineStr"/>
       <c r="Q169" t="inlineStr"/>
       <c r="R169" t="inlineStr"/>
-      <c r="S169" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S169" t="inlineStr"/>
       <c r="T169" t="inlineStr"/>
       <c r="U169" t="inlineStr"/>
       <c r="V169" t="inlineStr">
@@ -12977,11 +12901,7 @@
       <c r="P171" t="inlineStr"/>
       <c r="Q171" t="inlineStr"/>
       <c r="R171" t="inlineStr"/>
-      <c r="S171" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S171" t="inlineStr"/>
       <c r="T171" t="inlineStr"/>
       <c r="U171" t="inlineStr"/>
       <c r="V171" t="inlineStr">
@@ -13117,11 +13037,7 @@
       <c r="P173" t="inlineStr"/>
       <c r="Q173" t="inlineStr"/>
       <c r="R173" t="inlineStr"/>
-      <c r="S173" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S173" t="inlineStr"/>
       <c r="T173" t="inlineStr"/>
       <c r="U173" t="inlineStr"/>
       <c r="V173" t="inlineStr">
@@ -13185,11 +13101,7 @@
       <c r="P174" t="inlineStr"/>
       <c r="Q174" t="inlineStr"/>
       <c r="R174" t="inlineStr"/>
-      <c r="S174" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S174" t="inlineStr"/>
       <c r="T174" t="inlineStr"/>
       <c r="U174" t="inlineStr"/>
       <c r="V174" t="inlineStr">
@@ -13253,11 +13165,7 @@
       <c r="P175" t="inlineStr"/>
       <c r="Q175" t="inlineStr"/>
       <c r="R175" t="inlineStr"/>
-      <c r="S175" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S175" t="inlineStr"/>
       <c r="T175" t="inlineStr"/>
       <c r="U175" t="inlineStr"/>
       <c r="V175" t="inlineStr">
@@ -13321,11 +13229,7 @@
       <c r="P176" t="inlineStr"/>
       <c r="Q176" t="inlineStr"/>
       <c r="R176" t="inlineStr"/>
-      <c r="S176" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S176" t="inlineStr"/>
       <c r="T176" t="inlineStr"/>
       <c r="U176" t="inlineStr"/>
       <c r="V176" t="inlineStr">
@@ -13394,12 +13298,12 @@
       <c r="U177" t="inlineStr"/>
       <c r="V177" t="inlineStr">
         <is>
-          <t>TlBupCtTmBk30</t>
+          <t>TlBupMinDis</t>
         </is>
       </c>
       <c r="W177" t="inlineStr">
         <is>
-          <t>Count of tracts within 30-min telehealth buprenorphine biking range</t>
+          <t>Minimum distance to telehealth buprenorphine provider</t>
         </is>
       </c>
       <c r="X177" t="inlineStr"/>
@@ -13458,12 +13362,12 @@
       <c r="U178" t="inlineStr"/>
       <c r="V178" t="inlineStr">
         <is>
-          <t>TlBupCtTmDr30</t>
+          <t>TlBupTmBk</t>
         </is>
       </c>
       <c r="W178" t="inlineStr">
         <is>
-          <t>Count of tracts within 30-min telehealth buprenorphine driving range</t>
+          <t>Biking time to nearest telehealth buprenorphine provider</t>
         </is>
       </c>
       <c r="X178" t="inlineStr"/>
@@ -13522,12 +13426,12 @@
       <c r="U179" t="inlineStr"/>
       <c r="V179" t="inlineStr">
         <is>
-          <t>TlBupCtTmDr60</t>
+          <t>TlBupTmDr</t>
         </is>
       </c>
       <c r="W179" t="inlineStr">
         <is>
-          <t>Count of tracts within 60-min telehealth buprenorphine driving range</t>
+          <t>Driving time to nearest telehealth buprenorphine provider</t>
         </is>
       </c>
       <c r="X179" t="inlineStr"/>
@@ -13586,12 +13490,12 @@
       <c r="U180" t="inlineStr"/>
       <c r="V180" t="inlineStr">
         <is>
-          <t>TlBupCtTmWk30</t>
+          <t>TlBupTmWk</t>
         </is>
       </c>
       <c r="W180" t="inlineStr">
         <is>
-          <t>Count of tracts within 30-min telehealth buprenorphine walking range</t>
+          <t>Walking time to nearest telehealth buprenorphine provider</t>
         </is>
       </c>
       <c r="X180" t="inlineStr"/>
@@ -13622,7 +13526,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Spatial Access to MOUDs</t>
+          <t>Spatial Access to Mental Health Providers</t>
         </is>
       </c>
       <c r="C181" t="inlineStr"/>
@@ -13636,42 +13540,42 @@
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr"/>
       <c r="M181" t="inlineStr"/>
-      <c r="N181" t="inlineStr"/>
+      <c r="N181" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O181" t="inlineStr"/>
       <c r="P181" t="inlineStr"/>
       <c r="Q181" t="inlineStr"/>
       <c r="R181" t="inlineStr"/>
-      <c r="S181" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S181" t="inlineStr"/>
       <c r="T181" t="inlineStr"/>
       <c r="U181" t="inlineStr"/>
       <c r="V181" t="inlineStr">
         <is>
-          <t>TlBupMinDis</t>
+          <t>MhAvTmDr</t>
         </is>
       </c>
       <c r="W181" t="inlineStr">
         <is>
-          <t>Minimum distance to telehealth buprenorphine provider</t>
+          <t>Driving Time (min) to nearest Mental Health Provider</t>
         </is>
       </c>
       <c r="X181" t="inlineStr"/>
       <c r="Y181" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Mental_Health.md</t>
         </is>
       </c>
       <c r="Z181" t="inlineStr">
         <is>
-          <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
+          <t>SAMHSA 2020</t>
         </is>
       </c>
       <c r="AA181" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2020</t>
         </is>
       </c>
       <c r="AB181" t="inlineStr"/>
@@ -13686,7 +13590,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Spatial Access to MOUDs</t>
+          <t>Spatial Access to Mental Health Providers</t>
         </is>
       </c>
       <c r="C182" t="inlineStr"/>
@@ -13700,42 +13604,42 @@
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr"/>
       <c r="M182" t="inlineStr"/>
-      <c r="N182" t="inlineStr"/>
+      <c r="N182" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O182" t="inlineStr"/>
       <c r="P182" t="inlineStr"/>
       <c r="Q182" t="inlineStr"/>
       <c r="R182" t="inlineStr"/>
-      <c r="S182" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S182" t="inlineStr"/>
       <c r="T182" t="inlineStr"/>
       <c r="U182" t="inlineStr"/>
       <c r="V182" t="inlineStr">
         <is>
-          <t>TlBupTmBk</t>
+          <t>MhCtTmDr</t>
         </is>
       </c>
       <c r="W182" t="inlineStr">
         <is>
-          <t>Biking time to nearest telehealth buprenorphine provider</t>
+          <t>Tracts with Mental Health Provider (30-min drive)</t>
         </is>
       </c>
       <c r="X182" t="inlineStr"/>
       <c r="Y182" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Mental_Health.md</t>
         </is>
       </c>
       <c r="Z182" t="inlineStr">
         <is>
-          <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
+          <t>SAMHSA 2020</t>
         </is>
       </c>
       <c r="AA182" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2020</t>
         </is>
       </c>
       <c r="AB182" t="inlineStr"/>
@@ -13750,7 +13654,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Spatial Access to MOUDs</t>
+          <t>Spatial Access to Mental Health Providers</t>
         </is>
       </c>
       <c r="C183" t="inlineStr"/>
@@ -13764,42 +13668,42 @@
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr"/>
       <c r="M183" t="inlineStr"/>
-      <c r="N183" t="inlineStr"/>
+      <c r="N183" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O183" t="inlineStr"/>
       <c r="P183" t="inlineStr"/>
       <c r="Q183" t="inlineStr"/>
       <c r="R183" t="inlineStr"/>
-      <c r="S183" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S183" t="inlineStr"/>
       <c r="T183" t="inlineStr"/>
       <c r="U183" t="inlineStr"/>
       <c r="V183" t="inlineStr">
         <is>
-          <t>TlBupTmBk30P</t>
+          <t>MhTmDrP</t>
         </is>
       </c>
       <c r="W183" t="inlineStr">
         <is>
-          <t>Percent of tracts within 30-min telehealth buprenorphine biking range</t>
+          <t>% Tracts with Mental Health Provider (30-min drive)</t>
         </is>
       </c>
       <c r="X183" t="inlineStr"/>
       <c r="Y183" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Mental_Health.md</t>
         </is>
       </c>
       <c r="Z183" t="inlineStr">
         <is>
-          <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
+          <t>SAMHSA 2020</t>
         </is>
       </c>
       <c r="AA183" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2020</t>
         </is>
       </c>
       <c r="AB183" t="inlineStr"/>
@@ -13814,7 +13718,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Spatial Access to MOUDs</t>
+          <t>Spatial Access to Pharmacies</t>
         </is>
       </c>
       <c r="C184" t="inlineStr"/>
@@ -13827,43 +13731,43 @@
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr"/>
-      <c r="M184" t="inlineStr"/>
+      <c r="M184" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N184" t="inlineStr"/>
       <c r="O184" t="inlineStr"/>
       <c r="P184" t="inlineStr"/>
       <c r="Q184" t="inlineStr"/>
       <c r="R184" t="inlineStr"/>
-      <c r="S184" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S184" t="inlineStr"/>
       <c r="T184" t="inlineStr"/>
       <c r="U184" t="inlineStr"/>
       <c r="V184" t="inlineStr">
         <is>
-          <t>TlBupTmDr</t>
+          <t>RxAvTmDr</t>
         </is>
       </c>
       <c r="W184" t="inlineStr">
         <is>
-          <t>Driving time to nearest telehealth buprenorphine provider</t>
+          <t xml:space="preserve">Avg. Driving Time (min) to nearest Pharmacy </t>
         </is>
       </c>
       <c r="X184" t="inlineStr"/>
       <c r="Y184" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Pharmacies.md</t>
         </is>
       </c>
       <c r="Z184" t="inlineStr">
         <is>
-          <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
+          <t>InfoGroup 2019</t>
         </is>
       </c>
       <c r="AA184" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
+          <t>InfoGroup, 2019</t>
         </is>
       </c>
       <c r="AB184" t="inlineStr"/>
@@ -13878,7 +13782,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Spatial Access to MOUDs</t>
+          <t>Spatial Access to Pharmacies</t>
         </is>
       </c>
       <c r="C185" t="inlineStr"/>
@@ -13891,43 +13795,43 @@
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr"/>
-      <c r="M185" t="inlineStr"/>
+      <c r="M185" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N185" t="inlineStr"/>
       <c r="O185" t="inlineStr"/>
       <c r="P185" t="inlineStr"/>
       <c r="Q185" t="inlineStr"/>
       <c r="R185" t="inlineStr"/>
-      <c r="S185" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S185" t="inlineStr"/>
       <c r="T185" t="inlineStr"/>
       <c r="U185" t="inlineStr"/>
       <c r="V185" t="inlineStr">
         <is>
-          <t>TlBupTmDr30P</t>
+          <t>RxCtTmDr</t>
         </is>
       </c>
       <c r="W185" t="inlineStr">
         <is>
-          <t>Percent of tracts within 30-min telehealth buprenorphine driving range</t>
+          <t>Tracts with Pharmacy (30-min drive)</t>
         </is>
       </c>
       <c r="X185" t="inlineStr"/>
       <c r="Y185" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Pharmacies.md</t>
         </is>
       </c>
       <c r="Z185" t="inlineStr">
         <is>
-          <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
+          <t>InfoGroup 2019</t>
         </is>
       </c>
       <c r="AA185" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
+          <t>InfoGroup, 2019</t>
         </is>
       </c>
       <c r="AB185" t="inlineStr"/>
@@ -13942,7 +13846,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Spatial Access to MOUDs</t>
+          <t>Spatial Access to Pharmacies</t>
         </is>
       </c>
       <c r="C186" t="inlineStr"/>
@@ -13955,43 +13859,43 @@
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr"/>
-      <c r="M186" t="inlineStr"/>
+      <c r="M186" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N186" t="inlineStr"/>
       <c r="O186" t="inlineStr"/>
       <c r="P186" t="inlineStr"/>
       <c r="Q186" t="inlineStr"/>
       <c r="R186" t="inlineStr"/>
-      <c r="S186" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S186" t="inlineStr"/>
       <c r="T186" t="inlineStr"/>
       <c r="U186" t="inlineStr"/>
       <c r="V186" t="inlineStr">
         <is>
-          <t>TlBupTmDr60P</t>
+          <t>RxTmDrP</t>
         </is>
       </c>
       <c r="W186" t="inlineStr">
         <is>
-          <t>Percent of tracts within 60-min telehealth buprenorphine driving range</t>
+          <t>% tracts with Pharmacy (30-min drive)</t>
         </is>
       </c>
       <c r="X186" t="inlineStr"/>
       <c r="Y186" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Pharmacies.md</t>
         </is>
       </c>
       <c r="Z186" t="inlineStr">
         <is>
-          <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
+          <t>InfoGroup 2019</t>
         </is>
       </c>
       <c r="AA186" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
+          <t>InfoGroup, 2019</t>
         </is>
       </c>
       <c r="AB186" t="inlineStr"/>
@@ -14006,7 +13910,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Spatial Access to MOUDs</t>
+          <t>Spatial Access to Substance Use Treatment Providers</t>
         </is>
       </c>
       <c r="C187" t="inlineStr"/>
@@ -14020,42 +13924,42 @@
       <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr"/>
       <c r="M187" t="inlineStr"/>
-      <c r="N187" t="inlineStr"/>
+      <c r="N187" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O187" t="inlineStr"/>
       <c r="P187" t="inlineStr"/>
       <c r="Q187" t="inlineStr"/>
       <c r="R187" t="inlineStr"/>
-      <c r="S187" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S187" t="inlineStr"/>
       <c r="T187" t="inlineStr"/>
       <c r="U187" t="inlineStr"/>
       <c r="V187" t="inlineStr">
         <is>
-          <t>TlBupTmWk</t>
+          <t>SutpAvTmDr</t>
         </is>
       </c>
       <c r="W187" t="inlineStr">
         <is>
-          <t>Walking time to nearest telehealth buprenorphine provider</t>
+          <t>Driving Time (min) to nearest Substance Use Treatment program</t>
         </is>
       </c>
       <c r="X187" t="inlineStr"/>
       <c r="Y187" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_SubstanceUseTreatment.md</t>
         </is>
       </c>
       <c r="Z187" t="inlineStr">
         <is>
-          <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
+          <t>SAMHSA 2020</t>
         </is>
       </c>
       <c r="AA187" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2020</t>
         </is>
       </c>
       <c r="AB187" t="inlineStr"/>
@@ -14070,7 +13974,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Spatial Access to MOUDs</t>
+          <t>Spatial Access to Substance Use Treatment Providers</t>
         </is>
       </c>
       <c r="C188" t="inlineStr"/>
@@ -14084,42 +13988,42 @@
       <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr"/>
       <c r="M188" t="inlineStr"/>
-      <c r="N188" t="inlineStr"/>
+      <c r="N188" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O188" t="inlineStr"/>
       <c r="P188" t="inlineStr"/>
       <c r="Q188" t="inlineStr"/>
       <c r="R188" t="inlineStr"/>
-      <c r="S188" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S188" t="inlineStr"/>
       <c r="T188" t="inlineStr"/>
       <c r="U188" t="inlineStr"/>
       <c r="V188" t="inlineStr">
         <is>
-          <t>TlBupTmWk30P</t>
+          <t>SutpCtTmDr</t>
         </is>
       </c>
       <c r="W188" t="inlineStr">
         <is>
-          <t>Percent of tracts within 30-min telehealth buprenorphine walking range</t>
+          <t>Tracts with Substance Use Treatment (SUT) program (30-min drive)</t>
         </is>
       </c>
       <c r="X188" t="inlineStr"/>
       <c r="Y188" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_SubstanceUseTreatment.md</t>
         </is>
       </c>
       <c r="Z188" t="inlineStr">
         <is>
-          <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
+          <t>SAMHSA 2020</t>
         </is>
       </c>
       <c r="AA188" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2020</t>
         </is>
       </c>
       <c r="AB188" t="inlineStr"/>
@@ -14134,7 +14038,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Spatial Access to Mental Health Providers</t>
+          <t>Spatial Access to Substance Use Treatment Providers</t>
         </is>
       </c>
       <c r="C189" t="inlineStr"/>
@@ -14157,27 +14061,23 @@
       <c r="P189" t="inlineStr"/>
       <c r="Q189" t="inlineStr"/>
       <c r="R189" t="inlineStr"/>
-      <c r="S189" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S189" t="inlineStr"/>
       <c r="T189" t="inlineStr"/>
       <c r="U189" t="inlineStr"/>
       <c r="V189" t="inlineStr">
         <is>
-          <t>MhAvTmDr</t>
+          <t>SutpTmDrP</t>
         </is>
       </c>
       <c r="W189" t="inlineStr">
         <is>
-          <t>Driving Time (min) to nearest Mental Health Provider</t>
+          <t>% tracts with Substance Use Treatment program (30-min drive)</t>
         </is>
       </c>
       <c r="X189" t="inlineStr"/>
       <c r="Y189" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Mental_Health.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_SubstanceUseTreatment.md</t>
         </is>
       </c>
       <c r="Z189" t="inlineStr">
@@ -14202,7 +14102,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Spatial Access to Mental Health Providers</t>
+          <t>Spatial access to Federally Qualified Health Centers (FQHCs)</t>
         </is>
       </c>
       <c r="C190" t="inlineStr"/>
@@ -14234,28 +14134,28 @@
       <c r="U190" t="inlineStr"/>
       <c r="V190" t="inlineStr">
         <is>
-          <t>MhCtTmDr</t>
+          <t>FqhcAvTmDr</t>
         </is>
       </c>
       <c r="W190" t="inlineStr">
         <is>
-          <t>Tracts with Mental Health Provider (30-min drive)</t>
+          <t>Average driving time to nearest Federally Qualified Health Center (FQHC)</t>
         </is>
       </c>
       <c r="X190" t="inlineStr"/>
       <c r="Y190" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Mental_Health.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_FQHCs.md</t>
         </is>
       </c>
       <c r="Z190" t="inlineStr">
         <is>
-          <t>SAMHSA 2020</t>
+          <t>HRSA 2020 &amp; 2025; OSM 2019 &amp; 2025; Census TIGER 2018 &amp; 2020</t>
         </is>
       </c>
       <c r="AA190" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2020</t>
+          <t>United States Covid Atlas via Health Resources and Services Administration, 2020 &amp; 2025; Open Street Map 2019 &amp; 2025; Census Tiger/Line 2018 &amp; 2020 Shapefiles</t>
         </is>
       </c>
       <c r="AB190" t="inlineStr"/>
@@ -14270,7 +14170,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Spatial Access to Mental Health Providers</t>
+          <t>Spatial access to Federally Qualified Health Centers (FQHCs)</t>
         </is>
       </c>
       <c r="C191" t="inlineStr"/>
@@ -14284,11 +14184,7 @@
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr"/>
       <c r="M191" t="inlineStr"/>
-      <c r="N191" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr"/>
       <c r="P191" t="inlineStr"/>
       <c r="Q191" t="inlineStr"/>
@@ -14298,32 +14194,36 @@
           <t>x</t>
         </is>
       </c>
-      <c r="T191" t="inlineStr"/>
+      <c r="T191" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="U191" t="inlineStr"/>
       <c r="V191" t="inlineStr">
         <is>
-          <t>MhTmDrP</t>
+          <t>FqhcAvTmDr2</t>
         </is>
       </c>
       <c r="W191" t="inlineStr">
         <is>
-          <t>% Tracts with Mental Health Provider (30-min drive)</t>
+          <t>Average driving time to nearest Federally Qualified Health Center (FQHC), with Impedance factor</t>
         </is>
       </c>
       <c r="X191" t="inlineStr"/>
       <c r="Y191" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Mental_Health.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_FQHCs.md</t>
         </is>
       </c>
       <c r="Z191" t="inlineStr">
         <is>
-          <t>SAMHSA 2020</t>
+          <t>HRSA 2020 &amp; 2025; OSM 2019 &amp; 2025; Census TIGER 2018 &amp; 2020</t>
         </is>
       </c>
       <c r="AA191" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2020</t>
+          <t>United States Covid Atlas via Health Resources and Services Administration, 2020 &amp; 2025; Open Street Map 2019 &amp; 2025; Census Tiger/Line 2018 &amp; 2020 Shapefiles</t>
         </is>
       </c>
       <c r="AB191" t="inlineStr"/>
@@ -14338,7 +14238,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Spatial Access to Pharmacies</t>
+          <t>Spatial access to Federally Qualified Health Centers (FQHCs)</t>
         </is>
       </c>
       <c r="C192" t="inlineStr"/>
@@ -14351,43 +14251,47 @@
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr"/>
-      <c r="M192" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O192" t="inlineStr"/>
       <c r="P192" t="inlineStr"/>
       <c r="Q192" t="inlineStr"/>
       <c r="R192" t="inlineStr"/>
-      <c r="S192" t="inlineStr"/>
+      <c r="S192" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T192" t="inlineStr"/>
       <c r="U192" t="inlineStr"/>
       <c r="V192" t="inlineStr">
         <is>
-          <t>RxAvTmDr</t>
+          <t>FqhcCtTmDr</t>
         </is>
       </c>
       <c r="W192" t="inlineStr">
         <is>
-          <t xml:space="preserve">Avg. Driving Time (min) to nearest Pharmacy </t>
+          <t>Count of Tracts within 30-min drive of Federally Qualified Health Center (FQHC)</t>
         </is>
       </c>
       <c r="X192" t="inlineStr"/>
       <c r="Y192" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Pharmacies.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_FQHCs.md</t>
         </is>
       </c>
       <c r="Z192" t="inlineStr">
         <is>
-          <t>InfoGroup 2019</t>
+          <t>HRSA 2020 &amp; 2025; OSM 2019 &amp; 2025; Census TIGER 2018 &amp; 2020</t>
         </is>
       </c>
       <c r="AA192" t="inlineStr">
         <is>
-          <t>InfoGroup, 2019</t>
+          <t>United States Covid Atlas via Health Resources and Services Administration, 2020 &amp; 2025; Open Street Map 2019 &amp; 2025; Census Tiger/Line 2018 &amp; 2020 Shapefiles</t>
         </is>
       </c>
       <c r="AB192" t="inlineStr"/>
@@ -14402,7 +14306,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Spatial Access to Pharmacies</t>
+          <t>Spatial access to Federally Qualified Health Centers (FQHCs)</t>
         </is>
       </c>
       <c r="C193" t="inlineStr"/>
@@ -14415,43 +14319,43 @@
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr"/>
-      <c r="M193" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="M193" t="inlineStr"/>
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr"/>
       <c r="P193" t="inlineStr"/>
       <c r="Q193" t="inlineStr"/>
       <c r="R193" t="inlineStr"/>
-      <c r="S193" t="inlineStr"/>
+      <c r="S193" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T193" t="inlineStr"/>
       <c r="U193" t="inlineStr"/>
       <c r="V193" t="inlineStr">
         <is>
-          <t>RxCtTmDr</t>
+          <t>FqhcCtTmDr2</t>
         </is>
       </c>
       <c r="W193" t="inlineStr">
         <is>
-          <t>Tracts with Pharmacy (30-min drive)</t>
+          <t>Count of Tracts within 30-min drive of Federally Qualified Health Center (FQHC), with Impedance factor</t>
         </is>
       </c>
       <c r="X193" t="inlineStr"/>
       <c r="Y193" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Pharmacies.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_FQHCs.md</t>
         </is>
       </c>
       <c r="Z193" t="inlineStr">
         <is>
-          <t>InfoGroup 2019</t>
+          <t>HRSA 2020 &amp; 2025; OSM 2019 &amp; 2025; Census TIGER 2018 &amp; 2020</t>
         </is>
       </c>
       <c r="AA193" t="inlineStr">
         <is>
-          <t>InfoGroup, 2019</t>
+          <t>United States Covid Atlas via Health Resources and Services Administration, 2020 &amp; 2025; Open Street Map 2019 &amp; 2025; Census Tiger/Line 2018 &amp; 2020 Shapefiles</t>
         </is>
       </c>
       <c r="AB193" t="inlineStr"/>
@@ -14466,7 +14370,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Spatial Access to Pharmacies</t>
+          <t>Spatial access to Federally Qualified Health Centers (FQHCs)</t>
         </is>
       </c>
       <c r="C194" t="inlineStr"/>
@@ -14479,43 +14383,47 @@
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr"/>
-      <c r="M194" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O194" t="inlineStr"/>
       <c r="P194" t="inlineStr"/>
       <c r="Q194" t="inlineStr"/>
       <c r="R194" t="inlineStr"/>
-      <c r="S194" t="inlineStr"/>
+      <c r="S194" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T194" t="inlineStr"/>
       <c r="U194" t="inlineStr"/>
       <c r="V194" t="inlineStr">
         <is>
-          <t>RxTmDrP</t>
+          <t>FqhcTmDrP</t>
         </is>
       </c>
       <c r="W194" t="inlineStr">
         <is>
-          <t>% tracts with Pharmacy (30-min drive)</t>
+          <t>% Tracts within 30-min drive of Federally Qualified Health Center (FQHC)</t>
         </is>
       </c>
       <c r="X194" t="inlineStr"/>
       <c r="Y194" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Pharmacies.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_FQHCs.md</t>
         </is>
       </c>
       <c r="Z194" t="inlineStr">
         <is>
-          <t>InfoGroup 2019</t>
+          <t>HRSA 2020 &amp; 2025; OSM 2019 &amp; 2025; Census TIGER 2018 &amp; 2020</t>
         </is>
       </c>
       <c r="AA194" t="inlineStr">
         <is>
-          <t>InfoGroup, 2019</t>
+          <t>United States Covid Atlas via Health Resources and Services Administration, 2020 &amp; 2025; Open Street Map 2019 &amp; 2025; Census Tiger/Line 2018 &amp; 2020 Shapefiles</t>
         </is>
       </c>
       <c r="AB194" t="inlineStr"/>
@@ -14530,7 +14438,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Spatial Access to Substance Use Treatment Providers</t>
+          <t>Spatial access to Federally Qualified Health Centers (FQHCs)</t>
         </is>
       </c>
       <c r="C195" t="inlineStr"/>
@@ -14544,42 +14452,46 @@
       <c r="K195" t="inlineStr"/>
       <c r="L195" t="inlineStr"/>
       <c r="M195" t="inlineStr"/>
-      <c r="N195" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N195" t="inlineStr"/>
       <c r="O195" t="inlineStr"/>
       <c r="P195" t="inlineStr"/>
       <c r="Q195" t="inlineStr"/>
       <c r="R195" t="inlineStr"/>
-      <c r="S195" t="inlineStr"/>
-      <c r="T195" t="inlineStr"/>
+      <c r="S195" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="T195" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="U195" t="inlineStr"/>
       <c r="V195" t="inlineStr">
         <is>
-          <t>SutpAvTmDr</t>
+          <t>FqhcTmDrP2</t>
         </is>
       </c>
       <c r="W195" t="inlineStr">
         <is>
-          <t>Driving Time (min) to nearest Substance Use Treatment program</t>
+          <t>% Tracts within 30-min drive of Federally Qualified Health Center (FQHC), with Impedance factor</t>
         </is>
       </c>
       <c r="X195" t="inlineStr"/>
       <c r="Y195" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_SubstanceUseTreatment.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_FQHCs.md</t>
         </is>
       </c>
       <c r="Z195" t="inlineStr">
         <is>
-          <t>SAMHSA 2020</t>
+          <t>HRSA 2020 &amp; 2025; OSM 2019 &amp; 2025; Census TIGER 2018 &amp; 2020</t>
         </is>
       </c>
       <c r="AA195" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2020</t>
+          <t>United States Covid Atlas via Health Resources and Services Administration, 2020 &amp; 2025; Open Street Map 2019 &amp; 2025; Census Tiger/Line 2018 &amp; 2020 Shapefiles</t>
         </is>
       </c>
       <c r="AB195" t="inlineStr"/>
@@ -14594,7 +14506,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Spatial Access to Substance Use Treatment Providers</t>
+          <t>Spatial access to Federally Qualified Health Centers (FQHCs)</t>
         </is>
       </c>
       <c r="C196" t="inlineStr"/>
@@ -14606,44 +14518,48 @@
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M196" t="inlineStr"/>
-      <c r="N196" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N196" t="inlineStr"/>
       <c r="O196" t="inlineStr"/>
       <c r="P196" t="inlineStr"/>
       <c r="Q196" t="inlineStr"/>
       <c r="R196" t="inlineStr"/>
-      <c r="S196" t="inlineStr"/>
+      <c r="S196" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T196" t="inlineStr"/>
       <c r="U196" t="inlineStr"/>
       <c r="V196" t="inlineStr">
         <is>
-          <t>SutpCtTmDr</t>
+          <t>TotTracts</t>
         </is>
       </c>
       <c r="W196" t="inlineStr">
         <is>
-          <t>Tracts with Substance Use Treatment (SUT) program (30-min drive)</t>
+          <t>Total Census Tract Count</t>
         </is>
       </c>
       <c r="X196" t="inlineStr"/>
       <c r="Y196" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_SubstanceUseTreatment.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_FQHCs.md</t>
         </is>
       </c>
       <c r="Z196" t="inlineStr">
         <is>
-          <t>SAMHSA 2020</t>
+          <t>HRSA 2020 &amp; 2025; OSM 2019 &amp; 2025; Census TIGER 2018 &amp; 2020</t>
         </is>
       </c>
       <c r="AA196" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2020</t>
+          <t>United States Covid Atlas via Health Resources and Services Administration, 2020 &amp; 2025; Open Street Map 2019 &amp; 2025; Census Tiger/Line 2018 &amp; 2020 Shapefiles</t>
         </is>
       </c>
       <c r="AB196" t="inlineStr"/>
@@ -14658,7 +14574,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Spatial Access to Substance Use Treatment Providers</t>
+          <t>Urban/Suburban/Rural Classification</t>
         </is>
       </c>
       <c r="C197" t="inlineStr"/>
@@ -14670,13 +14586,13 @@
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M197" t="inlineStr"/>
-      <c r="N197" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N197" t="inlineStr"/>
       <c r="O197" t="inlineStr"/>
       <c r="P197" t="inlineStr"/>
       <c r="Q197" t="inlineStr"/>
@@ -14686,28 +14602,28 @@
       <c r="U197" t="inlineStr"/>
       <c r="V197" t="inlineStr">
         <is>
-          <t>SutpTmDrP</t>
+          <t>CenFlags</t>
         </is>
       </c>
       <c r="W197" t="inlineStr">
         <is>
-          <t>% tracts with Substance Use Treatment program (30-min drive)</t>
+          <t>Census Flags</t>
         </is>
       </c>
       <c r="X197" t="inlineStr"/>
       <c r="Y197" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_SubstanceUseTreatment.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Urbanicity.md</t>
         </is>
       </c>
       <c r="Z197" t="inlineStr">
         <is>
-          <t>SAMHSA 2020</t>
+          <t>USDA-ERS 2010; ACS 2018</t>
         </is>
       </c>
       <c r="AA197" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2020</t>
+          <t>United States Department of Agriculture Economic Research Service, 2010; American Community Survey 2014-2018 5-Year Estimate</t>
         </is>
       </c>
       <c r="AB197" t="inlineStr"/>
@@ -14722,7 +14638,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Spatial access to Federally Qualified Health Centers (FQHCs)</t>
+          <t>Urban/Suburban/Rural Classification</t>
         </is>
       </c>
       <c r="C198" t="inlineStr"/>
@@ -14734,48 +14650,44 @@
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M198" t="inlineStr"/>
-      <c r="N198" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N198" t="inlineStr"/>
       <c r="O198" t="inlineStr"/>
       <c r="P198" t="inlineStr"/>
       <c r="Q198" t="inlineStr"/>
       <c r="R198" t="inlineStr"/>
-      <c r="S198" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S198" t="inlineStr"/>
       <c r="T198" t="inlineStr"/>
       <c r="U198" t="inlineStr"/>
       <c r="V198" t="inlineStr">
         <is>
-          <t>FqhcAvTmDr</t>
+          <t>RcaRuralP</t>
         </is>
       </c>
       <c r="W198" t="inlineStr">
         <is>
-          <t>Average driving time to nearest Federally Qualified Health Center (FQHC)</t>
+          <t>% Tracts Rural (RUCA)</t>
         </is>
       </c>
       <c r="X198" t="inlineStr"/>
       <c r="Y198" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_FQHCs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Urbanicity.md</t>
         </is>
       </c>
       <c r="Z198" t="inlineStr">
         <is>
-          <t>HRSA 2020 &amp; 2025; OSM 2019 &amp; 2025; Census TIGER 2018 &amp; 2020</t>
+          <t>USDA-ERS 2010; ACS 2018</t>
         </is>
       </c>
       <c r="AA198" t="inlineStr">
         <is>
-          <t>United States Covid Atlas via Health Resources and Services Adminsitration, 2020 &amp; 2025; Open Street Map 2019 &amp; 2025; Census Tiger/Line 2018 &amp; 2020 Shapefiles</t>
+          <t>United States Department of Agriculture Economic Research Service, 2010; American Community Survey 2014-2018 5-Year Estimate</t>
         </is>
       </c>
       <c r="AB198" t="inlineStr"/>
@@ -14790,7 +14702,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Spatial access to Federally Qualified Health Centers (FQHCs)</t>
+          <t>Urban/Suburban/Rural Classification</t>
         </is>
       </c>
       <c r="C199" t="inlineStr"/>
@@ -14802,48 +14714,44 @@
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M199" t="inlineStr"/>
       <c r="N199" t="inlineStr"/>
       <c r="O199" t="inlineStr"/>
       <c r="P199" t="inlineStr"/>
       <c r="Q199" t="inlineStr"/>
       <c r="R199" t="inlineStr"/>
-      <c r="S199" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="T199" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S199" t="inlineStr"/>
+      <c r="T199" t="inlineStr"/>
       <c r="U199" t="inlineStr"/>
       <c r="V199" t="inlineStr">
         <is>
-          <t>FqhcAvTmDr2</t>
+          <t>RcaSubrbP</t>
         </is>
       </c>
       <c r="W199" t="inlineStr">
         <is>
-          <t>Average driving time to nearest Federally Qualified Health Center (FQHC), with Impedance factor</t>
+          <t>% Tracts Suburban (RUCA)</t>
         </is>
       </c>
       <c r="X199" t="inlineStr"/>
       <c r="Y199" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_FQHCs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Urbanicity.md</t>
         </is>
       </c>
       <c r="Z199" t="inlineStr">
         <is>
-          <t>HRSA 2020 &amp; 2025; OSM 2019 &amp; 2025; Census TIGER 2018 &amp; 2020</t>
+          <t>USDA-ERS 2010; ACS 2018</t>
         </is>
       </c>
       <c r="AA199" t="inlineStr">
         <is>
-          <t>United States Covid Atlas via Health Resources and Services Adminsitration, 2020 &amp; 2025; Open Street Map 2019 &amp; 2025; Census Tiger/Line 2018 &amp; 2020 Shapefiles</t>
+          <t>United States Department of Agriculture Economic Research Service, 2010; American Community Survey 2014-2018 5-Year Estimate</t>
         </is>
       </c>
       <c r="AB199" t="inlineStr"/>
@@ -14858,7 +14766,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Spatial access to Federally Qualified Health Centers (FQHCs)</t>
+          <t>Urban/Suburban/Rural Classification</t>
         </is>
       </c>
       <c r="C200" t="inlineStr"/>
@@ -14870,48 +14778,44 @@
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M200" t="inlineStr"/>
-      <c r="N200" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N200" t="inlineStr"/>
       <c r="O200" t="inlineStr"/>
       <c r="P200" t="inlineStr"/>
       <c r="Q200" t="inlineStr"/>
       <c r="R200" t="inlineStr"/>
-      <c r="S200" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S200" t="inlineStr"/>
       <c r="T200" t="inlineStr"/>
       <c r="U200" t="inlineStr"/>
       <c r="V200" t="inlineStr">
         <is>
-          <t>FqhcCtTmDr</t>
+          <t>RcaUrbanP</t>
         </is>
       </c>
       <c r="W200" t="inlineStr">
         <is>
-          <t>Count of Tracts within 30-min drive of Federally Qualified Health Center (FQHC)</t>
+          <t>% Tracts Urban (RUCA)</t>
         </is>
       </c>
       <c r="X200" t="inlineStr"/>
       <c r="Y200" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_FQHCs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Urbanicity.md</t>
         </is>
       </c>
       <c r="Z200" t="inlineStr">
         <is>
-          <t>HRSA 2020 &amp; 2025; OSM 2019 &amp; 2025; Census TIGER 2018 &amp; 2020</t>
+          <t>USDA-ERS 2010; ACS 2018</t>
         </is>
       </c>
       <c r="AA200" t="inlineStr">
         <is>
-          <t>United States Covid Atlas via Health Resources and Services Adminsitration, 2020 &amp; 2025; Open Street Map 2019 &amp; 2025; Census Tiger/Line 2018 &amp; 2020 Shapefiles</t>
+          <t>United States Department of Agriculture Economic Research Service, 2010; American Community Survey 2014-2018 5-Year Estimate</t>
         </is>
       </c>
       <c r="AB200" t="inlineStr"/>
@@ -14921,12 +14825,12 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Environment</t>
+          <t>Economic</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Spatial access to Federally Qualified Health Centers (FQHCs)</t>
+          <t>Employment Trends</t>
         </is>
       </c>
       <c r="C201" t="inlineStr"/>
@@ -14938,44 +14842,44 @@
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M201" t="inlineStr"/>
       <c r="N201" t="inlineStr"/>
       <c r="O201" t="inlineStr"/>
       <c r="P201" t="inlineStr"/>
       <c r="Q201" t="inlineStr"/>
       <c r="R201" t="inlineStr"/>
-      <c r="S201" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S201" t="inlineStr"/>
       <c r="T201" t="inlineStr"/>
       <c r="U201" t="inlineStr"/>
       <c r="V201" t="inlineStr">
         <is>
-          <t>FqhcCtTmDr2</t>
+          <t>EssnWrkE</t>
         </is>
       </c>
       <c r="W201" t="inlineStr">
         <is>
-          <t>Count of Tracts within 30-min drive of Federally Qualified Health Center (FQHC), with Impedance factor</t>
+          <t>Count of Essential Workers</t>
         </is>
       </c>
       <c r="X201" t="inlineStr"/>
       <c r="Y201" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_FQHCs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
         </is>
       </c>
       <c r="Z201" t="inlineStr">
         <is>
-          <t>HRSA 2020 &amp; 2025; OSM 2019 &amp; 2025; Census TIGER 2018 &amp; 2020</t>
+          <t>ACS 2018, 2023</t>
         </is>
       </c>
       <c r="AA201" t="inlineStr">
         <is>
-          <t>United States Covid Atlas via Health Resources and Services Adminsitration, 2020 &amp; 2025; Open Street Map 2019 &amp; 2025; Census Tiger/Line 2018 &amp; 2020 Shapefiles</t>
+          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
         </is>
       </c>
       <c r="AB201" t="inlineStr"/>
@@ -14985,12 +14889,12 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Environment</t>
+          <t>Economic</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Spatial access to Federally Qualified Health Centers (FQHCs)</t>
+          <t>Employment Trends</t>
         </is>
       </c>
       <c r="C202" t="inlineStr"/>
@@ -15002,7 +14906,11 @@
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M202" t="inlineStr"/>
       <c r="N202" t="inlineStr">
         <is>
@@ -15011,39 +14919,39 @@
       </c>
       <c r="O202" t="inlineStr"/>
       <c r="P202" t="inlineStr"/>
-      <c r="Q202" t="inlineStr"/>
+      <c r="Q202" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R202" t="inlineStr"/>
-      <c r="S202" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S202" t="inlineStr"/>
       <c r="T202" t="inlineStr"/>
       <c r="U202" t="inlineStr"/>
       <c r="V202" t="inlineStr">
         <is>
-          <t>FqhcTmDrP</t>
+          <t>EssnWrkP</t>
         </is>
       </c>
       <c r="W202" t="inlineStr">
         <is>
-          <t>% Tracts within 30-min drive of Federally Qualified Health Center (FQHC)</t>
+          <t>Essential Workers %</t>
         </is>
       </c>
       <c r="X202" t="inlineStr"/>
       <c r="Y202" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_FQHCs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
         </is>
       </c>
       <c r="Z202" t="inlineStr">
         <is>
-          <t>HRSA 2020 &amp; 2025; OSM 2019 &amp; 2025; Census TIGER 2018 &amp; 2020</t>
+          <t>ACS 2018, 2023</t>
         </is>
       </c>
       <c r="AA202" t="inlineStr">
         <is>
-          <t>United States Covid Atlas via Health Resources and Services Adminsitration, 2020 &amp; 2025; Open Street Map 2019 &amp; 2025; Census Tiger/Line 2018 &amp; 2020 Shapefiles</t>
+          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
         </is>
       </c>
       <c r="AB202" t="inlineStr"/>
@@ -15053,12 +14961,12 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Environment</t>
+          <t>Economic</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Spatial access to Federally Qualified Health Centers (FQHCs)</t>
+          <t>Employment Trends</t>
         </is>
       </c>
       <c r="C203" t="inlineStr"/>
@@ -15070,48 +14978,52 @@
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M203" t="inlineStr"/>
-      <c r="N203" t="inlineStr"/>
+      <c r="N203" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O203" t="inlineStr"/>
       <c r="P203" t="inlineStr"/>
-      <c r="Q203" t="inlineStr"/>
+      <c r="Q203" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R203" t="inlineStr"/>
-      <c r="S203" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="T203" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S203" t="inlineStr"/>
+      <c r="T203" t="inlineStr"/>
       <c r="U203" t="inlineStr"/>
       <c r="V203" t="inlineStr">
         <is>
-          <t>FqhcTmDrP2</t>
+          <t>HghRskP</t>
         </is>
       </c>
       <c r="W203" t="inlineStr">
         <is>
-          <t>% Tracts within 30-min drive of Federally Qualified Health Center (FQHC), with Impedance factor</t>
+          <t>Employed % - High Risk of Injury</t>
         </is>
       </c>
       <c r="X203" t="inlineStr"/>
       <c r="Y203" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_FQHCs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
         </is>
       </c>
       <c r="Z203" t="inlineStr">
         <is>
-          <t>HRSA 2020 &amp; 2025; OSM 2019 &amp; 2025; Census TIGER 2018 &amp; 2020</t>
+          <t>ACS 2018, 2023</t>
         </is>
       </c>
       <c r="AA203" t="inlineStr">
         <is>
-          <t>United States Covid Atlas via Health Resources and Services Adminsitration, 2020 &amp; 2025; Open Street Map 2019 &amp; 2025; Census Tiger/Line 2018 &amp; 2020 Shapefiles</t>
+          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
         </is>
       </c>
       <c r="AB203" t="inlineStr"/>
@@ -15121,12 +15033,12 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Environment</t>
+          <t>Economic</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Spatial access to Federally Qualified Health Centers (FQHCs)</t>
+          <t>Employment Trends</t>
         </is>
       </c>
       <c r="C204" t="inlineStr"/>
@@ -15144,42 +15056,46 @@
         </is>
       </c>
       <c r="M204" t="inlineStr"/>
-      <c r="N204" t="inlineStr"/>
+      <c r="N204" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O204" t="inlineStr"/>
       <c r="P204" t="inlineStr"/>
-      <c r="Q204" t="inlineStr"/>
+      <c r="Q204" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R204" t="inlineStr"/>
-      <c r="S204" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S204" t="inlineStr"/>
       <c r="T204" t="inlineStr"/>
       <c r="U204" t="inlineStr"/>
       <c r="V204" t="inlineStr">
         <is>
-          <t>TotTracts</t>
+          <t>HltCrP</t>
         </is>
       </c>
       <c r="W204" t="inlineStr">
         <is>
-          <t>Total Census Tract Count</t>
+          <t>Employed % - Health Care</t>
         </is>
       </c>
       <c r="X204" t="inlineStr"/>
       <c r="Y204" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_FQHCs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
         </is>
       </c>
       <c r="Z204" t="inlineStr">
         <is>
-          <t>HRSA 2020 &amp; 2025; OSM 2019 &amp; 2025; Census TIGER 2018 &amp; 2020</t>
+          <t>ACS 2018, 2023</t>
         </is>
       </c>
       <c r="AA204" t="inlineStr">
         <is>
-          <t>United States Covid Atlas via Health Resources and Services Adminsitration, 2020 &amp; 2025; Open Street Map 2019 &amp; 2025; Census Tiger/Line 2018 &amp; 2020 Shapefiles</t>
+          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
         </is>
       </c>
       <c r="AB204" t="inlineStr"/>
@@ -15189,12 +15105,12 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Environment</t>
+          <t>Economic</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Urban/Suburban/Rural Classification</t>
+          <t>Employment Trends</t>
         </is>
       </c>
       <c r="C205" t="inlineStr"/>
@@ -15212,38 +15128,46 @@
         </is>
       </c>
       <c r="M205" t="inlineStr"/>
-      <c r="N205" t="inlineStr"/>
+      <c r="N205" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O205" t="inlineStr"/>
       <c r="P205" t="inlineStr"/>
-      <c r="Q205" t="inlineStr"/>
+      <c r="Q205" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R205" t="inlineStr"/>
       <c r="S205" t="inlineStr"/>
       <c r="T205" t="inlineStr"/>
       <c r="U205" t="inlineStr"/>
       <c r="V205" t="inlineStr">
         <is>
-          <t>CenFlags</t>
+          <t>RetailP</t>
         </is>
       </c>
       <c r="W205" t="inlineStr">
         <is>
-          <t>Census Flags</t>
+          <t>Employed % - Retail</t>
         </is>
       </c>
       <c r="X205" t="inlineStr"/>
       <c r="Y205" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Urbanicity.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
         </is>
       </c>
       <c r="Z205" t="inlineStr">
         <is>
-          <t>USDA-ERS 2010; ACS 2018</t>
+          <t>ACS 2018, 2023</t>
         </is>
       </c>
       <c r="AA205" t="inlineStr">
         <is>
-          <t>United States Department of Agriculture Economic Research Service, 2010; American Community Survey 2014-2018 5-Year Estimate</t>
+          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
         </is>
       </c>
       <c r="AB205" t="inlineStr"/>
@@ -15253,12 +15177,12 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Environment</t>
+          <t>Economic</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Urban/Suburban/Rural Classification</t>
+          <t>Employment Trends</t>
         </is>
       </c>
       <c r="C206" t="inlineStr"/>
@@ -15276,38 +15200,46 @@
         </is>
       </c>
       <c r="M206" t="inlineStr"/>
-      <c r="N206" t="inlineStr"/>
+      <c r="N206" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O206" t="inlineStr"/>
       <c r="P206" t="inlineStr"/>
-      <c r="Q206" t="inlineStr"/>
+      <c r="Q206" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R206" t="inlineStr"/>
       <c r="S206" t="inlineStr"/>
       <c r="T206" t="inlineStr"/>
       <c r="U206" t="inlineStr"/>
       <c r="V206" t="inlineStr">
         <is>
-          <t>RcaRuralP</t>
+          <t>TotWrkE</t>
         </is>
       </c>
       <c r="W206" t="inlineStr">
         <is>
-          <t>% Tracts Rural (RUCA)</t>
+          <t>Count of Working Population</t>
         </is>
       </c>
       <c r="X206" t="inlineStr"/>
       <c r="Y206" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Urbanicity.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
         </is>
       </c>
       <c r="Z206" t="inlineStr">
         <is>
-          <t>USDA-ERS 2010; ACS 2018</t>
+          <t>ACS 2018, 2023</t>
         </is>
       </c>
       <c r="AA206" t="inlineStr">
         <is>
-          <t>United States Department of Agriculture Economic Research Service, 2010; American Community Survey 2014-2018 5-Year Estimate</t>
+          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
         </is>
       </c>
       <c r="AB206" t="inlineStr"/>
@@ -15317,12 +15249,12 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Environment</t>
+          <t>Economic</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Urban/Suburban/Rural Classification</t>
+          <t>Great Recession Foreclosure Rate</t>
         </is>
       </c>
       <c r="C207" t="inlineStr"/>
@@ -15350,28 +15282,28 @@
       <c r="U207" t="inlineStr"/>
       <c r="V207" t="inlineStr">
         <is>
-          <t>RcaSubrbP</t>
+          <t>ForDqP</t>
         </is>
       </c>
       <c r="W207" t="inlineStr">
         <is>
-          <t>% Tracts Suburban (RUCA)</t>
+          <t>Foreclosure &amp; Delinquency %</t>
         </is>
       </c>
       <c r="X207" t="inlineStr"/>
       <c r="Y207" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Urbanicity.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Foreclosure_Rate.md</t>
         </is>
       </c>
       <c r="Z207" t="inlineStr">
         <is>
-          <t>USDA-ERS 2010; ACS 2018</t>
+          <t>HUD 2018; ACS 2012, 2018</t>
         </is>
       </c>
       <c r="AA207" t="inlineStr">
         <is>
-          <t>United States Department of Agriculture Economic Research Service, 2010; American Community Survey 2014-2018 5-Year Estimate</t>
+          <t>U.S. Department of Housing and Urban Development Neighborhood Stabilization Program; American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates</t>
         </is>
       </c>
       <c r="AB207" t="inlineStr"/>
@@ -15381,12 +15313,12 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Environment</t>
+          <t>Economic</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Urban/Suburban/Rural Classification</t>
+          <t>Great Recession Foreclosure Rate</t>
         </is>
       </c>
       <c r="C208" t="inlineStr"/>
@@ -15414,28 +15346,28 @@
       <c r="U208" t="inlineStr"/>
       <c r="V208" t="inlineStr">
         <is>
-          <t>RcaUrbanP</t>
+          <t>ForDqTot</t>
         </is>
       </c>
       <c r="W208" t="inlineStr">
         <is>
-          <t>% Tracts Urban (RUCA)</t>
+          <t>Foreclosure &amp; Delinquency Count</t>
         </is>
       </c>
       <c r="X208" t="inlineStr"/>
       <c r="Y208" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Urbanicity.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Foreclosure_Rate.md</t>
         </is>
       </c>
       <c r="Z208" t="inlineStr">
         <is>
-          <t>USDA-ERS 2010; ACS 2018</t>
+          <t>HUD 2018; ACS 2012, 2018</t>
         </is>
       </c>
       <c r="AA208" t="inlineStr">
         <is>
-          <t>United States Department of Agriculture Economic Research Service, 2010; American Community Survey 2014-2018 5-Year Estimate</t>
+          <t>U.S. Department of Housing and Urban Development Neighborhood Stabilization Program; American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates</t>
         </is>
       </c>
       <c r="AB208" t="inlineStr"/>
@@ -15450,13 +15382,17 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Employment Trends</t>
+          <t>Great Recession Foreclosure Rate</t>
         </is>
       </c>
       <c r="C209" t="inlineStr"/>
       <c r="D209" t="inlineStr"/>
       <c r="E209" t="inlineStr"/>
-      <c r="F209" t="inlineStr"/>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="G209" t="inlineStr"/>
       <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
@@ -15468,38 +15404,46 @@
         </is>
       </c>
       <c r="M209" t="inlineStr"/>
-      <c r="N209" t="inlineStr"/>
+      <c r="N209" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O209" t="inlineStr"/>
       <c r="P209" t="inlineStr"/>
-      <c r="Q209" t="inlineStr"/>
+      <c r="Q209" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R209" t="inlineStr"/>
       <c r="S209" t="inlineStr"/>
       <c r="T209" t="inlineStr"/>
       <c r="U209" t="inlineStr"/>
       <c r="V209" t="inlineStr">
         <is>
-          <t>EssnWrkE</t>
+          <t>GiniCoeff</t>
         </is>
       </c>
       <c r="W209" t="inlineStr">
         <is>
-          <t>Count of Essential Workers</t>
+          <t>Income Inequality (Gini Coefficient)</t>
         </is>
       </c>
       <c r="X209" t="inlineStr"/>
       <c r="Y209" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Foreclosure_Rate.md</t>
         </is>
       </c>
       <c r="Z209" t="inlineStr">
         <is>
-          <t>ACS 2018, 2023</t>
+          <t>HUD 2018; ACS 2012, 2018</t>
         </is>
       </c>
       <c r="AA209" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
+          <t>U.S. Department of Housing and Urban Development Neighborhood Stabilization Program; American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates</t>
         </is>
       </c>
       <c r="AB209" t="inlineStr"/>
@@ -15514,7 +15458,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Employment Trends</t>
+          <t>Internet Access</t>
         </is>
       </c>
       <c r="C210" t="inlineStr"/>
@@ -15526,52 +15470,44 @@
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="M210" t="inlineStr"/>
-      <c r="N210" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L210" t="inlineStr"/>
+      <c r="M210" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N210" t="inlineStr"/>
       <c r="O210" t="inlineStr"/>
       <c r="P210" t="inlineStr"/>
-      <c r="Q210" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Q210" t="inlineStr"/>
       <c r="R210" t="inlineStr"/>
       <c r="S210" t="inlineStr"/>
       <c r="T210" t="inlineStr"/>
       <c r="U210" t="inlineStr"/>
       <c r="V210" t="inlineStr">
         <is>
-          <t>EssnWrkP</t>
+          <t>NoIntP</t>
         </is>
       </c>
       <c r="W210" t="inlineStr">
         <is>
-          <t>Essential Workers %</t>
+          <t>Households without Internet Access %</t>
         </is>
       </c>
       <c r="X210" t="inlineStr"/>
       <c r="Y210" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Internet_Access.md</t>
         </is>
       </c>
       <c r="Z210" t="inlineStr">
         <is>
-          <t>ACS 2018, 2023</t>
+          <t>ACS 2019</t>
         </is>
       </c>
       <c r="AA210" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
+          <t>American Community Survey 2015-2019 5-Year Estimate</t>
         </is>
       </c>
       <c r="AB210" t="inlineStr"/>
@@ -15586,13 +15522,17 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Employment Trends</t>
+          <t>Poverty, Income, Gini Coefficient</t>
         </is>
       </c>
       <c r="C211" t="inlineStr"/>
       <c r="D211" t="inlineStr"/>
       <c r="E211" t="inlineStr"/>
-      <c r="F211" t="inlineStr"/>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="G211" t="inlineStr"/>
       <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
@@ -15622,28 +15562,28 @@
       <c r="U211" t="inlineStr"/>
       <c r="V211" t="inlineStr">
         <is>
-          <t>HghRskP</t>
+          <t>MedInc</t>
         </is>
       </c>
       <c r="W211" t="inlineStr">
         <is>
-          <t>Employed % - High Risk of Injury</t>
+          <t>Median Income</t>
         </is>
       </c>
       <c r="X211" t="inlineStr"/>
       <c r="Y211" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Economic_Characteristics.md</t>
         </is>
       </c>
       <c r="Z211" t="inlineStr">
         <is>
-          <t>ACS 2018, 2023</t>
+          <t>ACS 2012, 2018; Social Explorer 2010</t>
         </is>
       </c>
       <c r="AA211" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
+          <t>American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
         </is>
       </c>
       <c r="AB211" t="inlineStr"/>
@@ -15658,13 +15598,17 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Employment Trends</t>
+          <t>Poverty, Income, Gini Coefficient</t>
         </is>
       </c>
       <c r="C212" t="inlineStr"/>
       <c r="D212" t="inlineStr"/>
       <c r="E212" t="inlineStr"/>
-      <c r="F212" t="inlineStr"/>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="G212" t="inlineStr"/>
       <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
@@ -15694,28 +15638,28 @@
       <c r="U212" t="inlineStr"/>
       <c r="V212" t="inlineStr">
         <is>
-          <t>HltCrP</t>
+          <t>PciE</t>
         </is>
       </c>
       <c r="W212" t="inlineStr">
         <is>
-          <t>Employed % - Health Care</t>
+          <t>Per Capita Income</t>
         </is>
       </c>
       <c r="X212" t="inlineStr"/>
       <c r="Y212" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Economic_Characteristics.md</t>
         </is>
       </c>
       <c r="Z212" t="inlineStr">
         <is>
-          <t>ACS 2018, 2023</t>
+          <t>ACS 2012, 2018; Social Explorer 2010</t>
         </is>
       </c>
       <c r="AA212" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
+          <t>American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
         </is>
       </c>
       <c r="AB212" t="inlineStr"/>
@@ -15730,13 +15674,29 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Employment Trends</t>
-        </is>
-      </c>
-      <c r="C213" t="inlineStr"/>
-      <c r="D213" t="inlineStr"/>
-      <c r="E213" t="inlineStr"/>
-      <c r="F213" t="inlineStr"/>
+          <t>Poverty, Income, Gini Coefficient</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="G213" t="inlineStr"/>
       <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
@@ -15763,31 +15723,35 @@
       <c r="R213" t="inlineStr"/>
       <c r="S213" t="inlineStr"/>
       <c r="T213" t="inlineStr"/>
-      <c r="U213" t="inlineStr"/>
+      <c r="U213" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="V213" t="inlineStr">
         <is>
-          <t>RetailP</t>
+          <t>PovP</t>
         </is>
       </c>
       <c r="W213" t="inlineStr">
         <is>
-          <t>Employed % - Retail</t>
+          <t>Poverty %</t>
         </is>
       </c>
       <c r="X213" t="inlineStr"/>
       <c r="Y213" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Economic_Characteristics.md</t>
         </is>
       </c>
       <c r="Z213" t="inlineStr">
         <is>
-          <t>ACS 2018, 2023</t>
+          <t>ACS 2012, 2018; Social Explorer 2010</t>
         </is>
       </c>
       <c r="AA213" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
+          <t>American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
         </is>
       </c>
       <c r="AB213" t="inlineStr"/>
@@ -15802,13 +15766,29 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Employment Trends</t>
-        </is>
-      </c>
-      <c r="C214" t="inlineStr"/>
-      <c r="D214" t="inlineStr"/>
-      <c r="E214" t="inlineStr"/>
-      <c r="F214" t="inlineStr"/>
+          <t>Poverty, Income, Gini Coefficient</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="G214" t="inlineStr"/>
       <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
@@ -15835,31 +15815,35 @@
       <c r="R214" t="inlineStr"/>
       <c r="S214" t="inlineStr"/>
       <c r="T214" t="inlineStr"/>
-      <c r="U214" t="inlineStr"/>
+      <c r="U214" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="V214" t="inlineStr">
         <is>
-          <t>TotWrkE</t>
+          <t>UnempP</t>
         </is>
       </c>
       <c r="W214" t="inlineStr">
         <is>
-          <t>Count of Working Population</t>
+          <t>Unemployment %</t>
         </is>
       </c>
       <c r="X214" t="inlineStr"/>
       <c r="Y214" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Economic_Characteristics.md</t>
         </is>
       </c>
       <c r="Z214" t="inlineStr">
         <is>
-          <t>ACS 2018, 2023</t>
+          <t>ACS 2012, 2018; Social Explorer 2010</t>
         </is>
       </c>
       <c r="AA214" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
+          <t>American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
         </is>
       </c>
       <c r="AB214" t="inlineStr"/>
@@ -15869,12 +15853,12 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Economic</t>
+          <t>Outcome</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Great Recession Foreclosure Rate</t>
+          <t>Opioid Indicators</t>
         </is>
       </c>
       <c r="C215" t="inlineStr"/>
@@ -15882,19 +15866,51 @@
       <c r="E215" t="inlineStr"/>
       <c r="F215" t="inlineStr"/>
       <c r="G215" t="inlineStr"/>
-      <c r="H215" t="inlineStr"/>
-      <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I215" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L215" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="M215" t="inlineStr"/>
-      <c r="N215" t="inlineStr"/>
-      <c r="O215" t="inlineStr"/>
-      <c r="P215" t="inlineStr"/>
+      <c r="M215" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N215" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O215" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="P215" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Q215" t="inlineStr"/>
       <c r="R215" t="inlineStr"/>
       <c r="S215" t="inlineStr"/>
@@ -15902,28 +15918,28 @@
       <c r="U215" t="inlineStr"/>
       <c r="V215" t="inlineStr">
         <is>
-          <t>ForDqP</t>
+          <t>OdMortRt</t>
         </is>
       </c>
       <c r="W215" t="inlineStr">
         <is>
-          <t>Foreclosure &amp; Delinquency %</t>
+          <t>Overdose Mortality Rate</t>
         </is>
       </c>
       <c r="X215" t="inlineStr"/>
       <c r="Y215" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Foreclosure_Rate.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Opioid_Outcomes.md</t>
         </is>
       </c>
       <c r="Z215" t="inlineStr">
         <is>
-          <t>HUD 2018; ACS 2012, 2018</t>
+          <t>HepVu 2014-2022</t>
         </is>
       </c>
       <c r="AA215" t="inlineStr">
         <is>
-          <t>U.S. Department of Housing and Urban Development Neighborhood Stabilization Program; American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates</t>
+          <t>HepVu, Emory University Rollins School of Public Health, 2014-2022</t>
         </is>
       </c>
       <c r="AB215" t="inlineStr"/>
@@ -15933,12 +15949,12 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Economic</t>
+          <t>Outcome</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Great Recession Foreclosure Rate</t>
+          <t>Opioid Indicators</t>
         </is>
       </c>
       <c r="C216" t="inlineStr"/>
@@ -15950,13 +15966,13 @@
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L216" t="inlineStr"/>
       <c r="M216" t="inlineStr"/>
-      <c r="N216" t="inlineStr"/>
+      <c r="N216" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O216" t="inlineStr"/>
       <c r="P216" t="inlineStr"/>
       <c r="Q216" t="inlineStr"/>
@@ -15966,28 +15982,28 @@
       <c r="U216" t="inlineStr"/>
       <c r="V216" t="inlineStr">
         <is>
-          <t>ForDqTot</t>
+          <t>OdMortRtAv</t>
         </is>
       </c>
       <c r="W216" t="inlineStr">
         <is>
-          <t>Foreclosure &amp; Delinquency Count</t>
+          <t>Overdose Mortality Rate Average (2016-2020)</t>
         </is>
       </c>
       <c r="X216" t="inlineStr"/>
       <c r="Y216" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Foreclosure_Rate.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Opioid_Outcomes.md</t>
         </is>
       </c>
       <c r="Z216" t="inlineStr">
         <is>
-          <t>HUD 2018; ACS 2012, 2018</t>
+          <t>HepVu 2014-2022</t>
         </is>
       </c>
       <c r="AA216" t="inlineStr">
         <is>
-          <t>U.S. Department of Housing and Urban Development Neighborhood Stabilization Program; American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates</t>
+          <t>HepVu, Emory University Rollins School of Public Health, 2014-2022</t>
         </is>
       </c>
       <c r="AB216" t="inlineStr"/>
@@ -15997,32 +16013,24 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Economic</t>
+          <t>Outcome</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Great Recession Foreclosure Rate</t>
+          <t>Opioid Indicators</t>
         </is>
       </c>
       <c r="C217" t="inlineStr"/>
       <c r="D217" t="inlineStr"/>
       <c r="E217" t="inlineStr"/>
-      <c r="F217" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="F217" t="inlineStr"/>
       <c r="G217" t="inlineStr"/>
       <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L217" t="inlineStr"/>
       <c r="M217" t="inlineStr"/>
       <c r="N217" t="inlineStr">
         <is>
@@ -16030,40 +16038,40 @@
         </is>
       </c>
       <c r="O217" t="inlineStr"/>
-      <c r="P217" t="inlineStr"/>
-      <c r="Q217" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="P217" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q217" t="inlineStr"/>
       <c r="R217" t="inlineStr"/>
       <c r="S217" t="inlineStr"/>
       <c r="T217" t="inlineStr"/>
       <c r="U217" t="inlineStr"/>
       <c r="V217" t="inlineStr">
         <is>
-          <t>GiniCoeff</t>
+          <t>OpRxRt</t>
         </is>
       </c>
       <c r="W217" t="inlineStr">
         <is>
-          <t>Income Inequality (Gini Coefficient)</t>
+          <t>Opioid Prescription Rate</t>
         </is>
       </c>
       <c r="X217" t="inlineStr"/>
       <c r="Y217" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Foreclosure_Rate.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Opioid_Outcomes.md</t>
         </is>
       </c>
       <c r="Z217" t="inlineStr">
         <is>
-          <t>HUD 2018; ACS 2012, 2018</t>
+          <t>HepVu 2014-2022</t>
         </is>
       </c>
       <c r="AA217" t="inlineStr">
         <is>
-          <t>U.S. Department of Housing and Urban Development Neighborhood Stabilization Program; American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates</t>
+          <t>HepVu, Emory University Rollins School of Public Health, 2014-2022</t>
         </is>
       </c>
       <c r="AB217" t="inlineStr"/>
@@ -16073,12 +16081,12 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Economic</t>
+          <t>Composite</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Internet Access</t>
+          <t>Social Vulnerability Indices</t>
         </is>
       </c>
       <c r="C218" t="inlineStr"/>
@@ -16090,15 +16098,23 @@
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M218" t="inlineStr"/>
+      <c r="N218" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O218" t="inlineStr"/>
-      <c r="P218" t="inlineStr"/>
+      <c r="P218" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Q218" t="inlineStr"/>
       <c r="R218" t="inlineStr"/>
       <c r="S218" t="inlineStr"/>
@@ -16106,28 +16122,28 @@
       <c r="U218" t="inlineStr"/>
       <c r="V218" t="inlineStr">
         <is>
-          <t>NoIntP</t>
+          <t>SviSmryRnk</t>
         </is>
       </c>
       <c r="W218" t="inlineStr">
         <is>
-          <t>Households without Internet Access %</t>
+          <t>Social Vulnerability Index (SVI) Summary Ranking</t>
         </is>
       </c>
       <c r="X218" t="inlineStr"/>
       <c r="Y218" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Internet_Access.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Social_Vulnerability_Indices.md</t>
         </is>
       </c>
       <c r="Z218" t="inlineStr">
         <is>
-          <t>ACS 2019</t>
+          <t>CDC 2018, 2020, 2022</t>
         </is>
       </c>
       <c r="AA218" t="inlineStr">
         <is>
-          <t>American Community Survey 2015-2019 5-Year Estimate</t>
+          <t>Centers for Disease Control, 2018, 2020, 2022</t>
         </is>
       </c>
       <c r="AB218" t="inlineStr"/>
@@ -16137,22 +16153,18 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Economic</t>
+          <t>Composite</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Poverty, Income, Gini Coefficient</t>
+          <t>Social Vulnerability Indices</t>
         </is>
       </c>
       <c r="C219" t="inlineStr"/>
       <c r="D219" t="inlineStr"/>
       <c r="E219" t="inlineStr"/>
-      <c r="F219" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="F219" t="inlineStr"/>
       <c r="G219" t="inlineStr"/>
       <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
@@ -16170,40 +16182,44 @@
         </is>
       </c>
       <c r="O219" t="inlineStr"/>
-      <c r="P219" t="inlineStr"/>
-      <c r="Q219" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="P219" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q219" t="inlineStr"/>
       <c r="R219" t="inlineStr"/>
       <c r="S219" t="inlineStr"/>
-      <c r="T219" t="inlineStr"/>
+      <c r="T219" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="U219" t="inlineStr"/>
       <c r="V219" t="inlineStr">
         <is>
-          <t>MedInc</t>
+          <t>SviTh1</t>
         </is>
       </c>
       <c r="W219" t="inlineStr">
         <is>
-          <t>Median Income</t>
+          <t>Social Vulnerability Index (SVI) 1</t>
         </is>
       </c>
       <c r="X219" t="inlineStr"/>
       <c r="Y219" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Economic_Characteristics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Social_Vulnerability_Indices.md</t>
         </is>
       </c>
       <c r="Z219" t="inlineStr">
         <is>
-          <t>ACS 2012, 2018; Social Explorer 2010</t>
+          <t>CDC 2018, 2020, 2022</t>
         </is>
       </c>
       <c r="AA219" t="inlineStr">
         <is>
-          <t>American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
+          <t>Centers for Disease Control, 2018, 2020, 2022</t>
         </is>
       </c>
       <c r="AB219" t="inlineStr"/>
@@ -16213,22 +16229,18 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Economic</t>
+          <t>Composite</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Poverty, Income, Gini Coefficient</t>
+          <t>Social Vulnerability Indices</t>
         </is>
       </c>
       <c r="C220" t="inlineStr"/>
       <c r="D220" t="inlineStr"/>
       <c r="E220" t="inlineStr"/>
-      <c r="F220" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="F220" t="inlineStr"/>
       <c r="G220" t="inlineStr"/>
       <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
@@ -16246,40 +16258,40 @@
         </is>
       </c>
       <c r="O220" t="inlineStr"/>
-      <c r="P220" t="inlineStr"/>
-      <c r="Q220" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="P220" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q220" t="inlineStr"/>
       <c r="R220" t="inlineStr"/>
       <c r="S220" t="inlineStr"/>
       <c r="T220" t="inlineStr"/>
       <c r="U220" t="inlineStr"/>
       <c r="V220" t="inlineStr">
         <is>
-          <t>PciE</t>
+          <t>SviTh2</t>
         </is>
       </c>
       <c r="W220" t="inlineStr">
         <is>
-          <t>Per Capita Income</t>
+          <t>Social Vulnerability Index (SVI) 2</t>
         </is>
       </c>
       <c r="X220" t="inlineStr"/>
       <c r="Y220" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Economic_Characteristics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Social_Vulnerability_Indices.md</t>
         </is>
       </c>
       <c r="Z220" t="inlineStr">
         <is>
-          <t>ACS 2012, 2018; Social Explorer 2010</t>
+          <t>CDC 2018, 2020, 2022</t>
         </is>
       </c>
       <c r="AA220" t="inlineStr">
         <is>
-          <t>American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
+          <t>Centers for Disease Control, 2018, 2020, 2022</t>
         </is>
       </c>
       <c r="AB220" t="inlineStr"/>
@@ -16289,34 +16301,18 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Economic</t>
+          <t>Composite</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Poverty, Income, Gini Coefficient</t>
-        </is>
-      </c>
-      <c r="C221" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="D221" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E221" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="F221" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Social Vulnerability Indices</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr"/>
+      <c r="D221" t="inlineStr"/>
+      <c r="E221" t="inlineStr"/>
+      <c r="F221" t="inlineStr"/>
       <c r="G221" t="inlineStr"/>
       <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
@@ -16334,44 +16330,40 @@
         </is>
       </c>
       <c r="O221" t="inlineStr"/>
-      <c r="P221" t="inlineStr"/>
-      <c r="Q221" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="P221" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q221" t="inlineStr"/>
       <c r="R221" t="inlineStr"/>
       <c r="S221" t="inlineStr"/>
       <c r="T221" t="inlineStr"/>
-      <c r="U221" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="U221" t="inlineStr"/>
       <c r="V221" t="inlineStr">
         <is>
-          <t>PovP</t>
+          <t>SviTh3</t>
         </is>
       </c>
       <c r="W221" t="inlineStr">
         <is>
-          <t>Poverty %</t>
+          <t>Social Vulnerability Index (SVI) 3</t>
         </is>
       </c>
       <c r="X221" t="inlineStr"/>
       <c r="Y221" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Economic_Characteristics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Social_Vulnerability_Indices.md</t>
         </is>
       </c>
       <c r="Z221" t="inlineStr">
         <is>
-          <t>ACS 2012, 2018; Social Explorer 2010</t>
+          <t>CDC 2018, 2020, 2022</t>
         </is>
       </c>
       <c r="AA221" t="inlineStr">
         <is>
-          <t>American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
+          <t>Centers for Disease Control, 2018, 2020, 2022</t>
         </is>
       </c>
       <c r="AB221" t="inlineStr"/>
@@ -16381,34 +16373,18 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Economic</t>
+          <t>Composite</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Poverty, Income, Gini Coefficient</t>
-        </is>
-      </c>
-      <c r="C222" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="D222" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E222" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="F222" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Social Vulnerability Indices</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr"/>
+      <c r="D222" t="inlineStr"/>
+      <c r="E222" t="inlineStr"/>
+      <c r="F222" t="inlineStr"/>
       <c r="G222" t="inlineStr"/>
       <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
@@ -16426,645 +16402,49 @@
         </is>
       </c>
       <c r="O222" t="inlineStr"/>
-      <c r="P222" t="inlineStr"/>
-      <c r="Q222" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="P222" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q222" t="inlineStr"/>
       <c r="R222" t="inlineStr"/>
       <c r="S222" t="inlineStr"/>
-      <c r="T222" t="inlineStr"/>
-      <c r="U222" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="T222" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="U222" t="inlineStr"/>
       <c r="V222" t="inlineStr">
         <is>
-          <t>UnempP</t>
+          <t>SviTh4</t>
         </is>
       </c>
       <c r="W222" t="inlineStr">
         <is>
-          <t>Unemployment %</t>
+          <t>Social Vulnerability Index (SVI) 4</t>
         </is>
       </c>
       <c r="X222" t="inlineStr"/>
       <c r="Y222" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Economic_Characteristics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Social_Vulnerability_Indices.md</t>
         </is>
       </c>
       <c r="Z222" t="inlineStr">
         <is>
-          <t>ACS 2012, 2018; Social Explorer 2010</t>
+          <t>CDC 2018, 2020, 2022</t>
         </is>
       </c>
       <c r="AA222" t="inlineStr">
         <is>
-          <t>American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
+          <t>Centers for Disease Control, 2018, 2020, 2022</t>
         </is>
       </c>
       <c r="AB222" t="inlineStr"/>
       <c r="AC222" t="inlineStr"/>
       <c r="AD222" t="inlineStr"/>
-    </row>
-    <row r="223">
-      <c r="A223" t="inlineStr">
-        <is>
-          <t>Outcome</t>
-        </is>
-      </c>
-      <c r="B223" t="inlineStr">
-        <is>
-          <t>Opioid Indicators</t>
-        </is>
-      </c>
-      <c r="C223" t="inlineStr"/>
-      <c r="D223" t="inlineStr"/>
-      <c r="E223" t="inlineStr"/>
-      <c r="F223" t="inlineStr"/>
-      <c r="G223" t="inlineStr"/>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I223" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="J223" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="M223" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="N223" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O223" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="P223" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Q223" t="inlineStr"/>
-      <c r="R223" t="inlineStr"/>
-      <c r="S223" t="inlineStr"/>
-      <c r="T223" t="inlineStr"/>
-      <c r="U223" t="inlineStr"/>
-      <c r="V223" t="inlineStr">
-        <is>
-          <t>OdMortRt</t>
-        </is>
-      </c>
-      <c r="W223" t="inlineStr">
-        <is>
-          <t>Overdose Mortality Rate</t>
-        </is>
-      </c>
-      <c r="X223" t="inlineStr"/>
-      <c r="Y223" t="inlineStr">
-        <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Opioid_Outcomes.md</t>
-        </is>
-      </c>
-      <c r="Z223" t="inlineStr">
-        <is>
-          <t>HepVu 2014-2022</t>
-        </is>
-      </c>
-      <c r="AA223" t="inlineStr">
-        <is>
-          <t>HepVu, Emory University Rollins School of Public Health, 2014-2022</t>
-        </is>
-      </c>
-      <c r="AB223" t="inlineStr"/>
-      <c r="AC223" t="inlineStr"/>
-      <c r="AD223" t="inlineStr"/>
-    </row>
-    <row r="224">
-      <c r="A224" t="inlineStr">
-        <is>
-          <t>Outcome</t>
-        </is>
-      </c>
-      <c r="B224" t="inlineStr">
-        <is>
-          <t>Opioid Indicators</t>
-        </is>
-      </c>
-      <c r="C224" t="inlineStr"/>
-      <c r="D224" t="inlineStr"/>
-      <c r="E224" t="inlineStr"/>
-      <c r="F224" t="inlineStr"/>
-      <c r="G224" t="inlineStr"/>
-      <c r="H224" t="inlineStr"/>
-      <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="inlineStr"/>
-      <c r="N224" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O224" t="inlineStr"/>
-      <c r="P224" t="inlineStr"/>
-      <c r="Q224" t="inlineStr"/>
-      <c r="R224" t="inlineStr"/>
-      <c r="S224" t="inlineStr"/>
-      <c r="T224" t="inlineStr"/>
-      <c r="U224" t="inlineStr"/>
-      <c r="V224" t="inlineStr">
-        <is>
-          <t>OdMortRtAv</t>
-        </is>
-      </c>
-      <c r="W224" t="inlineStr">
-        <is>
-          <t>Overdose Mortality Rate Average (2016-2020)</t>
-        </is>
-      </c>
-      <c r="X224" t="inlineStr"/>
-      <c r="Y224" t="inlineStr">
-        <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Opioid_Outcomes.md</t>
-        </is>
-      </c>
-      <c r="Z224" t="inlineStr">
-        <is>
-          <t>HepVu 2014-2022</t>
-        </is>
-      </c>
-      <c r="AA224" t="inlineStr">
-        <is>
-          <t>HepVu, Emory University Rollins School of Public Health, 2014-2022</t>
-        </is>
-      </c>
-      <c r="AB224" t="inlineStr"/>
-      <c r="AC224" t="inlineStr"/>
-      <c r="AD224" t="inlineStr"/>
-    </row>
-    <row r="225">
-      <c r="A225" t="inlineStr">
-        <is>
-          <t>Outcome</t>
-        </is>
-      </c>
-      <c r="B225" t="inlineStr">
-        <is>
-          <t>Opioid Indicators</t>
-        </is>
-      </c>
-      <c r="C225" t="inlineStr"/>
-      <c r="D225" t="inlineStr"/>
-      <c r="E225" t="inlineStr"/>
-      <c r="F225" t="inlineStr"/>
-      <c r="G225" t="inlineStr"/>
-      <c r="H225" t="inlineStr"/>
-      <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="inlineStr"/>
-      <c r="N225" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O225" t="inlineStr"/>
-      <c r="P225" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Q225" t="inlineStr"/>
-      <c r="R225" t="inlineStr"/>
-      <c r="S225" t="inlineStr"/>
-      <c r="T225" t="inlineStr"/>
-      <c r="U225" t="inlineStr"/>
-      <c r="V225" t="inlineStr">
-        <is>
-          <t>OpRxRt</t>
-        </is>
-      </c>
-      <c r="W225" t="inlineStr">
-        <is>
-          <t>Opioid Prescription Rate</t>
-        </is>
-      </c>
-      <c r="X225" t="inlineStr"/>
-      <c r="Y225" t="inlineStr">
-        <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Opioid_Outcomes.md</t>
-        </is>
-      </c>
-      <c r="Z225" t="inlineStr">
-        <is>
-          <t>HepVu 2014-2022</t>
-        </is>
-      </c>
-      <c r="AA225" t="inlineStr">
-        <is>
-          <t>HepVu, Emory University Rollins School of Public Health, 2014-2022</t>
-        </is>
-      </c>
-      <c r="AB225" t="inlineStr"/>
-      <c r="AC225" t="inlineStr"/>
-      <c r="AD225" t="inlineStr"/>
-    </row>
-    <row r="226">
-      <c r="A226" t="inlineStr">
-        <is>
-          <t>Composite</t>
-        </is>
-      </c>
-      <c r="B226" t="inlineStr">
-        <is>
-          <t>Social Vulnerability Indices</t>
-        </is>
-      </c>
-      <c r="C226" t="inlineStr"/>
-      <c r="D226" t="inlineStr"/>
-      <c r="E226" t="inlineStr"/>
-      <c r="F226" t="inlineStr"/>
-      <c r="G226" t="inlineStr"/>
-      <c r="H226" t="inlineStr"/>
-      <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="M226" t="inlineStr"/>
-      <c r="N226" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O226" t="inlineStr"/>
-      <c r="P226" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Q226" t="inlineStr"/>
-      <c r="R226" t="inlineStr"/>
-      <c r="S226" t="inlineStr"/>
-      <c r="T226" t="inlineStr"/>
-      <c r="U226" t="inlineStr"/>
-      <c r="V226" t="inlineStr">
-        <is>
-          <t>SviSmryRnk</t>
-        </is>
-      </c>
-      <c r="W226" t="inlineStr">
-        <is>
-          <t>Social Vulnerability Index (SVI) Summary Ranking</t>
-        </is>
-      </c>
-      <c r="X226" t="inlineStr"/>
-      <c r="Y226" t="inlineStr">
-        <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Social_Vulnerability_Indices.md</t>
-        </is>
-      </c>
-      <c r="Z226" t="inlineStr">
-        <is>
-          <t>CDC 2018, 2020, 2022</t>
-        </is>
-      </c>
-      <c r="AA226" t="inlineStr">
-        <is>
-          <t>Centers for Disease Control, 2018, 2020, 2022</t>
-        </is>
-      </c>
-      <c r="AB226" t="inlineStr"/>
-      <c r="AC226" t="inlineStr"/>
-      <c r="AD226" t="inlineStr"/>
-    </row>
-    <row r="227">
-      <c r="A227" t="inlineStr">
-        <is>
-          <t>Composite</t>
-        </is>
-      </c>
-      <c r="B227" t="inlineStr">
-        <is>
-          <t>Social Vulnerability Indices</t>
-        </is>
-      </c>
-      <c r="C227" t="inlineStr"/>
-      <c r="D227" t="inlineStr"/>
-      <c r="E227" t="inlineStr"/>
-      <c r="F227" t="inlineStr"/>
-      <c r="G227" t="inlineStr"/>
-      <c r="H227" t="inlineStr"/>
-      <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="M227" t="inlineStr"/>
-      <c r="N227" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O227" t="inlineStr"/>
-      <c r="P227" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Q227" t="inlineStr"/>
-      <c r="R227" t="inlineStr"/>
-      <c r="S227" t="inlineStr"/>
-      <c r="T227" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="U227" t="inlineStr"/>
-      <c r="V227" t="inlineStr">
-        <is>
-          <t>SviTh1</t>
-        </is>
-      </c>
-      <c r="W227" t="inlineStr">
-        <is>
-          <t>Social Vulnerability Index (SVI) 1</t>
-        </is>
-      </c>
-      <c r="X227" t="inlineStr"/>
-      <c r="Y227" t="inlineStr">
-        <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Social_Vulnerability_Indices.md</t>
-        </is>
-      </c>
-      <c r="Z227" t="inlineStr">
-        <is>
-          <t>CDC 2018, 2020, 2022</t>
-        </is>
-      </c>
-      <c r="AA227" t="inlineStr">
-        <is>
-          <t>Centers for Disease Control, 2018, 2020, 2022</t>
-        </is>
-      </c>
-      <c r="AB227" t="inlineStr"/>
-      <c r="AC227" t="inlineStr"/>
-      <c r="AD227" t="inlineStr"/>
-    </row>
-    <row r="228">
-      <c r="A228" t="inlineStr">
-        <is>
-          <t>Composite</t>
-        </is>
-      </c>
-      <c r="B228" t="inlineStr">
-        <is>
-          <t>Social Vulnerability Indices</t>
-        </is>
-      </c>
-      <c r="C228" t="inlineStr"/>
-      <c r="D228" t="inlineStr"/>
-      <c r="E228" t="inlineStr"/>
-      <c r="F228" t="inlineStr"/>
-      <c r="G228" t="inlineStr"/>
-      <c r="H228" t="inlineStr"/>
-      <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="M228" t="inlineStr"/>
-      <c r="N228" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O228" t="inlineStr"/>
-      <c r="P228" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Q228" t="inlineStr"/>
-      <c r="R228" t="inlineStr"/>
-      <c r="S228" t="inlineStr"/>
-      <c r="T228" t="inlineStr"/>
-      <c r="U228" t="inlineStr"/>
-      <c r="V228" t="inlineStr">
-        <is>
-          <t>SviTh2</t>
-        </is>
-      </c>
-      <c r="W228" t="inlineStr">
-        <is>
-          <t>Social Vulnerability Index (SVI) 2</t>
-        </is>
-      </c>
-      <c r="X228" t="inlineStr"/>
-      <c r="Y228" t="inlineStr">
-        <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Social_Vulnerability_Indices.md</t>
-        </is>
-      </c>
-      <c r="Z228" t="inlineStr">
-        <is>
-          <t>CDC 2018, 2020, 2022</t>
-        </is>
-      </c>
-      <c r="AA228" t="inlineStr">
-        <is>
-          <t>Centers for Disease Control, 2018, 2020, 2022</t>
-        </is>
-      </c>
-      <c r="AB228" t="inlineStr"/>
-      <c r="AC228" t="inlineStr"/>
-      <c r="AD228" t="inlineStr"/>
-    </row>
-    <row r="229">
-      <c r="A229" t="inlineStr">
-        <is>
-          <t>Composite</t>
-        </is>
-      </c>
-      <c r="B229" t="inlineStr">
-        <is>
-          <t>Social Vulnerability Indices</t>
-        </is>
-      </c>
-      <c r="C229" t="inlineStr"/>
-      <c r="D229" t="inlineStr"/>
-      <c r="E229" t="inlineStr"/>
-      <c r="F229" t="inlineStr"/>
-      <c r="G229" t="inlineStr"/>
-      <c r="H229" t="inlineStr"/>
-      <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="M229" t="inlineStr"/>
-      <c r="N229" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O229" t="inlineStr"/>
-      <c r="P229" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Q229" t="inlineStr"/>
-      <c r="R229" t="inlineStr"/>
-      <c r="S229" t="inlineStr"/>
-      <c r="T229" t="inlineStr"/>
-      <c r="U229" t="inlineStr"/>
-      <c r="V229" t="inlineStr">
-        <is>
-          <t>SviTh3</t>
-        </is>
-      </c>
-      <c r="W229" t="inlineStr">
-        <is>
-          <t>Social Vulnerability Index (SVI) 3</t>
-        </is>
-      </c>
-      <c r="X229" t="inlineStr"/>
-      <c r="Y229" t="inlineStr">
-        <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Social_Vulnerability_Indices.md</t>
-        </is>
-      </c>
-      <c r="Z229" t="inlineStr">
-        <is>
-          <t>CDC 2018, 2020, 2022</t>
-        </is>
-      </c>
-      <c r="AA229" t="inlineStr">
-        <is>
-          <t>Centers for Disease Control, 2018, 2020, 2022</t>
-        </is>
-      </c>
-      <c r="AB229" t="inlineStr"/>
-      <c r="AC229" t="inlineStr"/>
-      <c r="AD229" t="inlineStr"/>
-    </row>
-    <row r="230">
-      <c r="A230" t="inlineStr">
-        <is>
-          <t>Composite</t>
-        </is>
-      </c>
-      <c r="B230" t="inlineStr">
-        <is>
-          <t>Social Vulnerability Indices</t>
-        </is>
-      </c>
-      <c r="C230" t="inlineStr"/>
-      <c r="D230" t="inlineStr"/>
-      <c r="E230" t="inlineStr"/>
-      <c r="F230" t="inlineStr"/>
-      <c r="G230" t="inlineStr"/>
-      <c r="H230" t="inlineStr"/>
-      <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="M230" t="inlineStr"/>
-      <c r="N230" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O230" t="inlineStr"/>
-      <c r="P230" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Q230" t="inlineStr"/>
-      <c r="R230" t="inlineStr"/>
-      <c r="S230" t="inlineStr"/>
-      <c r="T230" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="U230" t="inlineStr"/>
-      <c r="V230" t="inlineStr">
-        <is>
-          <t>SviTh4</t>
-        </is>
-      </c>
-      <c r="W230" t="inlineStr">
-        <is>
-          <t>Social Vulnerability Index (SVI) 4</t>
-        </is>
-      </c>
-      <c r="X230" t="inlineStr"/>
-      <c r="Y230" t="inlineStr">
-        <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Social_Vulnerability_Indices.md</t>
-        </is>
-      </c>
-      <c r="Z230" t="inlineStr">
-        <is>
-          <t>CDC 2018, 2020, 2022</t>
-        </is>
-      </c>
-      <c r="AA230" t="inlineStr">
-        <is>
-          <t>Centers for Disease Control, 2018, 2020, 2022</t>
-        </is>
-      </c>
-      <c r="AB230" t="inlineStr"/>
-      <c r="AC230" t="inlineStr"/>
-      <c r="AD230" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/docs/src/reference/data-dictionaries/C_Dict.xlsx
+++ b/docs/src/reference/data-dictionaries/C_Dict.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD222"/>
+  <dimension ref="A1:AD211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11109,25 +11109,17 @@
       <c r="P144" t="inlineStr"/>
       <c r="Q144" t="inlineStr"/>
       <c r="R144" t="inlineStr"/>
-      <c r="S144" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="T144" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S144" t="inlineStr"/>
+      <c r="T144" t="inlineStr"/>
       <c r="U144" t="inlineStr"/>
       <c r="V144" t="inlineStr">
         <is>
-          <t>BupTmBk</t>
+          <t>BupTmBkP</t>
         </is>
       </c>
       <c r="W144" t="inlineStr">
         <is>
-          <t>Biking Time (min) to nearest Buprenorphine Provider</t>
+          <t>% Tracts With Buprenorphine Provider (30-min bike)</t>
         </is>
       </c>
       <c r="X144" t="inlineStr"/>
@@ -11186,12 +11178,12 @@
       <c r="U145" t="inlineStr"/>
       <c r="V145" t="inlineStr">
         <is>
-          <t>BupTmBkP</t>
+          <t>BupTmDrP</t>
         </is>
       </c>
       <c r="W145" t="inlineStr">
         <is>
-          <t>% Tracts With Buprenorphine Provider (30-min bike)</t>
+          <t>% Tracts With Buprenorphine Provider (30-min drive)</t>
         </is>
       </c>
       <c r="X145" t="inlineStr"/>
@@ -11245,25 +11237,17 @@
       <c r="P146" t="inlineStr"/>
       <c r="Q146" t="inlineStr"/>
       <c r="R146" t="inlineStr"/>
-      <c r="S146" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="T146" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S146" t="inlineStr"/>
+      <c r="T146" t="inlineStr"/>
       <c r="U146" t="inlineStr"/>
       <c r="V146" t="inlineStr">
         <is>
-          <t>BupTmDr</t>
+          <t>BupTmWkP</t>
         </is>
       </c>
       <c r="W146" t="inlineStr">
         <is>
-          <t>Driving Time (min) to nearest Buprenorphine Provider</t>
+          <t>% Tracts With Buprenorphine Provider (30-min walk)</t>
         </is>
       </c>
       <c r="X146" t="inlineStr"/>
@@ -11322,12 +11306,12 @@
       <c r="U147" t="inlineStr"/>
       <c r="V147" t="inlineStr">
         <is>
-          <t>BupTmDrP</t>
+          <t>MetAvTmBk</t>
         </is>
       </c>
       <c r="W147" t="inlineStr">
         <is>
-          <t>% Tracts With Buprenorphine Provider (30-min drive)</t>
+          <t>Biking Time (min) to Nearest Methadone Provider</t>
         </is>
       </c>
       <c r="X147" t="inlineStr"/>
@@ -11381,25 +11365,17 @@
       <c r="P148" t="inlineStr"/>
       <c r="Q148" t="inlineStr"/>
       <c r="R148" t="inlineStr"/>
-      <c r="S148" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="T148" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S148" t="inlineStr"/>
+      <c r="T148" t="inlineStr"/>
       <c r="U148" t="inlineStr"/>
       <c r="V148" t="inlineStr">
         <is>
-          <t>BupTmWk</t>
+          <t>MetAvTmDr</t>
         </is>
       </c>
       <c r="W148" t="inlineStr">
         <is>
-          <t>Walking Time (min) to nearest Buprenorphine Provider</t>
+          <t>Driving Time (min) to Nearest Methadone Provider</t>
         </is>
       </c>
       <c r="X148" t="inlineStr"/>
@@ -11458,12 +11434,12 @@
       <c r="U149" t="inlineStr"/>
       <c r="V149" t="inlineStr">
         <is>
-          <t>BupTmWkP</t>
+          <t>MetAvTmWk</t>
         </is>
       </c>
       <c r="W149" t="inlineStr">
         <is>
-          <t>% Tracts With Buprenorphine Provider (30-min walk)</t>
+          <t>Walking Time (min) to Nearest Methadone Provide</t>
         </is>
       </c>
       <c r="X149" t="inlineStr"/>
@@ -11522,12 +11498,12 @@
       <c r="U150" t="inlineStr"/>
       <c r="V150" t="inlineStr">
         <is>
-          <t>MetAvTmBk</t>
+          <t>MetCtTmBk</t>
         </is>
       </c>
       <c r="W150" t="inlineStr">
         <is>
-          <t>Biking Time (min) to Nearest Methadone Provider</t>
+          <t>Tracts with Methadone Provider within 30-min (biking)</t>
         </is>
       </c>
       <c r="X150" t="inlineStr"/>
@@ -11586,12 +11562,12 @@
       <c r="U151" t="inlineStr"/>
       <c r="V151" t="inlineStr">
         <is>
-          <t>MetAvTmDr</t>
+          <t>MetCtTmDr</t>
         </is>
       </c>
       <c r="W151" t="inlineStr">
         <is>
-          <t>Driving Time (min) to Nearest Methadone Provider</t>
+          <t>Tracts with Methadone Provider within 30-min (driving)</t>
         </is>
       </c>
       <c r="X151" t="inlineStr"/>
@@ -11650,12 +11626,12 @@
       <c r="U152" t="inlineStr"/>
       <c r="V152" t="inlineStr">
         <is>
-          <t>MetAvTmWk</t>
+          <t>MetCtTmWk</t>
         </is>
       </c>
       <c r="W152" t="inlineStr">
         <is>
-          <t>Walking Time (min) to Nearest Methadone Provide</t>
+          <t>Tracts with Methadone Provider within 30-min (walking)</t>
         </is>
       </c>
       <c r="X152" t="inlineStr"/>
@@ -11714,12 +11690,12 @@
       <c r="U153" t="inlineStr"/>
       <c r="V153" t="inlineStr">
         <is>
-          <t>MetCtTmBk</t>
+          <t>MetTmBkP</t>
         </is>
       </c>
       <c r="W153" t="inlineStr">
         <is>
-          <t>Tracts with Methadone Provider within 30-min (biking)</t>
+          <t>% Tracts With Methadone Provider (30-min bike)</t>
         </is>
       </c>
       <c r="X153" t="inlineStr"/>
@@ -11778,12 +11754,12 @@
       <c r="U154" t="inlineStr"/>
       <c r="V154" t="inlineStr">
         <is>
-          <t>MetCtTmDr</t>
+          <t>MetTmDrP</t>
         </is>
       </c>
       <c r="W154" t="inlineStr">
         <is>
-          <t>Tracts with Methadone Provider within 30-min (driving)</t>
+          <t>% Tracts With Methadone Provider (30-min drive)</t>
         </is>
       </c>
       <c r="X154" t="inlineStr"/>
@@ -11842,12 +11818,12 @@
       <c r="U155" t="inlineStr"/>
       <c r="V155" t="inlineStr">
         <is>
-          <t>MetCtTmWk</t>
+          <t>MetTmWkP</t>
         </is>
       </c>
       <c r="W155" t="inlineStr">
         <is>
-          <t>Tracts with Methadone Provider within 30-min (walking)</t>
+          <t>% Tracts With Methadone Provider (30-min walk)</t>
         </is>
       </c>
       <c r="X155" t="inlineStr"/>
@@ -11901,25 +11877,17 @@
       <c r="P156" t="inlineStr"/>
       <c r="Q156" t="inlineStr"/>
       <c r="R156" t="inlineStr"/>
-      <c r="S156" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="T156" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S156" t="inlineStr"/>
+      <c r="T156" t="inlineStr"/>
       <c r="U156" t="inlineStr"/>
       <c r="V156" t="inlineStr">
         <is>
-          <t>MetTmBk</t>
+          <t>NaltAvTmBk</t>
         </is>
       </c>
       <c r="W156" t="inlineStr">
         <is>
-          <t>Biking Time (min) to nearest Methadone Provider</t>
+          <t>Biking Time (min) to Nearest Naltrexone Provider</t>
         </is>
       </c>
       <c r="X156" t="inlineStr"/>
@@ -11978,12 +11946,12 @@
       <c r="U157" t="inlineStr"/>
       <c r="V157" t="inlineStr">
         <is>
-          <t>MetTmBkP</t>
+          <t>NaltAvTmDr</t>
         </is>
       </c>
       <c r="W157" t="inlineStr">
         <is>
-          <t>% Tracts With Methadone Provider (30-min bike)</t>
+          <t>Driving Time (min) to Nearest Naltrexone Provider</t>
         </is>
       </c>
       <c r="X157" t="inlineStr"/>
@@ -12037,25 +12005,17 @@
       <c r="P158" t="inlineStr"/>
       <c r="Q158" t="inlineStr"/>
       <c r="R158" t="inlineStr"/>
-      <c r="S158" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="T158" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S158" t="inlineStr"/>
+      <c r="T158" t="inlineStr"/>
       <c r="U158" t="inlineStr"/>
       <c r="V158" t="inlineStr">
         <is>
-          <t>MetTmDr</t>
+          <t>NaltAvTmWk</t>
         </is>
       </c>
       <c r="W158" t="inlineStr">
         <is>
-          <t>Driving Time (min) to nearest Methadone Provider</t>
+          <t>Walking Time (min) to Nearest Naltrexone Provider</t>
         </is>
       </c>
       <c r="X158" t="inlineStr"/>
@@ -12114,12 +12074,12 @@
       <c r="U159" t="inlineStr"/>
       <c r="V159" t="inlineStr">
         <is>
-          <t>MetTmDrP</t>
+          <t>NaltCtTmBk</t>
         </is>
       </c>
       <c r="W159" t="inlineStr">
         <is>
-          <t>% Tracts With Methadone Provider (30-min drive)</t>
+          <t>Tracts with Naltrexone Provider within 30-min (biking)</t>
         </is>
       </c>
       <c r="X159" t="inlineStr"/>
@@ -12173,25 +12133,17 @@
       <c r="P160" t="inlineStr"/>
       <c r="Q160" t="inlineStr"/>
       <c r="R160" t="inlineStr"/>
-      <c r="S160" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="T160" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S160" t="inlineStr"/>
+      <c r="T160" t="inlineStr"/>
       <c r="U160" t="inlineStr"/>
       <c r="V160" t="inlineStr">
         <is>
-          <t>MetTmWk</t>
+          <t>NaltCtTmDr</t>
         </is>
       </c>
       <c r="W160" t="inlineStr">
         <is>
-          <t>Walking Time (min) to nearest Methadone Provider</t>
+          <t>Tracts with Naltrexone Provider within 30-min (driving)</t>
         </is>
       </c>
       <c r="X160" t="inlineStr"/>
@@ -12250,12 +12202,12 @@
       <c r="U161" t="inlineStr"/>
       <c r="V161" t="inlineStr">
         <is>
-          <t>MetTmWkP</t>
+          <t>NaltCtTmWk</t>
         </is>
       </c>
       <c r="W161" t="inlineStr">
         <is>
-          <t>% Tracts With Methadone Provider (30-min walk)</t>
+          <t>Tracts with Naltrexone Provider within 30-min (walking)</t>
         </is>
       </c>
       <c r="X161" t="inlineStr"/>
@@ -12314,12 +12266,12 @@
       <c r="U162" t="inlineStr"/>
       <c r="V162" t="inlineStr">
         <is>
-          <t>NaltAvTmBk</t>
+          <t>NaltTmBkP</t>
         </is>
       </c>
       <c r="W162" t="inlineStr">
         <is>
-          <t>Biking Time (min) to Nearest Naltrexone Provider</t>
+          <t>% Tracts With Naltrexone Provider (30-min bike)</t>
         </is>
       </c>
       <c r="X162" t="inlineStr"/>
@@ -12378,12 +12330,12 @@
       <c r="U163" t="inlineStr"/>
       <c r="V163" t="inlineStr">
         <is>
-          <t>NaltAvTmDr</t>
+          <t>NaltTmDrP</t>
         </is>
       </c>
       <c r="W163" t="inlineStr">
         <is>
-          <t>Driving Time (min) to Nearest Naltrexone Provider</t>
+          <t>% Tracts With Naltrexone Provider (30-min drive)</t>
         </is>
       </c>
       <c r="X163" t="inlineStr"/>
@@ -12442,12 +12394,12 @@
       <c r="U164" t="inlineStr"/>
       <c r="V164" t="inlineStr">
         <is>
-          <t>NaltAvTmWk</t>
+          <t>NaltTmWkP</t>
         </is>
       </c>
       <c r="W164" t="inlineStr">
         <is>
-          <t>Walking Time (min) to Nearest Naltrexone Provider</t>
+          <t>% Tracts With Naltrexone Provider (30-min walk)</t>
         </is>
       </c>
       <c r="X164" t="inlineStr"/>
@@ -12492,12 +12444,12 @@
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr"/>
       <c r="M165" t="inlineStr"/>
-      <c r="N165" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O165" t="inlineStr"/>
+      <c r="N165" t="inlineStr"/>
+      <c r="O165" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P165" t="inlineStr"/>
       <c r="Q165" t="inlineStr"/>
       <c r="R165" t="inlineStr"/>
@@ -12506,12 +12458,12 @@
       <c r="U165" t="inlineStr"/>
       <c r="V165" t="inlineStr">
         <is>
-          <t>NaltCtTmBk</t>
+          <t>OtpAvTmDr</t>
         </is>
       </c>
       <c r="W165" t="inlineStr">
         <is>
-          <t>Tracts with Naltrexone Provider within 30-min (biking)</t>
+          <t>Driving Time (min) to nearest Opioid Treatment Program (OTP)</t>
         </is>
       </c>
       <c r="X165" t="inlineStr"/>
@@ -12556,12 +12508,12 @@
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr"/>
       <c r="M166" t="inlineStr"/>
-      <c r="N166" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O166" t="inlineStr"/>
+      <c r="N166" t="inlineStr"/>
+      <c r="O166" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P166" t="inlineStr"/>
       <c r="Q166" t="inlineStr"/>
       <c r="R166" t="inlineStr"/>
@@ -12570,12 +12522,12 @@
       <c r="U166" t="inlineStr"/>
       <c r="V166" t="inlineStr">
         <is>
-          <t>NaltCtTmDr</t>
+          <t>OtpCtTmDr</t>
         </is>
       </c>
       <c r="W166" t="inlineStr">
         <is>
-          <t>Tracts with Naltrexone Provider within 30-min (driving)</t>
+          <t>Tracts with Opioid Treatment Program (OTP) (30-min drive)</t>
         </is>
       </c>
       <c r="X166" t="inlineStr"/>
@@ -12620,12 +12572,12 @@
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr"/>
       <c r="M167" t="inlineStr"/>
-      <c r="N167" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O167" t="inlineStr"/>
+      <c r="N167" t="inlineStr"/>
+      <c r="O167" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P167" t="inlineStr"/>
       <c r="Q167" t="inlineStr"/>
       <c r="R167" t="inlineStr"/>
@@ -12634,12 +12586,12 @@
       <c r="U167" t="inlineStr"/>
       <c r="V167" t="inlineStr">
         <is>
-          <t>NaltCtTmWk</t>
+          <t>OtpTmDrP</t>
         </is>
       </c>
       <c r="W167" t="inlineStr">
         <is>
-          <t>Tracts with Naltrexone Provider within 30-min (walking)</t>
+          <t>% Tracts with Opioid Treatment Program (OTP) (30-min drive)</t>
         </is>
       </c>
       <c r="X167" t="inlineStr"/>
@@ -12684,11 +12636,7 @@
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr"/>
       <c r="M168" t="inlineStr"/>
-      <c r="N168" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N168" t="inlineStr"/>
       <c r="O168" t="inlineStr"/>
       <c r="P168" t="inlineStr"/>
       <c r="Q168" t="inlineStr"/>
@@ -12698,20 +12646,16 @@
           <t>x</t>
         </is>
       </c>
-      <c r="T168" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="T168" t="inlineStr"/>
       <c r="U168" t="inlineStr"/>
       <c r="V168" t="inlineStr">
         <is>
-          <t>NaltTmBk</t>
+          <t>TlBupTmBk</t>
         </is>
       </c>
       <c r="W168" t="inlineStr">
         <is>
-          <t>Biking Time (min) to nearest Naltrexone Provider</t>
+          <t>Biking time to nearest telehealth buprenorphine provider</t>
         </is>
       </c>
       <c r="X168" t="inlineStr"/>
@@ -12756,26 +12700,26 @@
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr"/>
       <c r="M169" t="inlineStr"/>
-      <c r="N169" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N169" t="inlineStr"/>
       <c r="O169" t="inlineStr"/>
       <c r="P169" t="inlineStr"/>
       <c r="Q169" t="inlineStr"/>
       <c r="R169" t="inlineStr"/>
-      <c r="S169" t="inlineStr"/>
+      <c r="S169" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T169" t="inlineStr"/>
       <c r="U169" t="inlineStr"/>
       <c r="V169" t="inlineStr">
         <is>
-          <t>NaltTmBkP</t>
+          <t>TlBupTmWk</t>
         </is>
       </c>
       <c r="W169" t="inlineStr">
         <is>
-          <t>% Tracts With Naltrexone Provider (30-min bike)</t>
+          <t>Walking time to nearest telehealth buprenorphine provider</t>
         </is>
       </c>
       <c r="X169" t="inlineStr"/>
@@ -12806,7 +12750,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Spatial Access to MOUDs</t>
+          <t>Spatial Access to Mental Health Providers</t>
         </is>
       </c>
       <c r="C170" t="inlineStr"/>
@@ -12829,41 +12773,33 @@
       <c r="P170" t="inlineStr"/>
       <c r="Q170" t="inlineStr"/>
       <c r="R170" t="inlineStr"/>
-      <c r="S170" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="T170" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S170" t="inlineStr"/>
+      <c r="T170" t="inlineStr"/>
       <c r="U170" t="inlineStr"/>
       <c r="V170" t="inlineStr">
         <is>
-          <t>NaltTmDr</t>
+          <t>MhAvTmDr</t>
         </is>
       </c>
       <c r="W170" t="inlineStr">
         <is>
-          <t>Driving Time (min) to nearest Naltrexone Provider</t>
+          <t>Driving Time (min) to nearest Mental Health Provider</t>
         </is>
       </c>
       <c r="X170" t="inlineStr"/>
       <c r="Y170" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Mental_Health.md</t>
         </is>
       </c>
       <c r="Z170" t="inlineStr">
         <is>
-          <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
+          <t>SAMHSA 2020</t>
         </is>
       </c>
       <c r="AA170" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2020</t>
         </is>
       </c>
       <c r="AB170" t="inlineStr"/>
@@ -12878,7 +12814,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Spatial Access to MOUDs</t>
+          <t>Spatial Access to Mental Health Providers</t>
         </is>
       </c>
       <c r="C171" t="inlineStr"/>
@@ -12906,28 +12842,28 @@
       <c r="U171" t="inlineStr"/>
       <c r="V171" t="inlineStr">
         <is>
-          <t>NaltTmDrP</t>
+          <t>MhCtTmDr</t>
         </is>
       </c>
       <c r="W171" t="inlineStr">
         <is>
-          <t>% Tracts With Naltrexone Provider (30-min drive)</t>
+          <t>Tracts with Mental Health Provider (30-min drive)</t>
         </is>
       </c>
       <c r="X171" t="inlineStr"/>
       <c r="Y171" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Mental_Health.md</t>
         </is>
       </c>
       <c r="Z171" t="inlineStr">
         <is>
-          <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
+          <t>SAMHSA 2020</t>
         </is>
       </c>
       <c r="AA171" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2020</t>
         </is>
       </c>
       <c r="AB171" t="inlineStr"/>
@@ -12942,7 +12878,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Spatial Access to MOUDs</t>
+          <t>Spatial Access to Mental Health Providers</t>
         </is>
       </c>
       <c r="C172" t="inlineStr"/>
@@ -12965,41 +12901,33 @@
       <c r="P172" t="inlineStr"/>
       <c r="Q172" t="inlineStr"/>
       <c r="R172" t="inlineStr"/>
-      <c r="S172" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="T172" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S172" t="inlineStr"/>
+      <c r="T172" t="inlineStr"/>
       <c r="U172" t="inlineStr"/>
       <c r="V172" t="inlineStr">
         <is>
-          <t>NaltTmWk</t>
+          <t>MhTmDrP</t>
         </is>
       </c>
       <c r="W172" t="inlineStr">
         <is>
-          <t>Walking Time (min) to nearest Naltrexone Provider</t>
+          <t>% Tracts with Mental Health Provider (30-min drive)</t>
         </is>
       </c>
       <c r="X172" t="inlineStr"/>
       <c r="Y172" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Mental_Health.md</t>
         </is>
       </c>
       <c r="Z172" t="inlineStr">
         <is>
-          <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
+          <t>SAMHSA 2020</t>
         </is>
       </c>
       <c r="AA172" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2020</t>
         </is>
       </c>
       <c r="AB172" t="inlineStr"/>
@@ -13014,7 +12942,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Spatial Access to MOUDs</t>
+          <t>Spatial Access to Pharmacies</t>
         </is>
       </c>
       <c r="C173" t="inlineStr"/>
@@ -13027,12 +12955,12 @@
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr"/>
-      <c r="M173" t="inlineStr"/>
-      <c r="N173" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N173" t="inlineStr"/>
       <c r="O173" t="inlineStr"/>
       <c r="P173" t="inlineStr"/>
       <c r="Q173" t="inlineStr"/>
@@ -13042,28 +12970,28 @@
       <c r="U173" t="inlineStr"/>
       <c r="V173" t="inlineStr">
         <is>
-          <t>NaltTmWkP</t>
+          <t>RxAvTmDr</t>
         </is>
       </c>
       <c r="W173" t="inlineStr">
         <is>
-          <t>% Tracts With Naltrexone Provider (30-min walk)</t>
+          <t xml:space="preserve">Avg. Driving Time (min) to nearest Pharmacy </t>
         </is>
       </c>
       <c r="X173" t="inlineStr"/>
       <c r="Y173" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Pharmacies.md</t>
         </is>
       </c>
       <c r="Z173" t="inlineStr">
         <is>
-          <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
+          <t>InfoGroup 2019</t>
         </is>
       </c>
       <c r="AA173" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
+          <t>InfoGroup, 2019</t>
         </is>
       </c>
       <c r="AB173" t="inlineStr"/>
@@ -13078,7 +13006,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Spatial Access to MOUDs</t>
+          <t>Spatial Access to Pharmacies</t>
         </is>
       </c>
       <c r="C174" t="inlineStr"/>
@@ -13091,13 +13019,13 @@
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr"/>
-      <c r="M174" t="inlineStr"/>
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N174" t="inlineStr"/>
-      <c r="O174" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="O174" t="inlineStr"/>
       <c r="P174" t="inlineStr"/>
       <c r="Q174" t="inlineStr"/>
       <c r="R174" t="inlineStr"/>
@@ -13106,28 +13034,28 @@
       <c r="U174" t="inlineStr"/>
       <c r="V174" t="inlineStr">
         <is>
-          <t>OtpAvTmDr</t>
+          <t>RxCtTmDr</t>
         </is>
       </c>
       <c r="W174" t="inlineStr">
         <is>
-          <t>Driving Time (min) to nearest Opioid Treatment Program (OTP)</t>
+          <t>Tracts with Pharmacy (30-min drive)</t>
         </is>
       </c>
       <c r="X174" t="inlineStr"/>
       <c r="Y174" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Pharmacies.md</t>
         </is>
       </c>
       <c r="Z174" t="inlineStr">
         <is>
-          <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
+          <t>InfoGroup 2019</t>
         </is>
       </c>
       <c r="AA174" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
+          <t>InfoGroup, 2019</t>
         </is>
       </c>
       <c r="AB174" t="inlineStr"/>
@@ -13142,7 +13070,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Spatial Access to MOUDs</t>
+          <t>Spatial Access to Pharmacies</t>
         </is>
       </c>
       <c r="C175" t="inlineStr"/>
@@ -13155,13 +13083,13 @@
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr"/>
-      <c r="M175" t="inlineStr"/>
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N175" t="inlineStr"/>
-      <c r="O175" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="O175" t="inlineStr"/>
       <c r="P175" t="inlineStr"/>
       <c r="Q175" t="inlineStr"/>
       <c r="R175" t="inlineStr"/>
@@ -13170,28 +13098,28 @@
       <c r="U175" t="inlineStr"/>
       <c r="V175" t="inlineStr">
         <is>
-          <t>OtpCtTmDr</t>
+          <t>RxTmDrP</t>
         </is>
       </c>
       <c r="W175" t="inlineStr">
         <is>
-          <t>Tracts with Opioid Treatment Program (OTP) (30-min drive)</t>
+          <t>% tracts with Pharmacy (30-min drive)</t>
         </is>
       </c>
       <c r="X175" t="inlineStr"/>
       <c r="Y175" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Pharmacies.md</t>
         </is>
       </c>
       <c r="Z175" t="inlineStr">
         <is>
-          <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
+          <t>InfoGroup 2019</t>
         </is>
       </c>
       <c r="AA175" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
+          <t>InfoGroup, 2019</t>
         </is>
       </c>
       <c r="AB175" t="inlineStr"/>
@@ -13206,7 +13134,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Spatial Access to MOUDs</t>
+          <t>Spatial Access to Substance Use Treatment Providers</t>
         </is>
       </c>
       <c r="C176" t="inlineStr"/>
@@ -13220,12 +13148,12 @@
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr"/>
       <c r="M176" t="inlineStr"/>
-      <c r="N176" t="inlineStr"/>
-      <c r="O176" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N176" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O176" t="inlineStr"/>
       <c r="P176" t="inlineStr"/>
       <c r="Q176" t="inlineStr"/>
       <c r="R176" t="inlineStr"/>
@@ -13234,28 +13162,28 @@
       <c r="U176" t="inlineStr"/>
       <c r="V176" t="inlineStr">
         <is>
-          <t>OtpTmDrP</t>
+          <t>SutpAvTmDr</t>
         </is>
       </c>
       <c r="W176" t="inlineStr">
         <is>
-          <t>% Tracts with Opioid Treatment Program (OTP) (30-min drive)</t>
+          <t>Driving Time (min) to nearest Substance Use Treatment program</t>
         </is>
       </c>
       <c r="X176" t="inlineStr"/>
       <c r="Y176" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_SubstanceUseTreatment.md</t>
         </is>
       </c>
       <c r="Z176" t="inlineStr">
         <is>
-          <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
+          <t>SAMHSA 2020</t>
         </is>
       </c>
       <c r="AA176" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2020</t>
         </is>
       </c>
       <c r="AB176" t="inlineStr"/>
@@ -13270,7 +13198,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Spatial Access to MOUDs</t>
+          <t>Spatial Access to Substance Use Treatment Providers</t>
         </is>
       </c>
       <c r="C177" t="inlineStr"/>
@@ -13284,42 +13212,42 @@
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr"/>
       <c r="M177" t="inlineStr"/>
-      <c r="N177" t="inlineStr"/>
+      <c r="N177" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O177" t="inlineStr"/>
       <c r="P177" t="inlineStr"/>
       <c r="Q177" t="inlineStr"/>
       <c r="R177" t="inlineStr"/>
-      <c r="S177" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S177" t="inlineStr"/>
       <c r="T177" t="inlineStr"/>
       <c r="U177" t="inlineStr"/>
       <c r="V177" t="inlineStr">
         <is>
-          <t>TlBupMinDis</t>
+          <t>SutpCtTmDr</t>
         </is>
       </c>
       <c r="W177" t="inlineStr">
         <is>
-          <t>Minimum distance to telehealth buprenorphine provider</t>
+          <t>Tracts with Substance Use Treatment (SUT) program (30-min drive)</t>
         </is>
       </c>
       <c r="X177" t="inlineStr"/>
       <c r="Y177" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_SubstanceUseTreatment.md</t>
         </is>
       </c>
       <c r="Z177" t="inlineStr">
         <is>
-          <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
+          <t>SAMHSA 2020</t>
         </is>
       </c>
       <c r="AA177" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2020</t>
         </is>
       </c>
       <c r="AB177" t="inlineStr"/>
@@ -13334,7 +13262,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Spatial Access to MOUDs</t>
+          <t>Spatial Access to Substance Use Treatment Providers</t>
         </is>
       </c>
       <c r="C178" t="inlineStr"/>
@@ -13348,42 +13276,42 @@
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr"/>
       <c r="M178" t="inlineStr"/>
-      <c r="N178" t="inlineStr"/>
+      <c r="N178" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O178" t="inlineStr"/>
       <c r="P178" t="inlineStr"/>
       <c r="Q178" t="inlineStr"/>
       <c r="R178" t="inlineStr"/>
-      <c r="S178" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S178" t="inlineStr"/>
       <c r="T178" t="inlineStr"/>
       <c r="U178" t="inlineStr"/>
       <c r="V178" t="inlineStr">
         <is>
-          <t>TlBupTmBk</t>
+          <t>SutpTmDrP</t>
         </is>
       </c>
       <c r="W178" t="inlineStr">
         <is>
-          <t>Biking time to nearest telehealth buprenorphine provider</t>
+          <t>% tracts with Substance Use Treatment program (30-min drive)</t>
         </is>
       </c>
       <c r="X178" t="inlineStr"/>
       <c r="Y178" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_SubstanceUseTreatment.md</t>
         </is>
       </c>
       <c r="Z178" t="inlineStr">
         <is>
-          <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
+          <t>SAMHSA 2020</t>
         </is>
       </c>
       <c r="AA178" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2020</t>
         </is>
       </c>
       <c r="AB178" t="inlineStr"/>
@@ -13398,7 +13326,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Spatial Access to MOUDs</t>
+          <t>Spatial access to Federally Qualified Health Centers (FQHCs)</t>
         </is>
       </c>
       <c r="C179" t="inlineStr"/>
@@ -13412,7 +13340,11 @@
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr"/>
       <c r="M179" t="inlineStr"/>
-      <c r="N179" t="inlineStr"/>
+      <c r="N179" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O179" t="inlineStr"/>
       <c r="P179" t="inlineStr"/>
       <c r="Q179" t="inlineStr"/>
@@ -13426,28 +13358,28 @@
       <c r="U179" t="inlineStr"/>
       <c r="V179" t="inlineStr">
         <is>
-          <t>TlBupTmDr</t>
+          <t>FqhcAvTmDr</t>
         </is>
       </c>
       <c r="W179" t="inlineStr">
         <is>
-          <t>Driving time to nearest telehealth buprenorphine provider</t>
+          <t>Average driving time to nearest Federally Qualified Health Center (FQHC)</t>
         </is>
       </c>
       <c r="X179" t="inlineStr"/>
       <c r="Y179" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_FQHCs.md</t>
         </is>
       </c>
       <c r="Z179" t="inlineStr">
         <is>
-          <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
+          <t>HRSA 2020 &amp; 2025; OSM 2019 &amp; 2025; Census TIGER 2018 &amp; 2020</t>
         </is>
       </c>
       <c r="AA179" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
+          <t>United States Covid Atlas via Health Resources and Services Administration, 2020 &amp; 2025; Open Street Map 2019 &amp; 2025; Census Tiger/Line 2018 &amp; 2020 Shapefiles</t>
         </is>
       </c>
       <c r="AB179" t="inlineStr"/>
@@ -13462,7 +13394,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Spatial Access to MOUDs</t>
+          <t>Spatial access to Federally Qualified Health Centers (FQHCs)</t>
         </is>
       </c>
       <c r="C180" t="inlineStr"/>
@@ -13486,32 +13418,36 @@
           <t>x</t>
         </is>
       </c>
-      <c r="T180" t="inlineStr"/>
+      <c r="T180" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="U180" t="inlineStr"/>
       <c r="V180" t="inlineStr">
         <is>
-          <t>TlBupTmWk</t>
+          <t>FqhcAvTmDr2</t>
         </is>
       </c>
       <c r="W180" t="inlineStr">
         <is>
-          <t>Walking time to nearest telehealth buprenorphine provider</t>
+          <t>Average driving time to nearest Federally Qualified Health Center (FQHC), with Impedance factor</t>
         </is>
       </c>
       <c r="X180" t="inlineStr"/>
       <c r="Y180" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_FQHCs.md</t>
         </is>
       </c>
       <c r="Z180" t="inlineStr">
         <is>
-          <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
+          <t>HRSA 2020 &amp; 2025; OSM 2019 &amp; 2025; Census TIGER 2018 &amp; 2020</t>
         </is>
       </c>
       <c r="AA180" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
+          <t>United States Covid Atlas via Health Resources and Services Administration, 2020 &amp; 2025; Open Street Map 2019 &amp; 2025; Census Tiger/Line 2018 &amp; 2020 Shapefiles</t>
         </is>
       </c>
       <c r="AB180" t="inlineStr"/>
@@ -13526,7 +13462,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Spatial Access to Mental Health Providers</t>
+          <t>Spatial access to Federally Qualified Health Centers (FQHCs)</t>
         </is>
       </c>
       <c r="C181" t="inlineStr"/>
@@ -13549,33 +13485,37 @@
       <c r="P181" t="inlineStr"/>
       <c r="Q181" t="inlineStr"/>
       <c r="R181" t="inlineStr"/>
-      <c r="S181" t="inlineStr"/>
+      <c r="S181" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T181" t="inlineStr"/>
       <c r="U181" t="inlineStr"/>
       <c r="V181" t="inlineStr">
         <is>
-          <t>MhAvTmDr</t>
+          <t>FqhcCtTmDr</t>
         </is>
       </c>
       <c r="W181" t="inlineStr">
         <is>
-          <t>Driving Time (min) to nearest Mental Health Provider</t>
+          <t>Count of Tracts within 30-min drive of Federally Qualified Health Center (FQHC)</t>
         </is>
       </c>
       <c r="X181" t="inlineStr"/>
       <c r="Y181" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Mental_Health.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_FQHCs.md</t>
         </is>
       </c>
       <c r="Z181" t="inlineStr">
         <is>
-          <t>SAMHSA 2020</t>
+          <t>HRSA 2020 &amp; 2025; OSM 2019 &amp; 2025; Census TIGER 2018 &amp; 2020</t>
         </is>
       </c>
       <c r="AA181" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2020</t>
+          <t>United States Covid Atlas via Health Resources and Services Administration, 2020 &amp; 2025; Open Street Map 2019 &amp; 2025; Census Tiger/Line 2018 &amp; 2020 Shapefiles</t>
         </is>
       </c>
       <c r="AB181" t="inlineStr"/>
@@ -13590,7 +13530,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Spatial Access to Mental Health Providers</t>
+          <t>Spatial access to Federally Qualified Health Centers (FQHCs)</t>
         </is>
       </c>
       <c r="C182" t="inlineStr"/>
@@ -13604,42 +13544,42 @@
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr"/>
       <c r="M182" t="inlineStr"/>
-      <c r="N182" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N182" t="inlineStr"/>
       <c r="O182" t="inlineStr"/>
       <c r="P182" t="inlineStr"/>
       <c r="Q182" t="inlineStr"/>
       <c r="R182" t="inlineStr"/>
-      <c r="S182" t="inlineStr"/>
+      <c r="S182" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T182" t="inlineStr"/>
       <c r="U182" t="inlineStr"/>
       <c r="V182" t="inlineStr">
         <is>
-          <t>MhCtTmDr</t>
+          <t>FqhcCtTmDr2</t>
         </is>
       </c>
       <c r="W182" t="inlineStr">
         <is>
-          <t>Tracts with Mental Health Provider (30-min drive)</t>
+          <t>Count of Tracts within 30-min drive of Federally Qualified Health Center (FQHC), with Impedance factor</t>
         </is>
       </c>
       <c r="X182" t="inlineStr"/>
       <c r="Y182" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Mental_Health.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_FQHCs.md</t>
         </is>
       </c>
       <c r="Z182" t="inlineStr">
         <is>
-          <t>SAMHSA 2020</t>
+          <t>HRSA 2020 &amp; 2025; OSM 2019 &amp; 2025; Census TIGER 2018 &amp; 2020</t>
         </is>
       </c>
       <c r="AA182" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2020</t>
+          <t>United States Covid Atlas via Health Resources and Services Administration, 2020 &amp; 2025; Open Street Map 2019 &amp; 2025; Census Tiger/Line 2018 &amp; 2020 Shapefiles</t>
         </is>
       </c>
       <c r="AB182" t="inlineStr"/>
@@ -13654,7 +13594,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Spatial Access to Mental Health Providers</t>
+          <t>Spatial access to Federally Qualified Health Centers (FQHCs)</t>
         </is>
       </c>
       <c r="C183" t="inlineStr"/>
@@ -13677,33 +13617,37 @@
       <c r="P183" t="inlineStr"/>
       <c r="Q183" t="inlineStr"/>
       <c r="R183" t="inlineStr"/>
-      <c r="S183" t="inlineStr"/>
+      <c r="S183" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T183" t="inlineStr"/>
       <c r="U183" t="inlineStr"/>
       <c r="V183" t="inlineStr">
         <is>
-          <t>MhTmDrP</t>
+          <t>FqhcTmDrP</t>
         </is>
       </c>
       <c r="W183" t="inlineStr">
         <is>
-          <t>% Tracts with Mental Health Provider (30-min drive)</t>
+          <t>% Tracts within 30-min drive of Federally Qualified Health Center (FQHC)</t>
         </is>
       </c>
       <c r="X183" t="inlineStr"/>
       <c r="Y183" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Mental_Health.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_FQHCs.md</t>
         </is>
       </c>
       <c r="Z183" t="inlineStr">
         <is>
-          <t>SAMHSA 2020</t>
+          <t>HRSA 2020 &amp; 2025; OSM 2019 &amp; 2025; Census TIGER 2018 &amp; 2020</t>
         </is>
       </c>
       <c r="AA183" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2020</t>
+          <t>United States Covid Atlas via Health Resources and Services Administration, 2020 &amp; 2025; Open Street Map 2019 &amp; 2025; Census Tiger/Line 2018 &amp; 2020 Shapefiles</t>
         </is>
       </c>
       <c r="AB183" t="inlineStr"/>
@@ -13718,7 +13662,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Spatial Access to Pharmacies</t>
+          <t>Spatial access to Federally Qualified Health Centers (FQHCs)</t>
         </is>
       </c>
       <c r="C184" t="inlineStr"/>
@@ -13731,43 +13675,47 @@
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr"/>
-      <c r="M184" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="M184" t="inlineStr"/>
       <c r="N184" t="inlineStr"/>
       <c r="O184" t="inlineStr"/>
       <c r="P184" t="inlineStr"/>
       <c r="Q184" t="inlineStr"/>
       <c r="R184" t="inlineStr"/>
-      <c r="S184" t="inlineStr"/>
-      <c r="T184" t="inlineStr"/>
+      <c r="S184" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="T184" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="U184" t="inlineStr"/>
       <c r="V184" t="inlineStr">
         <is>
-          <t>RxAvTmDr</t>
+          <t>FqhcTmDrP2</t>
         </is>
       </c>
       <c r="W184" t="inlineStr">
         <is>
-          <t xml:space="preserve">Avg. Driving Time (min) to nearest Pharmacy </t>
+          <t>% Tracts within 30-min drive of Federally Qualified Health Center (FQHC), with Impedance factor</t>
         </is>
       </c>
       <c r="X184" t="inlineStr"/>
       <c r="Y184" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Pharmacies.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_FQHCs.md</t>
         </is>
       </c>
       <c r="Z184" t="inlineStr">
         <is>
-          <t>InfoGroup 2019</t>
+          <t>HRSA 2020 &amp; 2025; OSM 2019 &amp; 2025; Census TIGER 2018 &amp; 2020</t>
         </is>
       </c>
       <c r="AA184" t="inlineStr">
         <is>
-          <t>InfoGroup, 2019</t>
+          <t>United States Covid Atlas via Health Resources and Services Administration, 2020 &amp; 2025; Open Street Map 2019 &amp; 2025; Census Tiger/Line 2018 &amp; 2020 Shapefiles</t>
         </is>
       </c>
       <c r="AB184" t="inlineStr"/>
@@ -13782,7 +13730,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Spatial Access to Pharmacies</t>
+          <t>Spatial access to Federally Qualified Health Centers (FQHCs)</t>
         </is>
       </c>
       <c r="C185" t="inlineStr"/>
@@ -13794,44 +13742,48 @@
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M185" t="inlineStr"/>
       <c r="N185" t="inlineStr"/>
       <c r="O185" t="inlineStr"/>
       <c r="P185" t="inlineStr"/>
       <c r="Q185" t="inlineStr"/>
       <c r="R185" t="inlineStr"/>
-      <c r="S185" t="inlineStr"/>
+      <c r="S185" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T185" t="inlineStr"/>
       <c r="U185" t="inlineStr"/>
       <c r="V185" t="inlineStr">
         <is>
-          <t>RxCtTmDr</t>
+          <t>TotTracts</t>
         </is>
       </c>
       <c r="W185" t="inlineStr">
         <is>
-          <t>Tracts with Pharmacy (30-min drive)</t>
+          <t>Total Census Tract Count</t>
         </is>
       </c>
       <c r="X185" t="inlineStr"/>
       <c r="Y185" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Pharmacies.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_FQHCs.md</t>
         </is>
       </c>
       <c r="Z185" t="inlineStr">
         <is>
-          <t>InfoGroup 2019</t>
+          <t>HRSA 2020 &amp; 2025; OSM 2019 &amp; 2025; Census TIGER 2018 &amp; 2020</t>
         </is>
       </c>
       <c r="AA185" t="inlineStr">
         <is>
-          <t>InfoGroup, 2019</t>
+          <t>United States Covid Atlas via Health Resources and Services Administration, 2020 &amp; 2025; Open Street Map 2019 &amp; 2025; Census Tiger/Line 2018 &amp; 2020 Shapefiles</t>
         </is>
       </c>
       <c r="AB185" t="inlineStr"/>
@@ -13846,7 +13798,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Spatial Access to Pharmacies</t>
+          <t>Urban/Suburban/Rural Classification</t>
         </is>
       </c>
       <c r="C186" t="inlineStr"/>
@@ -13858,12 +13810,12 @@
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M186" t="inlineStr"/>
       <c r="N186" t="inlineStr"/>
       <c r="O186" t="inlineStr"/>
       <c r="P186" t="inlineStr"/>
@@ -13874,28 +13826,28 @@
       <c r="U186" t="inlineStr"/>
       <c r="V186" t="inlineStr">
         <is>
-          <t>RxTmDrP</t>
+          <t>CenFlags</t>
         </is>
       </c>
       <c r="W186" t="inlineStr">
         <is>
-          <t>% tracts with Pharmacy (30-min drive)</t>
+          <t>Census Flags</t>
         </is>
       </c>
       <c r="X186" t="inlineStr"/>
       <c r="Y186" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Pharmacies.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Urbanicity.md</t>
         </is>
       </c>
       <c r="Z186" t="inlineStr">
         <is>
-          <t>InfoGroup 2019</t>
+          <t>USDA-ERS 2010; ACS 2018</t>
         </is>
       </c>
       <c r="AA186" t="inlineStr">
         <is>
-          <t>InfoGroup, 2019</t>
+          <t>United States Department of Agriculture Economic Research Service, 2010; American Community Survey 2014-2018 5-Year Estimate</t>
         </is>
       </c>
       <c r="AB186" t="inlineStr"/>
@@ -13910,7 +13862,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Spatial Access to Substance Use Treatment Providers</t>
+          <t>Urban/Suburban/Rural Classification</t>
         </is>
       </c>
       <c r="C187" t="inlineStr"/>
@@ -13922,13 +13874,13 @@
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M187" t="inlineStr"/>
-      <c r="N187" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N187" t="inlineStr"/>
       <c r="O187" t="inlineStr"/>
       <c r="P187" t="inlineStr"/>
       <c r="Q187" t="inlineStr"/>
@@ -13938,28 +13890,28 @@
       <c r="U187" t="inlineStr"/>
       <c r="V187" t="inlineStr">
         <is>
-          <t>SutpAvTmDr</t>
+          <t>RcaRuralP</t>
         </is>
       </c>
       <c r="W187" t="inlineStr">
         <is>
-          <t>Driving Time (min) to nearest Substance Use Treatment program</t>
+          <t>% Tracts Rural (RUCA)</t>
         </is>
       </c>
       <c r="X187" t="inlineStr"/>
       <c r="Y187" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_SubstanceUseTreatment.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Urbanicity.md</t>
         </is>
       </c>
       <c r="Z187" t="inlineStr">
         <is>
-          <t>SAMHSA 2020</t>
+          <t>USDA-ERS 2010; ACS 2018</t>
         </is>
       </c>
       <c r="AA187" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2020</t>
+          <t>United States Department of Agriculture Economic Research Service, 2010; American Community Survey 2014-2018 5-Year Estimate</t>
         </is>
       </c>
       <c r="AB187" t="inlineStr"/>
@@ -13974,7 +13926,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Spatial Access to Substance Use Treatment Providers</t>
+          <t>Urban/Suburban/Rural Classification</t>
         </is>
       </c>
       <c r="C188" t="inlineStr"/>
@@ -13986,13 +13938,13 @@
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M188" t="inlineStr"/>
-      <c r="N188" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N188" t="inlineStr"/>
       <c r="O188" t="inlineStr"/>
       <c r="P188" t="inlineStr"/>
       <c r="Q188" t="inlineStr"/>
@@ -14002,28 +13954,28 @@
       <c r="U188" t="inlineStr"/>
       <c r="V188" t="inlineStr">
         <is>
-          <t>SutpCtTmDr</t>
+          <t>RcaSubrbP</t>
         </is>
       </c>
       <c r="W188" t="inlineStr">
         <is>
-          <t>Tracts with Substance Use Treatment (SUT) program (30-min drive)</t>
+          <t>% Tracts Suburban (RUCA)</t>
         </is>
       </c>
       <c r="X188" t="inlineStr"/>
       <c r="Y188" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_SubstanceUseTreatment.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Urbanicity.md</t>
         </is>
       </c>
       <c r="Z188" t="inlineStr">
         <is>
-          <t>SAMHSA 2020</t>
+          <t>USDA-ERS 2010; ACS 2018</t>
         </is>
       </c>
       <c r="AA188" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2020</t>
+          <t>United States Department of Agriculture Economic Research Service, 2010; American Community Survey 2014-2018 5-Year Estimate</t>
         </is>
       </c>
       <c r="AB188" t="inlineStr"/>
@@ -14038,7 +13990,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Spatial Access to Substance Use Treatment Providers</t>
+          <t>Urban/Suburban/Rural Classification</t>
         </is>
       </c>
       <c r="C189" t="inlineStr"/>
@@ -14050,13 +14002,13 @@
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M189" t="inlineStr"/>
-      <c r="N189" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N189" t="inlineStr"/>
       <c r="O189" t="inlineStr"/>
       <c r="P189" t="inlineStr"/>
       <c r="Q189" t="inlineStr"/>
@@ -14066,28 +14018,28 @@
       <c r="U189" t="inlineStr"/>
       <c r="V189" t="inlineStr">
         <is>
-          <t>SutpTmDrP</t>
+          <t>RcaUrbanP</t>
         </is>
       </c>
       <c r="W189" t="inlineStr">
         <is>
-          <t>% tracts with Substance Use Treatment program (30-min drive)</t>
+          <t>% Tracts Urban (RUCA)</t>
         </is>
       </c>
       <c r="X189" t="inlineStr"/>
       <c r="Y189" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_SubstanceUseTreatment.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Urbanicity.md</t>
         </is>
       </c>
       <c r="Z189" t="inlineStr">
         <is>
-          <t>SAMHSA 2020</t>
+          <t>USDA-ERS 2010; ACS 2018</t>
         </is>
       </c>
       <c r="AA189" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2020</t>
+          <t>United States Department of Agriculture Economic Research Service, 2010; American Community Survey 2014-2018 5-Year Estimate</t>
         </is>
       </c>
       <c r="AB189" t="inlineStr"/>
@@ -14097,12 +14049,12 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Environment</t>
+          <t>Economic</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Spatial access to Federally Qualified Health Centers (FQHCs)</t>
+          <t>Employment Trends</t>
         </is>
       </c>
       <c r="C190" t="inlineStr"/>
@@ -14114,48 +14066,44 @@
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M190" t="inlineStr"/>
-      <c r="N190" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N190" t="inlineStr"/>
       <c r="O190" t="inlineStr"/>
       <c r="P190" t="inlineStr"/>
       <c r="Q190" t="inlineStr"/>
       <c r="R190" t="inlineStr"/>
-      <c r="S190" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S190" t="inlineStr"/>
       <c r="T190" t="inlineStr"/>
       <c r="U190" t="inlineStr"/>
       <c r="V190" t="inlineStr">
         <is>
-          <t>FqhcAvTmDr</t>
+          <t>EssnWrkE</t>
         </is>
       </c>
       <c r="W190" t="inlineStr">
         <is>
-          <t>Average driving time to nearest Federally Qualified Health Center (FQHC)</t>
+          <t>Count of Essential Workers</t>
         </is>
       </c>
       <c r="X190" t="inlineStr"/>
       <c r="Y190" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_FQHCs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
         </is>
       </c>
       <c r="Z190" t="inlineStr">
         <is>
-          <t>HRSA 2020 &amp; 2025; OSM 2019 &amp; 2025; Census TIGER 2018 &amp; 2020</t>
+          <t>ACS 2018, 2023</t>
         </is>
       </c>
       <c r="AA190" t="inlineStr">
         <is>
-          <t>United States Covid Atlas via Health Resources and Services Administration, 2020 &amp; 2025; Open Street Map 2019 &amp; 2025; Census Tiger/Line 2018 &amp; 2020 Shapefiles</t>
+          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
         </is>
       </c>
       <c r="AB190" t="inlineStr"/>
@@ -14165,12 +14113,12 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Environment</t>
+          <t>Economic</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Spatial access to Federally Qualified Health Centers (FQHCs)</t>
+          <t>Employment Trends</t>
         </is>
       </c>
       <c r="C191" t="inlineStr"/>
@@ -14182,48 +14130,52 @@
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M191" t="inlineStr"/>
-      <c r="N191" t="inlineStr"/>
+      <c r="N191" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O191" t="inlineStr"/>
       <c r="P191" t="inlineStr"/>
-      <c r="Q191" t="inlineStr"/>
+      <c r="Q191" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R191" t="inlineStr"/>
-      <c r="S191" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="T191" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S191" t="inlineStr"/>
+      <c r="T191" t="inlineStr"/>
       <c r="U191" t="inlineStr"/>
       <c r="V191" t="inlineStr">
         <is>
-          <t>FqhcAvTmDr2</t>
+          <t>EssnWrkP</t>
         </is>
       </c>
       <c r="W191" t="inlineStr">
         <is>
-          <t>Average driving time to nearest Federally Qualified Health Center (FQHC), with Impedance factor</t>
+          <t>Essential Workers %</t>
         </is>
       </c>
       <c r="X191" t="inlineStr"/>
       <c r="Y191" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_FQHCs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
         </is>
       </c>
       <c r="Z191" t="inlineStr">
         <is>
-          <t>HRSA 2020 &amp; 2025; OSM 2019 &amp; 2025; Census TIGER 2018 &amp; 2020</t>
+          <t>ACS 2018, 2023</t>
         </is>
       </c>
       <c r="AA191" t="inlineStr">
         <is>
-          <t>United States Covid Atlas via Health Resources and Services Administration, 2020 &amp; 2025; Open Street Map 2019 &amp; 2025; Census Tiger/Line 2018 &amp; 2020 Shapefiles</t>
+          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
         </is>
       </c>
       <c r="AB191" t="inlineStr"/>
@@ -14233,12 +14185,12 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Environment</t>
+          <t>Economic</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Spatial access to Federally Qualified Health Centers (FQHCs)</t>
+          <t>Employment Trends</t>
         </is>
       </c>
       <c r="C192" t="inlineStr"/>
@@ -14250,7 +14202,11 @@
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M192" t="inlineStr"/>
       <c r="N192" t="inlineStr">
         <is>
@@ -14259,39 +14215,39 @@
       </c>
       <c r="O192" t="inlineStr"/>
       <c r="P192" t="inlineStr"/>
-      <c r="Q192" t="inlineStr"/>
+      <c r="Q192" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R192" t="inlineStr"/>
-      <c r="S192" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S192" t="inlineStr"/>
       <c r="T192" t="inlineStr"/>
       <c r="U192" t="inlineStr"/>
       <c r="V192" t="inlineStr">
         <is>
-          <t>FqhcCtTmDr</t>
+          <t>HghRskP</t>
         </is>
       </c>
       <c r="W192" t="inlineStr">
         <is>
-          <t>Count of Tracts within 30-min drive of Federally Qualified Health Center (FQHC)</t>
+          <t>Employed % - High Risk of Injury</t>
         </is>
       </c>
       <c r="X192" t="inlineStr"/>
       <c r="Y192" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_FQHCs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
         </is>
       </c>
       <c r="Z192" t="inlineStr">
         <is>
-          <t>HRSA 2020 &amp; 2025; OSM 2019 &amp; 2025; Census TIGER 2018 &amp; 2020</t>
+          <t>ACS 2018, 2023</t>
         </is>
       </c>
       <c r="AA192" t="inlineStr">
         <is>
-          <t>United States Covid Atlas via Health Resources and Services Administration, 2020 &amp; 2025; Open Street Map 2019 &amp; 2025; Census Tiger/Line 2018 &amp; 2020 Shapefiles</t>
+          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
         </is>
       </c>
       <c r="AB192" t="inlineStr"/>
@@ -14301,12 +14257,12 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Environment</t>
+          <t>Economic</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Spatial access to Federally Qualified Health Centers (FQHCs)</t>
+          <t>Employment Trends</t>
         </is>
       </c>
       <c r="C193" t="inlineStr"/>
@@ -14318,44 +14274,52 @@
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M193" t="inlineStr"/>
-      <c r="N193" t="inlineStr"/>
+      <c r="N193" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O193" t="inlineStr"/>
       <c r="P193" t="inlineStr"/>
-      <c r="Q193" t="inlineStr"/>
+      <c r="Q193" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R193" t="inlineStr"/>
-      <c r="S193" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S193" t="inlineStr"/>
       <c r="T193" t="inlineStr"/>
       <c r="U193" t="inlineStr"/>
       <c r="V193" t="inlineStr">
         <is>
-          <t>FqhcCtTmDr2</t>
+          <t>HltCrP</t>
         </is>
       </c>
       <c r="W193" t="inlineStr">
         <is>
-          <t>Count of Tracts within 30-min drive of Federally Qualified Health Center (FQHC), with Impedance factor</t>
+          <t>Employed % - Health Care</t>
         </is>
       </c>
       <c r="X193" t="inlineStr"/>
       <c r="Y193" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_FQHCs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
         </is>
       </c>
       <c r="Z193" t="inlineStr">
         <is>
-          <t>HRSA 2020 &amp; 2025; OSM 2019 &amp; 2025; Census TIGER 2018 &amp; 2020</t>
+          <t>ACS 2018, 2023</t>
         </is>
       </c>
       <c r="AA193" t="inlineStr">
         <is>
-          <t>United States Covid Atlas via Health Resources and Services Administration, 2020 &amp; 2025; Open Street Map 2019 &amp; 2025; Census Tiger/Line 2018 &amp; 2020 Shapefiles</t>
+          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
         </is>
       </c>
       <c r="AB193" t="inlineStr"/>
@@ -14365,12 +14329,12 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Environment</t>
+          <t>Economic</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Spatial access to Federally Qualified Health Centers (FQHCs)</t>
+          <t>Employment Trends</t>
         </is>
       </c>
       <c r="C194" t="inlineStr"/>
@@ -14382,7 +14346,11 @@
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M194" t="inlineStr"/>
       <c r="N194" t="inlineStr">
         <is>
@@ -14391,39 +14359,39 @@
       </c>
       <c r="O194" t="inlineStr"/>
       <c r="P194" t="inlineStr"/>
-      <c r="Q194" t="inlineStr"/>
+      <c r="Q194" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R194" t="inlineStr"/>
-      <c r="S194" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S194" t="inlineStr"/>
       <c r="T194" t="inlineStr"/>
       <c r="U194" t="inlineStr"/>
       <c r="V194" t="inlineStr">
         <is>
-          <t>FqhcTmDrP</t>
+          <t>RetailP</t>
         </is>
       </c>
       <c r="W194" t="inlineStr">
         <is>
-          <t>% Tracts within 30-min drive of Federally Qualified Health Center (FQHC)</t>
+          <t>Employed % - Retail</t>
         </is>
       </c>
       <c r="X194" t="inlineStr"/>
       <c r="Y194" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_FQHCs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
         </is>
       </c>
       <c r="Z194" t="inlineStr">
         <is>
-          <t>HRSA 2020 &amp; 2025; OSM 2019 &amp; 2025; Census TIGER 2018 &amp; 2020</t>
+          <t>ACS 2018, 2023</t>
         </is>
       </c>
       <c r="AA194" t="inlineStr">
         <is>
-          <t>United States Covid Atlas via Health Resources and Services Administration, 2020 &amp; 2025; Open Street Map 2019 &amp; 2025; Census Tiger/Line 2018 &amp; 2020 Shapefiles</t>
+          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
         </is>
       </c>
       <c r="AB194" t="inlineStr"/>
@@ -14433,12 +14401,12 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Environment</t>
+          <t>Economic</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Spatial access to Federally Qualified Health Centers (FQHCs)</t>
+          <t>Employment Trends</t>
         </is>
       </c>
       <c r="C195" t="inlineStr"/>
@@ -14450,48 +14418,52 @@
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M195" t="inlineStr"/>
-      <c r="N195" t="inlineStr"/>
+      <c r="N195" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O195" t="inlineStr"/>
       <c r="P195" t="inlineStr"/>
-      <c r="Q195" t="inlineStr"/>
+      <c r="Q195" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R195" t="inlineStr"/>
-      <c r="S195" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="T195" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S195" t="inlineStr"/>
+      <c r="T195" t="inlineStr"/>
       <c r="U195" t="inlineStr"/>
       <c r="V195" t="inlineStr">
         <is>
-          <t>FqhcTmDrP2</t>
+          <t>TotWrkE</t>
         </is>
       </c>
       <c r="W195" t="inlineStr">
         <is>
-          <t>% Tracts within 30-min drive of Federally Qualified Health Center (FQHC), with Impedance factor</t>
+          <t>Count of Working Population</t>
         </is>
       </c>
       <c r="X195" t="inlineStr"/>
       <c r="Y195" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_FQHCs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
         </is>
       </c>
       <c r="Z195" t="inlineStr">
         <is>
-          <t>HRSA 2020 &amp; 2025; OSM 2019 &amp; 2025; Census TIGER 2018 &amp; 2020</t>
+          <t>ACS 2018, 2023</t>
         </is>
       </c>
       <c r="AA195" t="inlineStr">
         <is>
-          <t>United States Covid Atlas via Health Resources and Services Administration, 2020 &amp; 2025; Open Street Map 2019 &amp; 2025; Census Tiger/Line 2018 &amp; 2020 Shapefiles</t>
+          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
         </is>
       </c>
       <c r="AB195" t="inlineStr"/>
@@ -14501,12 +14473,12 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Environment</t>
+          <t>Economic</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Spatial access to Federally Qualified Health Centers (FQHCs)</t>
+          <t>Great Recession Foreclosure Rate</t>
         </is>
       </c>
       <c r="C196" t="inlineStr"/>
@@ -14529,37 +14501,33 @@
       <c r="P196" t="inlineStr"/>
       <c r="Q196" t="inlineStr"/>
       <c r="R196" t="inlineStr"/>
-      <c r="S196" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S196" t="inlineStr"/>
       <c r="T196" t="inlineStr"/>
       <c r="U196" t="inlineStr"/>
       <c r="V196" t="inlineStr">
         <is>
-          <t>TotTracts</t>
+          <t>ForDqP</t>
         </is>
       </c>
       <c r="W196" t="inlineStr">
         <is>
-          <t>Total Census Tract Count</t>
+          <t>Foreclosure &amp; Delinquency %</t>
         </is>
       </c>
       <c r="X196" t="inlineStr"/>
       <c r="Y196" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_FQHCs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Foreclosure_Rate.md</t>
         </is>
       </c>
       <c r="Z196" t="inlineStr">
         <is>
-          <t>HRSA 2020 &amp; 2025; OSM 2019 &amp; 2025; Census TIGER 2018 &amp; 2020</t>
+          <t>HUD 2018; ACS 2012, 2018</t>
         </is>
       </c>
       <c r="AA196" t="inlineStr">
         <is>
-          <t>United States Covid Atlas via Health Resources and Services Administration, 2020 &amp; 2025; Open Street Map 2019 &amp; 2025; Census Tiger/Line 2018 &amp; 2020 Shapefiles</t>
+          <t>U.S. Department of Housing and Urban Development Neighborhood Stabilization Program; American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates</t>
         </is>
       </c>
       <c r="AB196" t="inlineStr"/>
@@ -14569,12 +14537,12 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Environment</t>
+          <t>Economic</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Urban/Suburban/Rural Classification</t>
+          <t>Great Recession Foreclosure Rate</t>
         </is>
       </c>
       <c r="C197" t="inlineStr"/>
@@ -14602,28 +14570,28 @@
       <c r="U197" t="inlineStr"/>
       <c r="V197" t="inlineStr">
         <is>
-          <t>CenFlags</t>
+          <t>ForDqTot</t>
         </is>
       </c>
       <c r="W197" t="inlineStr">
         <is>
-          <t>Census Flags</t>
+          <t>Foreclosure &amp; Delinquency Count</t>
         </is>
       </c>
       <c r="X197" t="inlineStr"/>
       <c r="Y197" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Urbanicity.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Foreclosure_Rate.md</t>
         </is>
       </c>
       <c r="Z197" t="inlineStr">
         <is>
-          <t>USDA-ERS 2010; ACS 2018</t>
+          <t>HUD 2018; ACS 2012, 2018</t>
         </is>
       </c>
       <c r="AA197" t="inlineStr">
         <is>
-          <t>United States Department of Agriculture Economic Research Service, 2010; American Community Survey 2014-2018 5-Year Estimate</t>
+          <t>U.S. Department of Housing and Urban Development Neighborhood Stabilization Program; American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates</t>
         </is>
       </c>
       <c r="AB197" t="inlineStr"/>
@@ -14633,18 +14601,22 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Environment</t>
+          <t>Economic</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Urban/Suburban/Rural Classification</t>
+          <t>Great Recession Foreclosure Rate</t>
         </is>
       </c>
       <c r="C198" t="inlineStr"/>
       <c r="D198" t="inlineStr"/>
       <c r="E198" t="inlineStr"/>
-      <c r="F198" t="inlineStr"/>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="G198" t="inlineStr"/>
       <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
@@ -14656,38 +14628,46 @@
         </is>
       </c>
       <c r="M198" t="inlineStr"/>
-      <c r="N198" t="inlineStr"/>
+      <c r="N198" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O198" t="inlineStr"/>
       <c r="P198" t="inlineStr"/>
-      <c r="Q198" t="inlineStr"/>
+      <c r="Q198" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R198" t="inlineStr"/>
       <c r="S198" t="inlineStr"/>
       <c r="T198" t="inlineStr"/>
       <c r="U198" t="inlineStr"/>
       <c r="V198" t="inlineStr">
         <is>
-          <t>RcaRuralP</t>
+          <t>GiniCoeff</t>
         </is>
       </c>
       <c r="W198" t="inlineStr">
         <is>
-          <t>% Tracts Rural (RUCA)</t>
+          <t>Income Inequality (Gini Coefficient)</t>
         </is>
       </c>
       <c r="X198" t="inlineStr"/>
       <c r="Y198" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Urbanicity.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Foreclosure_Rate.md</t>
         </is>
       </c>
       <c r="Z198" t="inlineStr">
         <is>
-          <t>USDA-ERS 2010; ACS 2018</t>
+          <t>HUD 2018; ACS 2012, 2018</t>
         </is>
       </c>
       <c r="AA198" t="inlineStr">
         <is>
-          <t>United States Department of Agriculture Economic Research Service, 2010; American Community Survey 2014-2018 5-Year Estimate</t>
+          <t>U.S. Department of Housing and Urban Development Neighborhood Stabilization Program; American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates</t>
         </is>
       </c>
       <c r="AB198" t="inlineStr"/>
@@ -14697,12 +14677,12 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Environment</t>
+          <t>Economic</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Urban/Suburban/Rural Classification</t>
+          <t>Internet Access</t>
         </is>
       </c>
       <c r="C199" t="inlineStr"/>
@@ -14714,12 +14694,12 @@
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N199" t="inlineStr"/>
       <c r="O199" t="inlineStr"/>
       <c r="P199" t="inlineStr"/>
@@ -14730,28 +14710,28 @@
       <c r="U199" t="inlineStr"/>
       <c r="V199" t="inlineStr">
         <is>
-          <t>RcaSubrbP</t>
+          <t>NoIntP</t>
         </is>
       </c>
       <c r="W199" t="inlineStr">
         <is>
-          <t>% Tracts Suburban (RUCA)</t>
+          <t>Households without Internet Access %</t>
         </is>
       </c>
       <c r="X199" t="inlineStr"/>
       <c r="Y199" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Urbanicity.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Internet_Access.md</t>
         </is>
       </c>
       <c r="Z199" t="inlineStr">
         <is>
-          <t>USDA-ERS 2010; ACS 2018</t>
+          <t>ACS 2019</t>
         </is>
       </c>
       <c r="AA199" t="inlineStr">
         <is>
-          <t>United States Department of Agriculture Economic Research Service, 2010; American Community Survey 2014-2018 5-Year Estimate</t>
+          <t>American Community Survey 2015-2019 5-Year Estimate</t>
         </is>
       </c>
       <c r="AB199" t="inlineStr"/>
@@ -14761,18 +14741,22 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Environment</t>
+          <t>Economic</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Urban/Suburban/Rural Classification</t>
+          <t>Poverty, Income, Gini Coefficient</t>
         </is>
       </c>
       <c r="C200" t="inlineStr"/>
       <c r="D200" t="inlineStr"/>
       <c r="E200" t="inlineStr"/>
-      <c r="F200" t="inlineStr"/>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="G200" t="inlineStr"/>
       <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
@@ -14784,38 +14768,46 @@
         </is>
       </c>
       <c r="M200" t="inlineStr"/>
-      <c r="N200" t="inlineStr"/>
+      <c r="N200" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O200" t="inlineStr"/>
       <c r="P200" t="inlineStr"/>
-      <c r="Q200" t="inlineStr"/>
+      <c r="Q200" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R200" t="inlineStr"/>
       <c r="S200" t="inlineStr"/>
       <c r="T200" t="inlineStr"/>
       <c r="U200" t="inlineStr"/>
       <c r="V200" t="inlineStr">
         <is>
-          <t>RcaUrbanP</t>
+          <t>MedInc</t>
         </is>
       </c>
       <c r="W200" t="inlineStr">
         <is>
-          <t>% Tracts Urban (RUCA)</t>
+          <t>Median Income</t>
         </is>
       </c>
       <c r="X200" t="inlineStr"/>
       <c r="Y200" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Urbanicity.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Economic_Characteristics.md</t>
         </is>
       </c>
       <c r="Z200" t="inlineStr">
         <is>
-          <t>USDA-ERS 2010; ACS 2018</t>
+          <t>ACS 2012, 2018; Social Explorer 2010</t>
         </is>
       </c>
       <c r="AA200" t="inlineStr">
         <is>
-          <t>United States Department of Agriculture Economic Research Service, 2010; American Community Survey 2014-2018 5-Year Estimate</t>
+          <t>American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
         </is>
       </c>
       <c r="AB200" t="inlineStr"/>
@@ -14830,13 +14822,17 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Employment Trends</t>
+          <t>Poverty, Income, Gini Coefficient</t>
         </is>
       </c>
       <c r="C201" t="inlineStr"/>
       <c r="D201" t="inlineStr"/>
       <c r="E201" t="inlineStr"/>
-      <c r="F201" t="inlineStr"/>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="G201" t="inlineStr"/>
       <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
@@ -14848,38 +14844,46 @@
         </is>
       </c>
       <c r="M201" t="inlineStr"/>
-      <c r="N201" t="inlineStr"/>
+      <c r="N201" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O201" t="inlineStr"/>
       <c r="P201" t="inlineStr"/>
-      <c r="Q201" t="inlineStr"/>
+      <c r="Q201" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R201" t="inlineStr"/>
       <c r="S201" t="inlineStr"/>
       <c r="T201" t="inlineStr"/>
       <c r="U201" t="inlineStr"/>
       <c r="V201" t="inlineStr">
         <is>
-          <t>EssnWrkE</t>
+          <t>PciE</t>
         </is>
       </c>
       <c r="W201" t="inlineStr">
         <is>
-          <t>Count of Essential Workers</t>
+          <t>Per Capita Income</t>
         </is>
       </c>
       <c r="X201" t="inlineStr"/>
       <c r="Y201" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Economic_Characteristics.md</t>
         </is>
       </c>
       <c r="Z201" t="inlineStr">
         <is>
-          <t>ACS 2018, 2023</t>
+          <t>ACS 2012, 2018; Social Explorer 2010</t>
         </is>
       </c>
       <c r="AA201" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
+          <t>American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
         </is>
       </c>
       <c r="AB201" t="inlineStr"/>
@@ -14894,13 +14898,29 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Employment Trends</t>
-        </is>
-      </c>
-      <c r="C202" t="inlineStr"/>
-      <c r="D202" t="inlineStr"/>
-      <c r="E202" t="inlineStr"/>
-      <c r="F202" t="inlineStr"/>
+          <t>Poverty, Income, Gini Coefficient</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="G202" t="inlineStr"/>
       <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
@@ -14927,31 +14947,35 @@
       <c r="R202" t="inlineStr"/>
       <c r="S202" t="inlineStr"/>
       <c r="T202" t="inlineStr"/>
-      <c r="U202" t="inlineStr"/>
+      <c r="U202" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="V202" t="inlineStr">
         <is>
-          <t>EssnWrkP</t>
+          <t>PovP</t>
         </is>
       </c>
       <c r="W202" t="inlineStr">
         <is>
-          <t>Essential Workers %</t>
+          <t>Poverty %</t>
         </is>
       </c>
       <c r="X202" t="inlineStr"/>
       <c r="Y202" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Economic_Characteristics.md</t>
         </is>
       </c>
       <c r="Z202" t="inlineStr">
         <is>
-          <t>ACS 2018, 2023</t>
+          <t>ACS 2012, 2018; Social Explorer 2010</t>
         </is>
       </c>
       <c r="AA202" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
+          <t>American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
         </is>
       </c>
       <c r="AB202" t="inlineStr"/>
@@ -14966,13 +14990,29 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Employment Trends</t>
-        </is>
-      </c>
-      <c r="C203" t="inlineStr"/>
-      <c r="D203" t="inlineStr"/>
-      <c r="E203" t="inlineStr"/>
-      <c r="F203" t="inlineStr"/>
+          <t>Poverty, Income, Gini Coefficient</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="G203" t="inlineStr"/>
       <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
@@ -14999,31 +15039,35 @@
       <c r="R203" t="inlineStr"/>
       <c r="S203" t="inlineStr"/>
       <c r="T203" t="inlineStr"/>
-      <c r="U203" t="inlineStr"/>
+      <c r="U203" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="V203" t="inlineStr">
         <is>
-          <t>HghRskP</t>
+          <t>UnempP</t>
         </is>
       </c>
       <c r="W203" t="inlineStr">
         <is>
-          <t>Employed % - High Risk of Injury</t>
+          <t>Unemployment %</t>
         </is>
       </c>
       <c r="X203" t="inlineStr"/>
       <c r="Y203" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Economic_Characteristics.md</t>
         </is>
       </c>
       <c r="Z203" t="inlineStr">
         <is>
-          <t>ACS 2018, 2023</t>
+          <t>ACS 2012, 2018; Social Explorer 2010</t>
         </is>
       </c>
       <c r="AA203" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
+          <t>American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
         </is>
       </c>
       <c r="AB203" t="inlineStr"/>
@@ -15033,12 +15077,12 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Economic</t>
+          <t>Outcome</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Employment Trends</t>
+          <t>Opioid Indicators</t>
         </is>
       </c>
       <c r="C204" t="inlineStr"/>
@@ -15046,56 +15090,80 @@
       <c r="E204" t="inlineStr"/>
       <c r="F204" t="inlineStr"/>
       <c r="G204" t="inlineStr"/>
-      <c r="H204" t="inlineStr"/>
-      <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I204" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L204" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="M204" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N204" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="O204" t="inlineStr"/>
-      <c r="P204" t="inlineStr"/>
-      <c r="Q204" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="O204" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="P204" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q204" t="inlineStr"/>
       <c r="R204" t="inlineStr"/>
       <c r="S204" t="inlineStr"/>
       <c r="T204" t="inlineStr"/>
       <c r="U204" t="inlineStr"/>
       <c r="V204" t="inlineStr">
         <is>
-          <t>HltCrP</t>
+          <t>OdMortRt</t>
         </is>
       </c>
       <c r="W204" t="inlineStr">
         <is>
-          <t>Employed % - Health Care</t>
+          <t>Overdose Mortality Rate</t>
         </is>
       </c>
       <c r="X204" t="inlineStr"/>
       <c r="Y204" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Opioid_Outcomes.md</t>
         </is>
       </c>
       <c r="Z204" t="inlineStr">
         <is>
-          <t>ACS 2018, 2023</t>
+          <t>HepVu 2014-2022</t>
         </is>
       </c>
       <c r="AA204" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
+          <t>HepVu, Emory University Rollins School of Public Health, 2014-2022</t>
         </is>
       </c>
       <c r="AB204" t="inlineStr"/>
@@ -15105,12 +15173,12 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Economic</t>
+          <t>Outcome</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Employment Trends</t>
+          <t>Opioid Indicators</t>
         </is>
       </c>
       <c r="C205" t="inlineStr"/>
@@ -15122,11 +15190,7 @@
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L205" t="inlineStr"/>
       <c r="M205" t="inlineStr"/>
       <c r="N205" t="inlineStr">
         <is>
@@ -15135,39 +15199,35 @@
       </c>
       <c r="O205" t="inlineStr"/>
       <c r="P205" t="inlineStr"/>
-      <c r="Q205" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Q205" t="inlineStr"/>
       <c r="R205" t="inlineStr"/>
       <c r="S205" t="inlineStr"/>
       <c r="T205" t="inlineStr"/>
       <c r="U205" t="inlineStr"/>
       <c r="V205" t="inlineStr">
         <is>
-          <t>RetailP</t>
+          <t>OdMortRtAv</t>
         </is>
       </c>
       <c r="W205" t="inlineStr">
         <is>
-          <t>Employed % - Retail</t>
+          <t>Overdose Mortality Rate Average (2016-2020)</t>
         </is>
       </c>
       <c r="X205" t="inlineStr"/>
       <c r="Y205" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Opioid_Outcomes.md</t>
         </is>
       </c>
       <c r="Z205" t="inlineStr">
         <is>
-          <t>ACS 2018, 2023</t>
+          <t>HepVu 2014-2022</t>
         </is>
       </c>
       <c r="AA205" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
+          <t>HepVu, Emory University Rollins School of Public Health, 2014-2022</t>
         </is>
       </c>
       <c r="AB205" t="inlineStr"/>
@@ -15177,12 +15237,12 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Economic</t>
+          <t>Outcome</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Employment Trends</t>
+          <t>Opioid Indicators</t>
         </is>
       </c>
       <c r="C206" t="inlineStr"/>
@@ -15194,11 +15254,7 @@
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L206" t="inlineStr"/>
       <c r="M206" t="inlineStr"/>
       <c r="N206" t="inlineStr">
         <is>
@@ -15206,40 +15262,40 @@
         </is>
       </c>
       <c r="O206" t="inlineStr"/>
-      <c r="P206" t="inlineStr"/>
-      <c r="Q206" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="P206" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q206" t="inlineStr"/>
       <c r="R206" t="inlineStr"/>
       <c r="S206" t="inlineStr"/>
       <c r="T206" t="inlineStr"/>
       <c r="U206" t="inlineStr"/>
       <c r="V206" t="inlineStr">
         <is>
-          <t>TotWrkE</t>
+          <t>OpRxRt</t>
         </is>
       </c>
       <c r="W206" t="inlineStr">
         <is>
-          <t>Count of Working Population</t>
+          <t>Opioid Prescription Rate</t>
         </is>
       </c>
       <c r="X206" t="inlineStr"/>
       <c r="Y206" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Opioid_Outcomes.md</t>
         </is>
       </c>
       <c r="Z206" t="inlineStr">
         <is>
-          <t>ACS 2018, 2023</t>
+          <t>HepVu 2014-2022</t>
         </is>
       </c>
       <c r="AA206" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
+          <t>HepVu, Emory University Rollins School of Public Health, 2014-2022</t>
         </is>
       </c>
       <c r="AB206" t="inlineStr"/>
@@ -15249,12 +15305,12 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Economic</t>
+          <t>Composite</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Great Recession Foreclosure Rate</t>
+          <t>Social Vulnerability Indices</t>
         </is>
       </c>
       <c r="C207" t="inlineStr"/>
@@ -15272,9 +15328,17 @@
         </is>
       </c>
       <c r="M207" t="inlineStr"/>
-      <c r="N207" t="inlineStr"/>
+      <c r="N207" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O207" t="inlineStr"/>
-      <c r="P207" t="inlineStr"/>
+      <c r="P207" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Q207" t="inlineStr"/>
       <c r="R207" t="inlineStr"/>
       <c r="S207" t="inlineStr"/>
@@ -15282,28 +15346,28 @@
       <c r="U207" t="inlineStr"/>
       <c r="V207" t="inlineStr">
         <is>
-          <t>ForDqP</t>
+          <t>SviSmryRnk</t>
         </is>
       </c>
       <c r="W207" t="inlineStr">
         <is>
-          <t>Foreclosure &amp; Delinquency %</t>
+          <t>Social Vulnerability Index (SVI) Summary Ranking</t>
         </is>
       </c>
       <c r="X207" t="inlineStr"/>
       <c r="Y207" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Foreclosure_Rate.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Social_Vulnerability_Indices.md</t>
         </is>
       </c>
       <c r="Z207" t="inlineStr">
         <is>
-          <t>HUD 2018; ACS 2012, 2018</t>
+          <t>CDC 2018, 2020, 2022</t>
         </is>
       </c>
       <c r="AA207" t="inlineStr">
         <is>
-          <t>U.S. Department of Housing and Urban Development Neighborhood Stabilization Program; American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates</t>
+          <t>Centers for Disease Control, 2018, 2020, 2022</t>
         </is>
       </c>
       <c r="AB207" t="inlineStr"/>
@@ -15313,12 +15377,12 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Economic</t>
+          <t>Composite</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Great Recession Foreclosure Rate</t>
+          <t>Social Vulnerability Indices</t>
         </is>
       </c>
       <c r="C208" t="inlineStr"/>
@@ -15336,38 +15400,50 @@
         </is>
       </c>
       <c r="M208" t="inlineStr"/>
-      <c r="N208" t="inlineStr"/>
+      <c r="N208" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O208" t="inlineStr"/>
-      <c r="P208" t="inlineStr"/>
+      <c r="P208" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Q208" t="inlineStr"/>
       <c r="R208" t="inlineStr"/>
       <c r="S208" t="inlineStr"/>
-      <c r="T208" t="inlineStr"/>
+      <c r="T208" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="U208" t="inlineStr"/>
       <c r="V208" t="inlineStr">
         <is>
-          <t>ForDqTot</t>
+          <t>SviTh1</t>
         </is>
       </c>
       <c r="W208" t="inlineStr">
         <is>
-          <t>Foreclosure &amp; Delinquency Count</t>
+          <t>Social Vulnerability Index (SVI) 1</t>
         </is>
       </c>
       <c r="X208" t="inlineStr"/>
       <c r="Y208" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Foreclosure_Rate.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Social_Vulnerability_Indices.md</t>
         </is>
       </c>
       <c r="Z208" t="inlineStr">
         <is>
-          <t>HUD 2018; ACS 2012, 2018</t>
+          <t>CDC 2018, 2020, 2022</t>
         </is>
       </c>
       <c r="AA208" t="inlineStr">
         <is>
-          <t>U.S. Department of Housing and Urban Development Neighborhood Stabilization Program; American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates</t>
+          <t>Centers for Disease Control, 2018, 2020, 2022</t>
         </is>
       </c>
       <c r="AB208" t="inlineStr"/>
@@ -15377,22 +15453,18 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Economic</t>
+          <t>Composite</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Great Recession Foreclosure Rate</t>
+          <t>Social Vulnerability Indices</t>
         </is>
       </c>
       <c r="C209" t="inlineStr"/>
       <c r="D209" t="inlineStr"/>
       <c r="E209" t="inlineStr"/>
-      <c r="F209" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="F209" t="inlineStr"/>
       <c r="G209" t="inlineStr"/>
       <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
@@ -15410,40 +15482,40 @@
         </is>
       </c>
       <c r="O209" t="inlineStr"/>
-      <c r="P209" t="inlineStr"/>
-      <c r="Q209" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="P209" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q209" t="inlineStr"/>
       <c r="R209" t="inlineStr"/>
       <c r="S209" t="inlineStr"/>
       <c r="T209" t="inlineStr"/>
       <c r="U209" t="inlineStr"/>
       <c r="V209" t="inlineStr">
         <is>
-          <t>GiniCoeff</t>
+          <t>SviTh2</t>
         </is>
       </c>
       <c r="W209" t="inlineStr">
         <is>
-          <t>Income Inequality (Gini Coefficient)</t>
+          <t>Social Vulnerability Index (SVI) 2</t>
         </is>
       </c>
       <c r="X209" t="inlineStr"/>
       <c r="Y209" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Foreclosure_Rate.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Social_Vulnerability_Indices.md</t>
         </is>
       </c>
       <c r="Z209" t="inlineStr">
         <is>
-          <t>HUD 2018; ACS 2012, 2018</t>
+          <t>CDC 2018, 2020, 2022</t>
         </is>
       </c>
       <c r="AA209" t="inlineStr">
         <is>
-          <t>U.S. Department of Housing and Urban Development Neighborhood Stabilization Program; American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates</t>
+          <t>Centers for Disease Control, 2018, 2020, 2022</t>
         </is>
       </c>
       <c r="AB209" t="inlineStr"/>
@@ -15453,12 +15525,12 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Economic</t>
+          <t>Composite</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Internet Access</t>
+          <t>Social Vulnerability Indices</t>
         </is>
       </c>
       <c r="C210" t="inlineStr"/>
@@ -15470,15 +15542,23 @@
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M210" t="inlineStr"/>
+      <c r="N210" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O210" t="inlineStr"/>
-      <c r="P210" t="inlineStr"/>
+      <c r="P210" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Q210" t="inlineStr"/>
       <c r="R210" t="inlineStr"/>
       <c r="S210" t="inlineStr"/>
@@ -15486,28 +15566,28 @@
       <c r="U210" t="inlineStr"/>
       <c r="V210" t="inlineStr">
         <is>
-          <t>NoIntP</t>
+          <t>SviTh3</t>
         </is>
       </c>
       <c r="W210" t="inlineStr">
         <is>
-          <t>Households without Internet Access %</t>
+          <t>Social Vulnerability Index (SVI) 3</t>
         </is>
       </c>
       <c r="X210" t="inlineStr"/>
       <c r="Y210" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Internet_Access.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Social_Vulnerability_Indices.md</t>
         </is>
       </c>
       <c r="Z210" t="inlineStr">
         <is>
-          <t>ACS 2019</t>
+          <t>CDC 2018, 2020, 2022</t>
         </is>
       </c>
       <c r="AA210" t="inlineStr">
         <is>
-          <t>American Community Survey 2015-2019 5-Year Estimate</t>
+          <t>Centers for Disease Control, 2018, 2020, 2022</t>
         </is>
       </c>
       <c r="AB210" t="inlineStr"/>
@@ -15517,22 +15597,18 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Economic</t>
+          <t>Composite</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Poverty, Income, Gini Coefficient</t>
+          <t>Social Vulnerability Indices</t>
         </is>
       </c>
       <c r="C211" t="inlineStr"/>
       <c r="D211" t="inlineStr"/>
       <c r="E211" t="inlineStr"/>
-      <c r="F211" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="F211" t="inlineStr"/>
       <c r="G211" t="inlineStr"/>
       <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
@@ -15550,901 +15626,49 @@
         </is>
       </c>
       <c r="O211" t="inlineStr"/>
-      <c r="P211" t="inlineStr"/>
-      <c r="Q211" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="P211" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q211" t="inlineStr"/>
       <c r="R211" t="inlineStr"/>
       <c r="S211" t="inlineStr"/>
-      <c r="T211" t="inlineStr"/>
+      <c r="T211" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="U211" t="inlineStr"/>
       <c r="V211" t="inlineStr">
         <is>
-          <t>MedInc</t>
+          <t>SviTh4</t>
         </is>
       </c>
       <c r="W211" t="inlineStr">
         <is>
-          <t>Median Income</t>
+          <t>Social Vulnerability Index (SVI) 4</t>
         </is>
       </c>
       <c r="X211" t="inlineStr"/>
       <c r="Y211" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Economic_Characteristics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Social_Vulnerability_Indices.md</t>
         </is>
       </c>
       <c r="Z211" t="inlineStr">
         <is>
-          <t>ACS 2012, 2018; Social Explorer 2010</t>
+          <t>CDC 2018, 2020, 2022</t>
         </is>
       </c>
       <c r="AA211" t="inlineStr">
         <is>
-          <t>American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
+          <t>Centers for Disease Control, 2018, 2020, 2022</t>
         </is>
       </c>
       <c r="AB211" t="inlineStr"/>
       <c r="AC211" t="inlineStr"/>
       <c r="AD211" t="inlineStr"/>
-    </row>
-    <row r="212">
-      <c r="A212" t="inlineStr">
-        <is>
-          <t>Economic</t>
-        </is>
-      </c>
-      <c r="B212" t="inlineStr">
-        <is>
-          <t>Poverty, Income, Gini Coefficient</t>
-        </is>
-      </c>
-      <c r="C212" t="inlineStr"/>
-      <c r="D212" t="inlineStr"/>
-      <c r="E212" t="inlineStr"/>
-      <c r="F212" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="G212" t="inlineStr"/>
-      <c r="H212" t="inlineStr"/>
-      <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="M212" t="inlineStr"/>
-      <c r="N212" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O212" t="inlineStr"/>
-      <c r="P212" t="inlineStr"/>
-      <c r="Q212" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="R212" t="inlineStr"/>
-      <c r="S212" t="inlineStr"/>
-      <c r="T212" t="inlineStr"/>
-      <c r="U212" t="inlineStr"/>
-      <c r="V212" t="inlineStr">
-        <is>
-          <t>PciE</t>
-        </is>
-      </c>
-      <c r="W212" t="inlineStr">
-        <is>
-          <t>Per Capita Income</t>
-        </is>
-      </c>
-      <c r="X212" t="inlineStr"/>
-      <c r="Y212" t="inlineStr">
-        <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Economic_Characteristics.md</t>
-        </is>
-      </c>
-      <c r="Z212" t="inlineStr">
-        <is>
-          <t>ACS 2012, 2018; Social Explorer 2010</t>
-        </is>
-      </c>
-      <c r="AA212" t="inlineStr">
-        <is>
-          <t>American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
-        </is>
-      </c>
-      <c r="AB212" t="inlineStr"/>
-      <c r="AC212" t="inlineStr"/>
-      <c r="AD212" t="inlineStr"/>
-    </row>
-    <row r="213">
-      <c r="A213" t="inlineStr">
-        <is>
-          <t>Economic</t>
-        </is>
-      </c>
-      <c r="B213" t="inlineStr">
-        <is>
-          <t>Poverty, Income, Gini Coefficient</t>
-        </is>
-      </c>
-      <c r="C213" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="D213" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E213" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="F213" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="G213" t="inlineStr"/>
-      <c r="H213" t="inlineStr"/>
-      <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="M213" t="inlineStr"/>
-      <c r="N213" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O213" t="inlineStr"/>
-      <c r="P213" t="inlineStr"/>
-      <c r="Q213" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="R213" t="inlineStr"/>
-      <c r="S213" t="inlineStr"/>
-      <c r="T213" t="inlineStr"/>
-      <c r="U213" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="V213" t="inlineStr">
-        <is>
-          <t>PovP</t>
-        </is>
-      </c>
-      <c r="W213" t="inlineStr">
-        <is>
-          <t>Poverty %</t>
-        </is>
-      </c>
-      <c r="X213" t="inlineStr"/>
-      <c r="Y213" t="inlineStr">
-        <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Economic_Characteristics.md</t>
-        </is>
-      </c>
-      <c r="Z213" t="inlineStr">
-        <is>
-          <t>ACS 2012, 2018; Social Explorer 2010</t>
-        </is>
-      </c>
-      <c r="AA213" t="inlineStr">
-        <is>
-          <t>American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
-        </is>
-      </c>
-      <c r="AB213" t="inlineStr"/>
-      <c r="AC213" t="inlineStr"/>
-      <c r="AD213" t="inlineStr"/>
-    </row>
-    <row r="214">
-      <c r="A214" t="inlineStr">
-        <is>
-          <t>Economic</t>
-        </is>
-      </c>
-      <c r="B214" t="inlineStr">
-        <is>
-          <t>Poverty, Income, Gini Coefficient</t>
-        </is>
-      </c>
-      <c r="C214" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="D214" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E214" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="F214" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="G214" t="inlineStr"/>
-      <c r="H214" t="inlineStr"/>
-      <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="M214" t="inlineStr"/>
-      <c r="N214" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O214" t="inlineStr"/>
-      <c r="P214" t="inlineStr"/>
-      <c r="Q214" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="R214" t="inlineStr"/>
-      <c r="S214" t="inlineStr"/>
-      <c r="T214" t="inlineStr"/>
-      <c r="U214" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="V214" t="inlineStr">
-        <is>
-          <t>UnempP</t>
-        </is>
-      </c>
-      <c r="W214" t="inlineStr">
-        <is>
-          <t>Unemployment %</t>
-        </is>
-      </c>
-      <c r="X214" t="inlineStr"/>
-      <c r="Y214" t="inlineStr">
-        <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Economic_Characteristics.md</t>
-        </is>
-      </c>
-      <c r="Z214" t="inlineStr">
-        <is>
-          <t>ACS 2012, 2018; Social Explorer 2010</t>
-        </is>
-      </c>
-      <c r="AA214" t="inlineStr">
-        <is>
-          <t>American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
-        </is>
-      </c>
-      <c r="AB214" t="inlineStr"/>
-      <c r="AC214" t="inlineStr"/>
-      <c r="AD214" t="inlineStr"/>
-    </row>
-    <row r="215">
-      <c r="A215" t="inlineStr">
-        <is>
-          <t>Outcome</t>
-        </is>
-      </c>
-      <c r="B215" t="inlineStr">
-        <is>
-          <t>Opioid Indicators</t>
-        </is>
-      </c>
-      <c r="C215" t="inlineStr"/>
-      <c r="D215" t="inlineStr"/>
-      <c r="E215" t="inlineStr"/>
-      <c r="F215" t="inlineStr"/>
-      <c r="G215" t="inlineStr"/>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I215" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="J215" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="M215" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="N215" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O215" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="P215" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Q215" t="inlineStr"/>
-      <c r="R215" t="inlineStr"/>
-      <c r="S215" t="inlineStr"/>
-      <c r="T215" t="inlineStr"/>
-      <c r="U215" t="inlineStr"/>
-      <c r="V215" t="inlineStr">
-        <is>
-          <t>OdMortRt</t>
-        </is>
-      </c>
-      <c r="W215" t="inlineStr">
-        <is>
-          <t>Overdose Mortality Rate</t>
-        </is>
-      </c>
-      <c r="X215" t="inlineStr"/>
-      <c r="Y215" t="inlineStr">
-        <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Opioid_Outcomes.md</t>
-        </is>
-      </c>
-      <c r="Z215" t="inlineStr">
-        <is>
-          <t>HepVu 2014-2022</t>
-        </is>
-      </c>
-      <c r="AA215" t="inlineStr">
-        <is>
-          <t>HepVu, Emory University Rollins School of Public Health, 2014-2022</t>
-        </is>
-      </c>
-      <c r="AB215" t="inlineStr"/>
-      <c r="AC215" t="inlineStr"/>
-      <c r="AD215" t="inlineStr"/>
-    </row>
-    <row r="216">
-      <c r="A216" t="inlineStr">
-        <is>
-          <t>Outcome</t>
-        </is>
-      </c>
-      <c r="B216" t="inlineStr">
-        <is>
-          <t>Opioid Indicators</t>
-        </is>
-      </c>
-      <c r="C216" t="inlineStr"/>
-      <c r="D216" t="inlineStr"/>
-      <c r="E216" t="inlineStr"/>
-      <c r="F216" t="inlineStr"/>
-      <c r="G216" t="inlineStr"/>
-      <c r="H216" t="inlineStr"/>
-      <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="inlineStr"/>
-      <c r="N216" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O216" t="inlineStr"/>
-      <c r="P216" t="inlineStr"/>
-      <c r="Q216" t="inlineStr"/>
-      <c r="R216" t="inlineStr"/>
-      <c r="S216" t="inlineStr"/>
-      <c r="T216" t="inlineStr"/>
-      <c r="U216" t="inlineStr"/>
-      <c r="V216" t="inlineStr">
-        <is>
-          <t>OdMortRtAv</t>
-        </is>
-      </c>
-      <c r="W216" t="inlineStr">
-        <is>
-          <t>Overdose Mortality Rate Average (2016-2020)</t>
-        </is>
-      </c>
-      <c r="X216" t="inlineStr"/>
-      <c r="Y216" t="inlineStr">
-        <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Opioid_Outcomes.md</t>
-        </is>
-      </c>
-      <c r="Z216" t="inlineStr">
-        <is>
-          <t>HepVu 2014-2022</t>
-        </is>
-      </c>
-      <c r="AA216" t="inlineStr">
-        <is>
-          <t>HepVu, Emory University Rollins School of Public Health, 2014-2022</t>
-        </is>
-      </c>
-      <c r="AB216" t="inlineStr"/>
-      <c r="AC216" t="inlineStr"/>
-      <c r="AD216" t="inlineStr"/>
-    </row>
-    <row r="217">
-      <c r="A217" t="inlineStr">
-        <is>
-          <t>Outcome</t>
-        </is>
-      </c>
-      <c r="B217" t="inlineStr">
-        <is>
-          <t>Opioid Indicators</t>
-        </is>
-      </c>
-      <c r="C217" t="inlineStr"/>
-      <c r="D217" t="inlineStr"/>
-      <c r="E217" t="inlineStr"/>
-      <c r="F217" t="inlineStr"/>
-      <c r="G217" t="inlineStr"/>
-      <c r="H217" t="inlineStr"/>
-      <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="inlineStr"/>
-      <c r="N217" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O217" t="inlineStr"/>
-      <c r="P217" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Q217" t="inlineStr"/>
-      <c r="R217" t="inlineStr"/>
-      <c r="S217" t="inlineStr"/>
-      <c r="T217" t="inlineStr"/>
-      <c r="U217" t="inlineStr"/>
-      <c r="V217" t="inlineStr">
-        <is>
-          <t>OpRxRt</t>
-        </is>
-      </c>
-      <c r="W217" t="inlineStr">
-        <is>
-          <t>Opioid Prescription Rate</t>
-        </is>
-      </c>
-      <c r="X217" t="inlineStr"/>
-      <c r="Y217" t="inlineStr">
-        <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Opioid_Outcomes.md</t>
-        </is>
-      </c>
-      <c r="Z217" t="inlineStr">
-        <is>
-          <t>HepVu 2014-2022</t>
-        </is>
-      </c>
-      <c r="AA217" t="inlineStr">
-        <is>
-          <t>HepVu, Emory University Rollins School of Public Health, 2014-2022</t>
-        </is>
-      </c>
-      <c r="AB217" t="inlineStr"/>
-      <c r="AC217" t="inlineStr"/>
-      <c r="AD217" t="inlineStr"/>
-    </row>
-    <row r="218">
-      <c r="A218" t="inlineStr">
-        <is>
-          <t>Composite</t>
-        </is>
-      </c>
-      <c r="B218" t="inlineStr">
-        <is>
-          <t>Social Vulnerability Indices</t>
-        </is>
-      </c>
-      <c r="C218" t="inlineStr"/>
-      <c r="D218" t="inlineStr"/>
-      <c r="E218" t="inlineStr"/>
-      <c r="F218" t="inlineStr"/>
-      <c r="G218" t="inlineStr"/>
-      <c r="H218" t="inlineStr"/>
-      <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="M218" t="inlineStr"/>
-      <c r="N218" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O218" t="inlineStr"/>
-      <c r="P218" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Q218" t="inlineStr"/>
-      <c r="R218" t="inlineStr"/>
-      <c r="S218" t="inlineStr"/>
-      <c r="T218" t="inlineStr"/>
-      <c r="U218" t="inlineStr"/>
-      <c r="V218" t="inlineStr">
-        <is>
-          <t>SviSmryRnk</t>
-        </is>
-      </c>
-      <c r="W218" t="inlineStr">
-        <is>
-          <t>Social Vulnerability Index (SVI) Summary Ranking</t>
-        </is>
-      </c>
-      <c r="X218" t="inlineStr"/>
-      <c r="Y218" t="inlineStr">
-        <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Social_Vulnerability_Indices.md</t>
-        </is>
-      </c>
-      <c r="Z218" t="inlineStr">
-        <is>
-          <t>CDC 2018, 2020, 2022</t>
-        </is>
-      </c>
-      <c r="AA218" t="inlineStr">
-        <is>
-          <t>Centers for Disease Control, 2018, 2020, 2022</t>
-        </is>
-      </c>
-      <c r="AB218" t="inlineStr"/>
-      <c r="AC218" t="inlineStr"/>
-      <c r="AD218" t="inlineStr"/>
-    </row>
-    <row r="219">
-      <c r="A219" t="inlineStr">
-        <is>
-          <t>Composite</t>
-        </is>
-      </c>
-      <c r="B219" t="inlineStr">
-        <is>
-          <t>Social Vulnerability Indices</t>
-        </is>
-      </c>
-      <c r="C219" t="inlineStr"/>
-      <c r="D219" t="inlineStr"/>
-      <c r="E219" t="inlineStr"/>
-      <c r="F219" t="inlineStr"/>
-      <c r="G219" t="inlineStr"/>
-      <c r="H219" t="inlineStr"/>
-      <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="M219" t="inlineStr"/>
-      <c r="N219" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O219" t="inlineStr"/>
-      <c r="P219" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Q219" t="inlineStr"/>
-      <c r="R219" t="inlineStr"/>
-      <c r="S219" t="inlineStr"/>
-      <c r="T219" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="U219" t="inlineStr"/>
-      <c r="V219" t="inlineStr">
-        <is>
-          <t>SviTh1</t>
-        </is>
-      </c>
-      <c r="W219" t="inlineStr">
-        <is>
-          <t>Social Vulnerability Index (SVI) 1</t>
-        </is>
-      </c>
-      <c r="X219" t="inlineStr"/>
-      <c r="Y219" t="inlineStr">
-        <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Social_Vulnerability_Indices.md</t>
-        </is>
-      </c>
-      <c r="Z219" t="inlineStr">
-        <is>
-          <t>CDC 2018, 2020, 2022</t>
-        </is>
-      </c>
-      <c r="AA219" t="inlineStr">
-        <is>
-          <t>Centers for Disease Control, 2018, 2020, 2022</t>
-        </is>
-      </c>
-      <c r="AB219" t="inlineStr"/>
-      <c r="AC219" t="inlineStr"/>
-      <c r="AD219" t="inlineStr"/>
-    </row>
-    <row r="220">
-      <c r="A220" t="inlineStr">
-        <is>
-          <t>Composite</t>
-        </is>
-      </c>
-      <c r="B220" t="inlineStr">
-        <is>
-          <t>Social Vulnerability Indices</t>
-        </is>
-      </c>
-      <c r="C220" t="inlineStr"/>
-      <c r="D220" t="inlineStr"/>
-      <c r="E220" t="inlineStr"/>
-      <c r="F220" t="inlineStr"/>
-      <c r="G220" t="inlineStr"/>
-      <c r="H220" t="inlineStr"/>
-      <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="M220" t="inlineStr"/>
-      <c r="N220" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O220" t="inlineStr"/>
-      <c r="P220" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Q220" t="inlineStr"/>
-      <c r="R220" t="inlineStr"/>
-      <c r="S220" t="inlineStr"/>
-      <c r="T220" t="inlineStr"/>
-      <c r="U220" t="inlineStr"/>
-      <c r="V220" t="inlineStr">
-        <is>
-          <t>SviTh2</t>
-        </is>
-      </c>
-      <c r="W220" t="inlineStr">
-        <is>
-          <t>Social Vulnerability Index (SVI) 2</t>
-        </is>
-      </c>
-      <c r="X220" t="inlineStr"/>
-      <c r="Y220" t="inlineStr">
-        <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Social_Vulnerability_Indices.md</t>
-        </is>
-      </c>
-      <c r="Z220" t="inlineStr">
-        <is>
-          <t>CDC 2018, 2020, 2022</t>
-        </is>
-      </c>
-      <c r="AA220" t="inlineStr">
-        <is>
-          <t>Centers for Disease Control, 2018, 2020, 2022</t>
-        </is>
-      </c>
-      <c r="AB220" t="inlineStr"/>
-      <c r="AC220" t="inlineStr"/>
-      <c r="AD220" t="inlineStr"/>
-    </row>
-    <row r="221">
-      <c r="A221" t="inlineStr">
-        <is>
-          <t>Composite</t>
-        </is>
-      </c>
-      <c r="B221" t="inlineStr">
-        <is>
-          <t>Social Vulnerability Indices</t>
-        </is>
-      </c>
-      <c r="C221" t="inlineStr"/>
-      <c r="D221" t="inlineStr"/>
-      <c r="E221" t="inlineStr"/>
-      <c r="F221" t="inlineStr"/>
-      <c r="G221" t="inlineStr"/>
-      <c r="H221" t="inlineStr"/>
-      <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="M221" t="inlineStr"/>
-      <c r="N221" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O221" t="inlineStr"/>
-      <c r="P221" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Q221" t="inlineStr"/>
-      <c r="R221" t="inlineStr"/>
-      <c r="S221" t="inlineStr"/>
-      <c r="T221" t="inlineStr"/>
-      <c r="U221" t="inlineStr"/>
-      <c r="V221" t="inlineStr">
-        <is>
-          <t>SviTh3</t>
-        </is>
-      </c>
-      <c r="W221" t="inlineStr">
-        <is>
-          <t>Social Vulnerability Index (SVI) 3</t>
-        </is>
-      </c>
-      <c r="X221" t="inlineStr"/>
-      <c r="Y221" t="inlineStr">
-        <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Social_Vulnerability_Indices.md</t>
-        </is>
-      </c>
-      <c r="Z221" t="inlineStr">
-        <is>
-          <t>CDC 2018, 2020, 2022</t>
-        </is>
-      </c>
-      <c r="AA221" t="inlineStr">
-        <is>
-          <t>Centers for Disease Control, 2018, 2020, 2022</t>
-        </is>
-      </c>
-      <c r="AB221" t="inlineStr"/>
-      <c r="AC221" t="inlineStr"/>
-      <c r="AD221" t="inlineStr"/>
-    </row>
-    <row r="222">
-      <c r="A222" t="inlineStr">
-        <is>
-          <t>Composite</t>
-        </is>
-      </c>
-      <c r="B222" t="inlineStr">
-        <is>
-          <t>Social Vulnerability Indices</t>
-        </is>
-      </c>
-      <c r="C222" t="inlineStr"/>
-      <c r="D222" t="inlineStr"/>
-      <c r="E222" t="inlineStr"/>
-      <c r="F222" t="inlineStr"/>
-      <c r="G222" t="inlineStr"/>
-      <c r="H222" t="inlineStr"/>
-      <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="M222" t="inlineStr"/>
-      <c r="N222" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O222" t="inlineStr"/>
-      <c r="P222" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Q222" t="inlineStr"/>
-      <c r="R222" t="inlineStr"/>
-      <c r="S222" t="inlineStr"/>
-      <c r="T222" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="U222" t="inlineStr"/>
-      <c r="V222" t="inlineStr">
-        <is>
-          <t>SviTh4</t>
-        </is>
-      </c>
-      <c r="W222" t="inlineStr">
-        <is>
-          <t>Social Vulnerability Index (SVI) 4</t>
-        </is>
-      </c>
-      <c r="X222" t="inlineStr"/>
-      <c r="Y222" t="inlineStr">
-        <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Social_Vulnerability_Indices.md</t>
-        </is>
-      </c>
-      <c r="Z222" t="inlineStr">
-        <is>
-          <t>CDC 2018, 2020, 2022</t>
-        </is>
-      </c>
-      <c r="AA222" t="inlineStr">
-        <is>
-          <t>Centers for Disease Control, 2018, 2020, 2022</t>
-        </is>
-      </c>
-      <c r="AB222" t="inlineStr"/>
-      <c r="AC222" t="inlineStr"/>
-      <c r="AD222" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
